--- a/AAII_Financials/Yearly/TMICY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TMICY_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="92">
   <si>
     <t>TMICY</t>
   </si>
@@ -295,6 +295,9 @@
   </si>
   <si>
     <t xml:space="preserve">Change In Cash and Cash Equivalents </t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -653,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,141 +665,153 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1458100</v>
+        <v>1534700</v>
       </c>
       <c r="E8" s="3">
-        <v>1352700</v>
+        <v>1490200</v>
       </c>
       <c r="F8" s="3">
-        <v>1199300</v>
+        <v>1382500</v>
       </c>
       <c r="G8" s="3">
-        <v>1130000</v>
+        <v>1225700</v>
       </c>
       <c r="H8" s="3">
-        <v>1047200</v>
+        <v>1154900</v>
       </c>
       <c r="I8" s="3">
-        <v>984600</v>
+        <v>1070300</v>
       </c>
       <c r="J8" s="3">
+        <v>1006200</v>
+      </c>
+      <c r="K8" s="3">
         <v>853000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>855000</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>297500</v>
+        <v>300100</v>
       </c>
       <c r="E9" s="3">
-        <v>255800</v>
+        <v>304000</v>
       </c>
       <c r="F9" s="3">
-        <v>209400</v>
+        <v>261400</v>
       </c>
       <c r="G9" s="3">
-        <v>193400</v>
+        <v>214000</v>
       </c>
       <c r="H9" s="3">
-        <v>185700</v>
+        <v>197600</v>
       </c>
       <c r="I9" s="3">
-        <v>176100</v>
+        <v>189800</v>
       </c>
       <c r="J9" s="3">
+        <v>180000</v>
+      </c>
+      <c r="K9" s="3">
         <v>159200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>158700</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1160600</v>
+        <v>1234600</v>
       </c>
       <c r="E10" s="3">
-        <v>1096900</v>
+        <v>1186200</v>
       </c>
       <c r="F10" s="3">
-        <v>989900</v>
+        <v>1121100</v>
       </c>
       <c r="G10" s="3">
-        <v>936700</v>
+        <v>1011600</v>
       </c>
       <c r="H10" s="3">
-        <v>861500</v>
+        <v>957300</v>
       </c>
       <c r="I10" s="3">
-        <v>808400</v>
+        <v>880500</v>
       </c>
       <c r="J10" s="3">
+        <v>826200</v>
+      </c>
+      <c r="K10" s="3">
         <v>693800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>696300</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -809,38 +824,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>67700</v>
+        <v>76500</v>
       </c>
       <c r="E12" s="3">
-        <v>70800</v>
+        <v>69200</v>
       </c>
       <c r="F12" s="3">
-        <v>47900</v>
+        <v>72400</v>
       </c>
       <c r="G12" s="3">
-        <v>34300</v>
+        <v>49000</v>
       </c>
       <c r="H12" s="3">
-        <v>26600</v>
+        <v>35100</v>
       </c>
       <c r="I12" s="3">
-        <v>38000</v>
+        <v>27200</v>
       </c>
       <c r="J12" s="3">
+        <v>38900</v>
+      </c>
+      <c r="K12" s="3">
         <v>34400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>30800</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -868,39 +887,45 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>600</v>
+      </c>
+      <c r="E14" s="3">
         <v>3100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>400</v>
       </c>
-      <c r="F14" s="3">
-        <v>3400</v>
-      </c>
       <c r="G14" s="3">
-        <v>6800</v>
+        <v>3500</v>
       </c>
       <c r="H14" s="3">
+        <v>7000</v>
+      </c>
+      <c r="I14" s="3">
         <v>2100</v>
       </c>
-      <c r="I14" s="3">
-        <v>7800</v>
-      </c>
       <c r="J14" s="3">
+        <v>7900</v>
+      </c>
+      <c r="K14" s="3">
         <v>-31300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-42100</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -928,9 +953,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -940,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1135400</v>
+        <v>1185200</v>
       </c>
       <c r="E17" s="3">
-        <v>1021800</v>
+        <v>1160400</v>
       </c>
       <c r="F17" s="3">
-        <v>890400</v>
+        <v>1044300</v>
       </c>
       <c r="G17" s="3">
-        <v>855300</v>
+        <v>910000</v>
       </c>
       <c r="H17" s="3">
-        <v>743400</v>
+        <v>874100</v>
       </c>
       <c r="I17" s="3">
-        <v>724600</v>
+        <v>759700</v>
       </c>
       <c r="J17" s="3">
+        <v>740600</v>
+      </c>
+      <c r="K17" s="3">
         <v>618000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>579000</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>322700</v>
+        <v>349500</v>
       </c>
       <c r="E18" s="3">
-        <v>330900</v>
+        <v>329800</v>
       </c>
       <c r="F18" s="3">
-        <v>308900</v>
+        <v>338100</v>
       </c>
       <c r="G18" s="3">
-        <v>274800</v>
+        <v>315700</v>
       </c>
       <c r="H18" s="3">
-        <v>303800</v>
+        <v>280800</v>
       </c>
       <c r="I18" s="3">
-        <v>259900</v>
+        <v>310500</v>
       </c>
       <c r="J18" s="3">
+        <v>265700</v>
+      </c>
+      <c r="K18" s="3">
         <v>235000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>276000</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1014,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>15400</v>
+        <v>14100</v>
       </c>
       <c r="E20" s="3">
-        <v>6400</v>
+        <v>15700</v>
       </c>
       <c r="F20" s="3">
-        <v>15800</v>
+        <v>6500</v>
       </c>
       <c r="G20" s="3">
-        <v>34700</v>
+        <v>16200</v>
       </c>
       <c r="H20" s="3">
-        <v>23800</v>
+        <v>35400</v>
       </c>
       <c r="I20" s="3">
-        <v>31000</v>
+        <v>24300</v>
       </c>
       <c r="J20" s="3">
+        <v>31700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-13100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-22100</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>483100</v>
+        <v>510400</v>
       </c>
       <c r="E21" s="3">
-        <v>464300</v>
+        <v>493200</v>
       </c>
       <c r="F21" s="3">
-        <v>426700</v>
+        <v>474100</v>
       </c>
       <c r="G21" s="3">
-        <v>384600</v>
+        <v>435700</v>
       </c>
       <c r="H21" s="3">
-        <v>397000</v>
+        <v>392800</v>
       </c>
       <c r="I21" s="3">
-        <v>357000</v>
+        <v>405500</v>
       </c>
       <c r="J21" s="3">
+        <v>364600</v>
+      </c>
+      <c r="K21" s="3">
         <v>290200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>319000</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
       </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>338100</v>
+        <v>363600</v>
       </c>
       <c r="E23" s="3">
-        <v>337200</v>
+        <v>345500</v>
       </c>
       <c r="F23" s="3">
-        <v>324700</v>
+        <v>344600</v>
       </c>
       <c r="G23" s="3">
-        <v>309400</v>
+        <v>331800</v>
       </c>
       <c r="H23" s="3">
-        <v>327500</v>
+        <v>316200</v>
       </c>
       <c r="I23" s="3">
-        <v>290900</v>
+        <v>334700</v>
       </c>
       <c r="J23" s="3">
+        <v>297300</v>
+      </c>
+      <c r="K23" s="3">
         <v>221800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>253900</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>80800</v>
+        <v>105200</v>
       </c>
       <c r="E24" s="3">
-        <v>103700</v>
+        <v>82600</v>
       </c>
       <c r="F24" s="3">
-        <v>100600</v>
+        <v>105900</v>
       </c>
       <c r="G24" s="3">
-        <v>114500</v>
+        <v>102800</v>
       </c>
       <c r="H24" s="3">
-        <v>124700</v>
+        <v>117100</v>
       </c>
       <c r="I24" s="3">
-        <v>112800</v>
+        <v>127500</v>
       </c>
       <c r="J24" s="3">
+        <v>115300</v>
+      </c>
+      <c r="K24" s="3">
         <v>99600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>100000</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1193,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>257200</v>
+        <v>258400</v>
       </c>
       <c r="E26" s="3">
-        <v>233500</v>
+        <v>262900</v>
       </c>
       <c r="F26" s="3">
-        <v>224100</v>
+        <v>238700</v>
       </c>
       <c r="G26" s="3">
-        <v>194900</v>
+        <v>229000</v>
       </c>
       <c r="H26" s="3">
-        <v>202700</v>
+        <v>199100</v>
       </c>
       <c r="I26" s="3">
-        <v>178100</v>
+        <v>207200</v>
       </c>
       <c r="J26" s="3">
+        <v>182000</v>
+      </c>
+      <c r="K26" s="3">
         <v>122200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>153900</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>257400</v>
+        <v>259600</v>
       </c>
       <c r="E27" s="3">
-        <v>233500</v>
+        <v>263000</v>
       </c>
       <c r="F27" s="3">
-        <v>224100</v>
+        <v>238700</v>
       </c>
       <c r="G27" s="3">
-        <v>194800</v>
+        <v>229000</v>
       </c>
       <c r="H27" s="3">
-        <v>202700</v>
+        <v>199100</v>
       </c>
       <c r="I27" s="3">
-        <v>178100</v>
+        <v>207200</v>
       </c>
       <c r="J27" s="3">
+        <v>182000</v>
+      </c>
+      <c r="K27" s="3">
         <v>122200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>153800</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1283,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1313,9 +1376,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1343,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1373,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-15400</v>
+        <v>-14100</v>
       </c>
       <c r="E32" s="3">
-        <v>-6400</v>
+        <v>-15700</v>
       </c>
       <c r="F32" s="3">
-        <v>-15800</v>
+        <v>-6500</v>
       </c>
       <c r="G32" s="3">
-        <v>-34700</v>
+        <v>-16200</v>
       </c>
       <c r="H32" s="3">
-        <v>-23800</v>
+        <v>-35400</v>
       </c>
       <c r="I32" s="3">
-        <v>-31000</v>
+        <v>-24300</v>
       </c>
       <c r="J32" s="3">
+        <v>-31700</v>
+      </c>
+      <c r="K32" s="3">
         <v>13100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>22100</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>257400</v>
+        <v>259600</v>
       </c>
       <c r="E33" s="3">
-        <v>233500</v>
+        <v>263000</v>
       </c>
       <c r="F33" s="3">
-        <v>224100</v>
+        <v>238700</v>
       </c>
       <c r="G33" s="3">
-        <v>194800</v>
+        <v>229000</v>
       </c>
       <c r="H33" s="3">
-        <v>202700</v>
+        <v>199100</v>
       </c>
       <c r="I33" s="3">
-        <v>178100</v>
+        <v>207200</v>
       </c>
       <c r="J33" s="3">
+        <v>182000</v>
+      </c>
+      <c r="K33" s="3">
         <v>122200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>153800</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1463,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>257400</v>
+        <v>259600</v>
       </c>
       <c r="E35" s="3">
-        <v>233500</v>
+        <v>263000</v>
       </c>
       <c r="F35" s="3">
-        <v>224100</v>
+        <v>238700</v>
       </c>
       <c r="G35" s="3">
-        <v>194800</v>
+        <v>229000</v>
       </c>
       <c r="H35" s="3">
-        <v>202700</v>
+        <v>199100</v>
       </c>
       <c r="I35" s="3">
-        <v>178100</v>
+        <v>207200</v>
       </c>
       <c r="J35" s="3">
+        <v>182000</v>
+      </c>
+      <c r="K35" s="3">
         <v>122200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>153800</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1543,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1557,278 +1645,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1058900</v>
+        <v>1159800</v>
       </c>
       <c r="E41" s="3">
-        <v>780800</v>
+        <v>1081100</v>
       </c>
       <c r="F41" s="3">
-        <v>768200</v>
+        <v>797100</v>
       </c>
       <c r="G41" s="3">
-        <v>671200</v>
+        <v>784200</v>
       </c>
       <c r="H41" s="3">
-        <v>573700</v>
+        <v>685200</v>
       </c>
       <c r="I41" s="3">
-        <v>723900</v>
+        <v>585700</v>
       </c>
       <c r="J41" s="3">
+        <v>739000</v>
+      </c>
+      <c r="K41" s="3">
         <v>497500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>637600</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>557100</v>
+        <v>441900</v>
       </c>
       <c r="E42" s="3">
-        <v>604800</v>
+        <v>568800</v>
       </c>
       <c r="F42" s="3">
-        <v>455900</v>
+        <v>617400</v>
       </c>
       <c r="G42" s="3">
-        <v>653700</v>
+        <v>465400</v>
       </c>
       <c r="H42" s="3">
-        <v>675600</v>
+        <v>667400</v>
       </c>
       <c r="I42" s="3">
-        <v>554100</v>
+        <v>689800</v>
       </c>
       <c r="J42" s="3">
+        <v>565700</v>
+      </c>
+      <c r="K42" s="3">
         <v>582800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>334700</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>354400</v>
+        <v>417000</v>
       </c>
       <c r="E43" s="3">
-        <v>361600</v>
+        <v>361800</v>
       </c>
       <c r="F43" s="3">
-        <v>323200</v>
+        <v>369100</v>
       </c>
       <c r="G43" s="3">
-        <v>272400</v>
+        <v>329900</v>
       </c>
       <c r="H43" s="3">
-        <v>237000</v>
+        <v>278100</v>
       </c>
       <c r="I43" s="3">
-        <v>221200</v>
+        <v>241900</v>
       </c>
       <c r="J43" s="3">
+        <v>225800</v>
+      </c>
+      <c r="K43" s="3">
         <v>189900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>185900</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>66800</v>
+        <v>38100</v>
       </c>
       <c r="E44" s="3">
-        <v>27100</v>
+        <v>68200</v>
       </c>
       <c r="F44" s="3">
-        <v>15600</v>
+        <v>27700</v>
       </c>
       <c r="G44" s="3">
-        <v>7400</v>
+        <v>15900</v>
       </c>
       <c r="H44" s="3">
-        <v>4800</v>
+        <v>7500</v>
       </c>
       <c r="I44" s="3">
-        <v>3700</v>
+        <v>4900</v>
       </c>
       <c r="J44" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K44" s="3">
         <v>3400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3800</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>195200</v>
+        <v>52900</v>
       </c>
       <c r="E45" s="3">
-        <v>196400</v>
+        <v>199300</v>
       </c>
       <c r="F45" s="3">
-        <v>210000</v>
+        <v>200500</v>
       </c>
       <c r="G45" s="3">
-        <v>226900</v>
+        <v>214400</v>
       </c>
       <c r="H45" s="3">
-        <v>179700</v>
+        <v>231600</v>
       </c>
       <c r="I45" s="3">
-        <v>175300</v>
+        <v>183400</v>
       </c>
       <c r="J45" s="3">
+        <v>179000</v>
+      </c>
+      <c r="K45" s="3">
         <v>174100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>179300</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>2052300</v>
+        <v>2109800</v>
       </c>
       <c r="E46" s="3">
-        <v>1970600</v>
+        <v>2095200</v>
       </c>
       <c r="F46" s="3">
-        <v>1772800</v>
+        <v>2011800</v>
       </c>
       <c r="G46" s="3">
-        <v>1831500</v>
+        <v>1809900</v>
       </c>
       <c r="H46" s="3">
-        <v>1670700</v>
+        <v>1869800</v>
       </c>
       <c r="I46" s="3">
-        <v>1678100</v>
+        <v>1705700</v>
       </c>
       <c r="J46" s="3">
+        <v>1713200</v>
+      </c>
+      <c r="K46" s="3">
         <v>1447700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1341300</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>406600</v>
+        <v>463900</v>
       </c>
       <c r="E47" s="3">
-        <v>476300</v>
+        <v>415100</v>
       </c>
       <c r="F47" s="3">
-        <v>461100</v>
+        <v>486200</v>
       </c>
       <c r="G47" s="3">
-        <v>570900</v>
+        <v>470700</v>
       </c>
       <c r="H47" s="3">
-        <v>627600</v>
+        <v>582800</v>
       </c>
       <c r="I47" s="3">
-        <v>464800</v>
+        <v>640700</v>
       </c>
       <c r="J47" s="3">
+        <v>474500</v>
+      </c>
+      <c r="K47" s="3">
         <v>322500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>208300</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>79700</v>
+        <v>91500</v>
       </c>
       <c r="E48" s="3">
-        <v>74700</v>
+        <v>81400</v>
       </c>
       <c r="F48" s="3">
-        <v>59500</v>
+        <v>76300</v>
       </c>
       <c r="G48" s="3">
-        <v>52600</v>
+        <v>60800</v>
       </c>
       <c r="H48" s="3">
-        <v>45000</v>
+        <v>53700</v>
       </c>
       <c r="I48" s="3">
-        <v>41700</v>
+        <v>45900</v>
       </c>
       <c r="J48" s="3">
+        <v>42500</v>
+      </c>
+      <c r="K48" s="3">
         <v>40300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>45700</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>319200</v>
+        <v>335700</v>
       </c>
       <c r="E49" s="3">
-        <v>366300</v>
+        <v>325800</v>
       </c>
       <c r="F49" s="3">
-        <v>386700</v>
+        <v>373900</v>
       </c>
       <c r="G49" s="3">
-        <v>74600</v>
+        <v>394700</v>
       </c>
       <c r="H49" s="3">
-        <v>85700</v>
+        <v>76200</v>
       </c>
       <c r="I49" s="3">
-        <v>83300</v>
+        <v>87500</v>
       </c>
       <c r="J49" s="3">
+        <v>85000</v>
+      </c>
+      <c r="K49" s="3">
         <v>71500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>84400</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -1856,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -1886,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>288800</v>
+        <v>337200</v>
       </c>
       <c r="E52" s="3">
-        <v>122300</v>
+        <v>294900</v>
       </c>
       <c r="F52" s="3">
-        <v>124500</v>
+        <v>124900</v>
       </c>
       <c r="G52" s="3">
-        <v>111200</v>
+        <v>127100</v>
       </c>
       <c r="H52" s="3">
-        <v>115600</v>
+        <v>113500</v>
       </c>
       <c r="I52" s="3">
-        <v>109100</v>
+        <v>118000</v>
       </c>
       <c r="J52" s="3">
+        <v>111400</v>
+      </c>
+      <c r="K52" s="3">
         <v>108700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>109900</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -1946,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>3146600</v>
+        <v>3338100</v>
       </c>
       <c r="E54" s="3">
-        <v>3010200</v>
+        <v>3212400</v>
       </c>
       <c r="F54" s="3">
-        <v>2804600</v>
+        <v>3073100</v>
       </c>
       <c r="G54" s="3">
-        <v>2640800</v>
+        <v>2863200</v>
       </c>
       <c r="H54" s="3">
-        <v>2544600</v>
+        <v>2696000</v>
       </c>
       <c r="I54" s="3">
-        <v>2377000</v>
+        <v>2597800</v>
       </c>
       <c r="J54" s="3">
+        <v>2426700</v>
+      </c>
+      <c r="K54" s="3">
         <v>1990800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1789600</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -1991,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2005,38 +2137,42 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>14700</v>
+        <v>11200</v>
       </c>
       <c r="E57" s="3">
+        <v>15100</v>
+      </c>
+      <c r="F57" s="3">
+        <v>6800</v>
+      </c>
+      <c r="G57" s="3">
+        <v>8300</v>
+      </c>
+      <c r="H57" s="3">
+        <v>5200</v>
+      </c>
+      <c r="I57" s="3">
+        <v>6200</v>
+      </c>
+      <c r="J57" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K57" s="3">
         <v>6600</v>
       </c>
-      <c r="F57" s="3">
-        <v>8100</v>
-      </c>
-      <c r="G57" s="3">
-        <v>5100</v>
-      </c>
-      <c r="H57" s="3">
-        <v>6100</v>
-      </c>
-      <c r="I57" s="3">
-        <v>4400</v>
-      </c>
-      <c r="J57" s="3">
-        <v>6600</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7900</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
@@ -2064,69 +2200,78 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>998500</v>
+        <v>1098400</v>
       </c>
       <c r="E59" s="3">
-        <v>982000</v>
+        <v>1019300</v>
       </c>
       <c r="F59" s="3">
-        <v>916300</v>
+        <v>1002600</v>
       </c>
       <c r="G59" s="3">
-        <v>854300</v>
+        <v>935400</v>
       </c>
       <c r="H59" s="3">
-        <v>837300</v>
+        <v>872100</v>
       </c>
       <c r="I59" s="3">
-        <v>787000</v>
+        <v>854800</v>
       </c>
       <c r="J59" s="3">
+        <v>803500</v>
+      </c>
+      <c r="K59" s="3">
         <v>702800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>625500</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>1013200</v>
+        <v>1109500</v>
       </c>
       <c r="E60" s="3">
-        <v>988700</v>
+        <v>1034400</v>
       </c>
       <c r="F60" s="3">
-        <v>924400</v>
+        <v>1009300</v>
       </c>
       <c r="G60" s="3">
-        <v>859400</v>
+        <v>943700</v>
       </c>
       <c r="H60" s="3">
-        <v>843400</v>
+        <v>877300</v>
       </c>
       <c r="I60" s="3">
-        <v>791400</v>
+        <v>861000</v>
       </c>
       <c r="J60" s="3">
+        <v>808000</v>
+      </c>
+      <c r="K60" s="3">
         <v>709400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>633300</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
@@ -2154,39 +2299,45 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>432800</v>
+        <v>489300</v>
       </c>
       <c r="E62" s="3">
-        <v>411900</v>
+        <v>441900</v>
       </c>
       <c r="F62" s="3">
-        <v>367000</v>
+        <v>420500</v>
       </c>
       <c r="G62" s="3">
-        <v>329900</v>
+        <v>374700</v>
       </c>
       <c r="H62" s="3">
-        <v>309600</v>
+        <v>336800</v>
       </c>
       <c r="I62" s="3">
-        <v>289900</v>
+        <v>316100</v>
       </c>
       <c r="J62" s="3">
+        <v>295900</v>
+      </c>
+      <c r="K62" s="3">
         <v>249700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>204000</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2214,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2244,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2274,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>1446700</v>
+        <v>1600200</v>
       </c>
       <c r="E66" s="3">
-        <v>1400600</v>
+        <v>1476900</v>
       </c>
       <c r="F66" s="3">
-        <v>1291400</v>
+        <v>1429900</v>
       </c>
       <c r="G66" s="3">
-        <v>1189200</v>
+        <v>1318400</v>
       </c>
       <c r="H66" s="3">
-        <v>1153100</v>
+        <v>1214100</v>
       </c>
       <c r="I66" s="3">
-        <v>1081400</v>
+        <v>1177200</v>
       </c>
       <c r="J66" s="3">
+        <v>1104000</v>
+      </c>
+      <c r="K66" s="3">
         <v>959200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>837800</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2319,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2348,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2378,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2408,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2438,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>1360100</v>
+        <v>1437400</v>
       </c>
       <c r="E72" s="3">
-        <v>1294900</v>
+        <v>1388500</v>
       </c>
       <c r="F72" s="3">
-        <v>1236700</v>
+        <v>1322000</v>
       </c>
       <c r="G72" s="3">
-        <v>1150200</v>
+        <v>1262600</v>
       </c>
       <c r="H72" s="3">
-        <v>1104600</v>
+        <v>1174300</v>
       </c>
       <c r="I72" s="3">
-        <v>1052900</v>
+        <v>1127600</v>
       </c>
       <c r="J72" s="3">
+        <v>1074900</v>
+      </c>
+      <c r="K72" s="3">
         <v>969600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>889800</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2498,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2528,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2558,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>1699900</v>
+        <v>1737900</v>
       </c>
       <c r="E76" s="3">
-        <v>1609600</v>
+        <v>1735400</v>
       </c>
       <c r="F76" s="3">
-        <v>1513200</v>
+        <v>1643200</v>
       </c>
       <c r="G76" s="3">
-        <v>1451600</v>
+        <v>1544800</v>
       </c>
       <c r="H76" s="3">
-        <v>1391500</v>
+        <v>1481900</v>
       </c>
       <c r="I76" s="3">
-        <v>1295600</v>
+        <v>1420600</v>
       </c>
       <c r="J76" s="3">
+        <v>1322700</v>
+      </c>
+      <c r="K76" s="3">
         <v>1031600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>951800</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2618,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>257400</v>
+        <v>259600</v>
       </c>
       <c r="E81" s="3">
-        <v>233500</v>
+        <v>263000</v>
       </c>
       <c r="F81" s="3">
-        <v>224100</v>
+        <v>238700</v>
       </c>
       <c r="G81" s="3">
-        <v>194800</v>
+        <v>229000</v>
       </c>
       <c r="H81" s="3">
-        <v>202700</v>
+        <v>199100</v>
       </c>
       <c r="I81" s="3">
-        <v>178100</v>
+        <v>207200</v>
       </c>
       <c r="J81" s="3">
+        <v>182000</v>
+      </c>
+      <c r="K81" s="3">
         <v>122200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>153800</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -2698,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>144700</v>
+        <v>146900</v>
       </c>
       <c r="E83" s="3">
-        <v>126800</v>
+        <v>147800</v>
       </c>
       <c r="F83" s="3">
-        <v>101700</v>
+        <v>129600</v>
       </c>
       <c r="G83" s="3">
-        <v>75000</v>
+        <v>104000</v>
       </c>
       <c r="H83" s="3">
-        <v>69200</v>
+        <v>76700</v>
       </c>
       <c r="I83" s="3">
-        <v>65800</v>
+        <v>70700</v>
       </c>
       <c r="J83" s="3">
+        <v>67300</v>
+      </c>
+      <c r="K83" s="3">
         <v>68100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>65100</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -2757,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -2787,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -2817,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -2847,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -2877,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>454100</v>
+        <v>419000</v>
       </c>
       <c r="E89" s="3">
-        <v>426500</v>
+        <v>464100</v>
       </c>
       <c r="F89" s="3">
-        <v>304600</v>
+        <v>435800</v>
       </c>
       <c r="G89" s="3">
-        <v>277100</v>
+        <v>311300</v>
       </c>
       <c r="H89" s="3">
-        <v>290400</v>
+        <v>283200</v>
       </c>
       <c r="I89" s="3">
-        <v>279400</v>
+        <v>296700</v>
       </c>
       <c r="J89" s="3">
+        <v>285500</v>
+      </c>
+      <c r="K89" s="3">
         <v>286600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>231700</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -2922,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-32400</v>
+        <v>-37500</v>
       </c>
       <c r="E91" s="3">
-        <v>-41800</v>
+        <v>-33100</v>
       </c>
       <c r="F91" s="3">
-        <v>-27100</v>
+        <v>-42700</v>
       </c>
       <c r="G91" s="3">
-        <v>-32100</v>
+        <v>-27700</v>
       </c>
       <c r="H91" s="3">
-        <v>-18500</v>
+        <v>-32800</v>
       </c>
       <c r="I91" s="3">
-        <v>-16700</v>
+        <v>-18900</v>
       </c>
       <c r="J91" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-10800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-61900</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -2981,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -3011,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>7500</v>
+        <v>-13700</v>
       </c>
       <c r="E94" s="3">
-        <v>-307400</v>
+        <v>7600</v>
       </c>
       <c r="F94" s="3">
-        <v>117500</v>
+        <v>-314200</v>
       </c>
       <c r="G94" s="3">
-        <v>-44800</v>
+        <v>120100</v>
       </c>
       <c r="H94" s="3">
-        <v>-299300</v>
+        <v>-45800</v>
       </c>
       <c r="I94" s="3">
-        <v>-146800</v>
+        <v>-305800</v>
       </c>
       <c r="J94" s="3">
+        <v>-150000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-414900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-23200</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -3056,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-179900</v>
+        <v>-204300</v>
       </c>
       <c r="E96" s="3">
-        <v>-169800</v>
+        <v>-183800</v>
       </c>
       <c r="F96" s="3">
-        <v>-131800</v>
+        <v>-173500</v>
       </c>
       <c r="G96" s="3">
-        <v>-134900</v>
+        <v>-134600</v>
       </c>
       <c r="H96" s="3">
-        <v>-143300</v>
+        <v>-137900</v>
       </c>
       <c r="I96" s="3">
-        <v>-76500</v>
+        <v>-146500</v>
       </c>
       <c r="J96" s="3">
+        <v>-78200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-98200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-79200</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3115,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3145,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3175,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-120200</v>
+        <v>-241100</v>
       </c>
       <c r="E100" s="3">
-        <v>-153700</v>
+        <v>-122800</v>
       </c>
       <c r="F100" s="3">
-        <v>-136800</v>
+        <v>-157100</v>
       </c>
       <c r="G100" s="3">
-        <v>-84700</v>
+        <v>-139800</v>
       </c>
       <c r="H100" s="3">
-        <v>-153500</v>
+        <v>-86600</v>
       </c>
       <c r="I100" s="3">
-        <v>-1900</v>
+        <v>-156900</v>
       </c>
       <c r="J100" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-101200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-120300</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-39700</v>
+        <v>-11000</v>
       </c>
       <c r="E101" s="3">
-        <v>-1100</v>
+        <v>-40600</v>
       </c>
       <c r="F101" s="3">
-        <v>2800</v>
+        <v>-1200</v>
       </c>
       <c r="G101" s="3">
-        <v>-38400</v>
+        <v>2900</v>
       </c>
       <c r="H101" s="3">
-        <v>23500</v>
+        <v>-39300</v>
       </c>
       <c r="I101" s="3">
-        <v>83000</v>
+        <v>24000</v>
       </c>
       <c r="J101" s="3">
+        <v>84800</v>
+      </c>
+      <c r="K101" s="3">
         <v>41100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-25800</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>301700</v>
+        <v>153300</v>
       </c>
       <c r="E102" s="3">
-        <v>-35800</v>
+        <v>308300</v>
       </c>
       <c r="F102" s="3">
-        <v>288100</v>
+        <v>-36600</v>
       </c>
       <c r="G102" s="3">
-        <v>109200</v>
+        <v>294500</v>
       </c>
       <c r="H102" s="3">
-        <v>-138900</v>
+        <v>111600</v>
       </c>
       <c r="I102" s="3">
-        <v>213600</v>
+        <v>-142000</v>
       </c>
       <c r="J102" s="3">
+        <v>218300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-188400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>62400</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/TMICY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TMICY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1534700</v>
+        <v>1559400</v>
       </c>
       <c r="E8" s="3">
-        <v>1490200</v>
+        <v>1514300</v>
       </c>
       <c r="F8" s="3">
-        <v>1382500</v>
+        <v>1404800</v>
       </c>
       <c r="G8" s="3">
-        <v>1225700</v>
+        <v>1245500</v>
       </c>
       <c r="H8" s="3">
-        <v>1154900</v>
+        <v>1173600</v>
       </c>
       <c r="I8" s="3">
-        <v>1070300</v>
+        <v>1087500</v>
       </c>
       <c r="J8" s="3">
-        <v>1006200</v>
+        <v>1022500</v>
       </c>
       <c r="K8" s="3">
         <v>853000</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>300100</v>
+        <v>304900</v>
       </c>
       <c r="E9" s="3">
-        <v>304000</v>
+        <v>309000</v>
       </c>
       <c r="F9" s="3">
-        <v>261400</v>
+        <v>265600</v>
       </c>
       <c r="G9" s="3">
-        <v>214000</v>
+        <v>217500</v>
       </c>
       <c r="H9" s="3">
-        <v>197600</v>
+        <v>200800</v>
       </c>
       <c r="I9" s="3">
-        <v>189800</v>
+        <v>192900</v>
       </c>
       <c r="J9" s="3">
-        <v>180000</v>
+        <v>182900</v>
       </c>
       <c r="K9" s="3">
         <v>159200</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1234600</v>
+        <v>1254500</v>
       </c>
       <c r="E10" s="3">
-        <v>1186200</v>
+        <v>1205300</v>
       </c>
       <c r="F10" s="3">
-        <v>1121100</v>
+        <v>1139200</v>
       </c>
       <c r="G10" s="3">
-        <v>1011600</v>
+        <v>1028000</v>
       </c>
       <c r="H10" s="3">
-        <v>957300</v>
+        <v>972700</v>
       </c>
       <c r="I10" s="3">
-        <v>880500</v>
+        <v>894700</v>
       </c>
       <c r="J10" s="3">
-        <v>826200</v>
+        <v>839600</v>
       </c>
       <c r="K10" s="3">
         <v>693800</v>
@@ -831,25 +831,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>76500</v>
+        <v>77700</v>
       </c>
       <c r="E12" s="3">
-        <v>69200</v>
+        <v>70300</v>
       </c>
       <c r="F12" s="3">
-        <v>72400</v>
+        <v>73500</v>
       </c>
       <c r="G12" s="3">
-        <v>49000</v>
+        <v>49700</v>
       </c>
       <c r="H12" s="3">
-        <v>35100</v>
+        <v>35600</v>
       </c>
       <c r="I12" s="3">
-        <v>27200</v>
+        <v>27600</v>
       </c>
       <c r="J12" s="3">
-        <v>38900</v>
+        <v>39500</v>
       </c>
       <c r="K12" s="3">
         <v>34400</v>
@@ -897,10 +897,10 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E14" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="F14" s="3">
         <v>400</v>
@@ -909,13 +909,13 @@
         <v>3500</v>
       </c>
       <c r="H14" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="I14" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="J14" s="3">
-        <v>7900</v>
+        <v>8100</v>
       </c>
       <c r="K14" s="3">
         <v>-31300</v>
@@ -975,25 +975,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1185200</v>
+        <v>1204300</v>
       </c>
       <c r="E17" s="3">
-        <v>1160400</v>
+        <v>1179200</v>
       </c>
       <c r="F17" s="3">
-        <v>1044300</v>
+        <v>1061200</v>
       </c>
       <c r="G17" s="3">
-        <v>910000</v>
+        <v>924600</v>
       </c>
       <c r="H17" s="3">
-        <v>874100</v>
+        <v>888200</v>
       </c>
       <c r="I17" s="3">
-        <v>759700</v>
+        <v>772000</v>
       </c>
       <c r="J17" s="3">
-        <v>740600</v>
+        <v>752500</v>
       </c>
       <c r="K17" s="3">
         <v>618000</v>
@@ -1008,25 +1008,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>349500</v>
+        <v>355100</v>
       </c>
       <c r="E18" s="3">
-        <v>329800</v>
+        <v>335100</v>
       </c>
       <c r="F18" s="3">
-        <v>338100</v>
+        <v>343600</v>
       </c>
       <c r="G18" s="3">
-        <v>315700</v>
+        <v>320800</v>
       </c>
       <c r="H18" s="3">
-        <v>280800</v>
+        <v>285300</v>
       </c>
       <c r="I18" s="3">
-        <v>310500</v>
+        <v>315500</v>
       </c>
       <c r="J18" s="3">
-        <v>265700</v>
+        <v>270000</v>
       </c>
       <c r="K18" s="3">
         <v>235000</v>
@@ -1056,25 +1056,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>14100</v>
+        <v>14400</v>
       </c>
       <c r="E20" s="3">
-        <v>15700</v>
+        <v>16000</v>
       </c>
       <c r="F20" s="3">
-        <v>6500</v>
+        <v>6600</v>
       </c>
       <c r="G20" s="3">
-        <v>16200</v>
+        <v>16400</v>
       </c>
       <c r="H20" s="3">
-        <v>35400</v>
+        <v>36000</v>
       </c>
       <c r="I20" s="3">
-        <v>24300</v>
+        <v>24700</v>
       </c>
       <c r="J20" s="3">
-        <v>31700</v>
+        <v>32200</v>
       </c>
       <c r="K20" s="3">
         <v>-13100</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>510400</v>
+        <v>518200</v>
       </c>
       <c r="E21" s="3">
-        <v>493200</v>
+        <v>500700</v>
       </c>
       <c r="F21" s="3">
-        <v>474100</v>
+        <v>481300</v>
       </c>
       <c r="G21" s="3">
-        <v>435700</v>
+        <v>442400</v>
       </c>
       <c r="H21" s="3">
-        <v>392800</v>
+        <v>398900</v>
       </c>
       <c r="I21" s="3">
-        <v>405500</v>
+        <v>411800</v>
       </c>
       <c r="J21" s="3">
-        <v>364600</v>
+        <v>370300</v>
       </c>
       <c r="K21" s="3">
         <v>290200</v>
@@ -1155,25 +1155,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>363600</v>
+        <v>369500</v>
       </c>
       <c r="E23" s="3">
-        <v>345500</v>
+        <v>351100</v>
       </c>
       <c r="F23" s="3">
-        <v>344600</v>
+        <v>350200</v>
       </c>
       <c r="G23" s="3">
-        <v>331800</v>
+        <v>337200</v>
       </c>
       <c r="H23" s="3">
-        <v>316200</v>
+        <v>321300</v>
       </c>
       <c r="I23" s="3">
-        <v>334700</v>
+        <v>340100</v>
       </c>
       <c r="J23" s="3">
-        <v>297300</v>
+        <v>302100</v>
       </c>
       <c r="K23" s="3">
         <v>221800</v>
@@ -1188,25 +1188,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>105200</v>
+        <v>106900</v>
       </c>
       <c r="E24" s="3">
-        <v>82600</v>
+        <v>83900</v>
       </c>
       <c r="F24" s="3">
-        <v>105900</v>
+        <v>107600</v>
       </c>
       <c r="G24" s="3">
-        <v>102800</v>
+        <v>104500</v>
       </c>
       <c r="H24" s="3">
-        <v>117100</v>
+        <v>119000</v>
       </c>
       <c r="I24" s="3">
-        <v>127500</v>
+        <v>129500</v>
       </c>
       <c r="J24" s="3">
-        <v>115300</v>
+        <v>117200</v>
       </c>
       <c r="K24" s="3">
         <v>99600</v>
@@ -1254,25 +1254,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>258400</v>
+        <v>262600</v>
       </c>
       <c r="E26" s="3">
-        <v>262900</v>
+        <v>267200</v>
       </c>
       <c r="F26" s="3">
-        <v>238700</v>
+        <v>242500</v>
       </c>
       <c r="G26" s="3">
-        <v>229000</v>
+        <v>232700</v>
       </c>
       <c r="H26" s="3">
-        <v>199100</v>
+        <v>202400</v>
       </c>
       <c r="I26" s="3">
-        <v>207200</v>
+        <v>210500</v>
       </c>
       <c r="J26" s="3">
-        <v>182000</v>
+        <v>185000</v>
       </c>
       <c r="K26" s="3">
         <v>122200</v>
@@ -1287,25 +1287,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>259600</v>
+        <v>263800</v>
       </c>
       <c r="E27" s="3">
-        <v>263000</v>
+        <v>267300</v>
       </c>
       <c r="F27" s="3">
-        <v>238700</v>
+        <v>242500</v>
       </c>
       <c r="G27" s="3">
-        <v>229000</v>
+        <v>232700</v>
       </c>
       <c r="H27" s="3">
-        <v>199100</v>
+        <v>202300</v>
       </c>
       <c r="I27" s="3">
-        <v>207200</v>
+        <v>210500</v>
       </c>
       <c r="J27" s="3">
-        <v>182000</v>
+        <v>185000</v>
       </c>
       <c r="K27" s="3">
         <v>122200</v>
@@ -1452,25 +1452,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-14100</v>
+        <v>-14400</v>
       </c>
       <c r="E32" s="3">
-        <v>-15700</v>
+        <v>-16000</v>
       </c>
       <c r="F32" s="3">
-        <v>-6500</v>
+        <v>-6600</v>
       </c>
       <c r="G32" s="3">
-        <v>-16200</v>
+        <v>-16400</v>
       </c>
       <c r="H32" s="3">
-        <v>-35400</v>
+        <v>-36000</v>
       </c>
       <c r="I32" s="3">
-        <v>-24300</v>
+        <v>-24700</v>
       </c>
       <c r="J32" s="3">
-        <v>-31700</v>
+        <v>-32200</v>
       </c>
       <c r="K32" s="3">
         <v>13100</v>
@@ -1485,25 +1485,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>259600</v>
+        <v>263800</v>
       </c>
       <c r="E33" s="3">
-        <v>263000</v>
+        <v>267300</v>
       </c>
       <c r="F33" s="3">
-        <v>238700</v>
+        <v>242500</v>
       </c>
       <c r="G33" s="3">
-        <v>229000</v>
+        <v>232700</v>
       </c>
       <c r="H33" s="3">
-        <v>199100</v>
+        <v>202300</v>
       </c>
       <c r="I33" s="3">
-        <v>207200</v>
+        <v>210500</v>
       </c>
       <c r="J33" s="3">
-        <v>182000</v>
+        <v>185000</v>
       </c>
       <c r="K33" s="3">
         <v>122200</v>
@@ -1551,25 +1551,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>259600</v>
+        <v>263800</v>
       </c>
       <c r="E35" s="3">
-        <v>263000</v>
+        <v>267300</v>
       </c>
       <c r="F35" s="3">
-        <v>238700</v>
+        <v>242500</v>
       </c>
       <c r="G35" s="3">
-        <v>229000</v>
+        <v>232700</v>
       </c>
       <c r="H35" s="3">
-        <v>199100</v>
+        <v>202300</v>
       </c>
       <c r="I35" s="3">
-        <v>207200</v>
+        <v>210500</v>
       </c>
       <c r="J35" s="3">
-        <v>182000</v>
+        <v>185000</v>
       </c>
       <c r="K35" s="3">
         <v>122200</v>
@@ -1652,25 +1652,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1159800</v>
+        <v>1179800</v>
       </c>
       <c r="E41" s="3">
-        <v>1081100</v>
+        <v>1099700</v>
       </c>
       <c r="F41" s="3">
-        <v>797100</v>
+        <v>810900</v>
       </c>
       <c r="G41" s="3">
-        <v>784200</v>
+        <v>797800</v>
       </c>
       <c r="H41" s="3">
-        <v>685200</v>
+        <v>697000</v>
       </c>
       <c r="I41" s="3">
-        <v>585700</v>
+        <v>595700</v>
       </c>
       <c r="J41" s="3">
-        <v>739000</v>
+        <v>751700</v>
       </c>
       <c r="K41" s="3">
         <v>497500</v>
@@ -1685,25 +1685,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>441900</v>
+        <v>449500</v>
       </c>
       <c r="E42" s="3">
-        <v>568800</v>
+        <v>578600</v>
       </c>
       <c r="F42" s="3">
-        <v>617400</v>
+        <v>628100</v>
       </c>
       <c r="G42" s="3">
-        <v>465400</v>
+        <v>473500</v>
       </c>
       <c r="H42" s="3">
-        <v>667400</v>
+        <v>678900</v>
       </c>
       <c r="I42" s="3">
-        <v>689800</v>
+        <v>701700</v>
       </c>
       <c r="J42" s="3">
-        <v>565700</v>
+        <v>575400</v>
       </c>
       <c r="K42" s="3">
         <v>582800</v>
@@ -1718,25 +1718,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>417000</v>
+        <v>424200</v>
       </c>
       <c r="E43" s="3">
-        <v>361800</v>
+        <v>368000</v>
       </c>
       <c r="F43" s="3">
-        <v>369100</v>
+        <v>375500</v>
       </c>
       <c r="G43" s="3">
-        <v>329900</v>
+        <v>335600</v>
       </c>
       <c r="H43" s="3">
-        <v>278100</v>
+        <v>282900</v>
       </c>
       <c r="I43" s="3">
-        <v>241900</v>
+        <v>246100</v>
       </c>
       <c r="J43" s="3">
-        <v>225800</v>
+        <v>229700</v>
       </c>
       <c r="K43" s="3">
         <v>189900</v>
@@ -1751,25 +1751,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>38100</v>
+        <v>38800</v>
       </c>
       <c r="E44" s="3">
-        <v>68200</v>
+        <v>69400</v>
       </c>
       <c r="F44" s="3">
-        <v>27700</v>
+        <v>28100</v>
       </c>
       <c r="G44" s="3">
-        <v>15900</v>
+        <v>16200</v>
       </c>
       <c r="H44" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="I44" s="3">
         <v>4900</v>
       </c>
       <c r="J44" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="K44" s="3">
         <v>3400</v>
@@ -1784,25 +1784,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>52900</v>
+        <v>53800</v>
       </c>
       <c r="E45" s="3">
-        <v>199300</v>
+        <v>202700</v>
       </c>
       <c r="F45" s="3">
-        <v>200500</v>
+        <v>203900</v>
       </c>
       <c r="G45" s="3">
-        <v>214400</v>
+        <v>218100</v>
       </c>
       <c r="H45" s="3">
-        <v>231600</v>
+        <v>235600</v>
       </c>
       <c r="I45" s="3">
-        <v>183400</v>
+        <v>186600</v>
       </c>
       <c r="J45" s="3">
-        <v>179000</v>
+        <v>182100</v>
       </c>
       <c r="K45" s="3">
         <v>174100</v>
@@ -1817,25 +1817,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>2109800</v>
+        <v>2146200</v>
       </c>
       <c r="E46" s="3">
-        <v>2095200</v>
+        <v>2131300</v>
       </c>
       <c r="F46" s="3">
-        <v>2011800</v>
+        <v>2046500</v>
       </c>
       <c r="G46" s="3">
-        <v>1809900</v>
+        <v>1841100</v>
       </c>
       <c r="H46" s="3">
-        <v>1869800</v>
+        <v>1902000</v>
       </c>
       <c r="I46" s="3">
-        <v>1705700</v>
+        <v>1735100</v>
       </c>
       <c r="J46" s="3">
-        <v>1713200</v>
+        <v>1742700</v>
       </c>
       <c r="K46" s="3">
         <v>1447700</v>
@@ -1850,25 +1850,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>463900</v>
+        <v>471900</v>
       </c>
       <c r="E47" s="3">
-        <v>415100</v>
+        <v>422300</v>
       </c>
       <c r="F47" s="3">
-        <v>486200</v>
+        <v>494600</v>
       </c>
       <c r="G47" s="3">
-        <v>470700</v>
+        <v>478800</v>
       </c>
       <c r="H47" s="3">
-        <v>582800</v>
+        <v>592900</v>
       </c>
       <c r="I47" s="3">
-        <v>640700</v>
+        <v>651800</v>
       </c>
       <c r="J47" s="3">
-        <v>474500</v>
+        <v>482700</v>
       </c>
       <c r="K47" s="3">
         <v>322500</v>
@@ -1883,25 +1883,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>91500</v>
+        <v>93100</v>
       </c>
       <c r="E48" s="3">
-        <v>81400</v>
+        <v>82800</v>
       </c>
       <c r="F48" s="3">
-        <v>76300</v>
+        <v>77600</v>
       </c>
       <c r="G48" s="3">
-        <v>60800</v>
+        <v>61800</v>
       </c>
       <c r="H48" s="3">
-        <v>53700</v>
+        <v>54600</v>
       </c>
       <c r="I48" s="3">
-        <v>45900</v>
+        <v>46700</v>
       </c>
       <c r="J48" s="3">
-        <v>42500</v>
+        <v>43300</v>
       </c>
       <c r="K48" s="3">
         <v>40300</v>
@@ -1916,25 +1916,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>335700</v>
+        <v>341500</v>
       </c>
       <c r="E49" s="3">
-        <v>325800</v>
+        <v>331500</v>
       </c>
       <c r="F49" s="3">
-        <v>373900</v>
+        <v>380400</v>
       </c>
       <c r="G49" s="3">
-        <v>394700</v>
+        <v>401500</v>
       </c>
       <c r="H49" s="3">
-        <v>76200</v>
+        <v>77500</v>
       </c>
       <c r="I49" s="3">
-        <v>87500</v>
+        <v>89000</v>
       </c>
       <c r="J49" s="3">
-        <v>85000</v>
+        <v>86500</v>
       </c>
       <c r="K49" s="3">
         <v>71500</v>
@@ -2015,25 +2015,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>337200</v>
+        <v>343000</v>
       </c>
       <c r="E52" s="3">
-        <v>294900</v>
+        <v>300000</v>
       </c>
       <c r="F52" s="3">
-        <v>124900</v>
+        <v>127000</v>
       </c>
       <c r="G52" s="3">
-        <v>127100</v>
+        <v>129300</v>
       </c>
       <c r="H52" s="3">
-        <v>113500</v>
+        <v>115500</v>
       </c>
       <c r="I52" s="3">
-        <v>118000</v>
+        <v>120000</v>
       </c>
       <c r="J52" s="3">
-        <v>111400</v>
+        <v>113300</v>
       </c>
       <c r="K52" s="3">
         <v>108700</v>
@@ -2081,25 +2081,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>3338100</v>
+        <v>3395700</v>
       </c>
       <c r="E54" s="3">
-        <v>3212400</v>
+        <v>3267800</v>
       </c>
       <c r="F54" s="3">
-        <v>3073100</v>
+        <v>3126100</v>
       </c>
       <c r="G54" s="3">
-        <v>2863200</v>
+        <v>2912600</v>
       </c>
       <c r="H54" s="3">
-        <v>2696000</v>
+        <v>2742500</v>
       </c>
       <c r="I54" s="3">
-        <v>2597800</v>
+        <v>2642600</v>
       </c>
       <c r="J54" s="3">
-        <v>2426700</v>
+        <v>2468500</v>
       </c>
       <c r="K54" s="3">
         <v>1990800</v>
@@ -2144,25 +2144,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>11200</v>
+        <v>11300</v>
       </c>
       <c r="E57" s="3">
-        <v>15100</v>
+        <v>15300</v>
       </c>
       <c r="F57" s="3">
-        <v>6800</v>
+        <v>6900</v>
       </c>
       <c r="G57" s="3">
-        <v>8300</v>
+        <v>8400</v>
       </c>
       <c r="H57" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="I57" s="3">
-        <v>6200</v>
+        <v>6300</v>
       </c>
       <c r="J57" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="K57" s="3">
         <v>6600</v>
@@ -2210,25 +2210,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>1098400</v>
+        <v>1117300</v>
       </c>
       <c r="E59" s="3">
-        <v>1019300</v>
+        <v>1036900</v>
       </c>
       <c r="F59" s="3">
-        <v>1002600</v>
+        <v>1019800</v>
       </c>
       <c r="G59" s="3">
-        <v>935400</v>
+        <v>951600</v>
       </c>
       <c r="H59" s="3">
-        <v>872100</v>
+        <v>887200</v>
       </c>
       <c r="I59" s="3">
-        <v>854800</v>
+        <v>869500</v>
       </c>
       <c r="J59" s="3">
-        <v>803500</v>
+        <v>817300</v>
       </c>
       <c r="K59" s="3">
         <v>702800</v>
@@ -2243,25 +2243,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>1109500</v>
+        <v>1128700</v>
       </c>
       <c r="E60" s="3">
-        <v>1034400</v>
+        <v>1052200</v>
       </c>
       <c r="F60" s="3">
-        <v>1009300</v>
+        <v>1026700</v>
       </c>
       <c r="G60" s="3">
-        <v>943700</v>
+        <v>960000</v>
       </c>
       <c r="H60" s="3">
-        <v>877300</v>
+        <v>892400</v>
       </c>
       <c r="I60" s="3">
-        <v>861000</v>
+        <v>875900</v>
       </c>
       <c r="J60" s="3">
-        <v>808000</v>
+        <v>821900</v>
       </c>
       <c r="K60" s="3">
         <v>709400</v>
@@ -2309,25 +2309,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>489300</v>
+        <v>497700</v>
       </c>
       <c r="E62" s="3">
-        <v>441900</v>
+        <v>449500</v>
       </c>
       <c r="F62" s="3">
-        <v>420500</v>
+        <v>427800</v>
       </c>
       <c r="G62" s="3">
-        <v>374700</v>
+        <v>381100</v>
       </c>
       <c r="H62" s="3">
-        <v>336800</v>
+        <v>342600</v>
       </c>
       <c r="I62" s="3">
-        <v>316100</v>
+        <v>321500</v>
       </c>
       <c r="J62" s="3">
-        <v>295900</v>
+        <v>301000</v>
       </c>
       <c r="K62" s="3">
         <v>249700</v>
@@ -2441,25 +2441,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>1600200</v>
+        <v>1627800</v>
       </c>
       <c r="E66" s="3">
-        <v>1476900</v>
+        <v>1502400</v>
       </c>
       <c r="F66" s="3">
-        <v>1429900</v>
+        <v>1454600</v>
       </c>
       <c r="G66" s="3">
-        <v>1318400</v>
+        <v>1341100</v>
       </c>
       <c r="H66" s="3">
-        <v>1214100</v>
+        <v>1235000</v>
       </c>
       <c r="I66" s="3">
-        <v>1177200</v>
+        <v>1197500</v>
       </c>
       <c r="J66" s="3">
-        <v>1104000</v>
+        <v>1123000</v>
       </c>
       <c r="K66" s="3">
         <v>959200</v>
@@ -2621,25 +2621,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>1437400</v>
+        <v>1462200</v>
       </c>
       <c r="E72" s="3">
-        <v>1388500</v>
+        <v>1412400</v>
       </c>
       <c r="F72" s="3">
-        <v>1322000</v>
+        <v>1344800</v>
       </c>
       <c r="G72" s="3">
-        <v>1262600</v>
+        <v>1284300</v>
       </c>
       <c r="H72" s="3">
-        <v>1174300</v>
+        <v>1194500</v>
       </c>
       <c r="I72" s="3">
-        <v>1127600</v>
+        <v>1147100</v>
       </c>
       <c r="J72" s="3">
-        <v>1074900</v>
+        <v>1093500</v>
       </c>
       <c r="K72" s="3">
         <v>969600</v>
@@ -2753,25 +2753,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>1737900</v>
+        <v>1767900</v>
       </c>
       <c r="E76" s="3">
-        <v>1735400</v>
+        <v>1765300</v>
       </c>
       <c r="F76" s="3">
-        <v>1643200</v>
+        <v>1671600</v>
       </c>
       <c r="G76" s="3">
-        <v>1544800</v>
+        <v>1571400</v>
       </c>
       <c r="H76" s="3">
-        <v>1481900</v>
+        <v>1507500</v>
       </c>
       <c r="I76" s="3">
-        <v>1420600</v>
+        <v>1445100</v>
       </c>
       <c r="J76" s="3">
-        <v>1322700</v>
+        <v>1345500</v>
       </c>
       <c r="K76" s="3">
         <v>1031600</v>
@@ -2857,25 +2857,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>259600</v>
+        <v>263800</v>
       </c>
       <c r="E81" s="3">
-        <v>263000</v>
+        <v>267300</v>
       </c>
       <c r="F81" s="3">
-        <v>238700</v>
+        <v>242500</v>
       </c>
       <c r="G81" s="3">
-        <v>229000</v>
+        <v>232700</v>
       </c>
       <c r="H81" s="3">
-        <v>199100</v>
+        <v>202300</v>
       </c>
       <c r="I81" s="3">
-        <v>207200</v>
+        <v>210500</v>
       </c>
       <c r="J81" s="3">
-        <v>182000</v>
+        <v>185000</v>
       </c>
       <c r="K81" s="3">
         <v>122200</v>
@@ -2905,25 +2905,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>146900</v>
+        <v>149300</v>
       </c>
       <c r="E83" s="3">
-        <v>147800</v>
+        <v>150200</v>
       </c>
       <c r="F83" s="3">
-        <v>129600</v>
+        <v>131700</v>
       </c>
       <c r="G83" s="3">
-        <v>104000</v>
+        <v>105600</v>
       </c>
       <c r="H83" s="3">
-        <v>76700</v>
+        <v>77900</v>
       </c>
       <c r="I83" s="3">
-        <v>70700</v>
+        <v>71900</v>
       </c>
       <c r="J83" s="3">
-        <v>67300</v>
+        <v>68400</v>
       </c>
       <c r="K83" s="3">
         <v>68100</v>
@@ -3103,25 +3103,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>419000</v>
+        <v>425800</v>
       </c>
       <c r="E89" s="3">
-        <v>464100</v>
+        <v>471600</v>
       </c>
       <c r="F89" s="3">
-        <v>435800</v>
+        <v>442900</v>
       </c>
       <c r="G89" s="3">
-        <v>311300</v>
+        <v>316300</v>
       </c>
       <c r="H89" s="3">
-        <v>283200</v>
+        <v>287800</v>
       </c>
       <c r="I89" s="3">
-        <v>296700</v>
+        <v>301500</v>
       </c>
       <c r="J89" s="3">
-        <v>285500</v>
+        <v>290100</v>
       </c>
       <c r="K89" s="3">
         <v>286600</v>
@@ -3151,25 +3151,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-37500</v>
+        <v>-38100</v>
       </c>
       <c r="E91" s="3">
-        <v>-33100</v>
+        <v>-33600</v>
       </c>
       <c r="F91" s="3">
-        <v>-42700</v>
+        <v>-43400</v>
       </c>
       <c r="G91" s="3">
-        <v>-27700</v>
+        <v>-28200</v>
       </c>
       <c r="H91" s="3">
-        <v>-32800</v>
+        <v>-33300</v>
       </c>
       <c r="I91" s="3">
-        <v>-18900</v>
+        <v>-19200</v>
       </c>
       <c r="J91" s="3">
-        <v>-17100</v>
+        <v>-17300</v>
       </c>
       <c r="K91" s="3">
         <v>-10800</v>
@@ -3250,25 +3250,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-13700</v>
+        <v>-13900</v>
       </c>
       <c r="E94" s="3">
-        <v>7600</v>
+        <v>7700</v>
       </c>
       <c r="F94" s="3">
-        <v>-314200</v>
+        <v>-319200</v>
       </c>
       <c r="G94" s="3">
-        <v>120100</v>
+        <v>122000</v>
       </c>
       <c r="H94" s="3">
-        <v>-45800</v>
+        <v>-46500</v>
       </c>
       <c r="I94" s="3">
-        <v>-305800</v>
+        <v>-310800</v>
       </c>
       <c r="J94" s="3">
-        <v>-150000</v>
+        <v>-152500</v>
       </c>
       <c r="K94" s="3">
         <v>-414900</v>
@@ -3298,25 +3298,25 @@
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-204300</v>
+        <v>-207600</v>
       </c>
       <c r="E96" s="3">
-        <v>-183800</v>
+        <v>-186800</v>
       </c>
       <c r="F96" s="3">
-        <v>-173500</v>
+        <v>-176300</v>
       </c>
       <c r="G96" s="3">
-        <v>-134600</v>
+        <v>-136800</v>
       </c>
       <c r="H96" s="3">
-        <v>-137900</v>
+        <v>-140100</v>
       </c>
       <c r="I96" s="3">
-        <v>-146500</v>
+        <v>-148900</v>
       </c>
       <c r="J96" s="3">
-        <v>-78200</v>
+        <v>-79400</v>
       </c>
       <c r="K96" s="3">
         <v>-98200</v>
@@ -3430,22 +3430,22 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-241100</v>
+        <v>-245000</v>
       </c>
       <c r="E100" s="3">
-        <v>-122800</v>
+        <v>-124800</v>
       </c>
       <c r="F100" s="3">
-        <v>-157100</v>
+        <v>-159600</v>
       </c>
       <c r="G100" s="3">
-        <v>-139800</v>
+        <v>-142100</v>
       </c>
       <c r="H100" s="3">
-        <v>-86600</v>
+        <v>-88000</v>
       </c>
       <c r="I100" s="3">
-        <v>-156900</v>
+        <v>-159400</v>
       </c>
       <c r="J100" s="3">
         <v>-2000</v>
@@ -3463,10 +3463,10 @@
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-11000</v>
+        <v>-11100</v>
       </c>
       <c r="E101" s="3">
-        <v>-40600</v>
+        <v>-41200</v>
       </c>
       <c r="F101" s="3">
         <v>-1200</v>
@@ -3475,13 +3475,13 @@
         <v>2900</v>
       </c>
       <c r="H101" s="3">
-        <v>-39300</v>
+        <v>-39900</v>
       </c>
       <c r="I101" s="3">
-        <v>24000</v>
+        <v>24400</v>
       </c>
       <c r="J101" s="3">
-        <v>84800</v>
+        <v>86100</v>
       </c>
       <c r="K101" s="3">
         <v>41100</v>
@@ -3496,25 +3496,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>153300</v>
+        <v>155800</v>
       </c>
       <c r="E102" s="3">
-        <v>308300</v>
+        <v>313300</v>
       </c>
       <c r="F102" s="3">
-        <v>-36600</v>
+        <v>-37100</v>
       </c>
       <c r="G102" s="3">
-        <v>294500</v>
+        <v>299200</v>
       </c>
       <c r="H102" s="3">
-        <v>111600</v>
+        <v>113400</v>
       </c>
       <c r="I102" s="3">
-        <v>-142000</v>
+        <v>-144300</v>
       </c>
       <c r="J102" s="3">
-        <v>218300</v>
+        <v>221900</v>
       </c>
       <c r="K102" s="3">
         <v>-188400</v>

--- a/AAII_Financials/Yearly/TMICY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TMICY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1559400</v>
+        <v>1587500</v>
       </c>
       <c r="E8" s="3">
-        <v>1514300</v>
+        <v>1541500</v>
       </c>
       <c r="F8" s="3">
-        <v>1404800</v>
+        <v>1430100</v>
       </c>
       <c r="G8" s="3">
-        <v>1245500</v>
+        <v>1267900</v>
       </c>
       <c r="H8" s="3">
-        <v>1173600</v>
+        <v>1194700</v>
       </c>
       <c r="I8" s="3">
-        <v>1087500</v>
+        <v>1107100</v>
       </c>
       <c r="J8" s="3">
-        <v>1022500</v>
+        <v>1040900</v>
       </c>
       <c r="K8" s="3">
         <v>853000</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>304900</v>
+        <v>310400</v>
       </c>
       <c r="E9" s="3">
-        <v>309000</v>
+        <v>314500</v>
       </c>
       <c r="F9" s="3">
-        <v>265600</v>
+        <v>270400</v>
       </c>
       <c r="G9" s="3">
-        <v>217500</v>
+        <v>221400</v>
       </c>
       <c r="H9" s="3">
-        <v>200800</v>
+        <v>204400</v>
       </c>
       <c r="I9" s="3">
-        <v>192900</v>
+        <v>196300</v>
       </c>
       <c r="J9" s="3">
-        <v>182900</v>
+        <v>186200</v>
       </c>
       <c r="K9" s="3">
         <v>159200</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1254500</v>
+        <v>1277100</v>
       </c>
       <c r="E10" s="3">
-        <v>1205300</v>
+        <v>1227000</v>
       </c>
       <c r="F10" s="3">
-        <v>1139200</v>
+        <v>1159700</v>
       </c>
       <c r="G10" s="3">
-        <v>1028000</v>
+        <v>1046500</v>
       </c>
       <c r="H10" s="3">
-        <v>972700</v>
+        <v>990300</v>
       </c>
       <c r="I10" s="3">
-        <v>894700</v>
+        <v>910800</v>
       </c>
       <c r="J10" s="3">
-        <v>839600</v>
+        <v>854700</v>
       </c>
       <c r="K10" s="3">
         <v>693800</v>
@@ -831,25 +831,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>77700</v>
+        <v>79100</v>
       </c>
       <c r="E12" s="3">
-        <v>70300</v>
+        <v>71500</v>
       </c>
       <c r="F12" s="3">
-        <v>73500</v>
+        <v>74800</v>
       </c>
       <c r="G12" s="3">
-        <v>49700</v>
+        <v>50600</v>
       </c>
       <c r="H12" s="3">
-        <v>35600</v>
+        <v>36300</v>
       </c>
       <c r="I12" s="3">
-        <v>27600</v>
+        <v>28100</v>
       </c>
       <c r="J12" s="3">
-        <v>39500</v>
+        <v>40200</v>
       </c>
       <c r="K12" s="3">
         <v>34400</v>
@@ -906,16 +906,16 @@
         <v>400</v>
       </c>
       <c r="G14" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="H14" s="3">
-        <v>7100</v>
+        <v>7200</v>
       </c>
       <c r="I14" s="3">
         <v>2200</v>
       </c>
       <c r="J14" s="3">
-        <v>8100</v>
+        <v>8200</v>
       </c>
       <c r="K14" s="3">
         <v>-31300</v>
@@ -975,25 +975,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1204300</v>
+        <v>1226000</v>
       </c>
       <c r="E17" s="3">
-        <v>1179200</v>
+        <v>1200400</v>
       </c>
       <c r="F17" s="3">
-        <v>1061200</v>
+        <v>1080300</v>
       </c>
       <c r="G17" s="3">
-        <v>924600</v>
+        <v>941300</v>
       </c>
       <c r="H17" s="3">
-        <v>888200</v>
+        <v>904200</v>
       </c>
       <c r="I17" s="3">
-        <v>772000</v>
+        <v>785900</v>
       </c>
       <c r="J17" s="3">
-        <v>752500</v>
+        <v>766100</v>
       </c>
       <c r="K17" s="3">
         <v>618000</v>
@@ -1008,25 +1008,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>355100</v>
+        <v>361500</v>
       </c>
       <c r="E18" s="3">
-        <v>335100</v>
+        <v>341100</v>
       </c>
       <c r="F18" s="3">
-        <v>343600</v>
+        <v>349800</v>
       </c>
       <c r="G18" s="3">
-        <v>320800</v>
+        <v>326600</v>
       </c>
       <c r="H18" s="3">
-        <v>285300</v>
+        <v>290500</v>
       </c>
       <c r="I18" s="3">
-        <v>315500</v>
+        <v>321200</v>
       </c>
       <c r="J18" s="3">
-        <v>270000</v>
+        <v>274800</v>
       </c>
       <c r="K18" s="3">
         <v>235000</v>
@@ -1056,25 +1056,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>14400</v>
+        <v>14600</v>
       </c>
       <c r="E20" s="3">
-        <v>16000</v>
+        <v>16300</v>
       </c>
       <c r="F20" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="G20" s="3">
-        <v>16400</v>
+        <v>16700</v>
       </c>
       <c r="H20" s="3">
-        <v>36000</v>
+        <v>36700</v>
       </c>
       <c r="I20" s="3">
-        <v>24700</v>
+        <v>25100</v>
       </c>
       <c r="J20" s="3">
-        <v>32200</v>
+        <v>32800</v>
       </c>
       <c r="K20" s="3">
         <v>-13100</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>518200</v>
+        <v>527800</v>
       </c>
       <c r="E21" s="3">
-        <v>500700</v>
+        <v>510000</v>
       </c>
       <c r="F21" s="3">
-        <v>481300</v>
+        <v>490300</v>
       </c>
       <c r="G21" s="3">
-        <v>442400</v>
+        <v>450600</v>
       </c>
       <c r="H21" s="3">
-        <v>398900</v>
+        <v>406300</v>
       </c>
       <c r="I21" s="3">
-        <v>411800</v>
+        <v>419400</v>
       </c>
       <c r="J21" s="3">
-        <v>370300</v>
+        <v>377100</v>
       </c>
       <c r="K21" s="3">
         <v>290200</v>
@@ -1155,25 +1155,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>369500</v>
+        <v>376100</v>
       </c>
       <c r="E23" s="3">
-        <v>351100</v>
+        <v>357400</v>
       </c>
       <c r="F23" s="3">
-        <v>350200</v>
+        <v>356500</v>
       </c>
       <c r="G23" s="3">
-        <v>337200</v>
+        <v>343300</v>
       </c>
       <c r="H23" s="3">
-        <v>321300</v>
+        <v>327100</v>
       </c>
       <c r="I23" s="3">
-        <v>340100</v>
+        <v>346200</v>
       </c>
       <c r="J23" s="3">
-        <v>302100</v>
+        <v>307600</v>
       </c>
       <c r="K23" s="3">
         <v>221800</v>
@@ -1188,25 +1188,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>106900</v>
+        <v>108800</v>
       </c>
       <c r="E24" s="3">
-        <v>83900</v>
+        <v>85400</v>
       </c>
       <c r="F24" s="3">
-        <v>107600</v>
+        <v>109600</v>
       </c>
       <c r="G24" s="3">
-        <v>104500</v>
+        <v>106300</v>
       </c>
       <c r="H24" s="3">
-        <v>119000</v>
+        <v>121100</v>
       </c>
       <c r="I24" s="3">
-        <v>129500</v>
+        <v>131900</v>
       </c>
       <c r="J24" s="3">
-        <v>117200</v>
+        <v>119300</v>
       </c>
       <c r="K24" s="3">
         <v>99600</v>
@@ -1254,25 +1254,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>262600</v>
+        <v>267300</v>
       </c>
       <c r="E26" s="3">
-        <v>267200</v>
+        <v>272000</v>
       </c>
       <c r="F26" s="3">
-        <v>242500</v>
+        <v>246900</v>
       </c>
       <c r="G26" s="3">
-        <v>232700</v>
+        <v>236900</v>
       </c>
       <c r="H26" s="3">
-        <v>202400</v>
+        <v>206000</v>
       </c>
       <c r="I26" s="3">
-        <v>210500</v>
+        <v>214300</v>
       </c>
       <c r="J26" s="3">
-        <v>185000</v>
+        <v>188300</v>
       </c>
       <c r="K26" s="3">
         <v>122200</v>
@@ -1287,25 +1287,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>263800</v>
+        <v>268600</v>
       </c>
       <c r="E27" s="3">
-        <v>267300</v>
+        <v>272100</v>
       </c>
       <c r="F27" s="3">
-        <v>242500</v>
+        <v>246900</v>
       </c>
       <c r="G27" s="3">
-        <v>232700</v>
+        <v>236900</v>
       </c>
       <c r="H27" s="3">
-        <v>202300</v>
+        <v>206000</v>
       </c>
       <c r="I27" s="3">
-        <v>210500</v>
+        <v>214300</v>
       </c>
       <c r="J27" s="3">
-        <v>185000</v>
+        <v>188300</v>
       </c>
       <c r="K27" s="3">
         <v>122200</v>
@@ -1452,25 +1452,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-14400</v>
+        <v>-14600</v>
       </c>
       <c r="E32" s="3">
-        <v>-16000</v>
+        <v>-16300</v>
       </c>
       <c r="F32" s="3">
-        <v>-6600</v>
+        <v>-6700</v>
       </c>
       <c r="G32" s="3">
-        <v>-16400</v>
+        <v>-16700</v>
       </c>
       <c r="H32" s="3">
-        <v>-36000</v>
+        <v>-36700</v>
       </c>
       <c r="I32" s="3">
-        <v>-24700</v>
+        <v>-25100</v>
       </c>
       <c r="J32" s="3">
-        <v>-32200</v>
+        <v>-32800</v>
       </c>
       <c r="K32" s="3">
         <v>13100</v>
@@ -1485,25 +1485,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>263800</v>
+        <v>268600</v>
       </c>
       <c r="E33" s="3">
-        <v>267300</v>
+        <v>272100</v>
       </c>
       <c r="F33" s="3">
-        <v>242500</v>
+        <v>246900</v>
       </c>
       <c r="G33" s="3">
-        <v>232700</v>
+        <v>236900</v>
       </c>
       <c r="H33" s="3">
-        <v>202300</v>
+        <v>206000</v>
       </c>
       <c r="I33" s="3">
-        <v>210500</v>
+        <v>214300</v>
       </c>
       <c r="J33" s="3">
-        <v>185000</v>
+        <v>188300</v>
       </c>
       <c r="K33" s="3">
         <v>122200</v>
@@ -1551,25 +1551,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>263800</v>
+        <v>268600</v>
       </c>
       <c r="E35" s="3">
-        <v>267300</v>
+        <v>272100</v>
       </c>
       <c r="F35" s="3">
-        <v>242500</v>
+        <v>246900</v>
       </c>
       <c r="G35" s="3">
-        <v>232700</v>
+        <v>236900</v>
       </c>
       <c r="H35" s="3">
-        <v>202300</v>
+        <v>206000</v>
       </c>
       <c r="I35" s="3">
-        <v>210500</v>
+        <v>214300</v>
       </c>
       <c r="J35" s="3">
-        <v>185000</v>
+        <v>188300</v>
       </c>
       <c r="K35" s="3">
         <v>122200</v>
@@ -1652,25 +1652,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1179800</v>
+        <v>1201100</v>
       </c>
       <c r="E41" s="3">
-        <v>1099700</v>
+        <v>1119500</v>
       </c>
       <c r="F41" s="3">
-        <v>810900</v>
+        <v>825500</v>
       </c>
       <c r="G41" s="3">
-        <v>797800</v>
+        <v>812100</v>
       </c>
       <c r="H41" s="3">
-        <v>697000</v>
+        <v>709600</v>
       </c>
       <c r="I41" s="3">
-        <v>595700</v>
+        <v>606500</v>
       </c>
       <c r="J41" s="3">
-        <v>751700</v>
+        <v>765300</v>
       </c>
       <c r="K41" s="3">
         <v>497500</v>
@@ -1685,25 +1685,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>449500</v>
+        <v>457600</v>
       </c>
       <c r="E42" s="3">
-        <v>578600</v>
+        <v>589000</v>
       </c>
       <c r="F42" s="3">
-        <v>628100</v>
+        <v>639400</v>
       </c>
       <c r="G42" s="3">
-        <v>473500</v>
+        <v>482000</v>
       </c>
       <c r="H42" s="3">
-        <v>678900</v>
+        <v>691100</v>
       </c>
       <c r="I42" s="3">
-        <v>701700</v>
+        <v>714300</v>
       </c>
       <c r="J42" s="3">
-        <v>575400</v>
+        <v>585800</v>
       </c>
       <c r="K42" s="3">
         <v>582800</v>
@@ -1718,25 +1718,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>424200</v>
+        <v>431900</v>
       </c>
       <c r="E43" s="3">
-        <v>368000</v>
+        <v>374600</v>
       </c>
       <c r="F43" s="3">
-        <v>375500</v>
+        <v>382300</v>
       </c>
       <c r="G43" s="3">
-        <v>335600</v>
+        <v>341700</v>
       </c>
       <c r="H43" s="3">
-        <v>282900</v>
+        <v>288000</v>
       </c>
       <c r="I43" s="3">
-        <v>246100</v>
+        <v>250600</v>
       </c>
       <c r="J43" s="3">
-        <v>229700</v>
+        <v>233800</v>
       </c>
       <c r="K43" s="3">
         <v>189900</v>
@@ -1751,22 +1751,22 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>38800</v>
+        <v>39500</v>
       </c>
       <c r="E44" s="3">
-        <v>69400</v>
+        <v>70600</v>
       </c>
       <c r="F44" s="3">
-        <v>28100</v>
+        <v>28600</v>
       </c>
       <c r="G44" s="3">
-        <v>16200</v>
+        <v>16400</v>
       </c>
       <c r="H44" s="3">
-        <v>7600</v>
+        <v>7800</v>
       </c>
       <c r="I44" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="J44" s="3">
         <v>3900</v>
@@ -1784,25 +1784,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>53800</v>
+        <v>54800</v>
       </c>
       <c r="E45" s="3">
-        <v>202700</v>
+        <v>206300</v>
       </c>
       <c r="F45" s="3">
-        <v>203900</v>
+        <v>207600</v>
       </c>
       <c r="G45" s="3">
-        <v>218100</v>
+        <v>222000</v>
       </c>
       <c r="H45" s="3">
-        <v>235600</v>
+        <v>239800</v>
       </c>
       <c r="I45" s="3">
-        <v>186600</v>
+        <v>190000</v>
       </c>
       <c r="J45" s="3">
-        <v>182100</v>
+        <v>185300</v>
       </c>
       <c r="K45" s="3">
         <v>174100</v>
@@ -1817,25 +1817,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>2146200</v>
+        <v>2184800</v>
       </c>
       <c r="E46" s="3">
-        <v>2131300</v>
+        <v>2169700</v>
       </c>
       <c r="F46" s="3">
-        <v>2046500</v>
+        <v>2083400</v>
       </c>
       <c r="G46" s="3">
-        <v>1841100</v>
+        <v>1874200</v>
       </c>
       <c r="H46" s="3">
-        <v>1902000</v>
+        <v>1936300</v>
       </c>
       <c r="I46" s="3">
-        <v>1735100</v>
+        <v>1766300</v>
       </c>
       <c r="J46" s="3">
-        <v>1742700</v>
+        <v>1774100</v>
       </c>
       <c r="K46" s="3">
         <v>1447700</v>
@@ -1850,25 +1850,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>471900</v>
+        <v>480400</v>
       </c>
       <c r="E47" s="3">
-        <v>422300</v>
+        <v>429900</v>
       </c>
       <c r="F47" s="3">
-        <v>494600</v>
+        <v>503500</v>
       </c>
       <c r="G47" s="3">
-        <v>478800</v>
+        <v>487500</v>
       </c>
       <c r="H47" s="3">
-        <v>592900</v>
+        <v>603500</v>
       </c>
       <c r="I47" s="3">
-        <v>651800</v>
+        <v>663500</v>
       </c>
       <c r="J47" s="3">
-        <v>482700</v>
+        <v>491400</v>
       </c>
       <c r="K47" s="3">
         <v>322500</v>
@@ -1883,25 +1883,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>93100</v>
+        <v>94800</v>
       </c>
       <c r="E48" s="3">
-        <v>82800</v>
+        <v>84300</v>
       </c>
       <c r="F48" s="3">
-        <v>77600</v>
+        <v>79000</v>
       </c>
       <c r="G48" s="3">
-        <v>61800</v>
+        <v>63000</v>
       </c>
       <c r="H48" s="3">
-        <v>54600</v>
+        <v>55600</v>
       </c>
       <c r="I48" s="3">
-        <v>46700</v>
+        <v>47600</v>
       </c>
       <c r="J48" s="3">
-        <v>43300</v>
+        <v>44000</v>
       </c>
       <c r="K48" s="3">
         <v>40300</v>
@@ -1916,25 +1916,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>341500</v>
+        <v>347700</v>
       </c>
       <c r="E49" s="3">
-        <v>331500</v>
+        <v>337400</v>
       </c>
       <c r="F49" s="3">
-        <v>380400</v>
+        <v>387200</v>
       </c>
       <c r="G49" s="3">
-        <v>401500</v>
+        <v>408800</v>
       </c>
       <c r="H49" s="3">
-        <v>77500</v>
+        <v>78900</v>
       </c>
       <c r="I49" s="3">
-        <v>89000</v>
+        <v>90600</v>
       </c>
       <c r="J49" s="3">
-        <v>86500</v>
+        <v>88000</v>
       </c>
       <c r="K49" s="3">
         <v>71500</v>
@@ -2015,25 +2015,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>343000</v>
+        <v>349200</v>
       </c>
       <c r="E52" s="3">
-        <v>300000</v>
+        <v>305400</v>
       </c>
       <c r="F52" s="3">
-        <v>127000</v>
+        <v>129300</v>
       </c>
       <c r="G52" s="3">
-        <v>129300</v>
+        <v>131600</v>
       </c>
       <c r="H52" s="3">
-        <v>115500</v>
+        <v>117500</v>
       </c>
       <c r="I52" s="3">
-        <v>120000</v>
+        <v>122200</v>
       </c>
       <c r="J52" s="3">
-        <v>113300</v>
+        <v>115400</v>
       </c>
       <c r="K52" s="3">
         <v>108700</v>
@@ -2081,25 +2081,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>3395700</v>
+        <v>3456800</v>
       </c>
       <c r="E54" s="3">
-        <v>3267800</v>
+        <v>3326600</v>
       </c>
       <c r="F54" s="3">
-        <v>3126100</v>
+        <v>3182400</v>
       </c>
       <c r="G54" s="3">
-        <v>2912600</v>
+        <v>2965000</v>
       </c>
       <c r="H54" s="3">
-        <v>2742500</v>
+        <v>2791900</v>
       </c>
       <c r="I54" s="3">
-        <v>2642600</v>
+        <v>2690200</v>
       </c>
       <c r="J54" s="3">
-        <v>2468500</v>
+        <v>2512900</v>
       </c>
       <c r="K54" s="3">
         <v>1990800</v>
@@ -2144,25 +2144,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>11300</v>
+        <v>11600</v>
       </c>
       <c r="E57" s="3">
-        <v>15300</v>
+        <v>15600</v>
       </c>
       <c r="F57" s="3">
-        <v>6900</v>
+        <v>7000</v>
       </c>
       <c r="G57" s="3">
-        <v>8400</v>
+        <v>8600</v>
       </c>
       <c r="H57" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="I57" s="3">
-        <v>6300</v>
+        <v>6500</v>
       </c>
       <c r="J57" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="K57" s="3">
         <v>6600</v>
@@ -2210,25 +2210,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>1117300</v>
+        <v>1137400</v>
       </c>
       <c r="E59" s="3">
-        <v>1036900</v>
+        <v>1055600</v>
       </c>
       <c r="F59" s="3">
-        <v>1019800</v>
+        <v>1038200</v>
       </c>
       <c r="G59" s="3">
-        <v>951600</v>
+        <v>968700</v>
       </c>
       <c r="H59" s="3">
-        <v>887200</v>
+        <v>903100</v>
       </c>
       <c r="I59" s="3">
-        <v>869500</v>
+        <v>885200</v>
       </c>
       <c r="J59" s="3">
-        <v>817300</v>
+        <v>832000</v>
       </c>
       <c r="K59" s="3">
         <v>702800</v>
@@ -2243,25 +2243,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>1128700</v>
+        <v>1149000</v>
       </c>
       <c r="E60" s="3">
-        <v>1052200</v>
+        <v>1071200</v>
       </c>
       <c r="F60" s="3">
-        <v>1026700</v>
+        <v>1045200</v>
       </c>
       <c r="G60" s="3">
-        <v>960000</v>
+        <v>977300</v>
       </c>
       <c r="H60" s="3">
-        <v>892400</v>
+        <v>908500</v>
       </c>
       <c r="I60" s="3">
-        <v>875900</v>
+        <v>891600</v>
       </c>
       <c r="J60" s="3">
-        <v>821900</v>
+        <v>836700</v>
       </c>
       <c r="K60" s="3">
         <v>709400</v>
@@ -2309,25 +2309,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>497700</v>
+        <v>506700</v>
       </c>
       <c r="E62" s="3">
-        <v>449500</v>
+        <v>457600</v>
       </c>
       <c r="F62" s="3">
-        <v>427800</v>
+        <v>435500</v>
       </c>
       <c r="G62" s="3">
-        <v>381100</v>
+        <v>388000</v>
       </c>
       <c r="H62" s="3">
-        <v>342600</v>
+        <v>348700</v>
       </c>
       <c r="I62" s="3">
-        <v>321500</v>
+        <v>327300</v>
       </c>
       <c r="J62" s="3">
-        <v>301000</v>
+        <v>306400</v>
       </c>
       <c r="K62" s="3">
         <v>249700</v>
@@ -2441,25 +2441,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>1627800</v>
+        <v>1657100</v>
       </c>
       <c r="E66" s="3">
-        <v>1502400</v>
+        <v>1529500</v>
       </c>
       <c r="F66" s="3">
-        <v>1454600</v>
+        <v>1480800</v>
       </c>
       <c r="G66" s="3">
-        <v>1341100</v>
+        <v>1365300</v>
       </c>
       <c r="H66" s="3">
-        <v>1235000</v>
+        <v>1257300</v>
       </c>
       <c r="I66" s="3">
-        <v>1197500</v>
+        <v>1219100</v>
       </c>
       <c r="J66" s="3">
-        <v>1123000</v>
+        <v>1143200</v>
       </c>
       <c r="K66" s="3">
         <v>959200</v>
@@ -2621,25 +2621,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>1462200</v>
+        <v>1488500</v>
       </c>
       <c r="E72" s="3">
-        <v>1412400</v>
+        <v>1437900</v>
       </c>
       <c r="F72" s="3">
-        <v>1344800</v>
+        <v>1369000</v>
       </c>
       <c r="G72" s="3">
-        <v>1284300</v>
+        <v>1307500</v>
       </c>
       <c r="H72" s="3">
-        <v>1194500</v>
+        <v>1216000</v>
       </c>
       <c r="I72" s="3">
-        <v>1147100</v>
+        <v>1167700</v>
       </c>
       <c r="J72" s="3">
-        <v>1093500</v>
+        <v>1113200</v>
       </c>
       <c r="K72" s="3">
         <v>969600</v>
@@ -2753,25 +2753,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>1767900</v>
+        <v>1799700</v>
       </c>
       <c r="E76" s="3">
-        <v>1765300</v>
+        <v>1797100</v>
       </c>
       <c r="F76" s="3">
-        <v>1671600</v>
+        <v>1701700</v>
       </c>
       <c r="G76" s="3">
-        <v>1571400</v>
+        <v>1599700</v>
       </c>
       <c r="H76" s="3">
-        <v>1507500</v>
+        <v>1534600</v>
       </c>
       <c r="I76" s="3">
-        <v>1445100</v>
+        <v>1471100</v>
       </c>
       <c r="J76" s="3">
-        <v>1345500</v>
+        <v>1369700</v>
       </c>
       <c r="K76" s="3">
         <v>1031600</v>
@@ -2857,25 +2857,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>263800</v>
+        <v>268600</v>
       </c>
       <c r="E81" s="3">
-        <v>267300</v>
+        <v>272100</v>
       </c>
       <c r="F81" s="3">
-        <v>242500</v>
+        <v>246900</v>
       </c>
       <c r="G81" s="3">
-        <v>232700</v>
+        <v>236900</v>
       </c>
       <c r="H81" s="3">
-        <v>202300</v>
+        <v>206000</v>
       </c>
       <c r="I81" s="3">
-        <v>210500</v>
+        <v>214300</v>
       </c>
       <c r="J81" s="3">
-        <v>185000</v>
+        <v>188300</v>
       </c>
       <c r="K81" s="3">
         <v>122200</v>
@@ -2905,25 +2905,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>149300</v>
+        <v>152000</v>
       </c>
       <c r="E83" s="3">
-        <v>150200</v>
+        <v>152900</v>
       </c>
       <c r="F83" s="3">
-        <v>131700</v>
+        <v>134100</v>
       </c>
       <c r="G83" s="3">
-        <v>105600</v>
+        <v>107500</v>
       </c>
       <c r="H83" s="3">
-        <v>77900</v>
+        <v>79300</v>
       </c>
       <c r="I83" s="3">
-        <v>71900</v>
+        <v>73200</v>
       </c>
       <c r="J83" s="3">
-        <v>68400</v>
+        <v>69600</v>
       </c>
       <c r="K83" s="3">
         <v>68100</v>
@@ -3103,25 +3103,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>425800</v>
+        <v>433500</v>
       </c>
       <c r="E89" s="3">
-        <v>471600</v>
+        <v>480100</v>
       </c>
       <c r="F89" s="3">
-        <v>442900</v>
+        <v>450900</v>
       </c>
       <c r="G89" s="3">
-        <v>316300</v>
+        <v>322000</v>
       </c>
       <c r="H89" s="3">
-        <v>287800</v>
+        <v>293000</v>
       </c>
       <c r="I89" s="3">
-        <v>301500</v>
+        <v>307000</v>
       </c>
       <c r="J89" s="3">
-        <v>290100</v>
+        <v>295400</v>
       </c>
       <c r="K89" s="3">
         <v>286600</v>
@@ -3151,25 +3151,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-38100</v>
+        <v>-38800</v>
       </c>
       <c r="E91" s="3">
-        <v>-33600</v>
+        <v>-34200</v>
       </c>
       <c r="F91" s="3">
-        <v>-43400</v>
+        <v>-44200</v>
       </c>
       <c r="G91" s="3">
-        <v>-28200</v>
+        <v>-28700</v>
       </c>
       <c r="H91" s="3">
-        <v>-33300</v>
+        <v>-33900</v>
       </c>
       <c r="I91" s="3">
-        <v>-19200</v>
+        <v>-19600</v>
       </c>
       <c r="J91" s="3">
-        <v>-17300</v>
+        <v>-17600</v>
       </c>
       <c r="K91" s="3">
         <v>-10800</v>
@@ -3250,25 +3250,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-13900</v>
+        <v>-14100</v>
       </c>
       <c r="E94" s="3">
-        <v>7700</v>
+        <v>7900</v>
       </c>
       <c r="F94" s="3">
-        <v>-319200</v>
+        <v>-325000</v>
       </c>
       <c r="G94" s="3">
-        <v>122000</v>
+        <v>124200</v>
       </c>
       <c r="H94" s="3">
-        <v>-46500</v>
+        <v>-47300</v>
       </c>
       <c r="I94" s="3">
-        <v>-310800</v>
+        <v>-316400</v>
       </c>
       <c r="J94" s="3">
-        <v>-152500</v>
+        <v>-155200</v>
       </c>
       <c r="K94" s="3">
         <v>-414900</v>
@@ -3298,25 +3298,25 @@
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-207600</v>
+        <v>-211300</v>
       </c>
       <c r="E96" s="3">
-        <v>-186800</v>
+        <v>-190200</v>
       </c>
       <c r="F96" s="3">
-        <v>-176300</v>
+        <v>-179500</v>
       </c>
       <c r="G96" s="3">
-        <v>-136800</v>
+        <v>-139300</v>
       </c>
       <c r="H96" s="3">
-        <v>-140100</v>
+        <v>-142600</v>
       </c>
       <c r="I96" s="3">
-        <v>-148900</v>
+        <v>-151500</v>
       </c>
       <c r="J96" s="3">
-        <v>-79400</v>
+        <v>-80800</v>
       </c>
       <c r="K96" s="3">
         <v>-98200</v>
@@ -3430,22 +3430,22 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-245000</v>
+        <v>-249500</v>
       </c>
       <c r="E100" s="3">
-        <v>-124800</v>
+        <v>-127100</v>
       </c>
       <c r="F100" s="3">
-        <v>-159600</v>
+        <v>-162500</v>
       </c>
       <c r="G100" s="3">
-        <v>-142100</v>
+        <v>-144600</v>
       </c>
       <c r="H100" s="3">
-        <v>-88000</v>
+        <v>-89600</v>
       </c>
       <c r="I100" s="3">
-        <v>-159400</v>
+        <v>-162300</v>
       </c>
       <c r="J100" s="3">
         <v>-2000</v>
@@ -3463,25 +3463,25 @@
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-11100</v>
+        <v>-11300</v>
       </c>
       <c r="E101" s="3">
-        <v>-41200</v>
+        <v>-42000</v>
       </c>
       <c r="F101" s="3">
         <v>-1200</v>
       </c>
       <c r="G101" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="H101" s="3">
-        <v>-39900</v>
+        <v>-40600</v>
       </c>
       <c r="I101" s="3">
-        <v>24400</v>
+        <v>24800</v>
       </c>
       <c r="J101" s="3">
-        <v>86100</v>
+        <v>87700</v>
       </c>
       <c r="K101" s="3">
         <v>41100</v>
@@ -3496,25 +3496,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>155800</v>
+        <v>158600</v>
       </c>
       <c r="E102" s="3">
-        <v>313300</v>
+        <v>318900</v>
       </c>
       <c r="F102" s="3">
-        <v>-37100</v>
+        <v>-37800</v>
       </c>
       <c r="G102" s="3">
-        <v>299200</v>
+        <v>304600</v>
       </c>
       <c r="H102" s="3">
-        <v>113400</v>
+        <v>115500</v>
       </c>
       <c r="I102" s="3">
-        <v>-144300</v>
+        <v>-146900</v>
       </c>
       <c r="J102" s="3">
-        <v>221900</v>
+        <v>225900</v>
       </c>
       <c r="K102" s="3">
         <v>-188400</v>

--- a/AAII_Financials/Yearly/TMICY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TMICY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
   <si>
     <t>TMICY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1587500</v>
+        <v>1594400</v>
       </c>
       <c r="E8" s="3">
-        <v>1541500</v>
+        <v>1513200</v>
       </c>
       <c r="F8" s="3">
-        <v>1430100</v>
+        <v>1469400</v>
       </c>
       <c r="G8" s="3">
-        <v>1267900</v>
+        <v>1363100</v>
       </c>
       <c r="H8" s="3">
-        <v>1194700</v>
+        <v>1208500</v>
       </c>
       <c r="I8" s="3">
-        <v>1107100</v>
+        <v>1138700</v>
       </c>
       <c r="J8" s="3">
+        <v>1055300</v>
+      </c>
+      <c r="K8" s="3">
         <v>1040900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>853000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>855000</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>310400</v>
+        <v>349600</v>
       </c>
       <c r="E9" s="3">
-        <v>314500</v>
+        <v>295900</v>
       </c>
       <c r="F9" s="3">
-        <v>270400</v>
+        <v>299800</v>
       </c>
       <c r="G9" s="3">
-        <v>221400</v>
+        <v>257700</v>
       </c>
       <c r="H9" s="3">
-        <v>204400</v>
+        <v>211000</v>
       </c>
       <c r="I9" s="3">
-        <v>196300</v>
+        <v>194900</v>
       </c>
       <c r="J9" s="3">
+        <v>187100</v>
+      </c>
+      <c r="K9" s="3">
         <v>186200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>159200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>158700</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1277100</v>
+        <v>1244800</v>
       </c>
       <c r="E10" s="3">
-        <v>1227000</v>
+        <v>1217300</v>
       </c>
       <c r="F10" s="3">
-        <v>1159700</v>
+        <v>1169600</v>
       </c>
       <c r="G10" s="3">
-        <v>1046500</v>
+        <v>1105400</v>
       </c>
       <c r="H10" s="3">
-        <v>990300</v>
+        <v>997500</v>
       </c>
       <c r="I10" s="3">
-        <v>910800</v>
+        <v>943900</v>
       </c>
       <c r="J10" s="3">
+        <v>868100</v>
+      </c>
+      <c r="K10" s="3">
         <v>854700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>693800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>696300</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,41 +837,45 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>79100</v>
+        <v>67200</v>
       </c>
       <c r="E12" s="3">
-        <v>71500</v>
+        <v>75400</v>
       </c>
       <c r="F12" s="3">
-        <v>74800</v>
+        <v>68200</v>
       </c>
       <c r="G12" s="3">
-        <v>50600</v>
+        <v>71300</v>
       </c>
       <c r="H12" s="3">
-        <v>36300</v>
+        <v>48300</v>
       </c>
       <c r="I12" s="3">
-        <v>28100</v>
+        <v>34600</v>
       </c>
       <c r="J12" s="3">
+        <v>26800</v>
+      </c>
+      <c r="K12" s="3">
         <v>40200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>34400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>30800</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,42 +906,48 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>700</v>
+        <v>1800</v>
       </c>
       <c r="E14" s="3">
-        <v>3200</v>
+        <v>600</v>
       </c>
       <c r="F14" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G14" s="3">
         <v>400</v>
       </c>
-      <c r="G14" s="3">
-        <v>3600</v>
-      </c>
       <c r="H14" s="3">
-        <v>7200</v>
+        <v>3400</v>
       </c>
       <c r="I14" s="3">
-        <v>2200</v>
+        <v>6900</v>
       </c>
       <c r="J14" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K14" s="3">
         <v>8200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-31300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-42100</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -956,9 +978,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1226000</v>
+        <v>1234700</v>
       </c>
       <c r="E17" s="3">
-        <v>1200400</v>
+        <v>1168600</v>
       </c>
       <c r="F17" s="3">
-        <v>1080300</v>
+        <v>1144200</v>
       </c>
       <c r="G17" s="3">
-        <v>941300</v>
+        <v>1029700</v>
       </c>
       <c r="H17" s="3">
-        <v>904200</v>
+        <v>897200</v>
       </c>
       <c r="I17" s="3">
-        <v>785900</v>
+        <v>861900</v>
       </c>
       <c r="J17" s="3">
+        <v>749100</v>
+      </c>
+      <c r="K17" s="3">
         <v>766100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>618000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>579000</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>361500</v>
+        <v>359700</v>
       </c>
       <c r="E18" s="3">
-        <v>341100</v>
+        <v>344600</v>
       </c>
       <c r="F18" s="3">
-        <v>349800</v>
+        <v>325200</v>
       </c>
       <c r="G18" s="3">
-        <v>326600</v>
+        <v>333400</v>
       </c>
       <c r="H18" s="3">
-        <v>290500</v>
+        <v>311300</v>
       </c>
       <c r="I18" s="3">
-        <v>321200</v>
+        <v>276900</v>
       </c>
       <c r="J18" s="3">
+        <v>306200</v>
+      </c>
+      <c r="K18" s="3">
         <v>274800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>235000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>276000</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1050,173 +1082,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>14600</v>
+        <v>5400</v>
       </c>
       <c r="E20" s="3">
-        <v>16300</v>
+        <v>13900</v>
       </c>
       <c r="F20" s="3">
-        <v>6700</v>
+        <v>15500</v>
       </c>
       <c r="G20" s="3">
-        <v>16700</v>
+        <v>6400</v>
       </c>
       <c r="H20" s="3">
-        <v>36700</v>
+        <v>15900</v>
       </c>
       <c r="I20" s="3">
-        <v>25100</v>
+        <v>34900</v>
       </c>
       <c r="J20" s="3">
+        <v>24000</v>
+      </c>
+      <c r="K20" s="3">
         <v>32800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-13100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-22100</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>527800</v>
+        <v>573700</v>
       </c>
       <c r="E21" s="3">
-        <v>510000</v>
+        <v>504000</v>
       </c>
       <c r="F21" s="3">
-        <v>490300</v>
+        <v>487100</v>
       </c>
       <c r="G21" s="3">
-        <v>450600</v>
+        <v>468200</v>
       </c>
       <c r="H21" s="3">
-        <v>406300</v>
+        <v>430200</v>
       </c>
       <c r="I21" s="3">
-        <v>419400</v>
+        <v>387800</v>
       </c>
       <c r="J21" s="3">
+        <v>400200</v>
+      </c>
+      <c r="K21" s="3">
         <v>377100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>290200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>319000</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>376100</v>
+        <v>365100</v>
       </c>
       <c r="E23" s="3">
-        <v>357400</v>
+        <v>358500</v>
       </c>
       <c r="F23" s="3">
-        <v>356500</v>
+        <v>340700</v>
       </c>
       <c r="G23" s="3">
-        <v>343300</v>
+        <v>339800</v>
       </c>
       <c r="H23" s="3">
-        <v>327100</v>
+        <v>327200</v>
       </c>
       <c r="I23" s="3">
-        <v>346200</v>
+        <v>311800</v>
       </c>
       <c r="J23" s="3">
+        <v>330000</v>
+      </c>
+      <c r="K23" s="3">
         <v>307600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>221800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>253900</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>108800</v>
+        <v>123500</v>
       </c>
       <c r="E24" s="3">
-        <v>85400</v>
+        <v>103700</v>
       </c>
       <c r="F24" s="3">
-        <v>109600</v>
+        <v>81400</v>
       </c>
       <c r="G24" s="3">
-        <v>106300</v>
+        <v>104500</v>
       </c>
       <c r="H24" s="3">
-        <v>121100</v>
+        <v>101400</v>
       </c>
       <c r="I24" s="3">
-        <v>131900</v>
+        <v>115400</v>
       </c>
       <c r="J24" s="3">
+        <v>125700</v>
+      </c>
+      <c r="K24" s="3">
         <v>119300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>99600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>100000</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>267300</v>
+        <v>241600</v>
       </c>
       <c r="E26" s="3">
-        <v>272000</v>
+        <v>254800</v>
       </c>
       <c r="F26" s="3">
-        <v>246900</v>
+        <v>259200</v>
       </c>
       <c r="G26" s="3">
-        <v>236900</v>
+        <v>235300</v>
       </c>
       <c r="H26" s="3">
-        <v>206000</v>
+        <v>225800</v>
       </c>
       <c r="I26" s="3">
-        <v>214300</v>
+        <v>196400</v>
       </c>
       <c r="J26" s="3">
+        <v>204300</v>
+      </c>
+      <c r="K26" s="3">
         <v>188300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>122200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>153900</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>268600</v>
+        <v>246400</v>
       </c>
       <c r="E27" s="3">
-        <v>272100</v>
+        <v>256000</v>
       </c>
       <c r="F27" s="3">
-        <v>246900</v>
+        <v>259400</v>
       </c>
       <c r="G27" s="3">
-        <v>236900</v>
+        <v>235300</v>
       </c>
       <c r="H27" s="3">
-        <v>206000</v>
+        <v>225800</v>
       </c>
       <c r="I27" s="3">
-        <v>214300</v>
+        <v>196300</v>
       </c>
       <c r="J27" s="3">
+        <v>204300</v>
+      </c>
+      <c r="K27" s="3">
         <v>188300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>122200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>153800</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1346,9 +1403,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1379,9 +1439,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-14600</v>
+        <v>-5400</v>
       </c>
       <c r="E32" s="3">
-        <v>-16300</v>
+        <v>-13900</v>
       </c>
       <c r="F32" s="3">
-        <v>-6700</v>
+        <v>-15500</v>
       </c>
       <c r="G32" s="3">
-        <v>-16700</v>
+        <v>-6400</v>
       </c>
       <c r="H32" s="3">
-        <v>-36700</v>
+        <v>-15900</v>
       </c>
       <c r="I32" s="3">
-        <v>-25100</v>
+        <v>-34900</v>
       </c>
       <c r="J32" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-32800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>13100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>22100</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>268600</v>
+        <v>246400</v>
       </c>
       <c r="E33" s="3">
-        <v>272100</v>
+        <v>256000</v>
       </c>
       <c r="F33" s="3">
-        <v>246900</v>
+        <v>259400</v>
       </c>
       <c r="G33" s="3">
-        <v>236900</v>
+        <v>235300</v>
       </c>
       <c r="H33" s="3">
-        <v>206000</v>
+        <v>225800</v>
       </c>
       <c r="I33" s="3">
-        <v>214300</v>
+        <v>196300</v>
       </c>
       <c r="J33" s="3">
+        <v>204300</v>
+      </c>
+      <c r="K33" s="3">
         <v>188300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>122200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>153800</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>268600</v>
+        <v>246400</v>
       </c>
       <c r="E35" s="3">
-        <v>272100</v>
+        <v>256000</v>
       </c>
       <c r="F35" s="3">
-        <v>246900</v>
+        <v>259400</v>
       </c>
       <c r="G35" s="3">
-        <v>236900</v>
+        <v>235300</v>
       </c>
       <c r="H35" s="3">
-        <v>206000</v>
+        <v>225800</v>
       </c>
       <c r="I35" s="3">
-        <v>214300</v>
+        <v>196300</v>
       </c>
       <c r="J35" s="3">
+        <v>204300</v>
+      </c>
+      <c r="K35" s="3">
         <v>188300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>122200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>153800</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1646,305 +1731,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1201100</v>
+        <v>1426600</v>
       </c>
       <c r="E41" s="3">
-        <v>1119500</v>
+        <v>1144800</v>
       </c>
       <c r="F41" s="3">
-        <v>825500</v>
+        <v>1067100</v>
       </c>
       <c r="G41" s="3">
-        <v>812100</v>
+        <v>786800</v>
       </c>
       <c r="H41" s="3">
-        <v>709600</v>
+        <v>774100</v>
       </c>
       <c r="I41" s="3">
-        <v>606500</v>
+        <v>676400</v>
       </c>
       <c r="J41" s="3">
+        <v>578100</v>
+      </c>
+      <c r="K41" s="3">
         <v>765300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>497500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>637600</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>457600</v>
+        <v>517800</v>
       </c>
       <c r="E42" s="3">
-        <v>589000</v>
+        <v>436200</v>
       </c>
       <c r="F42" s="3">
-        <v>639400</v>
+        <v>561400</v>
       </c>
       <c r="G42" s="3">
-        <v>482000</v>
+        <v>609500</v>
       </c>
       <c r="H42" s="3">
-        <v>691100</v>
+        <v>459400</v>
       </c>
       <c r="I42" s="3">
-        <v>714300</v>
+        <v>658700</v>
       </c>
       <c r="J42" s="3">
+        <v>680800</v>
+      </c>
+      <c r="K42" s="3">
         <v>585800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>582800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>334700</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>431900</v>
+        <v>430700</v>
       </c>
       <c r="E43" s="3">
-        <v>374600</v>
+        <v>411600</v>
       </c>
       <c r="F43" s="3">
-        <v>382300</v>
+        <v>357100</v>
       </c>
       <c r="G43" s="3">
-        <v>341700</v>
+        <v>364400</v>
       </c>
       <c r="H43" s="3">
-        <v>288000</v>
+        <v>325700</v>
       </c>
       <c r="I43" s="3">
-        <v>250600</v>
+        <v>274500</v>
       </c>
       <c r="J43" s="3">
+        <v>238800</v>
+      </c>
+      <c r="K43" s="3">
         <v>233800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>189900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>185900</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>39500</v>
+        <v>31200</v>
       </c>
       <c r="E44" s="3">
-        <v>70600</v>
+        <v>37600</v>
       </c>
       <c r="F44" s="3">
-        <v>28600</v>
+        <v>67300</v>
       </c>
       <c r="G44" s="3">
-        <v>16400</v>
+        <v>27300</v>
       </c>
       <c r="H44" s="3">
-        <v>7800</v>
+        <v>15700</v>
       </c>
       <c r="I44" s="3">
-        <v>5000</v>
+        <v>7400</v>
       </c>
       <c r="J44" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K44" s="3">
         <v>3900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3800</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>54800</v>
+        <v>54600</v>
       </c>
       <c r="E45" s="3">
-        <v>206300</v>
+        <v>52200</v>
       </c>
       <c r="F45" s="3">
-        <v>207600</v>
+        <v>196700</v>
       </c>
       <c r="G45" s="3">
-        <v>222000</v>
+        <v>197900</v>
       </c>
       <c r="H45" s="3">
-        <v>239800</v>
+        <v>211600</v>
       </c>
       <c r="I45" s="3">
-        <v>190000</v>
+        <v>228600</v>
       </c>
       <c r="J45" s="3">
+        <v>181100</v>
+      </c>
+      <c r="K45" s="3">
         <v>185300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>174100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>179300</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>2184800</v>
+        <v>2460800</v>
       </c>
       <c r="E46" s="3">
-        <v>2169700</v>
+        <v>2082500</v>
       </c>
       <c r="F46" s="3">
-        <v>2083400</v>
+        <v>2068100</v>
       </c>
       <c r="G46" s="3">
-        <v>1874200</v>
+        <v>1985800</v>
       </c>
       <c r="H46" s="3">
-        <v>1936300</v>
+        <v>1786500</v>
       </c>
       <c r="I46" s="3">
-        <v>1766300</v>
+        <v>1845600</v>
       </c>
       <c r="J46" s="3">
+        <v>1683600</v>
+      </c>
+      <c r="K46" s="3">
         <v>1774100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1447700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1341300</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>480400</v>
+        <v>331700</v>
       </c>
       <c r="E47" s="3">
-        <v>429900</v>
+        <v>457900</v>
       </c>
       <c r="F47" s="3">
-        <v>503500</v>
+        <v>409800</v>
       </c>
       <c r="G47" s="3">
-        <v>487500</v>
+        <v>479900</v>
       </c>
       <c r="H47" s="3">
-        <v>603500</v>
+        <v>464600</v>
       </c>
       <c r="I47" s="3">
-        <v>663500</v>
+        <v>575300</v>
       </c>
       <c r="J47" s="3">
+        <v>632500</v>
+      </c>
+      <c r="K47" s="3">
         <v>491400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>322500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>208300</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>94800</v>
+        <v>73000</v>
       </c>
       <c r="E48" s="3">
-        <v>84300</v>
+        <v>90300</v>
       </c>
       <c r="F48" s="3">
-        <v>79000</v>
+        <v>80300</v>
       </c>
       <c r="G48" s="3">
-        <v>63000</v>
+        <v>75300</v>
       </c>
       <c r="H48" s="3">
-        <v>55600</v>
+        <v>60000</v>
       </c>
       <c r="I48" s="3">
-        <v>47600</v>
+        <v>53000</v>
       </c>
       <c r="J48" s="3">
+        <v>45300</v>
+      </c>
+      <c r="K48" s="3">
         <v>44000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>40300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>45700</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>347700</v>
+        <v>237300</v>
       </c>
       <c r="E49" s="3">
-        <v>337400</v>
+        <v>331400</v>
       </c>
       <c r="F49" s="3">
-        <v>387200</v>
+        <v>321600</v>
       </c>
       <c r="G49" s="3">
-        <v>408800</v>
+        <v>369100</v>
       </c>
       <c r="H49" s="3">
-        <v>78900</v>
+        <v>389600</v>
       </c>
       <c r="I49" s="3">
-        <v>90600</v>
+        <v>75200</v>
       </c>
       <c r="J49" s="3">
+        <v>86400</v>
+      </c>
+      <c r="K49" s="3">
         <v>88000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>71500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>84400</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>349200</v>
+        <v>347700</v>
       </c>
       <c r="E52" s="3">
-        <v>305400</v>
+        <v>332800</v>
       </c>
       <c r="F52" s="3">
-        <v>129300</v>
+        <v>291100</v>
       </c>
       <c r="G52" s="3">
-        <v>131600</v>
+        <v>123300</v>
       </c>
       <c r="H52" s="3">
-        <v>117500</v>
+        <v>125400</v>
       </c>
       <c r="I52" s="3">
-        <v>122200</v>
+        <v>112000</v>
       </c>
       <c r="J52" s="3">
+        <v>116500</v>
+      </c>
+      <c r="K52" s="3">
         <v>115400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>108700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>109900</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>3456800</v>
+        <v>3450600</v>
       </c>
       <c r="E54" s="3">
-        <v>3326600</v>
+        <v>3294900</v>
       </c>
       <c r="F54" s="3">
-        <v>3182400</v>
+        <v>3170800</v>
       </c>
       <c r="G54" s="3">
-        <v>2965000</v>
+        <v>3033400</v>
       </c>
       <c r="H54" s="3">
-        <v>2791900</v>
+        <v>2826200</v>
       </c>
       <c r="I54" s="3">
-        <v>2690200</v>
+        <v>2661200</v>
       </c>
       <c r="J54" s="3">
+        <v>2564200</v>
+      </c>
+      <c r="K54" s="3">
         <v>2512900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1990800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1789600</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2138,41 +2267,45 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>11600</v>
+        <v>8400</v>
       </c>
       <c r="E57" s="3">
-        <v>15600</v>
+        <v>11000</v>
       </c>
       <c r="F57" s="3">
-        <v>7000</v>
+        <v>14900</v>
       </c>
       <c r="G57" s="3">
-        <v>8600</v>
+        <v>6700</v>
       </c>
       <c r="H57" s="3">
-        <v>5400</v>
+        <v>8200</v>
       </c>
       <c r="I57" s="3">
-        <v>6500</v>
+        <v>5100</v>
       </c>
       <c r="J57" s="3">
+        <v>6200</v>
+      </c>
+      <c r="K57" s="3">
         <v>4700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7900</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
@@ -2203,75 +2336,84 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>1137400</v>
+        <v>1195800</v>
       </c>
       <c r="E59" s="3">
-        <v>1055600</v>
+        <v>1084200</v>
       </c>
       <c r="F59" s="3">
-        <v>1038200</v>
+        <v>1006200</v>
       </c>
       <c r="G59" s="3">
-        <v>968700</v>
+        <v>989600</v>
       </c>
       <c r="H59" s="3">
-        <v>903100</v>
+        <v>923300</v>
       </c>
       <c r="I59" s="3">
-        <v>885200</v>
+        <v>860800</v>
       </c>
       <c r="J59" s="3">
+        <v>843700</v>
+      </c>
+      <c r="K59" s="3">
         <v>832000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>702800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>625500</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>1149000</v>
+        <v>1204200</v>
       </c>
       <c r="E60" s="3">
-        <v>1071200</v>
+        <v>1095200</v>
       </c>
       <c r="F60" s="3">
-        <v>1045200</v>
+        <v>1021000</v>
       </c>
       <c r="G60" s="3">
-        <v>977300</v>
+        <v>996300</v>
       </c>
       <c r="H60" s="3">
-        <v>908500</v>
+        <v>931500</v>
       </c>
       <c r="I60" s="3">
-        <v>891600</v>
+        <v>866000</v>
       </c>
       <c r="J60" s="3">
+        <v>849900</v>
+      </c>
+      <c r="K60" s="3">
         <v>836700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>709400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>633300</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
@@ -2302,42 +2444,48 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>506700</v>
+        <v>511800</v>
       </c>
       <c r="E62" s="3">
-        <v>457600</v>
+        <v>483000</v>
       </c>
       <c r="F62" s="3">
-        <v>435500</v>
+        <v>436200</v>
       </c>
       <c r="G62" s="3">
-        <v>388000</v>
+        <v>415100</v>
       </c>
       <c r="H62" s="3">
-        <v>348700</v>
+        <v>369800</v>
       </c>
       <c r="I62" s="3">
-        <v>327300</v>
+        <v>332400</v>
       </c>
       <c r="J62" s="3">
+        <v>312000</v>
+      </c>
+      <c r="K62" s="3">
         <v>306400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>249700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>204000</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>1657100</v>
+        <v>1723600</v>
       </c>
       <c r="E66" s="3">
-        <v>1529500</v>
+        <v>1579500</v>
       </c>
       <c r="F66" s="3">
-        <v>1480800</v>
+        <v>1457900</v>
       </c>
       <c r="G66" s="3">
-        <v>1365300</v>
+        <v>1411400</v>
       </c>
       <c r="H66" s="3">
-        <v>1257300</v>
+        <v>1301400</v>
       </c>
       <c r="I66" s="3">
-        <v>1219100</v>
+        <v>1198400</v>
       </c>
       <c r="J66" s="3">
+        <v>1162000</v>
+      </c>
+      <c r="K66" s="3">
         <v>1143200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>959200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>837800</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>1488500</v>
+        <v>1462400</v>
       </c>
       <c r="E72" s="3">
-        <v>1437900</v>
+        <v>1418800</v>
       </c>
       <c r="F72" s="3">
-        <v>1369000</v>
+        <v>1370500</v>
       </c>
       <c r="G72" s="3">
-        <v>1307500</v>
+        <v>1304900</v>
       </c>
       <c r="H72" s="3">
-        <v>1216000</v>
+        <v>1246200</v>
       </c>
       <c r="I72" s="3">
-        <v>1167700</v>
+        <v>1159100</v>
       </c>
       <c r="J72" s="3">
+        <v>1113100</v>
+      </c>
+      <c r="K72" s="3">
         <v>1113200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>969600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>889800</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>1799700</v>
+        <v>1726900</v>
       </c>
       <c r="E76" s="3">
-        <v>1797100</v>
+        <v>1715400</v>
       </c>
       <c r="F76" s="3">
-        <v>1701700</v>
+        <v>1713000</v>
       </c>
       <c r="G76" s="3">
-        <v>1599700</v>
+        <v>1622000</v>
       </c>
       <c r="H76" s="3">
-        <v>1534600</v>
+        <v>1524800</v>
       </c>
       <c r="I76" s="3">
-        <v>1471100</v>
+        <v>1462800</v>
       </c>
       <c r="J76" s="3">
+        <v>1402200</v>
+      </c>
+      <c r="K76" s="3">
         <v>1369700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1031600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>951800</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>268600</v>
+        <v>246400</v>
       </c>
       <c r="E81" s="3">
-        <v>272100</v>
+        <v>256000</v>
       </c>
       <c r="F81" s="3">
-        <v>246900</v>
+        <v>259400</v>
       </c>
       <c r="G81" s="3">
-        <v>236900</v>
+        <v>235300</v>
       </c>
       <c r="H81" s="3">
-        <v>206000</v>
+        <v>225800</v>
       </c>
       <c r="I81" s="3">
-        <v>214300</v>
+        <v>196300</v>
       </c>
       <c r="J81" s="3">
+        <v>204300</v>
+      </c>
+      <c r="K81" s="3">
         <v>188300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>122200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>153800</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>152000</v>
+        <v>207700</v>
       </c>
       <c r="E83" s="3">
-        <v>152900</v>
+        <v>144900</v>
       </c>
       <c r="F83" s="3">
-        <v>134100</v>
+        <v>145800</v>
       </c>
       <c r="G83" s="3">
-        <v>107500</v>
+        <v>127800</v>
       </c>
       <c r="H83" s="3">
-        <v>79300</v>
+        <v>102500</v>
       </c>
       <c r="I83" s="3">
-        <v>73200</v>
+        <v>75600</v>
       </c>
       <c r="J83" s="3">
+        <v>69800</v>
+      </c>
+      <c r="K83" s="3">
         <v>69600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>68100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>65100</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>433500</v>
+        <v>497500</v>
       </c>
       <c r="E89" s="3">
-        <v>480100</v>
+        <v>413200</v>
       </c>
       <c r="F89" s="3">
-        <v>450900</v>
+        <v>457600</v>
       </c>
       <c r="G89" s="3">
-        <v>322000</v>
+        <v>429700</v>
       </c>
       <c r="H89" s="3">
-        <v>293000</v>
+        <v>307000</v>
       </c>
       <c r="I89" s="3">
-        <v>307000</v>
+        <v>279300</v>
       </c>
       <c r="J89" s="3">
+        <v>292600</v>
+      </c>
+      <c r="K89" s="3">
         <v>295400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>286600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>231700</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-38800</v>
+        <v>-14300</v>
       </c>
       <c r="E91" s="3">
-        <v>-34200</v>
+        <v>-37000</v>
       </c>
       <c r="F91" s="3">
-        <v>-44200</v>
+        <v>-32600</v>
       </c>
       <c r="G91" s="3">
-        <v>-28700</v>
+        <v>-42100</v>
       </c>
       <c r="H91" s="3">
-        <v>-33900</v>
+        <v>-27400</v>
       </c>
       <c r="I91" s="3">
-        <v>-19600</v>
+        <v>-32300</v>
       </c>
       <c r="J91" s="3">
+        <v>-18700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-17600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-10800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-61900</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-14100</v>
+        <v>-52900</v>
       </c>
       <c r="E94" s="3">
-        <v>7900</v>
+        <v>-13500</v>
       </c>
       <c r="F94" s="3">
-        <v>-325000</v>
+        <v>7500</v>
       </c>
       <c r="G94" s="3">
-        <v>124200</v>
+        <v>-309800</v>
       </c>
       <c r="H94" s="3">
-        <v>-47300</v>
+        <v>118400</v>
       </c>
       <c r="I94" s="3">
-        <v>-316400</v>
+        <v>-45100</v>
       </c>
       <c r="J94" s="3">
+        <v>-301600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-155200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-414900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-23200</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-211300</v>
+        <v>-198600</v>
       </c>
       <c r="E96" s="3">
-        <v>-190200</v>
+        <v>-201400</v>
       </c>
       <c r="F96" s="3">
-        <v>-179500</v>
+        <v>-181300</v>
       </c>
       <c r="G96" s="3">
-        <v>-139300</v>
+        <v>-171100</v>
       </c>
       <c r="H96" s="3">
-        <v>-142600</v>
+        <v>-132800</v>
       </c>
       <c r="I96" s="3">
-        <v>-151500</v>
+        <v>-135900</v>
       </c>
       <c r="J96" s="3">
+        <v>-144500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-80800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-98200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-79200</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-249500</v>
+        <v>-193700</v>
       </c>
       <c r="E100" s="3">
-        <v>-127100</v>
+        <v>-237800</v>
       </c>
       <c r="F100" s="3">
-        <v>-162500</v>
+        <v>-121100</v>
       </c>
       <c r="G100" s="3">
-        <v>-144600</v>
+        <v>-154900</v>
       </c>
       <c r="H100" s="3">
-        <v>-89600</v>
+        <v>-137900</v>
       </c>
       <c r="I100" s="3">
-        <v>-162300</v>
+        <v>-85400</v>
       </c>
       <c r="J100" s="3">
+        <v>-154700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-101200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-120300</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-11300</v>
+        <v>-12400</v>
       </c>
       <c r="E101" s="3">
-        <v>-42000</v>
+        <v>-10800</v>
       </c>
       <c r="F101" s="3">
-        <v>-1200</v>
+        <v>-40000</v>
       </c>
       <c r="G101" s="3">
-        <v>3000</v>
+        <v>-1100</v>
       </c>
       <c r="H101" s="3">
-        <v>-40600</v>
+        <v>2800</v>
       </c>
       <c r="I101" s="3">
-        <v>24800</v>
+        <v>-38700</v>
       </c>
       <c r="J101" s="3">
+        <v>23600</v>
+      </c>
+      <c r="K101" s="3">
         <v>87700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>41100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-25800</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>158600</v>
+        <v>238500</v>
       </c>
       <c r="E102" s="3">
-        <v>318900</v>
+        <v>151100</v>
       </c>
       <c r="F102" s="3">
-        <v>-37800</v>
+        <v>304000</v>
       </c>
       <c r="G102" s="3">
-        <v>304600</v>
+        <v>-36000</v>
       </c>
       <c r="H102" s="3">
-        <v>115500</v>
+        <v>290300</v>
       </c>
       <c r="I102" s="3">
-        <v>-146900</v>
+        <v>110100</v>
       </c>
       <c r="J102" s="3">
+        <v>-140000</v>
+      </c>
+      <c r="K102" s="3">
         <v>225900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-188400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>62400</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/TMICY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TMICY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1594400</v>
+        <v>1599600</v>
       </c>
       <c r="E8" s="3">
-        <v>1513200</v>
+        <v>1518100</v>
       </c>
       <c r="F8" s="3">
-        <v>1469400</v>
+        <v>1474200</v>
       </c>
       <c r="G8" s="3">
-        <v>1363100</v>
+        <v>1367600</v>
       </c>
       <c r="H8" s="3">
-        <v>1208500</v>
+        <v>1212500</v>
       </c>
       <c r="I8" s="3">
-        <v>1138700</v>
+        <v>1142500</v>
       </c>
       <c r="J8" s="3">
-        <v>1055300</v>
+        <v>1058700</v>
       </c>
       <c r="K8" s="3">
         <v>1040900</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>349600</v>
+        <v>350700</v>
       </c>
       <c r="E9" s="3">
-        <v>295900</v>
+        <v>296800</v>
       </c>
       <c r="F9" s="3">
-        <v>299800</v>
+        <v>300800</v>
       </c>
       <c r="G9" s="3">
-        <v>257700</v>
+        <v>258600</v>
       </c>
       <c r="H9" s="3">
-        <v>211000</v>
+        <v>211700</v>
       </c>
       <c r="I9" s="3">
-        <v>194900</v>
+        <v>195500</v>
       </c>
       <c r="J9" s="3">
-        <v>187100</v>
+        <v>187800</v>
       </c>
       <c r="K9" s="3">
         <v>186200</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1244800</v>
+        <v>1248900</v>
       </c>
       <c r="E10" s="3">
-        <v>1217300</v>
+        <v>1221300</v>
       </c>
       <c r="F10" s="3">
-        <v>1169600</v>
+        <v>1173400</v>
       </c>
       <c r="G10" s="3">
-        <v>1105400</v>
+        <v>1109000</v>
       </c>
       <c r="H10" s="3">
-        <v>997500</v>
+        <v>1000800</v>
       </c>
       <c r="I10" s="3">
-        <v>943900</v>
+        <v>947000</v>
       </c>
       <c r="J10" s="3">
-        <v>868100</v>
+        <v>871000</v>
       </c>
       <c r="K10" s="3">
         <v>854700</v>
@@ -844,25 +844,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>67200</v>
+        <v>67500</v>
       </c>
       <c r="E12" s="3">
-        <v>75400</v>
+        <v>75700</v>
       </c>
       <c r="F12" s="3">
-        <v>68200</v>
+        <v>68400</v>
       </c>
       <c r="G12" s="3">
-        <v>71300</v>
+        <v>71600</v>
       </c>
       <c r="H12" s="3">
-        <v>48300</v>
+        <v>48400</v>
       </c>
       <c r="I12" s="3">
-        <v>34600</v>
+        <v>34700</v>
       </c>
       <c r="J12" s="3">
-        <v>26800</v>
+        <v>26900</v>
       </c>
       <c r="K12" s="3">
         <v>40200</v>
@@ -1001,25 +1001,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1234700</v>
+        <v>1238700</v>
       </c>
       <c r="E17" s="3">
-        <v>1168600</v>
+        <v>1172400</v>
       </c>
       <c r="F17" s="3">
-        <v>1144200</v>
+        <v>1147900</v>
       </c>
       <c r="G17" s="3">
-        <v>1029700</v>
+        <v>1033100</v>
       </c>
       <c r="H17" s="3">
-        <v>897200</v>
+        <v>900200</v>
       </c>
       <c r="I17" s="3">
-        <v>861900</v>
+        <v>864700</v>
       </c>
       <c r="J17" s="3">
-        <v>749100</v>
+        <v>751600</v>
       </c>
       <c r="K17" s="3">
         <v>766100</v>
@@ -1037,25 +1037,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>359700</v>
+        <v>360900</v>
       </c>
       <c r="E18" s="3">
-        <v>344600</v>
+        <v>345700</v>
       </c>
       <c r="F18" s="3">
-        <v>325200</v>
+        <v>326200</v>
       </c>
       <c r="G18" s="3">
-        <v>333400</v>
+        <v>334500</v>
       </c>
       <c r="H18" s="3">
-        <v>311300</v>
+        <v>312300</v>
       </c>
       <c r="I18" s="3">
-        <v>276900</v>
+        <v>277800</v>
       </c>
       <c r="J18" s="3">
-        <v>306200</v>
+        <v>307200</v>
       </c>
       <c r="K18" s="3">
         <v>274800</v>
@@ -1092,22 +1092,22 @@
         <v>5400</v>
       </c>
       <c r="E20" s="3">
-        <v>13900</v>
+        <v>14000</v>
       </c>
       <c r="F20" s="3">
-        <v>15500</v>
+        <v>15600</v>
       </c>
       <c r="G20" s="3">
         <v>6400</v>
       </c>
       <c r="H20" s="3">
-        <v>15900</v>
+        <v>16000</v>
       </c>
       <c r="I20" s="3">
-        <v>34900</v>
+        <v>35100</v>
       </c>
       <c r="J20" s="3">
-        <v>24000</v>
+        <v>24100</v>
       </c>
       <c r="K20" s="3">
         <v>32800</v>
@@ -1125,25 +1125,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>573700</v>
+        <v>574900</v>
       </c>
       <c r="E21" s="3">
-        <v>504000</v>
+        <v>505200</v>
       </c>
       <c r="F21" s="3">
-        <v>487100</v>
+        <v>488200</v>
       </c>
       <c r="G21" s="3">
-        <v>468200</v>
+        <v>469300</v>
       </c>
       <c r="H21" s="3">
-        <v>430200</v>
+        <v>431300</v>
       </c>
       <c r="I21" s="3">
-        <v>387800</v>
+        <v>388800</v>
       </c>
       <c r="J21" s="3">
-        <v>400200</v>
+        <v>401300</v>
       </c>
       <c r="K21" s="3">
         <v>377100</v>
@@ -1197,25 +1197,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>365100</v>
+        <v>366300</v>
       </c>
       <c r="E23" s="3">
-        <v>358500</v>
+        <v>359700</v>
       </c>
       <c r="F23" s="3">
-        <v>340700</v>
+        <v>341800</v>
       </c>
       <c r="G23" s="3">
-        <v>339800</v>
+        <v>340900</v>
       </c>
       <c r="H23" s="3">
-        <v>327200</v>
+        <v>328300</v>
       </c>
       <c r="I23" s="3">
-        <v>311800</v>
+        <v>312800</v>
       </c>
       <c r="J23" s="3">
-        <v>330000</v>
+        <v>331100</v>
       </c>
       <c r="K23" s="3">
         <v>307600</v>
@@ -1233,25 +1233,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>123500</v>
+        <v>123900</v>
       </c>
       <c r="E24" s="3">
-        <v>103700</v>
+        <v>104000</v>
       </c>
       <c r="F24" s="3">
-        <v>81400</v>
+        <v>81700</v>
       </c>
       <c r="G24" s="3">
-        <v>104500</v>
+        <v>104800</v>
       </c>
       <c r="H24" s="3">
-        <v>101400</v>
+        <v>101700</v>
       </c>
       <c r="I24" s="3">
-        <v>115400</v>
+        <v>115800</v>
       </c>
       <c r="J24" s="3">
-        <v>125700</v>
+        <v>126100</v>
       </c>
       <c r="K24" s="3">
         <v>119300</v>
@@ -1305,25 +1305,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>241600</v>
+        <v>242400</v>
       </c>
       <c r="E26" s="3">
-        <v>254800</v>
+        <v>255600</v>
       </c>
       <c r="F26" s="3">
-        <v>259200</v>
+        <v>260100</v>
       </c>
       <c r="G26" s="3">
-        <v>235300</v>
+        <v>236100</v>
       </c>
       <c r="H26" s="3">
-        <v>225800</v>
+        <v>226600</v>
       </c>
       <c r="I26" s="3">
-        <v>196400</v>
+        <v>197000</v>
       </c>
       <c r="J26" s="3">
-        <v>204300</v>
+        <v>205000</v>
       </c>
       <c r="K26" s="3">
         <v>188300</v>
@@ -1341,25 +1341,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>246400</v>
+        <v>247200</v>
       </c>
       <c r="E27" s="3">
-        <v>256000</v>
+        <v>256800</v>
       </c>
       <c r="F27" s="3">
-        <v>259400</v>
+        <v>260200</v>
       </c>
       <c r="G27" s="3">
-        <v>235300</v>
+        <v>236100</v>
       </c>
       <c r="H27" s="3">
-        <v>225800</v>
+        <v>226500</v>
       </c>
       <c r="I27" s="3">
-        <v>196300</v>
+        <v>197000</v>
       </c>
       <c r="J27" s="3">
-        <v>204300</v>
+        <v>205000</v>
       </c>
       <c r="K27" s="3">
         <v>188300</v>
@@ -1524,22 +1524,22 @@
         <v>-5400</v>
       </c>
       <c r="E32" s="3">
-        <v>-13900</v>
+        <v>-14000</v>
       </c>
       <c r="F32" s="3">
-        <v>-15500</v>
+        <v>-15600</v>
       </c>
       <c r="G32" s="3">
         <v>-6400</v>
       </c>
       <c r="H32" s="3">
-        <v>-15900</v>
+        <v>-16000</v>
       </c>
       <c r="I32" s="3">
-        <v>-34900</v>
+        <v>-35100</v>
       </c>
       <c r="J32" s="3">
-        <v>-24000</v>
+        <v>-24100</v>
       </c>
       <c r="K32" s="3">
         <v>-32800</v>
@@ -1557,25 +1557,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>246400</v>
+        <v>247200</v>
       </c>
       <c r="E33" s="3">
-        <v>256000</v>
+        <v>256800</v>
       </c>
       <c r="F33" s="3">
-        <v>259400</v>
+        <v>260200</v>
       </c>
       <c r="G33" s="3">
-        <v>235300</v>
+        <v>236100</v>
       </c>
       <c r="H33" s="3">
-        <v>225800</v>
+        <v>226500</v>
       </c>
       <c r="I33" s="3">
-        <v>196300</v>
+        <v>197000</v>
       </c>
       <c r="J33" s="3">
-        <v>204300</v>
+        <v>205000</v>
       </c>
       <c r="K33" s="3">
         <v>188300</v>
@@ -1629,25 +1629,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>246400</v>
+        <v>247200</v>
       </c>
       <c r="E35" s="3">
-        <v>256000</v>
+        <v>256800</v>
       </c>
       <c r="F35" s="3">
-        <v>259400</v>
+        <v>260200</v>
       </c>
       <c r="G35" s="3">
-        <v>235300</v>
+        <v>236100</v>
       </c>
       <c r="H35" s="3">
-        <v>225800</v>
+        <v>226500</v>
       </c>
       <c r="I35" s="3">
-        <v>196300</v>
+        <v>197000</v>
       </c>
       <c r="J35" s="3">
-        <v>204300</v>
+        <v>205000</v>
       </c>
       <c r="K35" s="3">
         <v>188300</v>
@@ -1738,25 +1738,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1426600</v>
+        <v>1431300</v>
       </c>
       <c r="E41" s="3">
-        <v>1144800</v>
+        <v>1148600</v>
       </c>
       <c r="F41" s="3">
-        <v>1067100</v>
+        <v>1070600</v>
       </c>
       <c r="G41" s="3">
-        <v>786800</v>
+        <v>789400</v>
       </c>
       <c r="H41" s="3">
-        <v>774100</v>
+        <v>776600</v>
       </c>
       <c r="I41" s="3">
-        <v>676400</v>
+        <v>678600</v>
       </c>
       <c r="J41" s="3">
-        <v>578100</v>
+        <v>580000</v>
       </c>
       <c r="K41" s="3">
         <v>765300</v>
@@ -1774,25 +1774,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>517800</v>
+        <v>519500</v>
       </c>
       <c r="E42" s="3">
-        <v>436200</v>
+        <v>437600</v>
       </c>
       <c r="F42" s="3">
-        <v>561400</v>
+        <v>563200</v>
       </c>
       <c r="G42" s="3">
-        <v>609500</v>
+        <v>611500</v>
       </c>
       <c r="H42" s="3">
-        <v>459400</v>
+        <v>460900</v>
       </c>
       <c r="I42" s="3">
-        <v>658700</v>
+        <v>660900</v>
       </c>
       <c r="J42" s="3">
-        <v>680800</v>
+        <v>683100</v>
       </c>
       <c r="K42" s="3">
         <v>585800</v>
@@ -1810,25 +1810,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>430700</v>
+        <v>432100</v>
       </c>
       <c r="E43" s="3">
-        <v>411600</v>
+        <v>413000</v>
       </c>
       <c r="F43" s="3">
-        <v>357100</v>
+        <v>358300</v>
       </c>
       <c r="G43" s="3">
-        <v>364400</v>
+        <v>365600</v>
       </c>
       <c r="H43" s="3">
-        <v>325700</v>
+        <v>326700</v>
       </c>
       <c r="I43" s="3">
-        <v>274500</v>
+        <v>275400</v>
       </c>
       <c r="J43" s="3">
-        <v>238800</v>
+        <v>239600</v>
       </c>
       <c r="K43" s="3">
         <v>233800</v>
@@ -1846,16 +1846,16 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>31200</v>
+        <v>31300</v>
       </c>
       <c r="E44" s="3">
-        <v>37600</v>
+        <v>37700</v>
       </c>
       <c r="F44" s="3">
-        <v>67300</v>
+        <v>67500</v>
       </c>
       <c r="G44" s="3">
-        <v>27300</v>
+        <v>27400</v>
       </c>
       <c r="H44" s="3">
         <v>15700</v>
@@ -1882,25 +1882,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>54600</v>
+        <v>54700</v>
       </c>
       <c r="E45" s="3">
-        <v>52200</v>
+        <v>52400</v>
       </c>
       <c r="F45" s="3">
-        <v>196700</v>
+        <v>197300</v>
       </c>
       <c r="G45" s="3">
-        <v>197900</v>
+        <v>198500</v>
       </c>
       <c r="H45" s="3">
-        <v>211600</v>
+        <v>212300</v>
       </c>
       <c r="I45" s="3">
-        <v>228600</v>
+        <v>229400</v>
       </c>
       <c r="J45" s="3">
-        <v>181100</v>
+        <v>181700</v>
       </c>
       <c r="K45" s="3">
         <v>185300</v>
@@ -1918,25 +1918,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>2460800</v>
+        <v>2468900</v>
       </c>
       <c r="E46" s="3">
-        <v>2082500</v>
+        <v>2089300</v>
       </c>
       <c r="F46" s="3">
-        <v>2068100</v>
+        <v>2074800</v>
       </c>
       <c r="G46" s="3">
-        <v>1985800</v>
+        <v>1992300</v>
       </c>
       <c r="H46" s="3">
-        <v>1786500</v>
+        <v>1792300</v>
       </c>
       <c r="I46" s="3">
-        <v>1845600</v>
+        <v>1851700</v>
       </c>
       <c r="J46" s="3">
-        <v>1683600</v>
+        <v>1689100</v>
       </c>
       <c r="K46" s="3">
         <v>1774100</v>
@@ -1954,25 +1954,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>331700</v>
+        <v>332800</v>
       </c>
       <c r="E47" s="3">
-        <v>457900</v>
+        <v>459400</v>
       </c>
       <c r="F47" s="3">
-        <v>409800</v>
+        <v>411100</v>
       </c>
       <c r="G47" s="3">
-        <v>479900</v>
+        <v>481500</v>
       </c>
       <c r="H47" s="3">
-        <v>464600</v>
+        <v>466200</v>
       </c>
       <c r="I47" s="3">
-        <v>575300</v>
+        <v>577200</v>
       </c>
       <c r="J47" s="3">
-        <v>632500</v>
+        <v>634500</v>
       </c>
       <c r="K47" s="3">
         <v>491400</v>
@@ -1990,25 +1990,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>73000</v>
+        <v>73300</v>
       </c>
       <c r="E48" s="3">
-        <v>90300</v>
+        <v>90600</v>
       </c>
       <c r="F48" s="3">
-        <v>80300</v>
+        <v>80600</v>
       </c>
       <c r="G48" s="3">
-        <v>75300</v>
+        <v>75600</v>
       </c>
       <c r="H48" s="3">
-        <v>60000</v>
+        <v>60200</v>
       </c>
       <c r="I48" s="3">
-        <v>53000</v>
+        <v>53200</v>
       </c>
       <c r="J48" s="3">
-        <v>45300</v>
+        <v>45500</v>
       </c>
       <c r="K48" s="3">
         <v>44000</v>
@@ -2026,25 +2026,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>237300</v>
+        <v>238100</v>
       </c>
       <c r="E49" s="3">
-        <v>331400</v>
+        <v>332500</v>
       </c>
       <c r="F49" s="3">
-        <v>321600</v>
+        <v>322700</v>
       </c>
       <c r="G49" s="3">
-        <v>369100</v>
+        <v>370300</v>
       </c>
       <c r="H49" s="3">
-        <v>389600</v>
+        <v>390900</v>
       </c>
       <c r="I49" s="3">
-        <v>75200</v>
+        <v>75400</v>
       </c>
       <c r="J49" s="3">
-        <v>86400</v>
+        <v>86600</v>
       </c>
       <c r="K49" s="3">
         <v>88000</v>
@@ -2134,25 +2134,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>347700</v>
+        <v>348800</v>
       </c>
       <c r="E52" s="3">
-        <v>332800</v>
+        <v>333900</v>
       </c>
       <c r="F52" s="3">
-        <v>291100</v>
+        <v>292000</v>
       </c>
       <c r="G52" s="3">
-        <v>123300</v>
+        <v>123700</v>
       </c>
       <c r="H52" s="3">
-        <v>125400</v>
+        <v>125800</v>
       </c>
       <c r="I52" s="3">
-        <v>112000</v>
+        <v>112400</v>
       </c>
       <c r="J52" s="3">
-        <v>116500</v>
+        <v>116900</v>
       </c>
       <c r="K52" s="3">
         <v>115400</v>
@@ -2206,25 +2206,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>3450600</v>
+        <v>3461900</v>
       </c>
       <c r="E54" s="3">
-        <v>3294900</v>
+        <v>3305700</v>
       </c>
       <c r="F54" s="3">
-        <v>3170800</v>
+        <v>3181200</v>
       </c>
       <c r="G54" s="3">
-        <v>3033400</v>
+        <v>3043300</v>
       </c>
       <c r="H54" s="3">
-        <v>2826200</v>
+        <v>2835500</v>
       </c>
       <c r="I54" s="3">
-        <v>2661200</v>
+        <v>2669900</v>
       </c>
       <c r="J54" s="3">
-        <v>2564200</v>
+        <v>2572600</v>
       </c>
       <c r="K54" s="3">
         <v>2512900</v>
@@ -2346,25 +2346,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>1195800</v>
+        <v>1199800</v>
       </c>
       <c r="E59" s="3">
-        <v>1084200</v>
+        <v>1087700</v>
       </c>
       <c r="F59" s="3">
-        <v>1006200</v>
+        <v>1009400</v>
       </c>
       <c r="G59" s="3">
-        <v>989600</v>
+        <v>992800</v>
       </c>
       <c r="H59" s="3">
-        <v>923300</v>
+        <v>926400</v>
       </c>
       <c r="I59" s="3">
-        <v>860800</v>
+        <v>863700</v>
       </c>
       <c r="J59" s="3">
-        <v>843700</v>
+        <v>846500</v>
       </c>
       <c r="K59" s="3">
         <v>832000</v>
@@ -2382,25 +2382,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>1204200</v>
+        <v>1208200</v>
       </c>
       <c r="E60" s="3">
-        <v>1095200</v>
+        <v>1098800</v>
       </c>
       <c r="F60" s="3">
-        <v>1021000</v>
+        <v>1024400</v>
       </c>
       <c r="G60" s="3">
-        <v>996300</v>
+        <v>999500</v>
       </c>
       <c r="H60" s="3">
-        <v>931500</v>
+        <v>934600</v>
       </c>
       <c r="I60" s="3">
-        <v>866000</v>
+        <v>868800</v>
       </c>
       <c r="J60" s="3">
-        <v>849900</v>
+        <v>852700</v>
       </c>
       <c r="K60" s="3">
         <v>836700</v>
@@ -2454,25 +2454,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>511800</v>
+        <v>513500</v>
       </c>
       <c r="E62" s="3">
-        <v>483000</v>
+        <v>484500</v>
       </c>
       <c r="F62" s="3">
-        <v>436200</v>
+        <v>437600</v>
       </c>
       <c r="G62" s="3">
-        <v>415100</v>
+        <v>416500</v>
       </c>
       <c r="H62" s="3">
-        <v>369800</v>
+        <v>371000</v>
       </c>
       <c r="I62" s="3">
-        <v>332400</v>
+        <v>333500</v>
       </c>
       <c r="J62" s="3">
-        <v>312000</v>
+        <v>313000</v>
       </c>
       <c r="K62" s="3">
         <v>306400</v>
@@ -2598,25 +2598,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>1723600</v>
+        <v>1729300</v>
       </c>
       <c r="E66" s="3">
-        <v>1579500</v>
+        <v>1584700</v>
       </c>
       <c r="F66" s="3">
-        <v>1457900</v>
+        <v>1462600</v>
       </c>
       <c r="G66" s="3">
-        <v>1411400</v>
+        <v>1416100</v>
       </c>
       <c r="H66" s="3">
-        <v>1301400</v>
+        <v>1305600</v>
       </c>
       <c r="I66" s="3">
-        <v>1198400</v>
+        <v>1202300</v>
       </c>
       <c r="J66" s="3">
-        <v>1162000</v>
+        <v>1165800</v>
       </c>
       <c r="K66" s="3">
         <v>1143200</v>
@@ -2794,25 +2794,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>1462400</v>
+        <v>1467200</v>
       </c>
       <c r="E72" s="3">
-        <v>1418800</v>
+        <v>1423400</v>
       </c>
       <c r="F72" s="3">
-        <v>1370500</v>
+        <v>1375000</v>
       </c>
       <c r="G72" s="3">
-        <v>1304900</v>
+        <v>1309200</v>
       </c>
       <c r="H72" s="3">
-        <v>1246200</v>
+        <v>1250300</v>
       </c>
       <c r="I72" s="3">
-        <v>1159100</v>
+        <v>1162900</v>
       </c>
       <c r="J72" s="3">
-        <v>1113100</v>
+        <v>1116700</v>
       </c>
       <c r="K72" s="3">
         <v>1113200</v>
@@ -2938,25 +2938,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>1726900</v>
+        <v>1732600</v>
       </c>
       <c r="E76" s="3">
-        <v>1715400</v>
+        <v>1721000</v>
       </c>
       <c r="F76" s="3">
-        <v>1713000</v>
+        <v>1718600</v>
       </c>
       <c r="G76" s="3">
-        <v>1622000</v>
+        <v>1627300</v>
       </c>
       <c r="H76" s="3">
-        <v>1524800</v>
+        <v>1529800</v>
       </c>
       <c r="I76" s="3">
-        <v>1462800</v>
+        <v>1467600</v>
       </c>
       <c r="J76" s="3">
-        <v>1402200</v>
+        <v>1406800</v>
       </c>
       <c r="K76" s="3">
         <v>1369700</v>
@@ -3051,25 +3051,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>246400</v>
+        <v>247200</v>
       </c>
       <c r="E81" s="3">
-        <v>256000</v>
+        <v>256800</v>
       </c>
       <c r="F81" s="3">
-        <v>259400</v>
+        <v>260200</v>
       </c>
       <c r="G81" s="3">
-        <v>235300</v>
+        <v>236100</v>
       </c>
       <c r="H81" s="3">
-        <v>225800</v>
+        <v>226500</v>
       </c>
       <c r="I81" s="3">
-        <v>196300</v>
+        <v>197000</v>
       </c>
       <c r="J81" s="3">
-        <v>204300</v>
+        <v>205000</v>
       </c>
       <c r="K81" s="3">
         <v>188300</v>
@@ -3103,25 +3103,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>207700</v>
+        <v>208400</v>
       </c>
       <c r="E83" s="3">
-        <v>144900</v>
+        <v>145400</v>
       </c>
       <c r="F83" s="3">
-        <v>145800</v>
+        <v>146200</v>
       </c>
       <c r="G83" s="3">
-        <v>127800</v>
+        <v>128200</v>
       </c>
       <c r="H83" s="3">
-        <v>102500</v>
+        <v>102800</v>
       </c>
       <c r="I83" s="3">
-        <v>75600</v>
+        <v>75900</v>
       </c>
       <c r="J83" s="3">
-        <v>69800</v>
+        <v>70000</v>
       </c>
       <c r="K83" s="3">
         <v>69600</v>
@@ -3319,25 +3319,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>497500</v>
+        <v>499100</v>
       </c>
       <c r="E89" s="3">
-        <v>413200</v>
+        <v>414500</v>
       </c>
       <c r="F89" s="3">
-        <v>457600</v>
+        <v>459100</v>
       </c>
       <c r="G89" s="3">
-        <v>429700</v>
+        <v>431100</v>
       </c>
       <c r="H89" s="3">
-        <v>307000</v>
+        <v>308000</v>
       </c>
       <c r="I89" s="3">
-        <v>279300</v>
+        <v>280200</v>
       </c>
       <c r="J89" s="3">
-        <v>292600</v>
+        <v>293500</v>
       </c>
       <c r="K89" s="3">
         <v>295400</v>
@@ -3374,19 +3374,19 @@
         <v>-14300</v>
       </c>
       <c r="E91" s="3">
-        <v>-37000</v>
+        <v>-37100</v>
       </c>
       <c r="F91" s="3">
-        <v>-32600</v>
+        <v>-32700</v>
       </c>
       <c r="G91" s="3">
-        <v>-42100</v>
+        <v>-42300</v>
       </c>
       <c r="H91" s="3">
         <v>-27400</v>
       </c>
       <c r="I91" s="3">
-        <v>-32300</v>
+        <v>-32400</v>
       </c>
       <c r="J91" s="3">
         <v>-18700</v>
@@ -3479,7 +3479,7 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-52900</v>
+        <v>-53100</v>
       </c>
       <c r="E94" s="3">
         <v>-13500</v>
@@ -3488,16 +3488,16 @@
         <v>7500</v>
       </c>
       <c r="G94" s="3">
-        <v>-309800</v>
+        <v>-310800</v>
       </c>
       <c r="H94" s="3">
-        <v>118400</v>
+        <v>118800</v>
       </c>
       <c r="I94" s="3">
-        <v>-45100</v>
+        <v>-45300</v>
       </c>
       <c r="J94" s="3">
-        <v>-301600</v>
+        <v>-302600</v>
       </c>
       <c r="K94" s="3">
         <v>-155200</v>
@@ -3531,25 +3531,25 @@
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-198600</v>
+        <v>-199200</v>
       </c>
       <c r="E96" s="3">
-        <v>-201400</v>
+        <v>-202100</v>
       </c>
       <c r="F96" s="3">
-        <v>-181300</v>
+        <v>-181900</v>
       </c>
       <c r="G96" s="3">
-        <v>-171100</v>
+        <v>-171700</v>
       </c>
       <c r="H96" s="3">
-        <v>-132800</v>
+        <v>-133200</v>
       </c>
       <c r="I96" s="3">
-        <v>-135900</v>
+        <v>-136400</v>
       </c>
       <c r="J96" s="3">
-        <v>-144500</v>
+        <v>-144900</v>
       </c>
       <c r="K96" s="3">
         <v>-80800</v>
@@ -3675,25 +3675,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-193700</v>
+        <v>-194300</v>
       </c>
       <c r="E100" s="3">
-        <v>-237800</v>
+        <v>-238600</v>
       </c>
       <c r="F100" s="3">
-        <v>-121100</v>
+        <v>-121500</v>
       </c>
       <c r="G100" s="3">
-        <v>-154900</v>
+        <v>-155400</v>
       </c>
       <c r="H100" s="3">
-        <v>-137900</v>
+        <v>-138300</v>
       </c>
       <c r="I100" s="3">
-        <v>-85400</v>
+        <v>-85700</v>
       </c>
       <c r="J100" s="3">
-        <v>-154700</v>
+        <v>-155200</v>
       </c>
       <c r="K100" s="3">
         <v>-2000</v>
@@ -3711,25 +3711,25 @@
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-12400</v>
+        <v>-12500</v>
       </c>
       <c r="E101" s="3">
         <v>-10800</v>
       </c>
       <c r="F101" s="3">
-        <v>-40000</v>
+        <v>-40200</v>
       </c>
       <c r="G101" s="3">
         <v>-1100</v>
       </c>
       <c r="H101" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="I101" s="3">
-        <v>-38700</v>
+        <v>-38800</v>
       </c>
       <c r="J101" s="3">
-        <v>23600</v>
+        <v>23700</v>
       </c>
       <c r="K101" s="3">
         <v>87700</v>
@@ -3747,25 +3747,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>238500</v>
+        <v>239300</v>
       </c>
       <c r="E102" s="3">
-        <v>151100</v>
+        <v>151600</v>
       </c>
       <c r="F102" s="3">
-        <v>304000</v>
+        <v>305000</v>
       </c>
       <c r="G102" s="3">
-        <v>-36000</v>
+        <v>-36200</v>
       </c>
       <c r="H102" s="3">
-        <v>290300</v>
+        <v>291300</v>
       </c>
       <c r="I102" s="3">
-        <v>110100</v>
+        <v>110400</v>
       </c>
       <c r="J102" s="3">
-        <v>-140000</v>
+        <v>-140500</v>
       </c>
       <c r="K102" s="3">
         <v>225900</v>

--- a/AAII_Financials/Yearly/TMICY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TMICY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1599600</v>
+        <v>1585700</v>
       </c>
       <c r="E8" s="3">
-        <v>1518100</v>
+        <v>1504900</v>
       </c>
       <c r="F8" s="3">
-        <v>1474200</v>
+        <v>1461300</v>
       </c>
       <c r="G8" s="3">
-        <v>1367600</v>
+        <v>1355700</v>
       </c>
       <c r="H8" s="3">
-        <v>1212500</v>
+        <v>1201900</v>
       </c>
       <c r="I8" s="3">
-        <v>1142500</v>
+        <v>1132500</v>
       </c>
       <c r="J8" s="3">
-        <v>1058700</v>
+        <v>1049500</v>
       </c>
       <c r="K8" s="3">
         <v>1040900</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>350700</v>
+        <v>347700</v>
       </c>
       <c r="E9" s="3">
-        <v>296800</v>
+        <v>294200</v>
       </c>
       <c r="F9" s="3">
-        <v>300800</v>
+        <v>298200</v>
       </c>
       <c r="G9" s="3">
-        <v>258600</v>
+        <v>256300</v>
       </c>
       <c r="H9" s="3">
-        <v>211700</v>
+        <v>209900</v>
       </c>
       <c r="I9" s="3">
-        <v>195500</v>
+        <v>193800</v>
       </c>
       <c r="J9" s="3">
-        <v>187800</v>
+        <v>186100</v>
       </c>
       <c r="K9" s="3">
         <v>186200</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1248900</v>
+        <v>1238000</v>
       </c>
       <c r="E10" s="3">
-        <v>1221300</v>
+        <v>1210700</v>
       </c>
       <c r="F10" s="3">
-        <v>1173400</v>
+        <v>1163200</v>
       </c>
       <c r="G10" s="3">
-        <v>1109000</v>
+        <v>1099300</v>
       </c>
       <c r="H10" s="3">
-        <v>1000800</v>
+        <v>992000</v>
       </c>
       <c r="I10" s="3">
-        <v>947000</v>
+        <v>938700</v>
       </c>
       <c r="J10" s="3">
-        <v>871000</v>
+        <v>863400</v>
       </c>
       <c r="K10" s="3">
         <v>854700</v>
@@ -844,25 +844,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>67500</v>
+        <v>66900</v>
       </c>
       <c r="E12" s="3">
-        <v>75700</v>
+        <v>75000</v>
       </c>
       <c r="F12" s="3">
-        <v>68400</v>
+        <v>67800</v>
       </c>
       <c r="G12" s="3">
-        <v>71600</v>
+        <v>70900</v>
       </c>
       <c r="H12" s="3">
-        <v>48400</v>
+        <v>48000</v>
       </c>
       <c r="I12" s="3">
-        <v>34700</v>
+        <v>34400</v>
       </c>
       <c r="J12" s="3">
-        <v>26900</v>
+        <v>26600</v>
       </c>
       <c r="K12" s="3">
         <v>40200</v>
@@ -931,7 +931,7 @@
         <v>3400</v>
       </c>
       <c r="I14" s="3">
-        <v>6900</v>
+        <v>6800</v>
       </c>
       <c r="J14" s="3">
         <v>2100</v>
@@ -1001,25 +1001,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1238700</v>
+        <v>1228000</v>
       </c>
       <c r="E17" s="3">
-        <v>1172400</v>
+        <v>1162200</v>
       </c>
       <c r="F17" s="3">
-        <v>1147900</v>
+        <v>1137900</v>
       </c>
       <c r="G17" s="3">
-        <v>1033100</v>
+        <v>1024100</v>
       </c>
       <c r="H17" s="3">
-        <v>900200</v>
+        <v>892300</v>
       </c>
       <c r="I17" s="3">
-        <v>864700</v>
+        <v>857200</v>
       </c>
       <c r="J17" s="3">
-        <v>751600</v>
+        <v>745000</v>
       </c>
       <c r="K17" s="3">
         <v>766100</v>
@@ -1037,25 +1037,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>360900</v>
+        <v>357700</v>
       </c>
       <c r="E18" s="3">
-        <v>345700</v>
+        <v>342700</v>
       </c>
       <c r="F18" s="3">
-        <v>326200</v>
+        <v>323400</v>
       </c>
       <c r="G18" s="3">
-        <v>334500</v>
+        <v>331600</v>
       </c>
       <c r="H18" s="3">
-        <v>312300</v>
+        <v>309600</v>
       </c>
       <c r="I18" s="3">
-        <v>277800</v>
+        <v>275400</v>
       </c>
       <c r="J18" s="3">
-        <v>307200</v>
+        <v>304500</v>
       </c>
       <c r="K18" s="3">
         <v>274800</v>
@@ -1089,25 +1089,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="E20" s="3">
-        <v>14000</v>
+        <v>13900</v>
       </c>
       <c r="F20" s="3">
-        <v>15600</v>
+        <v>15400</v>
       </c>
       <c r="G20" s="3">
         <v>6400</v>
       </c>
       <c r="H20" s="3">
-        <v>16000</v>
+        <v>15800</v>
       </c>
       <c r="I20" s="3">
-        <v>35100</v>
+        <v>34800</v>
       </c>
       <c r="J20" s="3">
-        <v>24100</v>
+        <v>23800</v>
       </c>
       <c r="K20" s="3">
         <v>32800</v>
@@ -1125,25 +1125,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>574900</v>
+        <v>569700</v>
       </c>
       <c r="E21" s="3">
-        <v>505200</v>
+        <v>500600</v>
       </c>
       <c r="F21" s="3">
-        <v>488200</v>
+        <v>483800</v>
       </c>
       <c r="G21" s="3">
-        <v>469300</v>
+        <v>465100</v>
       </c>
       <c r="H21" s="3">
-        <v>431300</v>
+        <v>427400</v>
       </c>
       <c r="I21" s="3">
-        <v>388800</v>
+        <v>385300</v>
       </c>
       <c r="J21" s="3">
-        <v>401300</v>
+        <v>397700</v>
       </c>
       <c r="K21" s="3">
         <v>377100</v>
@@ -1197,25 +1197,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>366300</v>
+        <v>363100</v>
       </c>
       <c r="E23" s="3">
-        <v>359700</v>
+        <v>356600</v>
       </c>
       <c r="F23" s="3">
-        <v>341800</v>
+        <v>338800</v>
       </c>
       <c r="G23" s="3">
-        <v>340900</v>
+        <v>337900</v>
       </c>
       <c r="H23" s="3">
-        <v>328300</v>
+        <v>325400</v>
       </c>
       <c r="I23" s="3">
-        <v>312800</v>
+        <v>310100</v>
       </c>
       <c r="J23" s="3">
-        <v>331100</v>
+        <v>328200</v>
       </c>
       <c r="K23" s="3">
         <v>307600</v>
@@ -1233,25 +1233,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>123900</v>
+        <v>122800</v>
       </c>
       <c r="E24" s="3">
-        <v>104000</v>
+        <v>103100</v>
       </c>
       <c r="F24" s="3">
-        <v>81700</v>
+        <v>81000</v>
       </c>
       <c r="G24" s="3">
-        <v>104800</v>
+        <v>103900</v>
       </c>
       <c r="H24" s="3">
-        <v>101700</v>
+        <v>100800</v>
       </c>
       <c r="I24" s="3">
-        <v>115800</v>
+        <v>114800</v>
       </c>
       <c r="J24" s="3">
-        <v>126100</v>
+        <v>125000</v>
       </c>
       <c r="K24" s="3">
         <v>119300</v>
@@ -1305,25 +1305,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>242400</v>
+        <v>240300</v>
       </c>
       <c r="E26" s="3">
-        <v>255600</v>
+        <v>253400</v>
       </c>
       <c r="F26" s="3">
-        <v>260100</v>
+        <v>257800</v>
       </c>
       <c r="G26" s="3">
-        <v>236100</v>
+        <v>234100</v>
       </c>
       <c r="H26" s="3">
-        <v>226600</v>
+        <v>224600</v>
       </c>
       <c r="I26" s="3">
-        <v>197000</v>
+        <v>195300</v>
       </c>
       <c r="J26" s="3">
-        <v>205000</v>
+        <v>203200</v>
       </c>
       <c r="K26" s="3">
         <v>188300</v>
@@ -1341,25 +1341,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>247200</v>
+        <v>245100</v>
       </c>
       <c r="E27" s="3">
-        <v>256800</v>
+        <v>254600</v>
       </c>
       <c r="F27" s="3">
-        <v>260200</v>
+        <v>257900</v>
       </c>
       <c r="G27" s="3">
-        <v>236100</v>
+        <v>234000</v>
       </c>
       <c r="H27" s="3">
-        <v>226500</v>
+        <v>224600</v>
       </c>
       <c r="I27" s="3">
-        <v>197000</v>
+        <v>195300</v>
       </c>
       <c r="J27" s="3">
-        <v>205000</v>
+        <v>203200</v>
       </c>
       <c r="K27" s="3">
         <v>188300</v>
@@ -1521,25 +1521,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-5400</v>
+        <v>-5300</v>
       </c>
       <c r="E32" s="3">
-        <v>-14000</v>
+        <v>-13900</v>
       </c>
       <c r="F32" s="3">
-        <v>-15600</v>
+        <v>-15400</v>
       </c>
       <c r="G32" s="3">
         <v>-6400</v>
       </c>
       <c r="H32" s="3">
-        <v>-16000</v>
+        <v>-15800</v>
       </c>
       <c r="I32" s="3">
-        <v>-35100</v>
+        <v>-34800</v>
       </c>
       <c r="J32" s="3">
-        <v>-24100</v>
+        <v>-23800</v>
       </c>
       <c r="K32" s="3">
         <v>-32800</v>
@@ -1557,25 +1557,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>247200</v>
+        <v>245100</v>
       </c>
       <c r="E33" s="3">
-        <v>256800</v>
+        <v>254600</v>
       </c>
       <c r="F33" s="3">
-        <v>260200</v>
+        <v>257900</v>
       </c>
       <c r="G33" s="3">
-        <v>236100</v>
+        <v>234000</v>
       </c>
       <c r="H33" s="3">
-        <v>226500</v>
+        <v>224600</v>
       </c>
       <c r="I33" s="3">
-        <v>197000</v>
+        <v>195300</v>
       </c>
       <c r="J33" s="3">
-        <v>205000</v>
+        <v>203200</v>
       </c>
       <c r="K33" s="3">
         <v>188300</v>
@@ -1629,25 +1629,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>247200</v>
+        <v>245100</v>
       </c>
       <c r="E35" s="3">
-        <v>256800</v>
+        <v>254600</v>
       </c>
       <c r="F35" s="3">
-        <v>260200</v>
+        <v>257900</v>
       </c>
       <c r="G35" s="3">
-        <v>236100</v>
+        <v>234000</v>
       </c>
       <c r="H35" s="3">
-        <v>226500</v>
+        <v>224600</v>
       </c>
       <c r="I35" s="3">
-        <v>197000</v>
+        <v>195300</v>
       </c>
       <c r="J35" s="3">
-        <v>205000</v>
+        <v>203200</v>
       </c>
       <c r="K35" s="3">
         <v>188300</v>
@@ -1738,25 +1738,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1431300</v>
+        <v>1418800</v>
       </c>
       <c r="E41" s="3">
-        <v>1148600</v>
+        <v>1138600</v>
       </c>
       <c r="F41" s="3">
-        <v>1070600</v>
+        <v>1061300</v>
       </c>
       <c r="G41" s="3">
-        <v>789400</v>
+        <v>782500</v>
       </c>
       <c r="H41" s="3">
-        <v>776600</v>
+        <v>769900</v>
       </c>
       <c r="I41" s="3">
-        <v>678600</v>
+        <v>672700</v>
       </c>
       <c r="J41" s="3">
-        <v>580000</v>
+        <v>574900</v>
       </c>
       <c r="K41" s="3">
         <v>765300</v>
@@ -1774,25 +1774,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>519500</v>
+        <v>515000</v>
       </c>
       <c r="E42" s="3">
-        <v>437600</v>
+        <v>433800</v>
       </c>
       <c r="F42" s="3">
-        <v>563200</v>
+        <v>558300</v>
       </c>
       <c r="G42" s="3">
-        <v>611500</v>
+        <v>606100</v>
       </c>
       <c r="H42" s="3">
-        <v>460900</v>
+        <v>456900</v>
       </c>
       <c r="I42" s="3">
-        <v>660900</v>
+        <v>655100</v>
       </c>
       <c r="J42" s="3">
-        <v>683100</v>
+        <v>677100</v>
       </c>
       <c r="K42" s="3">
         <v>585800</v>
@@ -1810,25 +1810,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>432100</v>
+        <v>428400</v>
       </c>
       <c r="E43" s="3">
-        <v>413000</v>
+        <v>409400</v>
       </c>
       <c r="F43" s="3">
-        <v>358300</v>
+        <v>355100</v>
       </c>
       <c r="G43" s="3">
-        <v>365600</v>
+        <v>362400</v>
       </c>
       <c r="H43" s="3">
-        <v>326700</v>
+        <v>323900</v>
       </c>
       <c r="I43" s="3">
-        <v>275400</v>
+        <v>273000</v>
       </c>
       <c r="J43" s="3">
-        <v>239600</v>
+        <v>237500</v>
       </c>
       <c r="K43" s="3">
         <v>233800</v>
@@ -1846,19 +1846,19 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>31300</v>
+        <v>31000</v>
       </c>
       <c r="E44" s="3">
-        <v>37700</v>
+        <v>37400</v>
       </c>
       <c r="F44" s="3">
-        <v>67500</v>
+        <v>67000</v>
       </c>
       <c r="G44" s="3">
-        <v>27400</v>
+        <v>27100</v>
       </c>
       <c r="H44" s="3">
-        <v>15700</v>
+        <v>15600</v>
       </c>
       <c r="I44" s="3">
         <v>7400</v>
@@ -1882,25 +1882,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>54700</v>
+        <v>54300</v>
       </c>
       <c r="E45" s="3">
-        <v>52400</v>
+        <v>52000</v>
       </c>
       <c r="F45" s="3">
-        <v>197300</v>
+        <v>195600</v>
       </c>
       <c r="G45" s="3">
-        <v>198500</v>
+        <v>196800</v>
       </c>
       <c r="H45" s="3">
-        <v>212300</v>
+        <v>210500</v>
       </c>
       <c r="I45" s="3">
-        <v>229400</v>
+        <v>227400</v>
       </c>
       <c r="J45" s="3">
-        <v>181700</v>
+        <v>180100</v>
       </c>
       <c r="K45" s="3">
         <v>185300</v>
@@ -1918,25 +1918,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>2468900</v>
+        <v>2447400</v>
       </c>
       <c r="E46" s="3">
-        <v>2089300</v>
+        <v>2071100</v>
       </c>
       <c r="F46" s="3">
-        <v>2074800</v>
+        <v>2056800</v>
       </c>
       <c r="G46" s="3">
-        <v>1992300</v>
+        <v>1975000</v>
       </c>
       <c r="H46" s="3">
-        <v>1792300</v>
+        <v>1776700</v>
       </c>
       <c r="I46" s="3">
-        <v>1851700</v>
+        <v>1835600</v>
       </c>
       <c r="J46" s="3">
-        <v>1689100</v>
+        <v>1674400</v>
       </c>
       <c r="K46" s="3">
         <v>1774100</v>
@@ -1954,25 +1954,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>332800</v>
+        <v>329900</v>
       </c>
       <c r="E47" s="3">
-        <v>459400</v>
+        <v>455400</v>
       </c>
       <c r="F47" s="3">
-        <v>411100</v>
+        <v>407500</v>
       </c>
       <c r="G47" s="3">
-        <v>481500</v>
+        <v>477300</v>
       </c>
       <c r="H47" s="3">
-        <v>466200</v>
+        <v>462100</v>
       </c>
       <c r="I47" s="3">
-        <v>577200</v>
+        <v>572100</v>
       </c>
       <c r="J47" s="3">
-        <v>634500</v>
+        <v>629000</v>
       </c>
       <c r="K47" s="3">
         <v>491400</v>
@@ -1990,25 +1990,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>73300</v>
+        <v>72600</v>
       </c>
       <c r="E48" s="3">
-        <v>90600</v>
+        <v>89800</v>
       </c>
       <c r="F48" s="3">
-        <v>80600</v>
+        <v>79900</v>
       </c>
       <c r="G48" s="3">
-        <v>75600</v>
+        <v>74900</v>
       </c>
       <c r="H48" s="3">
-        <v>60200</v>
+        <v>59700</v>
       </c>
       <c r="I48" s="3">
-        <v>53200</v>
+        <v>52700</v>
       </c>
       <c r="J48" s="3">
-        <v>45500</v>
+        <v>45100</v>
       </c>
       <c r="K48" s="3">
         <v>44000</v>
@@ -2026,25 +2026,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>238100</v>
+        <v>236000</v>
       </c>
       <c r="E49" s="3">
-        <v>332500</v>
+        <v>329600</v>
       </c>
       <c r="F49" s="3">
-        <v>322700</v>
+        <v>319900</v>
       </c>
       <c r="G49" s="3">
-        <v>370300</v>
+        <v>367100</v>
       </c>
       <c r="H49" s="3">
-        <v>390900</v>
+        <v>387500</v>
       </c>
       <c r="I49" s="3">
-        <v>75400</v>
+        <v>74800</v>
       </c>
       <c r="J49" s="3">
-        <v>86600</v>
+        <v>85900</v>
       </c>
       <c r="K49" s="3">
         <v>88000</v>
@@ -2134,25 +2134,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>348800</v>
+        <v>345800</v>
       </c>
       <c r="E52" s="3">
-        <v>333900</v>
+        <v>331000</v>
       </c>
       <c r="F52" s="3">
-        <v>292000</v>
+        <v>289500</v>
       </c>
       <c r="G52" s="3">
-        <v>123700</v>
+        <v>122600</v>
       </c>
       <c r="H52" s="3">
-        <v>125800</v>
+        <v>124700</v>
       </c>
       <c r="I52" s="3">
-        <v>112400</v>
+        <v>111400</v>
       </c>
       <c r="J52" s="3">
-        <v>116900</v>
+        <v>115900</v>
       </c>
       <c r="K52" s="3">
         <v>115400</v>
@@ -2206,25 +2206,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>3461900</v>
+        <v>3431700</v>
       </c>
       <c r="E54" s="3">
-        <v>3305700</v>
+        <v>3277000</v>
       </c>
       <c r="F54" s="3">
-        <v>3181200</v>
+        <v>3153500</v>
       </c>
       <c r="G54" s="3">
-        <v>3043300</v>
+        <v>3016800</v>
       </c>
       <c r="H54" s="3">
-        <v>2835500</v>
+        <v>2810800</v>
       </c>
       <c r="I54" s="3">
-        <v>2669900</v>
+        <v>2646600</v>
       </c>
       <c r="J54" s="3">
-        <v>2572600</v>
+        <v>2550200</v>
       </c>
       <c r="K54" s="3">
         <v>2512900</v>
@@ -2280,19 +2280,19 @@
         <v>11000</v>
       </c>
       <c r="F57" s="3">
-        <v>14900</v>
+        <v>14800</v>
       </c>
       <c r="G57" s="3">
         <v>6700</v>
       </c>
       <c r="H57" s="3">
-        <v>8200</v>
+        <v>8100</v>
       </c>
       <c r="I57" s="3">
         <v>5100</v>
       </c>
       <c r="J57" s="3">
-        <v>6200</v>
+        <v>6100</v>
       </c>
       <c r="K57" s="3">
         <v>4700</v>
@@ -2346,25 +2346,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>1199800</v>
+        <v>1189300</v>
       </c>
       <c r="E59" s="3">
-        <v>1087700</v>
+        <v>1078300</v>
       </c>
       <c r="F59" s="3">
-        <v>1009400</v>
+        <v>1000700</v>
       </c>
       <c r="G59" s="3">
-        <v>992800</v>
+        <v>984200</v>
       </c>
       <c r="H59" s="3">
-        <v>926400</v>
+        <v>918300</v>
       </c>
       <c r="I59" s="3">
-        <v>863700</v>
+        <v>856100</v>
       </c>
       <c r="J59" s="3">
-        <v>846500</v>
+        <v>839100</v>
       </c>
       <c r="K59" s="3">
         <v>832000</v>
@@ -2382,25 +2382,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>1208200</v>
+        <v>1197700</v>
       </c>
       <c r="E60" s="3">
-        <v>1098800</v>
+        <v>1089200</v>
       </c>
       <c r="F60" s="3">
-        <v>1024400</v>
+        <v>1015400</v>
       </c>
       <c r="G60" s="3">
-        <v>999500</v>
+        <v>990800</v>
       </c>
       <c r="H60" s="3">
-        <v>934600</v>
+        <v>926400</v>
       </c>
       <c r="I60" s="3">
-        <v>868800</v>
+        <v>861300</v>
       </c>
       <c r="J60" s="3">
-        <v>852700</v>
+        <v>845200</v>
       </c>
       <c r="K60" s="3">
         <v>836700</v>
@@ -2454,25 +2454,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>513500</v>
+        <v>509000</v>
       </c>
       <c r="E62" s="3">
-        <v>484500</v>
+        <v>480300</v>
       </c>
       <c r="F62" s="3">
-        <v>437600</v>
+        <v>433800</v>
       </c>
       <c r="G62" s="3">
-        <v>416500</v>
+        <v>412800</v>
       </c>
       <c r="H62" s="3">
-        <v>371000</v>
+        <v>367800</v>
       </c>
       <c r="I62" s="3">
-        <v>333500</v>
+        <v>330600</v>
       </c>
       <c r="J62" s="3">
-        <v>313000</v>
+        <v>310300</v>
       </c>
       <c r="K62" s="3">
         <v>306400</v>
@@ -2598,25 +2598,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>1729300</v>
+        <v>1714200</v>
       </c>
       <c r="E66" s="3">
-        <v>1584700</v>
+        <v>1570900</v>
       </c>
       <c r="F66" s="3">
-        <v>1462600</v>
+        <v>1449900</v>
       </c>
       <c r="G66" s="3">
-        <v>1416100</v>
+        <v>1403700</v>
       </c>
       <c r="H66" s="3">
-        <v>1305600</v>
+        <v>1294300</v>
       </c>
       <c r="I66" s="3">
-        <v>1202300</v>
+        <v>1191900</v>
       </c>
       <c r="J66" s="3">
-        <v>1165800</v>
+        <v>1155600</v>
       </c>
       <c r="K66" s="3">
         <v>1143200</v>
@@ -2794,25 +2794,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>1467200</v>
+        <v>1454400</v>
       </c>
       <c r="E72" s="3">
-        <v>1423400</v>
+        <v>1411000</v>
       </c>
       <c r="F72" s="3">
-        <v>1375000</v>
+        <v>1363100</v>
       </c>
       <c r="G72" s="3">
-        <v>1309200</v>
+        <v>1297800</v>
       </c>
       <c r="H72" s="3">
-        <v>1250300</v>
+        <v>1239400</v>
       </c>
       <c r="I72" s="3">
-        <v>1162900</v>
+        <v>1152800</v>
       </c>
       <c r="J72" s="3">
-        <v>1116700</v>
+        <v>1107000</v>
       </c>
       <c r="K72" s="3">
         <v>1113200</v>
@@ -2938,25 +2938,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>1732600</v>
+        <v>1717500</v>
       </c>
       <c r="E76" s="3">
-        <v>1721000</v>
+        <v>1706100</v>
       </c>
       <c r="F76" s="3">
-        <v>1718600</v>
+        <v>1703600</v>
       </c>
       <c r="G76" s="3">
-        <v>1627300</v>
+        <v>1613100</v>
       </c>
       <c r="H76" s="3">
-        <v>1529800</v>
+        <v>1516500</v>
       </c>
       <c r="I76" s="3">
-        <v>1467600</v>
+        <v>1454800</v>
       </c>
       <c r="J76" s="3">
-        <v>1406800</v>
+        <v>1394600</v>
       </c>
       <c r="K76" s="3">
         <v>1369700</v>
@@ -3051,25 +3051,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>247200</v>
+        <v>245100</v>
       </c>
       <c r="E81" s="3">
-        <v>256800</v>
+        <v>254600</v>
       </c>
       <c r="F81" s="3">
-        <v>260200</v>
+        <v>257900</v>
       </c>
       <c r="G81" s="3">
-        <v>236100</v>
+        <v>234000</v>
       </c>
       <c r="H81" s="3">
-        <v>226500</v>
+        <v>224600</v>
       </c>
       <c r="I81" s="3">
-        <v>197000</v>
+        <v>195300</v>
       </c>
       <c r="J81" s="3">
-        <v>205000</v>
+        <v>203200</v>
       </c>
       <c r="K81" s="3">
         <v>188300</v>
@@ -3103,25 +3103,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>208400</v>
+        <v>206600</v>
       </c>
       <c r="E83" s="3">
-        <v>145400</v>
+        <v>144100</v>
       </c>
       <c r="F83" s="3">
-        <v>146200</v>
+        <v>145000</v>
       </c>
       <c r="G83" s="3">
-        <v>128200</v>
+        <v>127100</v>
       </c>
       <c r="H83" s="3">
-        <v>102800</v>
+        <v>101900</v>
       </c>
       <c r="I83" s="3">
-        <v>75900</v>
+        <v>75200</v>
       </c>
       <c r="J83" s="3">
-        <v>70000</v>
+        <v>69400</v>
       </c>
       <c r="K83" s="3">
         <v>69600</v>
@@ -3319,25 +3319,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>499100</v>
+        <v>494800</v>
       </c>
       <c r="E89" s="3">
-        <v>414500</v>
+        <v>410900</v>
       </c>
       <c r="F89" s="3">
-        <v>459100</v>
+        <v>455100</v>
       </c>
       <c r="G89" s="3">
-        <v>431100</v>
+        <v>427400</v>
       </c>
       <c r="H89" s="3">
-        <v>308000</v>
+        <v>305300</v>
       </c>
       <c r="I89" s="3">
-        <v>280200</v>
+        <v>277700</v>
       </c>
       <c r="J89" s="3">
-        <v>293500</v>
+        <v>291000</v>
       </c>
       <c r="K89" s="3">
         <v>295400</v>
@@ -3371,25 +3371,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-14300</v>
+        <v>-14200</v>
       </c>
       <c r="E91" s="3">
-        <v>-37100</v>
+        <v>-36700</v>
       </c>
       <c r="F91" s="3">
-        <v>-32700</v>
+        <v>-32400</v>
       </c>
       <c r="G91" s="3">
-        <v>-42300</v>
+        <v>-41900</v>
       </c>
       <c r="H91" s="3">
-        <v>-27400</v>
+        <v>-27200</v>
       </c>
       <c r="I91" s="3">
-        <v>-32400</v>
+        <v>-32200</v>
       </c>
       <c r="J91" s="3">
-        <v>-18700</v>
+        <v>-18600</v>
       </c>
       <c r="K91" s="3">
         <v>-17600</v>
@@ -3479,25 +3479,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-53100</v>
+        <v>-52600</v>
       </c>
       <c r="E94" s="3">
-        <v>-13500</v>
+        <v>-13400</v>
       </c>
       <c r="F94" s="3">
         <v>7500</v>
       </c>
       <c r="G94" s="3">
-        <v>-310800</v>
+        <v>-308100</v>
       </c>
       <c r="H94" s="3">
-        <v>118800</v>
+        <v>117700</v>
       </c>
       <c r="I94" s="3">
-        <v>-45300</v>
+        <v>-44900</v>
       </c>
       <c r="J94" s="3">
-        <v>-302600</v>
+        <v>-299900</v>
       </c>
       <c r="K94" s="3">
         <v>-155200</v>
@@ -3531,25 +3531,25 @@
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-199200</v>
+        <v>-197500</v>
       </c>
       <c r="E96" s="3">
-        <v>-202100</v>
+        <v>-200300</v>
       </c>
       <c r="F96" s="3">
-        <v>-181900</v>
+        <v>-180300</v>
       </c>
       <c r="G96" s="3">
-        <v>-171700</v>
+        <v>-170200</v>
       </c>
       <c r="H96" s="3">
-        <v>-133200</v>
+        <v>-132000</v>
       </c>
       <c r="I96" s="3">
-        <v>-136400</v>
+        <v>-135200</v>
       </c>
       <c r="J96" s="3">
-        <v>-144900</v>
+        <v>-143700</v>
       </c>
       <c r="K96" s="3">
         <v>-80800</v>
@@ -3675,25 +3675,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-194300</v>
+        <v>-192600</v>
       </c>
       <c r="E100" s="3">
-        <v>-238600</v>
+        <v>-236500</v>
       </c>
       <c r="F100" s="3">
-        <v>-121500</v>
+        <v>-120500</v>
       </c>
       <c r="G100" s="3">
-        <v>-155400</v>
+        <v>-154000</v>
       </c>
       <c r="H100" s="3">
-        <v>-138300</v>
+        <v>-137100</v>
       </c>
       <c r="I100" s="3">
-        <v>-85700</v>
+        <v>-84900</v>
       </c>
       <c r="J100" s="3">
-        <v>-155200</v>
+        <v>-153800</v>
       </c>
       <c r="K100" s="3">
         <v>-2000</v>
@@ -3711,25 +3711,25 @@
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-12500</v>
+        <v>-12300</v>
       </c>
       <c r="E101" s="3">
-        <v>-10800</v>
+        <v>-10700</v>
       </c>
       <c r="F101" s="3">
-        <v>-40200</v>
+        <v>-39800</v>
       </c>
       <c r="G101" s="3">
         <v>-1100</v>
       </c>
       <c r="H101" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="I101" s="3">
-        <v>-38800</v>
+        <v>-38500</v>
       </c>
       <c r="J101" s="3">
-        <v>23700</v>
+        <v>23500</v>
       </c>
       <c r="K101" s="3">
         <v>87700</v>
@@ -3747,25 +3747,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>239300</v>
+        <v>237200</v>
       </c>
       <c r="E102" s="3">
-        <v>151600</v>
+        <v>150300</v>
       </c>
       <c r="F102" s="3">
-        <v>305000</v>
+        <v>302300</v>
       </c>
       <c r="G102" s="3">
-        <v>-36200</v>
+        <v>-35800</v>
       </c>
       <c r="H102" s="3">
-        <v>291300</v>
+        <v>288800</v>
       </c>
       <c r="I102" s="3">
-        <v>110400</v>
+        <v>109500</v>
       </c>
       <c r="J102" s="3">
-        <v>-140500</v>
+        <v>-139300</v>
       </c>
       <c r="K102" s="3">
         <v>225900</v>

--- a/AAII_Financials/Yearly/TMICY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TMICY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1585700</v>
+        <v>1533500</v>
       </c>
       <c r="E8" s="3">
-        <v>1504900</v>
+        <v>1455400</v>
       </c>
       <c r="F8" s="3">
-        <v>1461300</v>
+        <v>1413200</v>
       </c>
       <c r="G8" s="3">
-        <v>1355700</v>
+        <v>1311000</v>
       </c>
       <c r="H8" s="3">
-        <v>1201900</v>
+        <v>1162400</v>
       </c>
       <c r="I8" s="3">
-        <v>1132500</v>
+        <v>1095200</v>
       </c>
       <c r="J8" s="3">
-        <v>1049500</v>
+        <v>1015000</v>
       </c>
       <c r="K8" s="3">
         <v>1040900</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>347700</v>
+        <v>336200</v>
       </c>
       <c r="E9" s="3">
-        <v>294200</v>
+        <v>284600</v>
       </c>
       <c r="F9" s="3">
-        <v>298200</v>
+        <v>288300</v>
       </c>
       <c r="G9" s="3">
-        <v>256300</v>
+        <v>247900</v>
       </c>
       <c r="H9" s="3">
-        <v>209900</v>
+        <v>203000</v>
       </c>
       <c r="I9" s="3">
-        <v>193800</v>
+        <v>187400</v>
       </c>
       <c r="J9" s="3">
-        <v>186100</v>
+        <v>180000</v>
       </c>
       <c r="K9" s="3">
         <v>186200</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1238000</v>
+        <v>1197200</v>
       </c>
       <c r="E10" s="3">
-        <v>1210700</v>
+        <v>1170800</v>
       </c>
       <c r="F10" s="3">
-        <v>1163200</v>
+        <v>1124900</v>
       </c>
       <c r="G10" s="3">
-        <v>1099300</v>
+        <v>1063100</v>
       </c>
       <c r="H10" s="3">
-        <v>992000</v>
+        <v>959400</v>
       </c>
       <c r="I10" s="3">
-        <v>938700</v>
+        <v>907800</v>
       </c>
       <c r="J10" s="3">
-        <v>863400</v>
+        <v>835000</v>
       </c>
       <c r="K10" s="3">
         <v>854700</v>
@@ -844,25 +844,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>66900</v>
+        <v>64700</v>
       </c>
       <c r="E12" s="3">
-        <v>75000</v>
+        <v>72500</v>
       </c>
       <c r="F12" s="3">
-        <v>67800</v>
+        <v>65600</v>
       </c>
       <c r="G12" s="3">
-        <v>70900</v>
+        <v>68600</v>
       </c>
       <c r="H12" s="3">
-        <v>48000</v>
+        <v>46400</v>
       </c>
       <c r="I12" s="3">
-        <v>34400</v>
+        <v>33200</v>
       </c>
       <c r="J12" s="3">
-        <v>26600</v>
+        <v>25800</v>
       </c>
       <c r="K12" s="3">
         <v>40200</v>
@@ -916,25 +916,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="E14" s="3">
         <v>600</v>
       </c>
       <c r="F14" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="G14" s="3">
         <v>400</v>
       </c>
       <c r="H14" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="I14" s="3">
-        <v>6800</v>
+        <v>6600</v>
       </c>
       <c r="J14" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="K14" s="3">
         <v>8200</v>
@@ -1001,25 +1001,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1228000</v>
+        <v>1187500</v>
       </c>
       <c r="E17" s="3">
-        <v>1162200</v>
+        <v>1124000</v>
       </c>
       <c r="F17" s="3">
-        <v>1137900</v>
+        <v>1100500</v>
       </c>
       <c r="G17" s="3">
-        <v>1024100</v>
+        <v>990400</v>
       </c>
       <c r="H17" s="3">
-        <v>892300</v>
+        <v>862900</v>
       </c>
       <c r="I17" s="3">
-        <v>857200</v>
+        <v>828900</v>
       </c>
       <c r="J17" s="3">
-        <v>745000</v>
+        <v>720500</v>
       </c>
       <c r="K17" s="3">
         <v>766100</v>
@@ -1037,25 +1037,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>357700</v>
+        <v>346000</v>
       </c>
       <c r="E18" s="3">
-        <v>342700</v>
+        <v>331400</v>
       </c>
       <c r="F18" s="3">
-        <v>323400</v>
+        <v>312700</v>
       </c>
       <c r="G18" s="3">
-        <v>331600</v>
+        <v>320700</v>
       </c>
       <c r="H18" s="3">
-        <v>309600</v>
+        <v>299400</v>
       </c>
       <c r="I18" s="3">
-        <v>275400</v>
+        <v>266300</v>
       </c>
       <c r="J18" s="3">
-        <v>304500</v>
+        <v>294500</v>
       </c>
       <c r="K18" s="3">
         <v>274800</v>
@@ -1089,25 +1089,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="E20" s="3">
-        <v>13900</v>
+        <v>13400</v>
       </c>
       <c r="F20" s="3">
-        <v>15400</v>
+        <v>14900</v>
       </c>
       <c r="G20" s="3">
-        <v>6400</v>
+        <v>6200</v>
       </c>
       <c r="H20" s="3">
-        <v>15800</v>
+        <v>15300</v>
       </c>
       <c r="I20" s="3">
-        <v>34800</v>
+        <v>33600</v>
       </c>
       <c r="J20" s="3">
-        <v>23800</v>
+        <v>23100</v>
       </c>
       <c r="K20" s="3">
         <v>32800</v>
@@ -1125,25 +1125,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>569700</v>
+        <v>551400</v>
       </c>
       <c r="E21" s="3">
-        <v>500600</v>
+        <v>484500</v>
       </c>
       <c r="F21" s="3">
-        <v>483800</v>
+        <v>468200</v>
       </c>
       <c r="G21" s="3">
-        <v>465100</v>
+        <v>450000</v>
       </c>
       <c r="H21" s="3">
-        <v>427400</v>
+        <v>413500</v>
       </c>
       <c r="I21" s="3">
-        <v>385300</v>
+        <v>372800</v>
       </c>
       <c r="J21" s="3">
-        <v>397700</v>
+        <v>384800</v>
       </c>
       <c r="K21" s="3">
         <v>377100</v>
@@ -1179,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
@@ -1197,25 +1197,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>363100</v>
+        <v>351100</v>
       </c>
       <c r="E23" s="3">
-        <v>356600</v>
+        <v>344800</v>
       </c>
       <c r="F23" s="3">
-        <v>338800</v>
+        <v>327600</v>
       </c>
       <c r="G23" s="3">
-        <v>337900</v>
+        <v>326800</v>
       </c>
       <c r="H23" s="3">
-        <v>325400</v>
+        <v>314700</v>
       </c>
       <c r="I23" s="3">
-        <v>310100</v>
+        <v>299900</v>
       </c>
       <c r="J23" s="3">
-        <v>328200</v>
+        <v>317400</v>
       </c>
       <c r="K23" s="3">
         <v>307600</v>
@@ -1233,25 +1233,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>122800</v>
+        <v>118700</v>
       </c>
       <c r="E24" s="3">
-        <v>103100</v>
+        <v>99700</v>
       </c>
       <c r="F24" s="3">
-        <v>81000</v>
+        <v>78300</v>
       </c>
       <c r="G24" s="3">
-        <v>103900</v>
+        <v>100500</v>
       </c>
       <c r="H24" s="3">
-        <v>100800</v>
+        <v>97500</v>
       </c>
       <c r="I24" s="3">
-        <v>114800</v>
+        <v>111000</v>
       </c>
       <c r="J24" s="3">
-        <v>125000</v>
+        <v>120900</v>
       </c>
       <c r="K24" s="3">
         <v>119300</v>
@@ -1305,25 +1305,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>240300</v>
+        <v>232400</v>
       </c>
       <c r="E26" s="3">
-        <v>253400</v>
+        <v>245100</v>
       </c>
       <c r="F26" s="3">
-        <v>257800</v>
+        <v>249300</v>
       </c>
       <c r="G26" s="3">
-        <v>234100</v>
+        <v>226400</v>
       </c>
       <c r="H26" s="3">
-        <v>224600</v>
+        <v>217200</v>
       </c>
       <c r="I26" s="3">
-        <v>195300</v>
+        <v>188900</v>
       </c>
       <c r="J26" s="3">
-        <v>203200</v>
+        <v>196500</v>
       </c>
       <c r="K26" s="3">
         <v>188300</v>
@@ -1341,25 +1341,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>245100</v>
+        <v>237000</v>
       </c>
       <c r="E27" s="3">
-        <v>254600</v>
+        <v>246200</v>
       </c>
       <c r="F27" s="3">
-        <v>257900</v>
+        <v>249400</v>
       </c>
       <c r="G27" s="3">
-        <v>234000</v>
+        <v>226300</v>
       </c>
       <c r="H27" s="3">
-        <v>224600</v>
+        <v>217200</v>
       </c>
       <c r="I27" s="3">
-        <v>195300</v>
+        <v>188800</v>
       </c>
       <c r="J27" s="3">
-        <v>203200</v>
+        <v>196500</v>
       </c>
       <c r="K27" s="3">
         <v>188300</v>
@@ -1521,25 +1521,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-5300</v>
+        <v>-5200</v>
       </c>
       <c r="E32" s="3">
-        <v>-13900</v>
+        <v>-13400</v>
       </c>
       <c r="F32" s="3">
-        <v>-15400</v>
+        <v>-14900</v>
       </c>
       <c r="G32" s="3">
-        <v>-6400</v>
+        <v>-6200</v>
       </c>
       <c r="H32" s="3">
-        <v>-15800</v>
+        <v>-15300</v>
       </c>
       <c r="I32" s="3">
-        <v>-34800</v>
+        <v>-33600</v>
       </c>
       <c r="J32" s="3">
-        <v>-23800</v>
+        <v>-23100</v>
       </c>
       <c r="K32" s="3">
         <v>-32800</v>
@@ -1557,25 +1557,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>245100</v>
+        <v>237000</v>
       </c>
       <c r="E33" s="3">
-        <v>254600</v>
+        <v>246200</v>
       </c>
       <c r="F33" s="3">
-        <v>257900</v>
+        <v>249400</v>
       </c>
       <c r="G33" s="3">
-        <v>234000</v>
+        <v>226300</v>
       </c>
       <c r="H33" s="3">
-        <v>224600</v>
+        <v>217200</v>
       </c>
       <c r="I33" s="3">
-        <v>195300</v>
+        <v>188800</v>
       </c>
       <c r="J33" s="3">
-        <v>203200</v>
+        <v>196500</v>
       </c>
       <c r="K33" s="3">
         <v>188300</v>
@@ -1629,25 +1629,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>245100</v>
+        <v>237000</v>
       </c>
       <c r="E35" s="3">
-        <v>254600</v>
+        <v>246200</v>
       </c>
       <c r="F35" s="3">
-        <v>257900</v>
+        <v>249400</v>
       </c>
       <c r="G35" s="3">
-        <v>234000</v>
+        <v>226300</v>
       </c>
       <c r="H35" s="3">
-        <v>224600</v>
+        <v>217200</v>
       </c>
       <c r="I35" s="3">
-        <v>195300</v>
+        <v>188800</v>
       </c>
       <c r="J35" s="3">
-        <v>203200</v>
+        <v>196500</v>
       </c>
       <c r="K35" s="3">
         <v>188300</v>
@@ -1738,25 +1738,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1418800</v>
+        <v>1372100</v>
       </c>
       <c r="E41" s="3">
-        <v>1138600</v>
+        <v>1101100</v>
       </c>
       <c r="F41" s="3">
-        <v>1061300</v>
+        <v>1026300</v>
       </c>
       <c r="G41" s="3">
-        <v>782500</v>
+        <v>756800</v>
       </c>
       <c r="H41" s="3">
-        <v>769900</v>
+        <v>744500</v>
       </c>
       <c r="I41" s="3">
-        <v>672700</v>
+        <v>650500</v>
       </c>
       <c r="J41" s="3">
-        <v>574900</v>
+        <v>556000</v>
       </c>
       <c r="K41" s="3">
         <v>765300</v>
@@ -1774,25 +1774,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>515000</v>
+        <v>498000</v>
       </c>
       <c r="E42" s="3">
-        <v>433800</v>
+        <v>419500</v>
       </c>
       <c r="F42" s="3">
-        <v>558300</v>
+        <v>540000</v>
       </c>
       <c r="G42" s="3">
-        <v>606100</v>
+        <v>586200</v>
       </c>
       <c r="H42" s="3">
-        <v>456900</v>
+        <v>441900</v>
       </c>
       <c r="I42" s="3">
-        <v>655100</v>
+        <v>633600</v>
       </c>
       <c r="J42" s="3">
-        <v>677100</v>
+        <v>654800</v>
       </c>
       <c r="K42" s="3">
         <v>585800</v>
@@ -1810,25 +1810,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>428400</v>
+        <v>414200</v>
       </c>
       <c r="E43" s="3">
-        <v>409400</v>
+        <v>395900</v>
       </c>
       <c r="F43" s="3">
-        <v>355100</v>
+        <v>343400</v>
       </c>
       <c r="G43" s="3">
-        <v>362400</v>
+        <v>350500</v>
       </c>
       <c r="H43" s="3">
-        <v>323900</v>
+        <v>313200</v>
       </c>
       <c r="I43" s="3">
-        <v>273000</v>
+        <v>264000</v>
       </c>
       <c r="J43" s="3">
-        <v>237500</v>
+        <v>229700</v>
       </c>
       <c r="K43" s="3">
         <v>233800</v>
@@ -1846,25 +1846,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>31000</v>
+        <v>30000</v>
       </c>
       <c r="E44" s="3">
-        <v>37400</v>
+        <v>36200</v>
       </c>
       <c r="F44" s="3">
-        <v>67000</v>
+        <v>64800</v>
       </c>
       <c r="G44" s="3">
-        <v>27100</v>
+        <v>26300</v>
       </c>
       <c r="H44" s="3">
-        <v>15600</v>
+        <v>15100</v>
       </c>
       <c r="I44" s="3">
-        <v>7400</v>
+        <v>7100</v>
       </c>
       <c r="J44" s="3">
-        <v>4800</v>
+        <v>4600</v>
       </c>
       <c r="K44" s="3">
         <v>3900</v>
@@ -1882,25 +1882,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>54300</v>
+        <v>52500</v>
       </c>
       <c r="E45" s="3">
-        <v>52000</v>
+        <v>50200</v>
       </c>
       <c r="F45" s="3">
-        <v>195600</v>
+        <v>189200</v>
       </c>
       <c r="G45" s="3">
-        <v>196800</v>
+        <v>190300</v>
       </c>
       <c r="H45" s="3">
-        <v>210500</v>
+        <v>203600</v>
       </c>
       <c r="I45" s="3">
-        <v>227400</v>
+        <v>219900</v>
       </c>
       <c r="J45" s="3">
-        <v>180100</v>
+        <v>174100</v>
       </c>
       <c r="K45" s="3">
         <v>185300</v>
@@ -1918,25 +1918,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>2447400</v>
+        <v>2366800</v>
       </c>
       <c r="E46" s="3">
-        <v>2071100</v>
+        <v>2002900</v>
       </c>
       <c r="F46" s="3">
-        <v>2056800</v>
+        <v>1989100</v>
       </c>
       <c r="G46" s="3">
-        <v>1975000</v>
+        <v>1909900</v>
       </c>
       <c r="H46" s="3">
-        <v>1776700</v>
+        <v>1718200</v>
       </c>
       <c r="I46" s="3">
-        <v>1835600</v>
+        <v>1775100</v>
       </c>
       <c r="J46" s="3">
-        <v>1674400</v>
+        <v>1619300</v>
       </c>
       <c r="K46" s="3">
         <v>1774100</v>
@@ -1954,25 +1954,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>329900</v>
+        <v>319100</v>
       </c>
       <c r="E47" s="3">
-        <v>455400</v>
+        <v>440400</v>
       </c>
       <c r="F47" s="3">
-        <v>407500</v>
+        <v>394100</v>
       </c>
       <c r="G47" s="3">
-        <v>477300</v>
+        <v>461600</v>
       </c>
       <c r="H47" s="3">
-        <v>462100</v>
+        <v>446900</v>
       </c>
       <c r="I47" s="3">
-        <v>572100</v>
+        <v>553300</v>
       </c>
       <c r="J47" s="3">
-        <v>629000</v>
+        <v>608300</v>
       </c>
       <c r="K47" s="3">
         <v>491400</v>
@@ -1990,25 +1990,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>72600</v>
+        <v>70200</v>
       </c>
       <c r="E48" s="3">
-        <v>89800</v>
+        <v>86900</v>
       </c>
       <c r="F48" s="3">
-        <v>79900</v>
+        <v>77300</v>
       </c>
       <c r="G48" s="3">
-        <v>74900</v>
+        <v>72400</v>
       </c>
       <c r="H48" s="3">
-        <v>59700</v>
+        <v>57700</v>
       </c>
       <c r="I48" s="3">
-        <v>52700</v>
+        <v>51000</v>
       </c>
       <c r="J48" s="3">
-        <v>45100</v>
+        <v>43600</v>
       </c>
       <c r="K48" s="3">
         <v>44000</v>
@@ -2026,25 +2026,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>236000</v>
+        <v>228200</v>
       </c>
       <c r="E49" s="3">
-        <v>329600</v>
+        <v>318700</v>
       </c>
       <c r="F49" s="3">
-        <v>319900</v>
+        <v>309300</v>
       </c>
       <c r="G49" s="3">
-        <v>367100</v>
+        <v>355000</v>
       </c>
       <c r="H49" s="3">
-        <v>387500</v>
+        <v>374800</v>
       </c>
       <c r="I49" s="3">
-        <v>74800</v>
+        <v>72300</v>
       </c>
       <c r="J49" s="3">
-        <v>85900</v>
+        <v>83100</v>
       </c>
       <c r="K49" s="3">
         <v>88000</v>
@@ -2134,25 +2134,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>345800</v>
+        <v>334400</v>
       </c>
       <c r="E52" s="3">
-        <v>331000</v>
+        <v>320100</v>
       </c>
       <c r="F52" s="3">
-        <v>289500</v>
+        <v>279900</v>
       </c>
       <c r="G52" s="3">
-        <v>122600</v>
+        <v>118500</v>
       </c>
       <c r="H52" s="3">
-        <v>124700</v>
+        <v>120600</v>
       </c>
       <c r="I52" s="3">
-        <v>111400</v>
+        <v>107800</v>
       </c>
       <c r="J52" s="3">
-        <v>115900</v>
+        <v>112000</v>
       </c>
       <c r="K52" s="3">
         <v>115400</v>
@@ -2206,25 +2206,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>3431700</v>
+        <v>3318700</v>
       </c>
       <c r="E54" s="3">
-        <v>3277000</v>
+        <v>3169000</v>
       </c>
       <c r="F54" s="3">
-        <v>3153500</v>
+        <v>3049700</v>
       </c>
       <c r="G54" s="3">
-        <v>3016800</v>
+        <v>2917500</v>
       </c>
       <c r="H54" s="3">
-        <v>2810800</v>
+        <v>2718200</v>
       </c>
       <c r="I54" s="3">
-        <v>2646600</v>
+        <v>2559500</v>
       </c>
       <c r="J54" s="3">
-        <v>2550200</v>
+        <v>2466300</v>
       </c>
       <c r="K54" s="3">
         <v>2512900</v>
@@ -2274,25 +2274,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>8400</v>
+        <v>8100</v>
       </c>
       <c r="E57" s="3">
-        <v>11000</v>
+        <v>10600</v>
       </c>
       <c r="F57" s="3">
-        <v>14800</v>
+        <v>14300</v>
       </c>
       <c r="G57" s="3">
-        <v>6700</v>
+        <v>6400</v>
       </c>
       <c r="H57" s="3">
-        <v>8100</v>
+        <v>7900</v>
       </c>
       <c r="I57" s="3">
-        <v>5100</v>
+        <v>4900</v>
       </c>
       <c r="J57" s="3">
-        <v>6100</v>
+        <v>5900</v>
       </c>
       <c r="K57" s="3">
         <v>4700</v>
@@ -2346,25 +2346,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>1189300</v>
+        <v>1150200</v>
       </c>
       <c r="E59" s="3">
-        <v>1078300</v>
+        <v>1042700</v>
       </c>
       <c r="F59" s="3">
-        <v>1000700</v>
+        <v>967700</v>
       </c>
       <c r="G59" s="3">
-        <v>984200</v>
+        <v>951800</v>
       </c>
       <c r="H59" s="3">
-        <v>918300</v>
+        <v>888100</v>
       </c>
       <c r="I59" s="3">
-        <v>856100</v>
+        <v>828000</v>
       </c>
       <c r="J59" s="3">
-        <v>839100</v>
+        <v>811500</v>
       </c>
       <c r="K59" s="3">
         <v>832000</v>
@@ -2382,25 +2382,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>1197700</v>
+        <v>1158200</v>
       </c>
       <c r="E60" s="3">
-        <v>1089200</v>
+        <v>1053300</v>
       </c>
       <c r="F60" s="3">
-        <v>1015400</v>
+        <v>982000</v>
       </c>
       <c r="G60" s="3">
-        <v>990800</v>
+        <v>958200</v>
       </c>
       <c r="H60" s="3">
-        <v>926400</v>
+        <v>895900</v>
       </c>
       <c r="I60" s="3">
-        <v>861300</v>
+        <v>832900</v>
       </c>
       <c r="J60" s="3">
-        <v>845200</v>
+        <v>817400</v>
       </c>
       <c r="K60" s="3">
         <v>836700</v>
@@ -2454,25 +2454,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>509000</v>
+        <v>492200</v>
       </c>
       <c r="E62" s="3">
-        <v>480300</v>
+        <v>464500</v>
       </c>
       <c r="F62" s="3">
-        <v>433800</v>
+        <v>419500</v>
       </c>
       <c r="G62" s="3">
-        <v>412800</v>
+        <v>399200</v>
       </c>
       <c r="H62" s="3">
-        <v>367800</v>
+        <v>355700</v>
       </c>
       <c r="I62" s="3">
-        <v>330600</v>
+        <v>319700</v>
       </c>
       <c r="J62" s="3">
-        <v>310300</v>
+        <v>300100</v>
       </c>
       <c r="K62" s="3">
         <v>306400</v>
@@ -2598,25 +2598,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>1714200</v>
+        <v>1657800</v>
       </c>
       <c r="E66" s="3">
-        <v>1570900</v>
+        <v>1519200</v>
       </c>
       <c r="F66" s="3">
-        <v>1449900</v>
+        <v>1402100</v>
       </c>
       <c r="G66" s="3">
-        <v>1403700</v>
+        <v>1357500</v>
       </c>
       <c r="H66" s="3">
-        <v>1294300</v>
+        <v>1251600</v>
       </c>
       <c r="I66" s="3">
-        <v>1191900</v>
+        <v>1152600</v>
       </c>
       <c r="J66" s="3">
-        <v>1155600</v>
+        <v>1117600</v>
       </c>
       <c r="K66" s="3">
         <v>1143200</v>
@@ -2794,25 +2794,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>1454400</v>
+        <v>1406500</v>
       </c>
       <c r="E72" s="3">
-        <v>1411000</v>
+        <v>1364600</v>
       </c>
       <c r="F72" s="3">
-        <v>1363100</v>
+        <v>1318200</v>
       </c>
       <c r="G72" s="3">
-        <v>1297800</v>
+        <v>1255000</v>
       </c>
       <c r="H72" s="3">
-        <v>1239400</v>
+        <v>1198600</v>
       </c>
       <c r="I72" s="3">
-        <v>1152800</v>
+        <v>1114800</v>
       </c>
       <c r="J72" s="3">
-        <v>1107000</v>
+        <v>1070500</v>
       </c>
       <c r="K72" s="3">
         <v>1113200</v>
@@ -2938,25 +2938,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>1717500</v>
+        <v>1661000</v>
       </c>
       <c r="E76" s="3">
-        <v>1706100</v>
+        <v>1649900</v>
       </c>
       <c r="F76" s="3">
-        <v>1703600</v>
+        <v>1647500</v>
       </c>
       <c r="G76" s="3">
-        <v>1613100</v>
+        <v>1560000</v>
       </c>
       <c r="H76" s="3">
-        <v>1516500</v>
+        <v>1466600</v>
       </c>
       <c r="I76" s="3">
-        <v>1454800</v>
+        <v>1406900</v>
       </c>
       <c r="J76" s="3">
-        <v>1394600</v>
+        <v>1348700</v>
       </c>
       <c r="K76" s="3">
         <v>1369700</v>
@@ -3051,25 +3051,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>245100</v>
+        <v>237000</v>
       </c>
       <c r="E81" s="3">
-        <v>254600</v>
+        <v>246200</v>
       </c>
       <c r="F81" s="3">
-        <v>257900</v>
+        <v>249400</v>
       </c>
       <c r="G81" s="3">
-        <v>234000</v>
+        <v>226300</v>
       </c>
       <c r="H81" s="3">
-        <v>224600</v>
+        <v>217200</v>
       </c>
       <c r="I81" s="3">
-        <v>195300</v>
+        <v>188800</v>
       </c>
       <c r="J81" s="3">
-        <v>203200</v>
+        <v>196500</v>
       </c>
       <c r="K81" s="3">
         <v>188300</v>
@@ -3103,25 +3103,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>206600</v>
+        <v>199800</v>
       </c>
       <c r="E83" s="3">
-        <v>144100</v>
+        <v>139300</v>
       </c>
       <c r="F83" s="3">
-        <v>145000</v>
+        <v>140200</v>
       </c>
       <c r="G83" s="3">
-        <v>127100</v>
+        <v>122900</v>
       </c>
       <c r="H83" s="3">
-        <v>101900</v>
+        <v>98600</v>
       </c>
       <c r="I83" s="3">
-        <v>75200</v>
+        <v>72700</v>
       </c>
       <c r="J83" s="3">
-        <v>69400</v>
+        <v>67100</v>
       </c>
       <c r="K83" s="3">
         <v>69600</v>
@@ -3319,25 +3319,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>494800</v>
+        <v>478500</v>
       </c>
       <c r="E89" s="3">
-        <v>410900</v>
+        <v>397400</v>
       </c>
       <c r="F89" s="3">
-        <v>455100</v>
+        <v>440100</v>
       </c>
       <c r="G89" s="3">
-        <v>427400</v>
+        <v>413300</v>
       </c>
       <c r="H89" s="3">
-        <v>305300</v>
+        <v>295200</v>
       </c>
       <c r="I89" s="3">
-        <v>277700</v>
+        <v>268600</v>
       </c>
       <c r="J89" s="3">
-        <v>291000</v>
+        <v>281400</v>
       </c>
       <c r="K89" s="3">
         <v>295400</v>
@@ -3371,25 +3371,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-14200</v>
+        <v>-13700</v>
       </c>
       <c r="E91" s="3">
-        <v>-36700</v>
+        <v>-35500</v>
       </c>
       <c r="F91" s="3">
-        <v>-32400</v>
+        <v>-31400</v>
       </c>
       <c r="G91" s="3">
-        <v>-41900</v>
+        <v>-40500</v>
       </c>
       <c r="H91" s="3">
-        <v>-27200</v>
+        <v>-26300</v>
       </c>
       <c r="I91" s="3">
-        <v>-32200</v>
+        <v>-31100</v>
       </c>
       <c r="J91" s="3">
-        <v>-18600</v>
+        <v>-18000</v>
       </c>
       <c r="K91" s="3">
         <v>-17600</v>
@@ -3479,25 +3479,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-52600</v>
+        <v>-50900</v>
       </c>
       <c r="E94" s="3">
-        <v>-13400</v>
+        <v>-13000</v>
       </c>
       <c r="F94" s="3">
-        <v>7500</v>
+        <v>7200</v>
       </c>
       <c r="G94" s="3">
-        <v>-308100</v>
+        <v>-297900</v>
       </c>
       <c r="H94" s="3">
-        <v>117700</v>
+        <v>113900</v>
       </c>
       <c r="I94" s="3">
-        <v>-44900</v>
+        <v>-43400</v>
       </c>
       <c r="J94" s="3">
-        <v>-299900</v>
+        <v>-290000</v>
       </c>
       <c r="K94" s="3">
         <v>-155200</v>
@@ -3531,25 +3531,25 @@
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-197500</v>
+        <v>-191000</v>
       </c>
       <c r="E96" s="3">
-        <v>-200300</v>
+        <v>-193700</v>
       </c>
       <c r="F96" s="3">
-        <v>-180300</v>
+        <v>-174300</v>
       </c>
       <c r="G96" s="3">
-        <v>-170200</v>
+        <v>-164600</v>
       </c>
       <c r="H96" s="3">
-        <v>-132000</v>
+        <v>-127700</v>
       </c>
       <c r="I96" s="3">
-        <v>-135200</v>
+        <v>-130700</v>
       </c>
       <c r="J96" s="3">
-        <v>-143700</v>
+        <v>-138900</v>
       </c>
       <c r="K96" s="3">
         <v>-80800</v>
@@ -3675,25 +3675,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-192600</v>
+        <v>-186300</v>
       </c>
       <c r="E100" s="3">
-        <v>-236500</v>
+        <v>-228700</v>
       </c>
       <c r="F100" s="3">
-        <v>-120500</v>
+        <v>-116500</v>
       </c>
       <c r="G100" s="3">
-        <v>-154000</v>
+        <v>-149000</v>
       </c>
       <c r="H100" s="3">
-        <v>-137100</v>
+        <v>-132600</v>
       </c>
       <c r="I100" s="3">
-        <v>-84900</v>
+        <v>-82100</v>
       </c>
       <c r="J100" s="3">
-        <v>-153800</v>
+        <v>-148800</v>
       </c>
       <c r="K100" s="3">
         <v>-2000</v>
@@ -3711,25 +3711,25 @@
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-12300</v>
+        <v>-11900</v>
       </c>
       <c r="E101" s="3">
-        <v>-10700</v>
+        <v>-10400</v>
       </c>
       <c r="F101" s="3">
-        <v>-39800</v>
+        <v>-38500</v>
       </c>
       <c r="G101" s="3">
         <v>-1100</v>
       </c>
       <c r="H101" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="I101" s="3">
-        <v>-38500</v>
+        <v>-37200</v>
       </c>
       <c r="J101" s="3">
-        <v>23500</v>
+        <v>22700</v>
       </c>
       <c r="K101" s="3">
         <v>87700</v>
@@ -3747,25 +3747,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>237200</v>
+        <v>229400</v>
       </c>
       <c r="E102" s="3">
-        <v>150300</v>
+        <v>145400</v>
       </c>
       <c r="F102" s="3">
-        <v>302300</v>
+        <v>292400</v>
       </c>
       <c r="G102" s="3">
-        <v>-35800</v>
+        <v>-34700</v>
       </c>
       <c r="H102" s="3">
-        <v>288800</v>
+        <v>279300</v>
       </c>
       <c r="I102" s="3">
-        <v>109500</v>
+        <v>105900</v>
       </c>
       <c r="J102" s="3">
-        <v>-139300</v>
+        <v>-134700</v>
       </c>
       <c r="K102" s="3">
         <v>225900</v>

--- a/AAII_Financials/Yearly/TMICY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TMICY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="92">
   <si>
     <t>TMICY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1533500</v>
+        <v>1623800</v>
       </c>
       <c r="E8" s="3">
-        <v>1455400</v>
+        <v>1484700</v>
       </c>
       <c r="F8" s="3">
-        <v>1413200</v>
+        <v>1409100</v>
       </c>
       <c r="G8" s="3">
-        <v>1311000</v>
+        <v>1368300</v>
       </c>
       <c r="H8" s="3">
-        <v>1162400</v>
+        <v>1269400</v>
       </c>
       <c r="I8" s="3">
-        <v>1095200</v>
+        <v>1125400</v>
       </c>
       <c r="J8" s="3">
+        <v>1060400</v>
+      </c>
+      <c r="K8" s="3">
         <v>1015000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1040900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>853000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>855000</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>336200</v>
+        <v>358400</v>
       </c>
       <c r="E9" s="3">
-        <v>284600</v>
+        <v>325600</v>
       </c>
       <c r="F9" s="3">
-        <v>288300</v>
+        <v>275500</v>
       </c>
       <c r="G9" s="3">
-        <v>247900</v>
+        <v>279200</v>
       </c>
       <c r="H9" s="3">
-        <v>203000</v>
+        <v>240000</v>
       </c>
       <c r="I9" s="3">
-        <v>187400</v>
+        <v>196500</v>
       </c>
       <c r="J9" s="3">
+        <v>181500</v>
+      </c>
+      <c r="K9" s="3">
         <v>180000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>186200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>159200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>158700</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1197200</v>
+        <v>1265400</v>
       </c>
       <c r="E10" s="3">
-        <v>1170800</v>
+        <v>1159200</v>
       </c>
       <c r="F10" s="3">
-        <v>1124900</v>
+        <v>1133600</v>
       </c>
       <c r="G10" s="3">
-        <v>1063100</v>
+        <v>1089100</v>
       </c>
       <c r="H10" s="3">
-        <v>959400</v>
+        <v>1029300</v>
       </c>
       <c r="I10" s="3">
-        <v>907800</v>
+        <v>928900</v>
       </c>
       <c r="J10" s="3">
+        <v>879000</v>
+      </c>
+      <c r="K10" s="3">
         <v>835000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>854700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>693800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>696300</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,44 +850,48 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3">
-        <v>64700</v>
+      <c r="D12" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="E12" s="3">
-        <v>72500</v>
+        <v>62600</v>
       </c>
       <c r="F12" s="3">
-        <v>65600</v>
+        <v>70200</v>
       </c>
       <c r="G12" s="3">
-        <v>68600</v>
+        <v>63500</v>
       </c>
       <c r="H12" s="3">
-        <v>46400</v>
+        <v>66400</v>
       </c>
       <c r="I12" s="3">
-        <v>33200</v>
+        <v>45000</v>
       </c>
       <c r="J12" s="3">
+        <v>32200</v>
+      </c>
+      <c r="K12" s="3">
         <v>25800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>40200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>34400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>30800</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,45 +925,51 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E14" s="3">
         <v>1700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>600</v>
       </c>
-      <c r="F14" s="3">
-        <v>3000</v>
-      </c>
       <c r="G14" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H14" s="3">
         <v>400</v>
       </c>
-      <c r="H14" s="3">
-        <v>3300</v>
-      </c>
       <c r="I14" s="3">
-        <v>6600</v>
+        <v>3200</v>
       </c>
       <c r="J14" s="3">
+        <v>6400</v>
+      </c>
+      <c r="K14" s="3">
         <v>2000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>8200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-31300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-42100</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -981,9 +1003,12 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1187500</v>
+        <v>1253400</v>
       </c>
       <c r="E17" s="3">
-        <v>1124000</v>
+        <v>1149800</v>
       </c>
       <c r="F17" s="3">
-        <v>1100500</v>
+        <v>1088200</v>
       </c>
       <c r="G17" s="3">
-        <v>990400</v>
+        <v>1065500</v>
       </c>
       <c r="H17" s="3">
-        <v>862900</v>
+        <v>958900</v>
       </c>
       <c r="I17" s="3">
-        <v>828900</v>
+        <v>835500</v>
       </c>
       <c r="J17" s="3">
+        <v>802600</v>
+      </c>
+      <c r="K17" s="3">
         <v>720500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>766100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>618000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>579000</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>346000</v>
+        <v>370300</v>
       </c>
       <c r="E18" s="3">
-        <v>331400</v>
+        <v>335000</v>
       </c>
       <c r="F18" s="3">
-        <v>312700</v>
+        <v>320900</v>
       </c>
       <c r="G18" s="3">
-        <v>320700</v>
+        <v>302800</v>
       </c>
       <c r="H18" s="3">
-        <v>299400</v>
+        <v>310500</v>
       </c>
       <c r="I18" s="3">
-        <v>266300</v>
+        <v>289900</v>
       </c>
       <c r="J18" s="3">
+        <v>257800</v>
+      </c>
+      <c r="K18" s="3">
         <v>294500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>274800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>235000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>276000</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1083,188 +1115,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>5200</v>
+        <v>76500</v>
       </c>
       <c r="E20" s="3">
-        <v>13400</v>
+        <v>5000</v>
       </c>
       <c r="F20" s="3">
-        <v>14900</v>
+        <v>13000</v>
       </c>
       <c r="G20" s="3">
-        <v>6200</v>
+        <v>14400</v>
       </c>
       <c r="H20" s="3">
-        <v>15300</v>
+        <v>6000</v>
       </c>
       <c r="I20" s="3">
-        <v>33600</v>
+        <v>14800</v>
       </c>
       <c r="J20" s="3">
+        <v>32500</v>
+      </c>
+      <c r="K20" s="3">
         <v>23100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>32800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-13100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-22100</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>551400</v>
+        <v>627100</v>
       </c>
       <c r="E21" s="3">
-        <v>484500</v>
+        <v>535700</v>
       </c>
       <c r="F21" s="3">
-        <v>468200</v>
+        <v>470400</v>
       </c>
       <c r="G21" s="3">
-        <v>450000</v>
+        <v>454600</v>
       </c>
       <c r="H21" s="3">
-        <v>413500</v>
+        <v>436800</v>
       </c>
       <c r="I21" s="3">
-        <v>372800</v>
+        <v>401300</v>
       </c>
       <c r="J21" s="3">
+        <v>361600</v>
+      </c>
+      <c r="K21" s="3">
         <v>384800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>377100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>290200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>319000</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>91</v>
+      <c r="D22" s="3">
+        <v>100</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
       </c>
       <c r="L22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>351100</v>
+        <v>446700</v>
       </c>
       <c r="E23" s="3">
-        <v>344800</v>
+        <v>340000</v>
       </c>
       <c r="F23" s="3">
-        <v>327600</v>
+        <v>333900</v>
       </c>
       <c r="G23" s="3">
-        <v>326800</v>
+        <v>317200</v>
       </c>
       <c r="H23" s="3">
-        <v>314700</v>
+        <v>316400</v>
       </c>
       <c r="I23" s="3">
-        <v>299900</v>
+        <v>304700</v>
       </c>
       <c r="J23" s="3">
+        <v>290300</v>
+      </c>
+      <c r="K23" s="3">
         <v>317400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>307600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>221800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>253900</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>118700</v>
+        <v>125900</v>
       </c>
       <c r="E24" s="3">
-        <v>99700</v>
+        <v>115000</v>
       </c>
       <c r="F24" s="3">
-        <v>78300</v>
+        <v>96600</v>
       </c>
       <c r="G24" s="3">
-        <v>100500</v>
+        <v>75800</v>
       </c>
       <c r="H24" s="3">
-        <v>97500</v>
+        <v>97300</v>
       </c>
       <c r="I24" s="3">
-        <v>111000</v>
+        <v>94400</v>
       </c>
       <c r="J24" s="3">
+        <v>107500</v>
+      </c>
+      <c r="K24" s="3">
         <v>120900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>119300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>99600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>100000</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>232400</v>
+        <v>320900</v>
       </c>
       <c r="E26" s="3">
-        <v>245100</v>
+        <v>225000</v>
       </c>
       <c r="F26" s="3">
-        <v>249300</v>
+        <v>237300</v>
       </c>
       <c r="G26" s="3">
-        <v>226400</v>
+        <v>241400</v>
       </c>
       <c r="H26" s="3">
-        <v>217200</v>
+        <v>219200</v>
       </c>
       <c r="I26" s="3">
-        <v>188900</v>
+        <v>210300</v>
       </c>
       <c r="J26" s="3">
+        <v>182800</v>
+      </c>
+      <c r="K26" s="3">
         <v>196500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>188300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>122200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>153900</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>237000</v>
+        <v>327300</v>
       </c>
       <c r="E27" s="3">
-        <v>246200</v>
+        <v>229500</v>
       </c>
       <c r="F27" s="3">
-        <v>249400</v>
+        <v>238400</v>
       </c>
       <c r="G27" s="3">
-        <v>226300</v>
+        <v>241500</v>
       </c>
       <c r="H27" s="3">
-        <v>217200</v>
+        <v>219100</v>
       </c>
       <c r="I27" s="3">
-        <v>188800</v>
+        <v>210300</v>
       </c>
       <c r="J27" s="3">
+        <v>182800</v>
+      </c>
+      <c r="K27" s="3">
         <v>196500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>188300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>122200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>153800</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1406,9 +1463,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1442,9 +1502,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-5200</v>
+        <v>-76500</v>
       </c>
       <c r="E32" s="3">
-        <v>-13400</v>
+        <v>-5000</v>
       </c>
       <c r="F32" s="3">
-        <v>-14900</v>
+        <v>-13000</v>
       </c>
       <c r="G32" s="3">
-        <v>-6200</v>
+        <v>-14400</v>
       </c>
       <c r="H32" s="3">
-        <v>-15300</v>
+        <v>-6000</v>
       </c>
       <c r="I32" s="3">
-        <v>-33600</v>
+        <v>-14800</v>
       </c>
       <c r="J32" s="3">
+        <v>-32500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-23100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-32800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>13100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>22100</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>237000</v>
+        <v>327300</v>
       </c>
       <c r="E33" s="3">
-        <v>246200</v>
+        <v>229500</v>
       </c>
       <c r="F33" s="3">
-        <v>249400</v>
+        <v>238400</v>
       </c>
       <c r="G33" s="3">
-        <v>226300</v>
+        <v>241500</v>
       </c>
       <c r="H33" s="3">
-        <v>217200</v>
+        <v>219100</v>
       </c>
       <c r="I33" s="3">
-        <v>188800</v>
+        <v>210300</v>
       </c>
       <c r="J33" s="3">
+        <v>182800</v>
+      </c>
+      <c r="K33" s="3">
         <v>196500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>188300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>122200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>153800</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>237000</v>
+        <v>327300</v>
       </c>
       <c r="E35" s="3">
-        <v>246200</v>
+        <v>229500</v>
       </c>
       <c r="F35" s="3">
-        <v>249400</v>
+        <v>238400</v>
       </c>
       <c r="G35" s="3">
-        <v>226300</v>
+        <v>241500</v>
       </c>
       <c r="H35" s="3">
-        <v>217200</v>
+        <v>219100</v>
       </c>
       <c r="I35" s="3">
-        <v>188800</v>
+        <v>210300</v>
       </c>
       <c r="J35" s="3">
+        <v>182800</v>
+      </c>
+      <c r="K35" s="3">
         <v>196500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>188300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>122200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>153800</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1732,332 +1817,360 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1372100</v>
+        <v>1686600</v>
       </c>
       <c r="E41" s="3">
-        <v>1101100</v>
+        <v>1328500</v>
       </c>
       <c r="F41" s="3">
-        <v>1026300</v>
+        <v>1066100</v>
       </c>
       <c r="G41" s="3">
-        <v>756800</v>
+        <v>993700</v>
       </c>
       <c r="H41" s="3">
-        <v>744500</v>
+        <v>732700</v>
       </c>
       <c r="I41" s="3">
-        <v>650500</v>
+        <v>720900</v>
       </c>
       <c r="J41" s="3">
+        <v>629800</v>
+      </c>
+      <c r="K41" s="3">
         <v>556000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>765300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>497500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>637600</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>498000</v>
+        <v>503900</v>
       </c>
       <c r="E42" s="3">
-        <v>419500</v>
+        <v>482200</v>
       </c>
       <c r="F42" s="3">
-        <v>540000</v>
+        <v>406200</v>
       </c>
       <c r="G42" s="3">
-        <v>586200</v>
+        <v>522800</v>
       </c>
       <c r="H42" s="3">
-        <v>441900</v>
+        <v>567500</v>
       </c>
       <c r="I42" s="3">
-        <v>633600</v>
+        <v>427800</v>
       </c>
       <c r="J42" s="3">
+        <v>613400</v>
+      </c>
+      <c r="K42" s="3">
         <v>654800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>585800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>582800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>334700</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>414200</v>
+        <v>453900</v>
       </c>
       <c r="E43" s="3">
-        <v>395900</v>
+        <v>401100</v>
       </c>
       <c r="F43" s="3">
-        <v>343400</v>
+        <v>383300</v>
       </c>
       <c r="G43" s="3">
-        <v>350500</v>
+        <v>332500</v>
       </c>
       <c r="H43" s="3">
-        <v>313200</v>
+        <v>339300</v>
       </c>
       <c r="I43" s="3">
-        <v>264000</v>
+        <v>303300</v>
       </c>
       <c r="J43" s="3">
+        <v>255600</v>
+      </c>
+      <c r="K43" s="3">
         <v>229700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>233800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>189900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>185900</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>30000</v>
+        <v>31600</v>
       </c>
       <c r="E44" s="3">
-        <v>36200</v>
+        <v>29000</v>
       </c>
       <c r="F44" s="3">
-        <v>64800</v>
+        <v>35000</v>
       </c>
       <c r="G44" s="3">
-        <v>26300</v>
+        <v>62700</v>
       </c>
       <c r="H44" s="3">
-        <v>15100</v>
+        <v>25400</v>
       </c>
       <c r="I44" s="3">
-        <v>7100</v>
+        <v>14600</v>
       </c>
       <c r="J44" s="3">
+        <v>6900</v>
+      </c>
+      <c r="K44" s="3">
         <v>4600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3800</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>52500</v>
+        <v>68600</v>
       </c>
       <c r="E45" s="3">
-        <v>50200</v>
+        <v>50800</v>
       </c>
       <c r="F45" s="3">
-        <v>189200</v>
+        <v>48600</v>
       </c>
       <c r="G45" s="3">
-        <v>190300</v>
+        <v>183100</v>
       </c>
       <c r="H45" s="3">
-        <v>203600</v>
+        <v>184300</v>
       </c>
       <c r="I45" s="3">
-        <v>219900</v>
+        <v>197100</v>
       </c>
       <c r="J45" s="3">
+        <v>212900</v>
+      </c>
+      <c r="K45" s="3">
         <v>174100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>185300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>174100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>179300</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>2366800</v>
+        <v>2744500</v>
       </c>
       <c r="E46" s="3">
-        <v>2002900</v>
+        <v>2291600</v>
       </c>
       <c r="F46" s="3">
-        <v>1989100</v>
+        <v>1939300</v>
       </c>
       <c r="G46" s="3">
-        <v>1909900</v>
+        <v>1925800</v>
       </c>
       <c r="H46" s="3">
-        <v>1718200</v>
+        <v>1849200</v>
       </c>
       <c r="I46" s="3">
-        <v>1775100</v>
+        <v>1663600</v>
       </c>
       <c r="J46" s="3">
+        <v>1718700</v>
+      </c>
+      <c r="K46" s="3">
         <v>1619300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1774100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1447700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1341300</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>319100</v>
+        <v>226000</v>
       </c>
       <c r="E47" s="3">
-        <v>440400</v>
+        <v>308900</v>
       </c>
       <c r="F47" s="3">
-        <v>394100</v>
+        <v>426400</v>
       </c>
       <c r="G47" s="3">
-        <v>461600</v>
+        <v>381600</v>
       </c>
       <c r="H47" s="3">
         <v>446900</v>
       </c>
       <c r="I47" s="3">
-        <v>553300</v>
+        <v>432700</v>
       </c>
       <c r="J47" s="3">
+        <v>535700</v>
+      </c>
+      <c r="K47" s="3">
         <v>608300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>491400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>322500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>208300</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>70200</v>
+        <v>67700</v>
       </c>
       <c r="E48" s="3">
-        <v>86900</v>
+        <v>68000</v>
       </c>
       <c r="F48" s="3">
-        <v>77300</v>
+        <v>84100</v>
       </c>
       <c r="G48" s="3">
-        <v>72400</v>
+        <v>74800</v>
       </c>
       <c r="H48" s="3">
-        <v>57700</v>
+        <v>70100</v>
       </c>
       <c r="I48" s="3">
-        <v>51000</v>
+        <v>55900</v>
       </c>
       <c r="J48" s="3">
+        <v>49400</v>
+      </c>
+      <c r="K48" s="3">
         <v>43600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>44000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>40300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>45700</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>228200</v>
+        <v>216900</v>
       </c>
       <c r="E49" s="3">
-        <v>318700</v>
+        <v>221000</v>
       </c>
       <c r="F49" s="3">
-        <v>309300</v>
+        <v>308600</v>
       </c>
       <c r="G49" s="3">
-        <v>355000</v>
+        <v>299500</v>
       </c>
       <c r="H49" s="3">
-        <v>374800</v>
+        <v>343700</v>
       </c>
       <c r="I49" s="3">
-        <v>72300</v>
+        <v>362800</v>
       </c>
       <c r="J49" s="3">
+        <v>70000</v>
+      </c>
+      <c r="K49" s="3">
         <v>83100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>88000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>71500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>84400</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>334400</v>
+        <v>331400</v>
       </c>
       <c r="E52" s="3">
-        <v>320100</v>
+        <v>323800</v>
       </c>
       <c r="F52" s="3">
-        <v>279900</v>
+        <v>309900</v>
       </c>
       <c r="G52" s="3">
-        <v>118500</v>
+        <v>271000</v>
       </c>
       <c r="H52" s="3">
-        <v>120600</v>
+        <v>114800</v>
       </c>
       <c r="I52" s="3">
-        <v>107800</v>
+        <v>116800</v>
       </c>
       <c r="J52" s="3">
+        <v>104300</v>
+      </c>
+      <c r="K52" s="3">
         <v>112000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>115400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>108700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>109900</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>3318700</v>
+        <v>3586500</v>
       </c>
       <c r="E54" s="3">
-        <v>3169000</v>
+        <v>3213300</v>
       </c>
       <c r="F54" s="3">
-        <v>3049700</v>
+        <v>3068300</v>
       </c>
       <c r="G54" s="3">
-        <v>2917500</v>
+        <v>2952800</v>
       </c>
       <c r="H54" s="3">
-        <v>2718200</v>
+        <v>2824800</v>
       </c>
       <c r="I54" s="3">
-        <v>2559500</v>
+        <v>2631800</v>
       </c>
       <c r="J54" s="3">
+        <v>2478100</v>
+      </c>
+      <c r="K54" s="3">
         <v>2466300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2512900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1990800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1789600</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2268,44 +2397,48 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>8100</v>
+        <v>9900</v>
       </c>
       <c r="E57" s="3">
-        <v>10600</v>
+        <v>7800</v>
       </c>
       <c r="F57" s="3">
-        <v>14300</v>
+        <v>10300</v>
       </c>
       <c r="G57" s="3">
-        <v>6400</v>
+        <v>13800</v>
       </c>
       <c r="H57" s="3">
+        <v>6200</v>
+      </c>
+      <c r="I57" s="3">
+        <v>7600</v>
+      </c>
+      <c r="J57" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K57" s="3">
+        <v>5900</v>
+      </c>
+      <c r="L57" s="3">
+        <v>4700</v>
+      </c>
+      <c r="M57" s="3">
+        <v>6600</v>
+      </c>
+      <c r="N57" s="3">
         <v>7900</v>
       </c>
-      <c r="I57" s="3">
-        <v>4900</v>
-      </c>
-      <c r="J57" s="3">
-        <v>5900</v>
-      </c>
-      <c r="K57" s="3">
-        <v>4700</v>
-      </c>
-      <c r="L57" s="3">
-        <v>6600</v>
-      </c>
-      <c r="M57" s="3">
-        <v>7900</v>
-      </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
@@ -2339,81 +2472,90 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>1150200</v>
+        <v>1129900</v>
       </c>
       <c r="E59" s="3">
-        <v>1042700</v>
+        <v>1113600</v>
       </c>
       <c r="F59" s="3">
-        <v>967700</v>
+        <v>1009600</v>
       </c>
       <c r="G59" s="3">
-        <v>951800</v>
+        <v>937000</v>
       </c>
       <c r="H59" s="3">
-        <v>888100</v>
+        <v>921500</v>
       </c>
       <c r="I59" s="3">
-        <v>828000</v>
+        <v>859800</v>
       </c>
       <c r="J59" s="3">
+        <v>801600</v>
+      </c>
+      <c r="K59" s="3">
         <v>811500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>832000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>702800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>625500</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>1158200</v>
+        <v>1139800</v>
       </c>
       <c r="E60" s="3">
-        <v>1053300</v>
+        <v>1121400</v>
       </c>
       <c r="F60" s="3">
-        <v>982000</v>
+        <v>1019900</v>
       </c>
       <c r="G60" s="3">
-        <v>958200</v>
+        <v>950800</v>
       </c>
       <c r="H60" s="3">
-        <v>895900</v>
+        <v>927800</v>
       </c>
       <c r="I60" s="3">
-        <v>832900</v>
+        <v>867400</v>
       </c>
       <c r="J60" s="3">
+        <v>806400</v>
+      </c>
+      <c r="K60" s="3">
         <v>817400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>836700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>709400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>633300</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
@@ -2447,45 +2589,51 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>492200</v>
+        <v>557900</v>
       </c>
       <c r="E62" s="3">
-        <v>464500</v>
+        <v>476600</v>
       </c>
       <c r="F62" s="3">
-        <v>419500</v>
+        <v>449700</v>
       </c>
       <c r="G62" s="3">
-        <v>399200</v>
+        <v>406200</v>
       </c>
       <c r="H62" s="3">
-        <v>355700</v>
+        <v>386500</v>
       </c>
       <c r="I62" s="3">
-        <v>319700</v>
+        <v>344400</v>
       </c>
       <c r="J62" s="3">
+        <v>309500</v>
+      </c>
+      <c r="K62" s="3">
         <v>300100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>306400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>249700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>204000</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>1657800</v>
+        <v>1704400</v>
       </c>
       <c r="E66" s="3">
-        <v>1519200</v>
+        <v>1605100</v>
       </c>
       <c r="F66" s="3">
-        <v>1402100</v>
+        <v>1470900</v>
       </c>
       <c r="G66" s="3">
-        <v>1357500</v>
+        <v>1357600</v>
       </c>
       <c r="H66" s="3">
-        <v>1251600</v>
+        <v>1314400</v>
       </c>
       <c r="I66" s="3">
-        <v>1152600</v>
+        <v>1211900</v>
       </c>
       <c r="J66" s="3">
+        <v>1116000</v>
+      </c>
+      <c r="K66" s="3">
         <v>1117600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1143200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>959200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>837800</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>1406500</v>
+        <v>1510400</v>
       </c>
       <c r="E72" s="3">
-        <v>1364600</v>
+        <v>1361800</v>
       </c>
       <c r="F72" s="3">
-        <v>1318200</v>
+        <v>1321200</v>
       </c>
       <c r="G72" s="3">
-        <v>1255000</v>
+        <v>1276300</v>
       </c>
       <c r="H72" s="3">
-        <v>1198600</v>
+        <v>1215100</v>
       </c>
       <c r="I72" s="3">
-        <v>1114800</v>
+        <v>1160500</v>
       </c>
       <c r="J72" s="3">
+        <v>1079400</v>
+      </c>
+      <c r="K72" s="3">
         <v>1070500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1113200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>969600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>889800</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>1661000</v>
+        <v>1882100</v>
       </c>
       <c r="E76" s="3">
-        <v>1649900</v>
+        <v>1608200</v>
       </c>
       <c r="F76" s="3">
-        <v>1647500</v>
+        <v>1597400</v>
       </c>
       <c r="G76" s="3">
-        <v>1560000</v>
+        <v>1595200</v>
       </c>
       <c r="H76" s="3">
-        <v>1466600</v>
+        <v>1510400</v>
       </c>
       <c r="I76" s="3">
-        <v>1406900</v>
+        <v>1420000</v>
       </c>
       <c r="J76" s="3">
+        <v>1362200</v>
+      </c>
+      <c r="K76" s="3">
         <v>1348700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1369700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1031600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>951800</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>237000</v>
+        <v>327300</v>
       </c>
       <c r="E81" s="3">
-        <v>246200</v>
+        <v>229500</v>
       </c>
       <c r="F81" s="3">
-        <v>249400</v>
+        <v>238400</v>
       </c>
       <c r="G81" s="3">
-        <v>226300</v>
+        <v>241500</v>
       </c>
       <c r="H81" s="3">
-        <v>217200</v>
+        <v>219100</v>
       </c>
       <c r="I81" s="3">
-        <v>188800</v>
+        <v>210300</v>
       </c>
       <c r="J81" s="3">
+        <v>182800</v>
+      </c>
+      <c r="K81" s="3">
         <v>196500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>188300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>122200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>153800</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>199800</v>
+        <v>178200</v>
       </c>
       <c r="E83" s="3">
-        <v>139300</v>
+        <v>193400</v>
       </c>
       <c r="F83" s="3">
-        <v>140200</v>
+        <v>134900</v>
       </c>
       <c r="G83" s="3">
-        <v>122900</v>
+        <v>135700</v>
       </c>
       <c r="H83" s="3">
-        <v>98600</v>
+        <v>119000</v>
       </c>
       <c r="I83" s="3">
-        <v>72700</v>
+        <v>95500</v>
       </c>
       <c r="J83" s="3">
+        <v>70400</v>
+      </c>
+      <c r="K83" s="3">
         <v>67100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>69600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>68100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>65100</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>478500</v>
+        <v>471400</v>
       </c>
       <c r="E89" s="3">
-        <v>397400</v>
+        <v>463300</v>
       </c>
       <c r="F89" s="3">
-        <v>440100</v>
+        <v>384800</v>
       </c>
       <c r="G89" s="3">
-        <v>413300</v>
+        <v>426200</v>
       </c>
       <c r="H89" s="3">
-        <v>295200</v>
+        <v>400200</v>
       </c>
       <c r="I89" s="3">
-        <v>268600</v>
+        <v>285800</v>
       </c>
       <c r="J89" s="3">
+        <v>260100</v>
+      </c>
+      <c r="K89" s="3">
         <v>281400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>295400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>286600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>231700</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-13700</v>
+        <v>-18400</v>
       </c>
       <c r="E91" s="3">
-        <v>-35500</v>
+        <v>-13300</v>
       </c>
       <c r="F91" s="3">
-        <v>-31400</v>
+        <v>-34400</v>
       </c>
       <c r="G91" s="3">
-        <v>-40500</v>
+        <v>-30400</v>
       </c>
       <c r="H91" s="3">
-        <v>-26300</v>
+        <v>-39200</v>
       </c>
       <c r="I91" s="3">
-        <v>-31100</v>
+        <v>-25500</v>
       </c>
       <c r="J91" s="3">
+        <v>-30100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-18000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-17600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-10800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-61900</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-50900</v>
+        <v>22000</v>
       </c>
       <c r="E94" s="3">
-        <v>-13000</v>
+        <v>-49300</v>
       </c>
       <c r="F94" s="3">
-        <v>7200</v>
+        <v>-12500</v>
       </c>
       <c r="G94" s="3">
-        <v>-297900</v>
+        <v>7000</v>
       </c>
       <c r="H94" s="3">
-        <v>113900</v>
+        <v>-288500</v>
       </c>
       <c r="I94" s="3">
-        <v>-43400</v>
+        <v>110300</v>
       </c>
       <c r="J94" s="3">
+        <v>-42000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-290000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-155200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-414900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-23200</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -3525,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-191000</v>
+        <v>-177100</v>
       </c>
       <c r="E96" s="3">
-        <v>-193700</v>
+        <v>-184900</v>
       </c>
       <c r="F96" s="3">
-        <v>-174300</v>
+        <v>-187600</v>
       </c>
       <c r="G96" s="3">
-        <v>-164600</v>
+        <v>-168800</v>
       </c>
       <c r="H96" s="3">
-        <v>-127700</v>
+        <v>-159300</v>
       </c>
       <c r="I96" s="3">
-        <v>-130700</v>
+        <v>-123600</v>
       </c>
       <c r="J96" s="3">
+        <v>-126600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-138900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-80800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-98200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-79200</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-186300</v>
+        <v>-140300</v>
       </c>
       <c r="E100" s="3">
-        <v>-228700</v>
+        <v>-180300</v>
       </c>
       <c r="F100" s="3">
-        <v>-116500</v>
+        <v>-221400</v>
       </c>
       <c r="G100" s="3">
-        <v>-149000</v>
+        <v>-112800</v>
       </c>
       <c r="H100" s="3">
-        <v>-132600</v>
+        <v>-144200</v>
       </c>
       <c r="I100" s="3">
-        <v>-82100</v>
+        <v>-128400</v>
       </c>
       <c r="J100" s="3">
+        <v>-79500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-148800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-101200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-120300</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-11900</v>
+        <v>86300</v>
       </c>
       <c r="E101" s="3">
-        <v>-10400</v>
+        <v>-11600</v>
       </c>
       <c r="F101" s="3">
-        <v>-38500</v>
+        <v>-10100</v>
       </c>
       <c r="G101" s="3">
+        <v>-37300</v>
+      </c>
+      <c r="H101" s="3">
         <v>-1100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>2700</v>
       </c>
-      <c r="I101" s="3">
-        <v>-37200</v>
-      </c>
       <c r="J101" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="K101" s="3">
         <v>22700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>87700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>41100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-25800</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>229400</v>
+        <v>439400</v>
       </c>
       <c r="E102" s="3">
-        <v>145400</v>
+        <v>222100</v>
       </c>
       <c r="F102" s="3">
-        <v>292400</v>
+        <v>140700</v>
       </c>
       <c r="G102" s="3">
-        <v>-34700</v>
+        <v>283100</v>
       </c>
       <c r="H102" s="3">
-        <v>279300</v>
+        <v>-33600</v>
       </c>
       <c r="I102" s="3">
-        <v>105900</v>
+        <v>270400</v>
       </c>
       <c r="J102" s="3">
+        <v>102500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-134700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>225900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-188400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>62400</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/TMICY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TMICY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
   <si>
     <t>TMICY</t>
   </si>
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1623800</v>
+        <v>1482900</v>
       </c>
       <c r="E8" s="3">
-        <v>1484700</v>
+        <v>1355900</v>
       </c>
       <c r="F8" s="3">
-        <v>1409100</v>
+        <v>1286900</v>
       </c>
       <c r="G8" s="3">
-        <v>1368300</v>
+        <v>1249600</v>
       </c>
       <c r="H8" s="3">
-        <v>1269400</v>
+        <v>1159200</v>
       </c>
       <c r="I8" s="3">
-        <v>1125400</v>
+        <v>1027800</v>
       </c>
       <c r="J8" s="3">
-        <v>1060400</v>
+        <v>968400</v>
       </c>
       <c r="K8" s="3">
         <v>1015000</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>358400</v>
+        <v>327300</v>
       </c>
       <c r="E9" s="3">
-        <v>325600</v>
+        <v>297300</v>
       </c>
       <c r="F9" s="3">
-        <v>275500</v>
+        <v>251600</v>
       </c>
       <c r="G9" s="3">
-        <v>279200</v>
+        <v>255000</v>
       </c>
       <c r="H9" s="3">
-        <v>240000</v>
+        <v>219200</v>
       </c>
       <c r="I9" s="3">
-        <v>196500</v>
+        <v>179500</v>
       </c>
       <c r="J9" s="3">
-        <v>181500</v>
+        <v>165700</v>
       </c>
       <c r="K9" s="3">
         <v>180000</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1265400</v>
+        <v>1155600</v>
       </c>
       <c r="E10" s="3">
-        <v>1159200</v>
+        <v>1058600</v>
       </c>
       <c r="F10" s="3">
-        <v>1133600</v>
+        <v>1035300</v>
       </c>
       <c r="G10" s="3">
-        <v>1089100</v>
+        <v>994600</v>
       </c>
       <c r="H10" s="3">
-        <v>1029300</v>
+        <v>940000</v>
       </c>
       <c r="I10" s="3">
-        <v>928900</v>
+        <v>848300</v>
       </c>
       <c r="J10" s="3">
-        <v>879000</v>
+        <v>802700</v>
       </c>
       <c r="K10" s="3">
         <v>835000</v>
@@ -856,26 +856,26 @@
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>91</v>
+      <c r="D12" s="3">
+        <v>36500</v>
       </c>
       <c r="E12" s="3">
-        <v>62600</v>
+        <v>57200</v>
       </c>
       <c r="F12" s="3">
-        <v>70200</v>
+        <v>64100</v>
       </c>
       <c r="G12" s="3">
-        <v>63500</v>
+        <v>58000</v>
       </c>
       <c r="H12" s="3">
-        <v>66400</v>
+        <v>60700</v>
       </c>
       <c r="I12" s="3">
-        <v>45000</v>
+        <v>41100</v>
       </c>
       <c r="J12" s="3">
-        <v>32200</v>
+        <v>29400</v>
       </c>
       <c r="K12" s="3">
         <v>25800</v>
@@ -935,25 +935,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="E14" s="3">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="F14" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G14" s="3">
+        <v>2600</v>
+      </c>
+      <c r="H14" s="3">
+        <v>300</v>
+      </c>
+      <c r="I14" s="3">
         <v>2900</v>
       </c>
-      <c r="H14" s="3">
-        <v>400</v>
-      </c>
-      <c r="I14" s="3">
-        <v>3200</v>
-      </c>
       <c r="J14" s="3">
-        <v>6400</v>
+        <v>5800</v>
       </c>
       <c r="K14" s="3">
         <v>2000</v>
@@ -1027,25 +1027,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1253400</v>
+        <v>1144700</v>
       </c>
       <c r="E17" s="3">
-        <v>1149800</v>
+        <v>1050000</v>
       </c>
       <c r="F17" s="3">
-        <v>1088200</v>
+        <v>993800</v>
       </c>
       <c r="G17" s="3">
-        <v>1065500</v>
+        <v>973100</v>
       </c>
       <c r="H17" s="3">
-        <v>958900</v>
+        <v>875700</v>
       </c>
       <c r="I17" s="3">
-        <v>835500</v>
+        <v>763000</v>
       </c>
       <c r="J17" s="3">
-        <v>802600</v>
+        <v>733000</v>
       </c>
       <c r="K17" s="3">
         <v>720500</v>
@@ -1066,25 +1066,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>370300</v>
+        <v>338200</v>
       </c>
       <c r="E18" s="3">
-        <v>335000</v>
+        <v>305900</v>
       </c>
       <c r="F18" s="3">
-        <v>320900</v>
+        <v>293000</v>
       </c>
       <c r="G18" s="3">
-        <v>302800</v>
+        <v>276500</v>
       </c>
       <c r="H18" s="3">
-        <v>310500</v>
+        <v>283500</v>
       </c>
       <c r="I18" s="3">
-        <v>289900</v>
+        <v>264800</v>
       </c>
       <c r="J18" s="3">
-        <v>257800</v>
+        <v>235500</v>
       </c>
       <c r="K18" s="3">
         <v>294500</v>
@@ -1122,25 +1122,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>76500</v>
+        <v>69900</v>
       </c>
       <c r="E20" s="3">
-        <v>5000</v>
+        <v>4600</v>
       </c>
       <c r="F20" s="3">
-        <v>13000</v>
+        <v>11900</v>
       </c>
       <c r="G20" s="3">
-        <v>14400</v>
+        <v>13200</v>
       </c>
       <c r="H20" s="3">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="I20" s="3">
-        <v>14800</v>
+        <v>13500</v>
       </c>
       <c r="J20" s="3">
-        <v>32500</v>
+        <v>29700</v>
       </c>
       <c r="K20" s="3">
         <v>23100</v>
@@ -1161,25 +1161,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>627100</v>
+        <v>568700</v>
       </c>
       <c r="E21" s="3">
-        <v>535700</v>
+        <v>484800</v>
       </c>
       <c r="F21" s="3">
-        <v>470400</v>
+        <v>426500</v>
       </c>
       <c r="G21" s="3">
-        <v>454600</v>
+        <v>412100</v>
       </c>
       <c r="H21" s="3">
-        <v>436800</v>
+        <v>396300</v>
       </c>
       <c r="I21" s="3">
-        <v>401300</v>
+        <v>364300</v>
       </c>
       <c r="J21" s="3">
-        <v>361600</v>
+        <v>328700</v>
       </c>
       <c r="K21" s="3">
         <v>384800</v>
@@ -1215,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>446700</v>
+        <v>408000</v>
       </c>
       <c r="E23" s="3">
-        <v>340000</v>
+        <v>310500</v>
       </c>
       <c r="F23" s="3">
-        <v>333900</v>
+        <v>304900</v>
       </c>
       <c r="G23" s="3">
-        <v>317200</v>
+        <v>289700</v>
       </c>
       <c r="H23" s="3">
-        <v>316400</v>
+        <v>289000</v>
       </c>
       <c r="I23" s="3">
-        <v>304700</v>
+        <v>278300</v>
       </c>
       <c r="J23" s="3">
-        <v>290300</v>
+        <v>265100</v>
       </c>
       <c r="K23" s="3">
         <v>317400</v>
@@ -1278,25 +1278,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>125900</v>
+        <v>114900</v>
       </c>
       <c r="E24" s="3">
-        <v>115000</v>
+        <v>105000</v>
       </c>
       <c r="F24" s="3">
-        <v>96600</v>
+        <v>88200</v>
       </c>
       <c r="G24" s="3">
-        <v>75800</v>
+        <v>69300</v>
       </c>
       <c r="H24" s="3">
-        <v>97300</v>
+        <v>88800</v>
       </c>
       <c r="I24" s="3">
-        <v>94400</v>
+        <v>86200</v>
       </c>
       <c r="J24" s="3">
-        <v>107500</v>
+        <v>98200</v>
       </c>
       <c r="K24" s="3">
         <v>120900</v>
@@ -1356,25 +1356,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>320900</v>
+        <v>293000</v>
       </c>
       <c r="E26" s="3">
-        <v>225000</v>
+        <v>205500</v>
       </c>
       <c r="F26" s="3">
-        <v>237300</v>
+        <v>216700</v>
       </c>
       <c r="G26" s="3">
-        <v>241400</v>
+        <v>220500</v>
       </c>
       <c r="H26" s="3">
-        <v>219200</v>
+        <v>200100</v>
       </c>
       <c r="I26" s="3">
-        <v>210300</v>
+        <v>192000</v>
       </c>
       <c r="J26" s="3">
-        <v>182800</v>
+        <v>167000</v>
       </c>
       <c r="K26" s="3">
         <v>196500</v>
@@ -1395,25 +1395,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>327300</v>
+        <v>298900</v>
       </c>
       <c r="E27" s="3">
-        <v>229500</v>
+        <v>209600</v>
       </c>
       <c r="F27" s="3">
-        <v>238400</v>
+        <v>217700</v>
       </c>
       <c r="G27" s="3">
-        <v>241500</v>
+        <v>220600</v>
       </c>
       <c r="H27" s="3">
-        <v>219100</v>
+        <v>200100</v>
       </c>
       <c r="I27" s="3">
-        <v>210300</v>
+        <v>192000</v>
       </c>
       <c r="J27" s="3">
-        <v>182800</v>
+        <v>167000</v>
       </c>
       <c r="K27" s="3">
         <v>196500</v>
@@ -1590,25 +1590,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-76500</v>
+        <v>-69900</v>
       </c>
       <c r="E32" s="3">
-        <v>-5000</v>
+        <v>-4600</v>
       </c>
       <c r="F32" s="3">
-        <v>-13000</v>
+        <v>-11900</v>
       </c>
       <c r="G32" s="3">
-        <v>-14400</v>
+        <v>-13200</v>
       </c>
       <c r="H32" s="3">
-        <v>-6000</v>
+        <v>-5500</v>
       </c>
       <c r="I32" s="3">
-        <v>-14800</v>
+        <v>-13500</v>
       </c>
       <c r="J32" s="3">
-        <v>-32500</v>
+        <v>-29700</v>
       </c>
       <c r="K32" s="3">
         <v>-23100</v>
@@ -1629,25 +1629,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>327300</v>
+        <v>298900</v>
       </c>
       <c r="E33" s="3">
-        <v>229500</v>
+        <v>209600</v>
       </c>
       <c r="F33" s="3">
-        <v>238400</v>
+        <v>217700</v>
       </c>
       <c r="G33" s="3">
-        <v>241500</v>
+        <v>220600</v>
       </c>
       <c r="H33" s="3">
-        <v>219100</v>
+        <v>200100</v>
       </c>
       <c r="I33" s="3">
-        <v>210300</v>
+        <v>192000</v>
       </c>
       <c r="J33" s="3">
-        <v>182800</v>
+        <v>167000</v>
       </c>
       <c r="K33" s="3">
         <v>196500</v>
@@ -1707,25 +1707,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>327300</v>
+        <v>298900</v>
       </c>
       <c r="E35" s="3">
-        <v>229500</v>
+        <v>209600</v>
       </c>
       <c r="F35" s="3">
-        <v>238400</v>
+        <v>217700</v>
       </c>
       <c r="G35" s="3">
-        <v>241500</v>
+        <v>220600</v>
       </c>
       <c r="H35" s="3">
-        <v>219100</v>
+        <v>200100</v>
       </c>
       <c r="I35" s="3">
-        <v>210300</v>
+        <v>192000</v>
       </c>
       <c r="J35" s="3">
-        <v>182800</v>
+        <v>167000</v>
       </c>
       <c r="K35" s="3">
         <v>196500</v>
@@ -1824,25 +1824,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1686600</v>
+        <v>1540300</v>
       </c>
       <c r="E41" s="3">
-        <v>1328500</v>
+        <v>1213200</v>
       </c>
       <c r="F41" s="3">
-        <v>1066100</v>
+        <v>973600</v>
       </c>
       <c r="G41" s="3">
-        <v>993700</v>
+        <v>907500</v>
       </c>
       <c r="H41" s="3">
-        <v>732700</v>
+        <v>669100</v>
       </c>
       <c r="I41" s="3">
-        <v>720900</v>
+        <v>658300</v>
       </c>
       <c r="J41" s="3">
-        <v>629800</v>
+        <v>575200</v>
       </c>
       <c r="K41" s="3">
         <v>556000</v>
@@ -1863,25 +1863,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>503900</v>
+        <v>460200</v>
       </c>
       <c r="E42" s="3">
-        <v>482200</v>
+        <v>440300</v>
       </c>
       <c r="F42" s="3">
-        <v>406200</v>
+        <v>370900</v>
       </c>
       <c r="G42" s="3">
-        <v>522800</v>
+        <v>477400</v>
       </c>
       <c r="H42" s="3">
-        <v>567500</v>
+        <v>518300</v>
       </c>
       <c r="I42" s="3">
-        <v>427800</v>
+        <v>390700</v>
       </c>
       <c r="J42" s="3">
-        <v>613400</v>
+        <v>560200</v>
       </c>
       <c r="K42" s="3">
         <v>654800</v>
@@ -1902,25 +1902,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>453900</v>
+        <v>414500</v>
       </c>
       <c r="E43" s="3">
-        <v>401100</v>
+        <v>366300</v>
       </c>
       <c r="F43" s="3">
-        <v>383300</v>
+        <v>350100</v>
       </c>
       <c r="G43" s="3">
-        <v>332500</v>
+        <v>303700</v>
       </c>
       <c r="H43" s="3">
-        <v>339300</v>
+        <v>309900</v>
       </c>
       <c r="I43" s="3">
-        <v>303300</v>
+        <v>277000</v>
       </c>
       <c r="J43" s="3">
-        <v>255600</v>
+        <v>233500</v>
       </c>
       <c r="K43" s="3">
         <v>229700</v>
@@ -1941,25 +1941,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>31600</v>
+        <v>28800</v>
       </c>
       <c r="E44" s="3">
-        <v>29000</v>
+        <v>26500</v>
       </c>
       <c r="F44" s="3">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="G44" s="3">
-        <v>62700</v>
+        <v>57300</v>
       </c>
       <c r="H44" s="3">
-        <v>25400</v>
+        <v>23200</v>
       </c>
       <c r="I44" s="3">
-        <v>14600</v>
+        <v>13300</v>
       </c>
       <c r="J44" s="3">
-        <v>6900</v>
+        <v>6300</v>
       </c>
       <c r="K44" s="3">
         <v>4600</v>
@@ -1980,25 +1980,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>68600</v>
+        <v>62600</v>
       </c>
       <c r="E45" s="3">
-        <v>50800</v>
+        <v>46400</v>
       </c>
       <c r="F45" s="3">
-        <v>48600</v>
+        <v>44400</v>
       </c>
       <c r="G45" s="3">
-        <v>183100</v>
+        <v>167300</v>
       </c>
       <c r="H45" s="3">
-        <v>184300</v>
+        <v>168300</v>
       </c>
       <c r="I45" s="3">
-        <v>197100</v>
+        <v>180000</v>
       </c>
       <c r="J45" s="3">
-        <v>212900</v>
+        <v>194400</v>
       </c>
       <c r="K45" s="3">
         <v>174100</v>
@@ -2019,25 +2019,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>2744500</v>
+        <v>2506400</v>
       </c>
       <c r="E46" s="3">
-        <v>2291600</v>
+        <v>2092800</v>
       </c>
       <c r="F46" s="3">
-        <v>1939300</v>
+        <v>1771000</v>
       </c>
       <c r="G46" s="3">
-        <v>1925800</v>
+        <v>1758800</v>
       </c>
       <c r="H46" s="3">
-        <v>1849200</v>
+        <v>1688800</v>
       </c>
       <c r="I46" s="3">
-        <v>1663600</v>
+        <v>1519300</v>
       </c>
       <c r="J46" s="3">
-        <v>1718700</v>
+        <v>1569600</v>
       </c>
       <c r="K46" s="3">
         <v>1619300</v>
@@ -2058,25 +2058,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>226000</v>
+        <v>206400</v>
       </c>
       <c r="E47" s="3">
-        <v>308900</v>
+        <v>282100</v>
       </c>
       <c r="F47" s="3">
-        <v>426400</v>
+        <v>389400</v>
       </c>
       <c r="G47" s="3">
-        <v>381600</v>
+        <v>348500</v>
       </c>
       <c r="H47" s="3">
-        <v>446900</v>
+        <v>408100</v>
       </c>
       <c r="I47" s="3">
-        <v>432700</v>
+        <v>395100</v>
       </c>
       <c r="J47" s="3">
-        <v>535700</v>
+        <v>489200</v>
       </c>
       <c r="K47" s="3">
         <v>608300</v>
@@ -2097,25 +2097,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>67700</v>
+        <v>61800</v>
       </c>
       <c r="E48" s="3">
-        <v>68000</v>
+        <v>62100</v>
       </c>
       <c r="F48" s="3">
-        <v>84100</v>
+        <v>76800</v>
       </c>
       <c r="G48" s="3">
-        <v>74800</v>
+        <v>68300</v>
       </c>
       <c r="H48" s="3">
-        <v>70100</v>
+        <v>64000</v>
       </c>
       <c r="I48" s="3">
-        <v>55900</v>
+        <v>51000</v>
       </c>
       <c r="J48" s="3">
-        <v>49400</v>
+        <v>45100</v>
       </c>
       <c r="K48" s="3">
         <v>43600</v>
@@ -2136,25 +2136,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>216900</v>
+        <v>198100</v>
       </c>
       <c r="E49" s="3">
-        <v>221000</v>
+        <v>201800</v>
       </c>
       <c r="F49" s="3">
-        <v>308600</v>
+        <v>281800</v>
       </c>
       <c r="G49" s="3">
-        <v>299500</v>
+        <v>273500</v>
       </c>
       <c r="H49" s="3">
-        <v>343700</v>
+        <v>313900</v>
       </c>
       <c r="I49" s="3">
-        <v>362800</v>
+        <v>331400</v>
       </c>
       <c r="J49" s="3">
-        <v>70000</v>
+        <v>63900</v>
       </c>
       <c r="K49" s="3">
         <v>83100</v>
@@ -2253,25 +2253,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>331400</v>
+        <v>302600</v>
       </c>
       <c r="E52" s="3">
-        <v>323800</v>
+        <v>295700</v>
       </c>
       <c r="F52" s="3">
-        <v>309900</v>
+        <v>283100</v>
       </c>
       <c r="G52" s="3">
-        <v>271000</v>
+        <v>247500</v>
       </c>
       <c r="H52" s="3">
-        <v>114800</v>
+        <v>104800</v>
       </c>
       <c r="I52" s="3">
-        <v>116800</v>
+        <v>106700</v>
       </c>
       <c r="J52" s="3">
-        <v>104300</v>
+        <v>95300</v>
       </c>
       <c r="K52" s="3">
         <v>112000</v>
@@ -2331,25 +2331,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>3586500</v>
+        <v>3275400</v>
       </c>
       <c r="E54" s="3">
-        <v>3213300</v>
+        <v>2934500</v>
       </c>
       <c r="F54" s="3">
-        <v>3068300</v>
+        <v>2802100</v>
       </c>
       <c r="G54" s="3">
-        <v>2952800</v>
+        <v>2696600</v>
       </c>
       <c r="H54" s="3">
-        <v>2824800</v>
+        <v>2579700</v>
       </c>
       <c r="I54" s="3">
-        <v>2631800</v>
+        <v>2403500</v>
       </c>
       <c r="J54" s="3">
-        <v>2478100</v>
+        <v>2263200</v>
       </c>
       <c r="K54" s="3">
         <v>2466300</v>
@@ -2404,25 +2404,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>9900</v>
+        <v>9100</v>
       </c>
       <c r="E57" s="3">
-        <v>7800</v>
+        <v>7100</v>
       </c>
       <c r="F57" s="3">
-        <v>10300</v>
+        <v>9400</v>
       </c>
       <c r="G57" s="3">
-        <v>13800</v>
+        <v>12600</v>
       </c>
       <c r="H57" s="3">
-        <v>6200</v>
+        <v>5700</v>
       </c>
       <c r="I57" s="3">
-        <v>7600</v>
+        <v>7000</v>
       </c>
       <c r="J57" s="3">
-        <v>4800</v>
+        <v>4400</v>
       </c>
       <c r="K57" s="3">
         <v>5900</v>
@@ -2482,25 +2482,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>1129900</v>
+        <v>1031900</v>
       </c>
       <c r="E59" s="3">
-        <v>1113600</v>
+        <v>1017000</v>
       </c>
       <c r="F59" s="3">
-        <v>1009600</v>
+        <v>922000</v>
       </c>
       <c r="G59" s="3">
-        <v>937000</v>
+        <v>855700</v>
       </c>
       <c r="H59" s="3">
-        <v>921500</v>
+        <v>841600</v>
       </c>
       <c r="I59" s="3">
-        <v>859800</v>
+        <v>785200</v>
       </c>
       <c r="J59" s="3">
-        <v>801600</v>
+        <v>732100</v>
       </c>
       <c r="K59" s="3">
         <v>811500</v>
@@ -2521,25 +2521,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>1139800</v>
+        <v>1040900</v>
       </c>
       <c r="E60" s="3">
-        <v>1121400</v>
+        <v>1024100</v>
       </c>
       <c r="F60" s="3">
-        <v>1019900</v>
+        <v>931400</v>
       </c>
       <c r="G60" s="3">
-        <v>950800</v>
+        <v>868300</v>
       </c>
       <c r="H60" s="3">
-        <v>927800</v>
+        <v>847300</v>
       </c>
       <c r="I60" s="3">
-        <v>867400</v>
+        <v>792200</v>
       </c>
       <c r="J60" s="3">
-        <v>806400</v>
+        <v>736500</v>
       </c>
       <c r="K60" s="3">
         <v>817400</v>
@@ -2599,25 +2599,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>557900</v>
+        <v>509500</v>
       </c>
       <c r="E62" s="3">
-        <v>476600</v>
+        <v>435300</v>
       </c>
       <c r="F62" s="3">
-        <v>449700</v>
+        <v>410700</v>
       </c>
       <c r="G62" s="3">
-        <v>406200</v>
+        <v>370900</v>
       </c>
       <c r="H62" s="3">
-        <v>386500</v>
+        <v>353000</v>
       </c>
       <c r="I62" s="3">
-        <v>344400</v>
+        <v>314500</v>
       </c>
       <c r="J62" s="3">
-        <v>309500</v>
+        <v>282700</v>
       </c>
       <c r="K62" s="3">
         <v>300100</v>
@@ -2755,25 +2755,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>1704400</v>
+        <v>1556500</v>
       </c>
       <c r="E66" s="3">
-        <v>1605100</v>
+        <v>1465800</v>
       </c>
       <c r="F66" s="3">
-        <v>1470900</v>
+        <v>1343300</v>
       </c>
       <c r="G66" s="3">
-        <v>1357600</v>
+        <v>1239800</v>
       </c>
       <c r="H66" s="3">
-        <v>1314400</v>
+        <v>1200300</v>
       </c>
       <c r="I66" s="3">
-        <v>1211900</v>
+        <v>1106700</v>
       </c>
       <c r="J66" s="3">
-        <v>1116000</v>
+        <v>1019200</v>
       </c>
       <c r="K66" s="3">
         <v>1117600</v>
@@ -2967,25 +2967,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>1510400</v>
+        <v>1379300</v>
       </c>
       <c r="E72" s="3">
-        <v>1361800</v>
+        <v>1243700</v>
       </c>
       <c r="F72" s="3">
-        <v>1321200</v>
+        <v>1206600</v>
       </c>
       <c r="G72" s="3">
-        <v>1276300</v>
+        <v>1165600</v>
       </c>
       <c r="H72" s="3">
-        <v>1215100</v>
+        <v>1109700</v>
       </c>
       <c r="I72" s="3">
-        <v>1160500</v>
+        <v>1059900</v>
       </c>
       <c r="J72" s="3">
-        <v>1079400</v>
+        <v>985700</v>
       </c>
       <c r="K72" s="3">
         <v>1070500</v>
@@ -3123,25 +3123,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>1882100</v>
+        <v>1718800</v>
       </c>
       <c r="E76" s="3">
-        <v>1608200</v>
+        <v>1468700</v>
       </c>
       <c r="F76" s="3">
-        <v>1597400</v>
+        <v>1458900</v>
       </c>
       <c r="G76" s="3">
-        <v>1595200</v>
+        <v>1456800</v>
       </c>
       <c r="H76" s="3">
-        <v>1510400</v>
+        <v>1379400</v>
       </c>
       <c r="I76" s="3">
-        <v>1420000</v>
+        <v>1296800</v>
       </c>
       <c r="J76" s="3">
-        <v>1362200</v>
+        <v>1244000</v>
       </c>
       <c r="K76" s="3">
         <v>1348700</v>
@@ -3245,25 +3245,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>327300</v>
+        <v>298900</v>
       </c>
       <c r="E81" s="3">
-        <v>229500</v>
+        <v>209600</v>
       </c>
       <c r="F81" s="3">
-        <v>238400</v>
+        <v>217700</v>
       </c>
       <c r="G81" s="3">
-        <v>241500</v>
+        <v>220600</v>
       </c>
       <c r="H81" s="3">
-        <v>219100</v>
+        <v>200100</v>
       </c>
       <c r="I81" s="3">
-        <v>210300</v>
+        <v>192000</v>
       </c>
       <c r="J81" s="3">
-        <v>182800</v>
+        <v>167000</v>
       </c>
       <c r="K81" s="3">
         <v>196500</v>
@@ -3301,25 +3301,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>178200</v>
+        <v>162800</v>
       </c>
       <c r="E83" s="3">
-        <v>193400</v>
+        <v>176700</v>
       </c>
       <c r="F83" s="3">
-        <v>134900</v>
+        <v>123200</v>
       </c>
       <c r="G83" s="3">
-        <v>135700</v>
+        <v>124000</v>
       </c>
       <c r="H83" s="3">
-        <v>119000</v>
+        <v>108700</v>
       </c>
       <c r="I83" s="3">
-        <v>95500</v>
+        <v>87200</v>
       </c>
       <c r="J83" s="3">
-        <v>70400</v>
+        <v>64300</v>
       </c>
       <c r="K83" s="3">
         <v>67100</v>
@@ -3535,25 +3535,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>471400</v>
+        <v>430500</v>
       </c>
       <c r="E89" s="3">
-        <v>463300</v>
+        <v>423100</v>
       </c>
       <c r="F89" s="3">
-        <v>384800</v>
+        <v>351400</v>
       </c>
       <c r="G89" s="3">
-        <v>426200</v>
+        <v>389200</v>
       </c>
       <c r="H89" s="3">
-        <v>400200</v>
+        <v>365500</v>
       </c>
       <c r="I89" s="3">
-        <v>285800</v>
+        <v>261100</v>
       </c>
       <c r="J89" s="3">
-        <v>260100</v>
+        <v>237500</v>
       </c>
       <c r="K89" s="3">
         <v>281400</v>
@@ -3591,25 +3591,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-18400</v>
+        <v>-16800</v>
       </c>
       <c r="E91" s="3">
-        <v>-13300</v>
+        <v>-12100</v>
       </c>
       <c r="F91" s="3">
-        <v>-34400</v>
+        <v>-31400</v>
       </c>
       <c r="G91" s="3">
-        <v>-30400</v>
+        <v>-27700</v>
       </c>
       <c r="H91" s="3">
-        <v>-39200</v>
+        <v>-35800</v>
       </c>
       <c r="I91" s="3">
-        <v>-25500</v>
+        <v>-23300</v>
       </c>
       <c r="J91" s="3">
-        <v>-30100</v>
+        <v>-27500</v>
       </c>
       <c r="K91" s="3">
         <v>-18000</v>
@@ -3708,25 +3708,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>22000</v>
+        <v>20100</v>
       </c>
       <c r="E94" s="3">
-        <v>-49300</v>
+        <v>-45000</v>
       </c>
       <c r="F94" s="3">
-        <v>-12500</v>
+        <v>-11500</v>
       </c>
       <c r="G94" s="3">
-        <v>7000</v>
+        <v>6400</v>
       </c>
       <c r="H94" s="3">
-        <v>-288500</v>
+        <v>-263400</v>
       </c>
       <c r="I94" s="3">
-        <v>110300</v>
+        <v>100700</v>
       </c>
       <c r="J94" s="3">
-        <v>-42000</v>
+        <v>-38400</v>
       </c>
       <c r="K94" s="3">
         <v>-290000</v>
@@ -3764,25 +3764,25 @@
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-177100</v>
+        <v>-161800</v>
       </c>
       <c r="E96" s="3">
-        <v>-184900</v>
+        <v>-168900</v>
       </c>
       <c r="F96" s="3">
-        <v>-187600</v>
+        <v>-171300</v>
       </c>
       <c r="G96" s="3">
-        <v>-168800</v>
+        <v>-154100</v>
       </c>
       <c r="H96" s="3">
-        <v>-159300</v>
+        <v>-145500</v>
       </c>
       <c r="I96" s="3">
-        <v>-123600</v>
+        <v>-112900</v>
       </c>
       <c r="J96" s="3">
-        <v>-126600</v>
+        <v>-115600</v>
       </c>
       <c r="K96" s="3">
         <v>-138900</v>
@@ -3920,25 +3920,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-140300</v>
+        <v>-128100</v>
       </c>
       <c r="E100" s="3">
-        <v>-180300</v>
+        <v>-164700</v>
       </c>
       <c r="F100" s="3">
-        <v>-221400</v>
+        <v>-202200</v>
       </c>
       <c r="G100" s="3">
-        <v>-112800</v>
+        <v>-103000</v>
       </c>
       <c r="H100" s="3">
-        <v>-144200</v>
+        <v>-131700</v>
       </c>
       <c r="I100" s="3">
-        <v>-128400</v>
+        <v>-117200</v>
       </c>
       <c r="J100" s="3">
-        <v>-79500</v>
+        <v>-72600</v>
       </c>
       <c r="K100" s="3">
         <v>-148800</v>
@@ -3959,25 +3959,25 @@
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>86300</v>
+        <v>78800</v>
       </c>
       <c r="E101" s="3">
-        <v>-11600</v>
+        <v>-10600</v>
       </c>
       <c r="F101" s="3">
-        <v>-10100</v>
+        <v>-9200</v>
       </c>
       <c r="G101" s="3">
-        <v>-37300</v>
+        <v>-34000</v>
       </c>
       <c r="H101" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="I101" s="3">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="J101" s="3">
-        <v>-36000</v>
+        <v>-32900</v>
       </c>
       <c r="K101" s="3">
         <v>22700</v>
@@ -3998,25 +3998,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>439400</v>
+        <v>401300</v>
       </c>
       <c r="E102" s="3">
-        <v>222100</v>
+        <v>202800</v>
       </c>
       <c r="F102" s="3">
-        <v>140700</v>
+        <v>128500</v>
       </c>
       <c r="G102" s="3">
-        <v>283100</v>
+        <v>258500</v>
       </c>
       <c r="H102" s="3">
-        <v>-33600</v>
+        <v>-30700</v>
       </c>
       <c r="I102" s="3">
-        <v>270400</v>
+        <v>246900</v>
       </c>
       <c r="J102" s="3">
-        <v>102500</v>
+        <v>93600</v>
       </c>
       <c r="K102" s="3">
         <v>-134700</v>

--- a/AAII_Financials/Yearly/TMICY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TMICY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1482900</v>
+        <v>1395300</v>
       </c>
       <c r="E8" s="3">
-        <v>1355900</v>
+        <v>1275900</v>
       </c>
       <c r="F8" s="3">
-        <v>1286900</v>
+        <v>1210900</v>
       </c>
       <c r="G8" s="3">
-        <v>1249600</v>
+        <v>1175800</v>
       </c>
       <c r="H8" s="3">
-        <v>1159200</v>
+        <v>1090800</v>
       </c>
       <c r="I8" s="3">
-        <v>1027800</v>
+        <v>967100</v>
       </c>
       <c r="J8" s="3">
-        <v>968400</v>
+        <v>911200</v>
       </c>
       <c r="K8" s="3">
         <v>1015000</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>327300</v>
+        <v>308000</v>
       </c>
       <c r="E9" s="3">
-        <v>297300</v>
+        <v>279800</v>
       </c>
       <c r="F9" s="3">
-        <v>251600</v>
+        <v>236800</v>
       </c>
       <c r="G9" s="3">
-        <v>255000</v>
+        <v>239900</v>
       </c>
       <c r="H9" s="3">
-        <v>219200</v>
+        <v>206300</v>
       </c>
       <c r="I9" s="3">
-        <v>179500</v>
+        <v>168900</v>
       </c>
       <c r="J9" s="3">
-        <v>165700</v>
+        <v>155900</v>
       </c>
       <c r="K9" s="3">
         <v>180000</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1155600</v>
+        <v>1087300</v>
       </c>
       <c r="E10" s="3">
-        <v>1058600</v>
+        <v>996100</v>
       </c>
       <c r="F10" s="3">
-        <v>1035300</v>
+        <v>974100</v>
       </c>
       <c r="G10" s="3">
-        <v>994600</v>
+        <v>935900</v>
       </c>
       <c r="H10" s="3">
-        <v>940000</v>
+        <v>884500</v>
       </c>
       <c r="I10" s="3">
-        <v>848300</v>
+        <v>798200</v>
       </c>
       <c r="J10" s="3">
-        <v>802700</v>
+        <v>755300</v>
       </c>
       <c r="K10" s="3">
         <v>835000</v>
@@ -857,25 +857,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>36500</v>
+        <v>34300</v>
       </c>
       <c r="E12" s="3">
-        <v>57200</v>
+        <v>53800</v>
       </c>
       <c r="F12" s="3">
-        <v>64100</v>
+        <v>60300</v>
       </c>
       <c r="G12" s="3">
-        <v>58000</v>
+        <v>54600</v>
       </c>
       <c r="H12" s="3">
-        <v>60700</v>
+        <v>57100</v>
       </c>
       <c r="I12" s="3">
-        <v>41100</v>
+        <v>38600</v>
       </c>
       <c r="J12" s="3">
-        <v>29400</v>
+        <v>27700</v>
       </c>
       <c r="K12" s="3">
         <v>25800</v>
@@ -935,25 +935,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="E14" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="F14" s="3">
         <v>500</v>
       </c>
       <c r="G14" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="H14" s="3">
         <v>300</v>
       </c>
       <c r="I14" s="3">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="J14" s="3">
-        <v>5800</v>
+        <v>5500</v>
       </c>
       <c r="K14" s="3">
         <v>2000</v>
@@ -1027,25 +1027,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1144700</v>
+        <v>1077100</v>
       </c>
       <c r="E17" s="3">
-        <v>1050000</v>
+        <v>988000</v>
       </c>
       <c r="F17" s="3">
-        <v>993800</v>
+        <v>935100</v>
       </c>
       <c r="G17" s="3">
-        <v>973100</v>
+        <v>915600</v>
       </c>
       <c r="H17" s="3">
-        <v>875700</v>
+        <v>824000</v>
       </c>
       <c r="I17" s="3">
-        <v>763000</v>
+        <v>718000</v>
       </c>
       <c r="J17" s="3">
-        <v>733000</v>
+        <v>689700</v>
       </c>
       <c r="K17" s="3">
         <v>720500</v>
@@ -1066,25 +1066,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>338200</v>
+        <v>318200</v>
       </c>
       <c r="E18" s="3">
-        <v>305900</v>
+        <v>287800</v>
       </c>
       <c r="F18" s="3">
-        <v>293000</v>
+        <v>275700</v>
       </c>
       <c r="G18" s="3">
-        <v>276500</v>
+        <v>260200</v>
       </c>
       <c r="H18" s="3">
-        <v>283500</v>
+        <v>266800</v>
       </c>
       <c r="I18" s="3">
-        <v>264800</v>
+        <v>249100</v>
       </c>
       <c r="J18" s="3">
-        <v>235500</v>
+        <v>221600</v>
       </c>
       <c r="K18" s="3">
         <v>294500</v>
@@ -1122,25 +1122,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>69900</v>
+        <v>65700</v>
       </c>
       <c r="E20" s="3">
-        <v>4600</v>
+        <v>4300</v>
       </c>
       <c r="F20" s="3">
-        <v>11900</v>
+        <v>11200</v>
       </c>
       <c r="G20" s="3">
-        <v>13200</v>
+        <v>12400</v>
       </c>
       <c r="H20" s="3">
-        <v>5500</v>
+        <v>5100</v>
       </c>
       <c r="I20" s="3">
-        <v>13500</v>
+        <v>12700</v>
       </c>
       <c r="J20" s="3">
-        <v>29700</v>
+        <v>28000</v>
       </c>
       <c r="K20" s="3">
         <v>23100</v>
@@ -1161,25 +1161,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>568700</v>
+        <v>536300</v>
       </c>
       <c r="E21" s="3">
-        <v>484800</v>
+        <v>457400</v>
       </c>
       <c r="F21" s="3">
-        <v>426500</v>
+        <v>402200</v>
       </c>
       <c r="G21" s="3">
-        <v>412100</v>
+        <v>388600</v>
       </c>
       <c r="H21" s="3">
-        <v>396300</v>
+        <v>373600</v>
       </c>
       <c r="I21" s="3">
-        <v>364300</v>
+        <v>343400</v>
       </c>
       <c r="J21" s="3">
-        <v>328700</v>
+        <v>309700</v>
       </c>
       <c r="K21" s="3">
         <v>384800</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>408000</v>
+        <v>383900</v>
       </c>
       <c r="E23" s="3">
-        <v>310500</v>
+        <v>292100</v>
       </c>
       <c r="F23" s="3">
-        <v>304900</v>
+        <v>286900</v>
       </c>
       <c r="G23" s="3">
-        <v>289700</v>
+        <v>272600</v>
       </c>
       <c r="H23" s="3">
-        <v>289000</v>
+        <v>271900</v>
       </c>
       <c r="I23" s="3">
-        <v>278300</v>
+        <v>261800</v>
       </c>
       <c r="J23" s="3">
-        <v>265100</v>
+        <v>249500</v>
       </c>
       <c r="K23" s="3">
         <v>317400</v>
@@ -1278,25 +1278,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>114900</v>
+        <v>108200</v>
       </c>
       <c r="E24" s="3">
-        <v>105000</v>
+        <v>98800</v>
       </c>
       <c r="F24" s="3">
-        <v>88200</v>
+        <v>83000</v>
       </c>
       <c r="G24" s="3">
-        <v>69300</v>
+        <v>65200</v>
       </c>
       <c r="H24" s="3">
-        <v>88800</v>
+        <v>83600</v>
       </c>
       <c r="I24" s="3">
-        <v>86200</v>
+        <v>81100</v>
       </c>
       <c r="J24" s="3">
-        <v>98200</v>
+        <v>92400</v>
       </c>
       <c r="K24" s="3">
         <v>120900</v>
@@ -1356,25 +1356,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>293000</v>
+        <v>275700</v>
       </c>
       <c r="E26" s="3">
-        <v>205500</v>
+        <v>193300</v>
       </c>
       <c r="F26" s="3">
-        <v>216700</v>
+        <v>203900</v>
       </c>
       <c r="G26" s="3">
-        <v>220500</v>
+        <v>207400</v>
       </c>
       <c r="H26" s="3">
-        <v>200100</v>
+        <v>188300</v>
       </c>
       <c r="I26" s="3">
-        <v>192000</v>
+        <v>180700</v>
       </c>
       <c r="J26" s="3">
-        <v>167000</v>
+        <v>157100</v>
       </c>
       <c r="K26" s="3">
         <v>196500</v>
@@ -1395,25 +1395,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>298900</v>
+        <v>281200</v>
       </c>
       <c r="E27" s="3">
-        <v>209600</v>
+        <v>197200</v>
       </c>
       <c r="F27" s="3">
-        <v>217700</v>
+        <v>204800</v>
       </c>
       <c r="G27" s="3">
-        <v>220600</v>
+        <v>207500</v>
       </c>
       <c r="H27" s="3">
-        <v>200100</v>
+        <v>188300</v>
       </c>
       <c r="I27" s="3">
-        <v>192000</v>
+        <v>180700</v>
       </c>
       <c r="J27" s="3">
-        <v>167000</v>
+        <v>157100</v>
       </c>
       <c r="K27" s="3">
         <v>196500</v>
@@ -1590,25 +1590,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-69900</v>
+        <v>-65700</v>
       </c>
       <c r="E32" s="3">
-        <v>-4600</v>
+        <v>-4300</v>
       </c>
       <c r="F32" s="3">
-        <v>-11900</v>
+        <v>-11200</v>
       </c>
       <c r="G32" s="3">
-        <v>-13200</v>
+        <v>-12400</v>
       </c>
       <c r="H32" s="3">
-        <v>-5500</v>
+        <v>-5100</v>
       </c>
       <c r="I32" s="3">
-        <v>-13500</v>
+        <v>-12700</v>
       </c>
       <c r="J32" s="3">
-        <v>-29700</v>
+        <v>-28000</v>
       </c>
       <c r="K32" s="3">
         <v>-23100</v>
@@ -1629,25 +1629,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>298900</v>
+        <v>281200</v>
       </c>
       <c r="E33" s="3">
-        <v>209600</v>
+        <v>197200</v>
       </c>
       <c r="F33" s="3">
-        <v>217700</v>
+        <v>204800</v>
       </c>
       <c r="G33" s="3">
-        <v>220600</v>
+        <v>207500</v>
       </c>
       <c r="H33" s="3">
-        <v>200100</v>
+        <v>188300</v>
       </c>
       <c r="I33" s="3">
-        <v>192000</v>
+        <v>180700</v>
       </c>
       <c r="J33" s="3">
-        <v>167000</v>
+        <v>157100</v>
       </c>
       <c r="K33" s="3">
         <v>196500</v>
@@ -1707,25 +1707,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>298900</v>
+        <v>281200</v>
       </c>
       <c r="E35" s="3">
-        <v>209600</v>
+        <v>197200</v>
       </c>
       <c r="F35" s="3">
-        <v>217700</v>
+        <v>204800</v>
       </c>
       <c r="G35" s="3">
-        <v>220600</v>
+        <v>207500</v>
       </c>
       <c r="H35" s="3">
-        <v>200100</v>
+        <v>188300</v>
       </c>
       <c r="I35" s="3">
-        <v>192000</v>
+        <v>180700</v>
       </c>
       <c r="J35" s="3">
-        <v>167000</v>
+        <v>157100</v>
       </c>
       <c r="K35" s="3">
         <v>196500</v>
@@ -1824,25 +1824,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1540300</v>
+        <v>1449400</v>
       </c>
       <c r="E41" s="3">
-        <v>1213200</v>
+        <v>1141600</v>
       </c>
       <c r="F41" s="3">
-        <v>973600</v>
+        <v>916100</v>
       </c>
       <c r="G41" s="3">
-        <v>907500</v>
+        <v>853900</v>
       </c>
       <c r="H41" s="3">
-        <v>669100</v>
+        <v>629600</v>
       </c>
       <c r="I41" s="3">
-        <v>658300</v>
+        <v>619500</v>
       </c>
       <c r="J41" s="3">
-        <v>575200</v>
+        <v>541200</v>
       </c>
       <c r="K41" s="3">
         <v>556000</v>
@@ -1863,25 +1863,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>460200</v>
+        <v>433000</v>
       </c>
       <c r="E42" s="3">
-        <v>440300</v>
+        <v>414300</v>
       </c>
       <c r="F42" s="3">
-        <v>370900</v>
+        <v>349000</v>
       </c>
       <c r="G42" s="3">
-        <v>477400</v>
+        <v>449200</v>
       </c>
       <c r="H42" s="3">
-        <v>518300</v>
+        <v>487700</v>
       </c>
       <c r="I42" s="3">
-        <v>390700</v>
+        <v>367600</v>
       </c>
       <c r="J42" s="3">
-        <v>560200</v>
+        <v>527100</v>
       </c>
       <c r="K42" s="3">
         <v>654800</v>
@@ -1902,25 +1902,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>414500</v>
+        <v>390000</v>
       </c>
       <c r="E43" s="3">
-        <v>366300</v>
+        <v>344700</v>
       </c>
       <c r="F43" s="3">
-        <v>350100</v>
+        <v>329400</v>
       </c>
       <c r="G43" s="3">
-        <v>303700</v>
+        <v>285700</v>
       </c>
       <c r="H43" s="3">
-        <v>309900</v>
+        <v>291600</v>
       </c>
       <c r="I43" s="3">
-        <v>277000</v>
+        <v>260600</v>
       </c>
       <c r="J43" s="3">
-        <v>233500</v>
+        <v>219700</v>
       </c>
       <c r="K43" s="3">
         <v>229700</v>
@@ -1941,25 +1941,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>28800</v>
+        <v>27100</v>
       </c>
       <c r="E44" s="3">
-        <v>26500</v>
+        <v>25000</v>
       </c>
       <c r="F44" s="3">
-        <v>32000</v>
+        <v>30100</v>
       </c>
       <c r="G44" s="3">
-        <v>57300</v>
+        <v>53900</v>
       </c>
       <c r="H44" s="3">
-        <v>23200</v>
+        <v>21800</v>
       </c>
       <c r="I44" s="3">
-        <v>13300</v>
+        <v>12500</v>
       </c>
       <c r="J44" s="3">
-        <v>6300</v>
+        <v>5900</v>
       </c>
       <c r="K44" s="3">
         <v>4600</v>
@@ -1980,25 +1980,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>62600</v>
+        <v>58900</v>
       </c>
       <c r="E45" s="3">
-        <v>46400</v>
+        <v>43700</v>
       </c>
       <c r="F45" s="3">
-        <v>44400</v>
+        <v>41800</v>
       </c>
       <c r="G45" s="3">
-        <v>167300</v>
+        <v>157400</v>
       </c>
       <c r="H45" s="3">
-        <v>168300</v>
+        <v>158300</v>
       </c>
       <c r="I45" s="3">
-        <v>180000</v>
+        <v>169400</v>
       </c>
       <c r="J45" s="3">
-        <v>194400</v>
+        <v>182900</v>
       </c>
       <c r="K45" s="3">
         <v>174100</v>
@@ -2019,25 +2019,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>2506400</v>
+        <v>2358400</v>
       </c>
       <c r="E46" s="3">
-        <v>2092800</v>
+        <v>1969200</v>
       </c>
       <c r="F46" s="3">
-        <v>1771000</v>
+        <v>1666500</v>
       </c>
       <c r="G46" s="3">
-        <v>1758800</v>
+        <v>1654900</v>
       </c>
       <c r="H46" s="3">
-        <v>1688800</v>
+        <v>1589100</v>
       </c>
       <c r="I46" s="3">
-        <v>1519300</v>
+        <v>1429600</v>
       </c>
       <c r="J46" s="3">
-        <v>1569600</v>
+        <v>1476900</v>
       </c>
       <c r="K46" s="3">
         <v>1619300</v>
@@ -2058,25 +2058,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>206400</v>
+        <v>194200</v>
       </c>
       <c r="E47" s="3">
-        <v>282100</v>
+        <v>265500</v>
       </c>
       <c r="F47" s="3">
-        <v>389400</v>
+        <v>366400</v>
       </c>
       <c r="G47" s="3">
-        <v>348500</v>
+        <v>327900</v>
       </c>
       <c r="H47" s="3">
-        <v>408100</v>
+        <v>384000</v>
       </c>
       <c r="I47" s="3">
-        <v>395100</v>
+        <v>371800</v>
       </c>
       <c r="J47" s="3">
-        <v>489200</v>
+        <v>460400</v>
       </c>
       <c r="K47" s="3">
         <v>608300</v>
@@ -2097,25 +2097,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>61800</v>
+        <v>58100</v>
       </c>
       <c r="E48" s="3">
-        <v>62100</v>
+        <v>58400</v>
       </c>
       <c r="F48" s="3">
-        <v>76800</v>
+        <v>72300</v>
       </c>
       <c r="G48" s="3">
-        <v>68300</v>
+        <v>64300</v>
       </c>
       <c r="H48" s="3">
-        <v>64000</v>
+        <v>60300</v>
       </c>
       <c r="I48" s="3">
-        <v>51000</v>
+        <v>48000</v>
       </c>
       <c r="J48" s="3">
-        <v>45100</v>
+        <v>42400</v>
       </c>
       <c r="K48" s="3">
         <v>43600</v>
@@ -2136,25 +2136,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>198100</v>
+        <v>186400</v>
       </c>
       <c r="E49" s="3">
-        <v>201800</v>
+        <v>189900</v>
       </c>
       <c r="F49" s="3">
-        <v>281800</v>
+        <v>265200</v>
       </c>
       <c r="G49" s="3">
-        <v>273500</v>
+        <v>257400</v>
       </c>
       <c r="H49" s="3">
-        <v>313900</v>
+        <v>295400</v>
       </c>
       <c r="I49" s="3">
-        <v>331400</v>
+        <v>311800</v>
       </c>
       <c r="J49" s="3">
-        <v>63900</v>
+        <v>60200</v>
       </c>
       <c r="K49" s="3">
         <v>83100</v>
@@ -2253,25 +2253,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>302600</v>
+        <v>284800</v>
       </c>
       <c r="E52" s="3">
-        <v>295700</v>
+        <v>278200</v>
       </c>
       <c r="F52" s="3">
-        <v>283100</v>
+        <v>266300</v>
       </c>
       <c r="G52" s="3">
-        <v>247500</v>
+        <v>232900</v>
       </c>
       <c r="H52" s="3">
-        <v>104800</v>
+        <v>98600</v>
       </c>
       <c r="I52" s="3">
-        <v>106700</v>
+        <v>100400</v>
       </c>
       <c r="J52" s="3">
-        <v>95300</v>
+        <v>89700</v>
       </c>
       <c r="K52" s="3">
         <v>112000</v>
@@ -2331,25 +2331,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>3275400</v>
+        <v>3081900</v>
       </c>
       <c r="E54" s="3">
-        <v>2934500</v>
+        <v>2761200</v>
       </c>
       <c r="F54" s="3">
-        <v>2802100</v>
+        <v>2636700</v>
       </c>
       <c r="G54" s="3">
-        <v>2696600</v>
+        <v>2537400</v>
       </c>
       <c r="H54" s="3">
-        <v>2579700</v>
+        <v>2427400</v>
       </c>
       <c r="I54" s="3">
-        <v>2403500</v>
+        <v>2261600</v>
       </c>
       <c r="J54" s="3">
-        <v>2263200</v>
+        <v>2129500</v>
       </c>
       <c r="K54" s="3">
         <v>2466300</v>
@@ -2404,25 +2404,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>9100</v>
+        <v>8500</v>
       </c>
       <c r="E57" s="3">
-        <v>7100</v>
+        <v>6700</v>
       </c>
       <c r="F57" s="3">
-        <v>9400</v>
+        <v>8800</v>
       </c>
       <c r="G57" s="3">
-        <v>12600</v>
+        <v>11900</v>
       </c>
       <c r="H57" s="3">
-        <v>5700</v>
+        <v>5400</v>
       </c>
       <c r="I57" s="3">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="J57" s="3">
-        <v>4400</v>
+        <v>4100</v>
       </c>
       <c r="K57" s="3">
         <v>5900</v>
@@ -2482,25 +2482,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>1031900</v>
+        <v>970900</v>
       </c>
       <c r="E59" s="3">
-        <v>1017000</v>
+        <v>956900</v>
       </c>
       <c r="F59" s="3">
-        <v>922000</v>
+        <v>867600</v>
       </c>
       <c r="G59" s="3">
-        <v>855700</v>
+        <v>805100</v>
       </c>
       <c r="H59" s="3">
-        <v>841600</v>
+        <v>791900</v>
       </c>
       <c r="I59" s="3">
-        <v>785200</v>
+        <v>738900</v>
       </c>
       <c r="J59" s="3">
-        <v>732100</v>
+        <v>688900</v>
       </c>
       <c r="K59" s="3">
         <v>811500</v>
@@ -2521,25 +2521,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>1040900</v>
+        <v>979500</v>
       </c>
       <c r="E60" s="3">
-        <v>1024100</v>
+        <v>963700</v>
       </c>
       <c r="F60" s="3">
-        <v>931400</v>
+        <v>876400</v>
       </c>
       <c r="G60" s="3">
-        <v>868300</v>
+        <v>817000</v>
       </c>
       <c r="H60" s="3">
-        <v>847300</v>
+        <v>797200</v>
       </c>
       <c r="I60" s="3">
-        <v>792200</v>
+        <v>745400</v>
       </c>
       <c r="J60" s="3">
-        <v>736500</v>
+        <v>693000</v>
       </c>
       <c r="K60" s="3">
         <v>817400</v>
@@ -2599,25 +2599,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>509500</v>
+        <v>479400</v>
       </c>
       <c r="E62" s="3">
-        <v>435300</v>
+        <v>409500</v>
       </c>
       <c r="F62" s="3">
-        <v>410700</v>
+        <v>386500</v>
       </c>
       <c r="G62" s="3">
-        <v>370900</v>
+        <v>349000</v>
       </c>
       <c r="H62" s="3">
-        <v>353000</v>
+        <v>332200</v>
       </c>
       <c r="I62" s="3">
-        <v>314500</v>
+        <v>295900</v>
       </c>
       <c r="J62" s="3">
-        <v>282700</v>
+        <v>266000</v>
       </c>
       <c r="K62" s="3">
         <v>300100</v>
@@ -2755,25 +2755,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>1556500</v>
+        <v>1464600</v>
       </c>
       <c r="E66" s="3">
-        <v>1465800</v>
+        <v>1379300</v>
       </c>
       <c r="F66" s="3">
-        <v>1343300</v>
+        <v>1264000</v>
       </c>
       <c r="G66" s="3">
-        <v>1239800</v>
+        <v>1166600</v>
       </c>
       <c r="H66" s="3">
-        <v>1200300</v>
+        <v>1129500</v>
       </c>
       <c r="I66" s="3">
-        <v>1106700</v>
+        <v>1041400</v>
       </c>
       <c r="J66" s="3">
-        <v>1019200</v>
+        <v>959000</v>
       </c>
       <c r="K66" s="3">
         <v>1117600</v>
@@ -2967,25 +2967,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>1379300</v>
+        <v>1297900</v>
       </c>
       <c r="E72" s="3">
-        <v>1243700</v>
+        <v>1170200</v>
       </c>
       <c r="F72" s="3">
-        <v>1206600</v>
+        <v>1135300</v>
       </c>
       <c r="G72" s="3">
-        <v>1165600</v>
+        <v>1096700</v>
       </c>
       <c r="H72" s="3">
-        <v>1109700</v>
+        <v>1044200</v>
       </c>
       <c r="I72" s="3">
-        <v>1059900</v>
+        <v>997300</v>
       </c>
       <c r="J72" s="3">
-        <v>985700</v>
+        <v>927500</v>
       </c>
       <c r="K72" s="3">
         <v>1070500</v>
@@ -3123,25 +3123,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>1718800</v>
+        <v>1617300</v>
       </c>
       <c r="E76" s="3">
-        <v>1468700</v>
+        <v>1381900</v>
       </c>
       <c r="F76" s="3">
-        <v>1458900</v>
+        <v>1372700</v>
       </c>
       <c r="G76" s="3">
-        <v>1456800</v>
+        <v>1370800</v>
       </c>
       <c r="H76" s="3">
-        <v>1379400</v>
+        <v>1297900</v>
       </c>
       <c r="I76" s="3">
-        <v>1296800</v>
+        <v>1220200</v>
       </c>
       <c r="J76" s="3">
-        <v>1244000</v>
+        <v>1170500</v>
       </c>
       <c r="K76" s="3">
         <v>1348700</v>
@@ -3245,25 +3245,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>298900</v>
+        <v>281200</v>
       </c>
       <c r="E81" s="3">
-        <v>209600</v>
+        <v>197200</v>
       </c>
       <c r="F81" s="3">
-        <v>217700</v>
+        <v>204800</v>
       </c>
       <c r="G81" s="3">
-        <v>220600</v>
+        <v>207500</v>
       </c>
       <c r="H81" s="3">
-        <v>200100</v>
+        <v>188300</v>
       </c>
       <c r="I81" s="3">
-        <v>192000</v>
+        <v>180700</v>
       </c>
       <c r="J81" s="3">
-        <v>167000</v>
+        <v>157100</v>
       </c>
       <c r="K81" s="3">
         <v>196500</v>
@@ -3301,25 +3301,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>162800</v>
+        <v>153200</v>
       </c>
       <c r="E83" s="3">
-        <v>176700</v>
+        <v>166200</v>
       </c>
       <c r="F83" s="3">
-        <v>123200</v>
+        <v>115900</v>
       </c>
       <c r="G83" s="3">
-        <v>124000</v>
+        <v>116600</v>
       </c>
       <c r="H83" s="3">
-        <v>108700</v>
+        <v>102300</v>
       </c>
       <c r="I83" s="3">
-        <v>87200</v>
+        <v>82000</v>
       </c>
       <c r="J83" s="3">
-        <v>64300</v>
+        <v>60500</v>
       </c>
       <c r="K83" s="3">
         <v>67100</v>
@@ -3535,25 +3535,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>430500</v>
+        <v>405100</v>
       </c>
       <c r="E89" s="3">
-        <v>423100</v>
+        <v>398100</v>
       </c>
       <c r="F89" s="3">
-        <v>351400</v>
+        <v>330600</v>
       </c>
       <c r="G89" s="3">
-        <v>389200</v>
+        <v>366200</v>
       </c>
       <c r="H89" s="3">
-        <v>365500</v>
+        <v>343900</v>
       </c>
       <c r="I89" s="3">
-        <v>261100</v>
+        <v>245600</v>
       </c>
       <c r="J89" s="3">
-        <v>237500</v>
+        <v>223500</v>
       </c>
       <c r="K89" s="3">
         <v>281400</v>
@@ -3591,25 +3591,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-16800</v>
+        <v>-15800</v>
       </c>
       <c r="E91" s="3">
-        <v>-12100</v>
+        <v>-11400</v>
       </c>
       <c r="F91" s="3">
-        <v>-31400</v>
+        <v>-29600</v>
       </c>
       <c r="G91" s="3">
-        <v>-27700</v>
+        <v>-26100</v>
       </c>
       <c r="H91" s="3">
-        <v>-35800</v>
+        <v>-33700</v>
       </c>
       <c r="I91" s="3">
-        <v>-23300</v>
+        <v>-21900</v>
       </c>
       <c r="J91" s="3">
-        <v>-27500</v>
+        <v>-25900</v>
       </c>
       <c r="K91" s="3">
         <v>-18000</v>
@@ -3708,25 +3708,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>20100</v>
+        <v>18900</v>
       </c>
       <c r="E94" s="3">
-        <v>-45000</v>
+        <v>-42300</v>
       </c>
       <c r="F94" s="3">
-        <v>-11500</v>
+        <v>-10800</v>
       </c>
       <c r="G94" s="3">
-        <v>6400</v>
+        <v>6000</v>
       </c>
       <c r="H94" s="3">
-        <v>-263400</v>
+        <v>-247900</v>
       </c>
       <c r="I94" s="3">
-        <v>100700</v>
+        <v>94700</v>
       </c>
       <c r="J94" s="3">
-        <v>-38400</v>
+        <v>-36100</v>
       </c>
       <c r="K94" s="3">
         <v>-290000</v>
@@ -3764,25 +3764,25 @@
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-161800</v>
+        <v>-152200</v>
       </c>
       <c r="E96" s="3">
-        <v>-168900</v>
+        <v>-158900</v>
       </c>
       <c r="F96" s="3">
-        <v>-171300</v>
+        <v>-161200</v>
       </c>
       <c r="G96" s="3">
-        <v>-154100</v>
+        <v>-145000</v>
       </c>
       <c r="H96" s="3">
-        <v>-145500</v>
+        <v>-136900</v>
       </c>
       <c r="I96" s="3">
-        <v>-112900</v>
+        <v>-106200</v>
       </c>
       <c r="J96" s="3">
-        <v>-115600</v>
+        <v>-108800</v>
       </c>
       <c r="K96" s="3">
         <v>-138900</v>
@@ -3920,25 +3920,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-128100</v>
+        <v>-120500</v>
       </c>
       <c r="E100" s="3">
-        <v>-164700</v>
+        <v>-155000</v>
       </c>
       <c r="F100" s="3">
-        <v>-202200</v>
+        <v>-190300</v>
       </c>
       <c r="G100" s="3">
-        <v>-103000</v>
+        <v>-96900</v>
       </c>
       <c r="H100" s="3">
-        <v>-131700</v>
+        <v>-123900</v>
       </c>
       <c r="I100" s="3">
-        <v>-117200</v>
+        <v>-110300</v>
       </c>
       <c r="J100" s="3">
-        <v>-72600</v>
+        <v>-68300</v>
       </c>
       <c r="K100" s="3">
         <v>-148800</v>
@@ -3959,25 +3959,25 @@
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>78800</v>
+        <v>74200</v>
       </c>
       <c r="E101" s="3">
-        <v>-10600</v>
+        <v>-9900</v>
       </c>
       <c r="F101" s="3">
-        <v>-9200</v>
+        <v>-8600</v>
       </c>
       <c r="G101" s="3">
-        <v>-34000</v>
+        <v>-32000</v>
       </c>
       <c r="H101" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="I101" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="J101" s="3">
-        <v>-32900</v>
+        <v>-31000</v>
       </c>
       <c r="K101" s="3">
         <v>22700</v>
@@ -3998,25 +3998,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>401300</v>
+        <v>377600</v>
       </c>
       <c r="E102" s="3">
-        <v>202800</v>
+        <v>190800</v>
       </c>
       <c r="F102" s="3">
-        <v>128500</v>
+        <v>120900</v>
       </c>
       <c r="G102" s="3">
-        <v>258500</v>
+        <v>243300</v>
       </c>
       <c r="H102" s="3">
-        <v>-30700</v>
+        <v>-28800</v>
       </c>
       <c r="I102" s="3">
-        <v>246900</v>
+        <v>232300</v>
       </c>
       <c r="J102" s="3">
-        <v>93600</v>
+        <v>88100</v>
       </c>
       <c r="K102" s="3">
         <v>-134700</v>

--- a/AAII_Financials/Yearly/TMICY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TMICY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1395300</v>
+        <v>1349600</v>
       </c>
       <c r="E8" s="3">
-        <v>1275900</v>
+        <v>1234100</v>
       </c>
       <c r="F8" s="3">
-        <v>1210900</v>
+        <v>1171200</v>
       </c>
       <c r="G8" s="3">
-        <v>1175800</v>
+        <v>1137300</v>
       </c>
       <c r="H8" s="3">
-        <v>1090800</v>
+        <v>1055100</v>
       </c>
       <c r="I8" s="3">
-        <v>967100</v>
+        <v>935400</v>
       </c>
       <c r="J8" s="3">
-        <v>911200</v>
+        <v>881400</v>
       </c>
       <c r="K8" s="3">
         <v>1015000</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>308000</v>
+        <v>297900</v>
       </c>
       <c r="E9" s="3">
-        <v>279800</v>
+        <v>270600</v>
       </c>
       <c r="F9" s="3">
-        <v>236800</v>
+        <v>229000</v>
       </c>
       <c r="G9" s="3">
-        <v>239900</v>
+        <v>232000</v>
       </c>
       <c r="H9" s="3">
-        <v>206300</v>
+        <v>199500</v>
       </c>
       <c r="I9" s="3">
-        <v>168900</v>
+        <v>163400</v>
       </c>
       <c r="J9" s="3">
-        <v>155900</v>
+        <v>150800</v>
       </c>
       <c r="K9" s="3">
         <v>180000</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1087300</v>
+        <v>1051700</v>
       </c>
       <c r="E10" s="3">
-        <v>996100</v>
+        <v>963500</v>
       </c>
       <c r="F10" s="3">
-        <v>974100</v>
+        <v>942200</v>
       </c>
       <c r="G10" s="3">
-        <v>935900</v>
+        <v>905300</v>
       </c>
       <c r="H10" s="3">
-        <v>884500</v>
+        <v>855600</v>
       </c>
       <c r="I10" s="3">
-        <v>798200</v>
+        <v>772100</v>
       </c>
       <c r="J10" s="3">
-        <v>755300</v>
+        <v>730600</v>
       </c>
       <c r="K10" s="3">
         <v>835000</v>
@@ -857,25 +857,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>34300</v>
+        <v>33200</v>
       </c>
       <c r="E12" s="3">
-        <v>53800</v>
+        <v>52000</v>
       </c>
       <c r="F12" s="3">
-        <v>60300</v>
+        <v>58400</v>
       </c>
       <c r="G12" s="3">
-        <v>54600</v>
+        <v>52800</v>
       </c>
       <c r="H12" s="3">
-        <v>57100</v>
+        <v>55200</v>
       </c>
       <c r="I12" s="3">
-        <v>38600</v>
+        <v>37400</v>
       </c>
       <c r="J12" s="3">
-        <v>27700</v>
+        <v>26800</v>
       </c>
       <c r="K12" s="3">
         <v>25800</v>
@@ -935,7 +935,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="E14" s="3">
         <v>1400</v>
@@ -944,7 +944,7 @@
         <v>500</v>
       </c>
       <c r="G14" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="H14" s="3">
         <v>300</v>
@@ -953,7 +953,7 @@
         <v>2700</v>
       </c>
       <c r="J14" s="3">
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="K14" s="3">
         <v>2000</v>
@@ -1027,25 +1027,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1077100</v>
+        <v>1041800</v>
       </c>
       <c r="E17" s="3">
-        <v>988000</v>
+        <v>955700</v>
       </c>
       <c r="F17" s="3">
-        <v>935100</v>
+        <v>904500</v>
       </c>
       <c r="G17" s="3">
-        <v>915600</v>
+        <v>885600</v>
       </c>
       <c r="H17" s="3">
-        <v>824000</v>
+        <v>797000</v>
       </c>
       <c r="I17" s="3">
-        <v>718000</v>
+        <v>694500</v>
       </c>
       <c r="J17" s="3">
-        <v>689700</v>
+        <v>667100</v>
       </c>
       <c r="K17" s="3">
         <v>720500</v>
@@ -1066,25 +1066,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>318200</v>
+        <v>307800</v>
       </c>
       <c r="E18" s="3">
-        <v>287800</v>
+        <v>278400</v>
       </c>
       <c r="F18" s="3">
-        <v>275700</v>
+        <v>266700</v>
       </c>
       <c r="G18" s="3">
-        <v>260200</v>
+        <v>251700</v>
       </c>
       <c r="H18" s="3">
-        <v>266800</v>
+        <v>258100</v>
       </c>
       <c r="I18" s="3">
-        <v>249100</v>
+        <v>241000</v>
       </c>
       <c r="J18" s="3">
-        <v>221600</v>
+        <v>214300</v>
       </c>
       <c r="K18" s="3">
         <v>294500</v>
@@ -1122,25 +1122,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>65700</v>
+        <v>63600</v>
       </c>
       <c r="E20" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="F20" s="3">
-        <v>11200</v>
+        <v>10800</v>
       </c>
       <c r="G20" s="3">
-        <v>12400</v>
+        <v>12000</v>
       </c>
       <c r="H20" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="I20" s="3">
-        <v>12700</v>
+        <v>12300</v>
       </c>
       <c r="J20" s="3">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="K20" s="3">
         <v>23100</v>
@@ -1161,25 +1161,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>536300</v>
+        <v>514100</v>
       </c>
       <c r="E21" s="3">
-        <v>457400</v>
+        <v>437400</v>
       </c>
       <c r="F21" s="3">
-        <v>402200</v>
+        <v>385500</v>
       </c>
       <c r="G21" s="3">
-        <v>388600</v>
+        <v>372400</v>
       </c>
       <c r="H21" s="3">
-        <v>373600</v>
+        <v>358300</v>
       </c>
       <c r="I21" s="3">
-        <v>343400</v>
+        <v>329700</v>
       </c>
       <c r="J21" s="3">
-        <v>309700</v>
+        <v>297700</v>
       </c>
       <c r="K21" s="3">
         <v>384800</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>383900</v>
+        <v>371300</v>
       </c>
       <c r="E23" s="3">
-        <v>292100</v>
+        <v>282600</v>
       </c>
       <c r="F23" s="3">
-        <v>286900</v>
+        <v>277500</v>
       </c>
       <c r="G23" s="3">
-        <v>272600</v>
+        <v>263700</v>
       </c>
       <c r="H23" s="3">
-        <v>271900</v>
+        <v>263000</v>
       </c>
       <c r="I23" s="3">
-        <v>261800</v>
+        <v>253200</v>
       </c>
       <c r="J23" s="3">
-        <v>249500</v>
+        <v>241300</v>
       </c>
       <c r="K23" s="3">
         <v>317400</v>
@@ -1278,25 +1278,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>108200</v>
+        <v>104600</v>
       </c>
       <c r="E24" s="3">
-        <v>98800</v>
+        <v>95600</v>
       </c>
       <c r="F24" s="3">
-        <v>83000</v>
+        <v>80300</v>
       </c>
       <c r="G24" s="3">
-        <v>65200</v>
+        <v>63000</v>
       </c>
       <c r="H24" s="3">
-        <v>83600</v>
+        <v>80800</v>
       </c>
       <c r="I24" s="3">
-        <v>81100</v>
+        <v>78500</v>
       </c>
       <c r="J24" s="3">
-        <v>92400</v>
+        <v>89300</v>
       </c>
       <c r="K24" s="3">
         <v>120900</v>
@@ -1356,25 +1356,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>275700</v>
+        <v>266700</v>
       </c>
       <c r="E26" s="3">
-        <v>193300</v>
+        <v>187000</v>
       </c>
       <c r="F26" s="3">
-        <v>203900</v>
+        <v>197200</v>
       </c>
       <c r="G26" s="3">
-        <v>207400</v>
+        <v>200600</v>
       </c>
       <c r="H26" s="3">
-        <v>188300</v>
+        <v>182200</v>
       </c>
       <c r="I26" s="3">
-        <v>180700</v>
+        <v>174800</v>
       </c>
       <c r="J26" s="3">
-        <v>157100</v>
+        <v>152000</v>
       </c>
       <c r="K26" s="3">
         <v>196500</v>
@@ -1395,25 +1395,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>281200</v>
+        <v>272000</v>
       </c>
       <c r="E27" s="3">
-        <v>197200</v>
+        <v>190700</v>
       </c>
       <c r="F27" s="3">
-        <v>204800</v>
+        <v>198100</v>
       </c>
       <c r="G27" s="3">
-        <v>207500</v>
+        <v>200700</v>
       </c>
       <c r="H27" s="3">
-        <v>188300</v>
+        <v>182100</v>
       </c>
       <c r="I27" s="3">
-        <v>180700</v>
+        <v>174800</v>
       </c>
       <c r="J27" s="3">
-        <v>157100</v>
+        <v>152000</v>
       </c>
       <c r="K27" s="3">
         <v>196500</v>
@@ -1590,25 +1590,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-65700</v>
+        <v>-63600</v>
       </c>
       <c r="E32" s="3">
-        <v>-4300</v>
+        <v>-4200</v>
       </c>
       <c r="F32" s="3">
-        <v>-11200</v>
+        <v>-10800</v>
       </c>
       <c r="G32" s="3">
-        <v>-12400</v>
+        <v>-12000</v>
       </c>
       <c r="H32" s="3">
-        <v>-5100</v>
+        <v>-5000</v>
       </c>
       <c r="I32" s="3">
-        <v>-12700</v>
+        <v>-12300</v>
       </c>
       <c r="J32" s="3">
-        <v>-28000</v>
+        <v>-27000</v>
       </c>
       <c r="K32" s="3">
         <v>-23100</v>
@@ -1629,25 +1629,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>281200</v>
+        <v>272000</v>
       </c>
       <c r="E33" s="3">
-        <v>197200</v>
+        <v>190700</v>
       </c>
       <c r="F33" s="3">
-        <v>204800</v>
+        <v>198100</v>
       </c>
       <c r="G33" s="3">
-        <v>207500</v>
+        <v>200700</v>
       </c>
       <c r="H33" s="3">
-        <v>188300</v>
+        <v>182100</v>
       </c>
       <c r="I33" s="3">
-        <v>180700</v>
+        <v>174800</v>
       </c>
       <c r="J33" s="3">
-        <v>157100</v>
+        <v>152000</v>
       </c>
       <c r="K33" s="3">
         <v>196500</v>
@@ -1707,25 +1707,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>281200</v>
+        <v>272000</v>
       </c>
       <c r="E35" s="3">
-        <v>197200</v>
+        <v>190700</v>
       </c>
       <c r="F35" s="3">
-        <v>204800</v>
+        <v>198100</v>
       </c>
       <c r="G35" s="3">
-        <v>207500</v>
+        <v>200700</v>
       </c>
       <c r="H35" s="3">
-        <v>188300</v>
+        <v>182100</v>
       </c>
       <c r="I35" s="3">
-        <v>180700</v>
+        <v>174800</v>
       </c>
       <c r="J35" s="3">
-        <v>157100</v>
+        <v>152000</v>
       </c>
       <c r="K35" s="3">
         <v>196500</v>
@@ -1824,25 +1824,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1449400</v>
+        <v>1401900</v>
       </c>
       <c r="E41" s="3">
-        <v>1141600</v>
+        <v>1104200</v>
       </c>
       <c r="F41" s="3">
-        <v>916100</v>
+        <v>886100</v>
       </c>
       <c r="G41" s="3">
-        <v>853900</v>
+        <v>826000</v>
       </c>
       <c r="H41" s="3">
-        <v>629600</v>
+        <v>609000</v>
       </c>
       <c r="I41" s="3">
-        <v>619500</v>
+        <v>599200</v>
       </c>
       <c r="J41" s="3">
-        <v>541200</v>
+        <v>523500</v>
       </c>
       <c r="K41" s="3">
         <v>556000</v>
@@ -1863,25 +1863,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>433000</v>
+        <v>418800</v>
       </c>
       <c r="E42" s="3">
-        <v>414300</v>
+        <v>400800</v>
       </c>
       <c r="F42" s="3">
-        <v>349000</v>
+        <v>337600</v>
       </c>
       <c r="G42" s="3">
-        <v>449200</v>
+        <v>434500</v>
       </c>
       <c r="H42" s="3">
-        <v>487700</v>
+        <v>471700</v>
       </c>
       <c r="I42" s="3">
-        <v>367600</v>
+        <v>355600</v>
       </c>
       <c r="J42" s="3">
-        <v>527100</v>
+        <v>509900</v>
       </c>
       <c r="K42" s="3">
         <v>654800</v>
@@ -1902,25 +1902,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>390000</v>
+        <v>377200</v>
       </c>
       <c r="E43" s="3">
-        <v>344700</v>
+        <v>333400</v>
       </c>
       <c r="F43" s="3">
-        <v>329400</v>
+        <v>318600</v>
       </c>
       <c r="G43" s="3">
-        <v>285700</v>
+        <v>276400</v>
       </c>
       <c r="H43" s="3">
-        <v>291600</v>
+        <v>282000</v>
       </c>
       <c r="I43" s="3">
-        <v>260600</v>
+        <v>252100</v>
       </c>
       <c r="J43" s="3">
-        <v>219700</v>
+        <v>212500</v>
       </c>
       <c r="K43" s="3">
         <v>229700</v>
@@ -1941,25 +1941,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>27100</v>
+        <v>26200</v>
       </c>
       <c r="E44" s="3">
-        <v>25000</v>
+        <v>24100</v>
       </c>
       <c r="F44" s="3">
-        <v>30100</v>
+        <v>29100</v>
       </c>
       <c r="G44" s="3">
-        <v>53900</v>
+        <v>52100</v>
       </c>
       <c r="H44" s="3">
-        <v>21800</v>
+        <v>21100</v>
       </c>
       <c r="I44" s="3">
-        <v>12500</v>
+        <v>12100</v>
       </c>
       <c r="J44" s="3">
-        <v>5900</v>
+        <v>5700</v>
       </c>
       <c r="K44" s="3">
         <v>4600</v>
@@ -1980,25 +1980,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>58900</v>
+        <v>57000</v>
       </c>
       <c r="E45" s="3">
-        <v>43700</v>
+        <v>42200</v>
       </c>
       <c r="F45" s="3">
-        <v>41800</v>
+        <v>40400</v>
       </c>
       <c r="G45" s="3">
-        <v>157400</v>
+        <v>152200</v>
       </c>
       <c r="H45" s="3">
-        <v>158300</v>
+        <v>153200</v>
       </c>
       <c r="I45" s="3">
-        <v>169400</v>
+        <v>163800</v>
       </c>
       <c r="J45" s="3">
-        <v>182900</v>
+        <v>176900</v>
       </c>
       <c r="K45" s="3">
         <v>174100</v>
@@ -2019,25 +2019,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>2358400</v>
+        <v>2281200</v>
       </c>
       <c r="E46" s="3">
-        <v>1969200</v>
+        <v>1904700</v>
       </c>
       <c r="F46" s="3">
-        <v>1666500</v>
+        <v>1611900</v>
       </c>
       <c r="G46" s="3">
-        <v>1654900</v>
+        <v>1600700</v>
       </c>
       <c r="H46" s="3">
-        <v>1589100</v>
+        <v>1537100</v>
       </c>
       <c r="I46" s="3">
-        <v>1429600</v>
+        <v>1382800</v>
       </c>
       <c r="J46" s="3">
-        <v>1476900</v>
+        <v>1428500</v>
       </c>
       <c r="K46" s="3">
         <v>1619300</v>
@@ -2058,25 +2058,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>194200</v>
+        <v>187800</v>
       </c>
       <c r="E47" s="3">
-        <v>265500</v>
+        <v>256800</v>
       </c>
       <c r="F47" s="3">
-        <v>366400</v>
+        <v>354400</v>
       </c>
       <c r="G47" s="3">
-        <v>327900</v>
+        <v>317200</v>
       </c>
       <c r="H47" s="3">
-        <v>384000</v>
+        <v>371500</v>
       </c>
       <c r="I47" s="3">
-        <v>371800</v>
+        <v>359600</v>
       </c>
       <c r="J47" s="3">
-        <v>460400</v>
+        <v>445300</v>
       </c>
       <c r="K47" s="3">
         <v>608300</v>
@@ -2097,25 +2097,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>58100</v>
+        <v>56200</v>
       </c>
       <c r="E48" s="3">
-        <v>58400</v>
+        <v>56500</v>
       </c>
       <c r="F48" s="3">
-        <v>72300</v>
+        <v>69900</v>
       </c>
       <c r="G48" s="3">
-        <v>64300</v>
+        <v>62200</v>
       </c>
       <c r="H48" s="3">
-        <v>60300</v>
+        <v>58300</v>
       </c>
       <c r="I48" s="3">
-        <v>48000</v>
+        <v>46400</v>
       </c>
       <c r="J48" s="3">
-        <v>42400</v>
+        <v>41000</v>
       </c>
       <c r="K48" s="3">
         <v>43600</v>
@@ -2136,25 +2136,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>186400</v>
+        <v>180300</v>
       </c>
       <c r="E49" s="3">
-        <v>189900</v>
+        <v>183700</v>
       </c>
       <c r="F49" s="3">
-        <v>265200</v>
+        <v>256500</v>
       </c>
       <c r="G49" s="3">
-        <v>257400</v>
+        <v>248900</v>
       </c>
       <c r="H49" s="3">
-        <v>295400</v>
+        <v>285700</v>
       </c>
       <c r="I49" s="3">
-        <v>311800</v>
+        <v>301600</v>
       </c>
       <c r="J49" s="3">
-        <v>60200</v>
+        <v>58200</v>
       </c>
       <c r="K49" s="3">
         <v>83100</v>
@@ -2253,25 +2253,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>284800</v>
+        <v>275400</v>
       </c>
       <c r="E52" s="3">
-        <v>278200</v>
+        <v>269100</v>
       </c>
       <c r="F52" s="3">
-        <v>266300</v>
+        <v>257600</v>
       </c>
       <c r="G52" s="3">
-        <v>232900</v>
+        <v>225300</v>
       </c>
       <c r="H52" s="3">
-        <v>98600</v>
+        <v>95400</v>
       </c>
       <c r="I52" s="3">
-        <v>100400</v>
+        <v>97100</v>
       </c>
       <c r="J52" s="3">
-        <v>89700</v>
+        <v>86700</v>
       </c>
       <c r="K52" s="3">
         <v>112000</v>
@@ -2331,25 +2331,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>3081900</v>
+        <v>2981000</v>
       </c>
       <c r="E54" s="3">
-        <v>2761200</v>
+        <v>2670800</v>
       </c>
       <c r="F54" s="3">
-        <v>2636700</v>
+        <v>2550300</v>
       </c>
       <c r="G54" s="3">
-        <v>2537400</v>
+        <v>2454300</v>
       </c>
       <c r="H54" s="3">
-        <v>2427400</v>
+        <v>2347900</v>
       </c>
       <c r="I54" s="3">
-        <v>2261600</v>
+        <v>2187500</v>
       </c>
       <c r="J54" s="3">
-        <v>2129500</v>
+        <v>2059800</v>
       </c>
       <c r="K54" s="3">
         <v>2466300</v>
@@ -2404,25 +2404,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F57" s="3">
         <v>8500</v>
       </c>
-      <c r="E57" s="3">
-        <v>6700</v>
-      </c>
-      <c r="F57" s="3">
-        <v>8800</v>
-      </c>
       <c r="G57" s="3">
-        <v>11900</v>
+        <v>11500</v>
       </c>
       <c r="H57" s="3">
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="I57" s="3">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="J57" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="K57" s="3">
         <v>5900</v>
@@ -2482,25 +2482,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>970900</v>
+        <v>939100</v>
       </c>
       <c r="E59" s="3">
-        <v>956900</v>
+        <v>925600</v>
       </c>
       <c r="F59" s="3">
-        <v>867600</v>
+        <v>839200</v>
       </c>
       <c r="G59" s="3">
-        <v>805100</v>
+        <v>778800</v>
       </c>
       <c r="H59" s="3">
-        <v>791900</v>
+        <v>766000</v>
       </c>
       <c r="I59" s="3">
-        <v>738900</v>
+        <v>714700</v>
       </c>
       <c r="J59" s="3">
-        <v>688900</v>
+        <v>666300</v>
       </c>
       <c r="K59" s="3">
         <v>811500</v>
@@ -2521,25 +2521,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>979500</v>
+        <v>947400</v>
       </c>
       <c r="E60" s="3">
-        <v>963700</v>
+        <v>932100</v>
       </c>
       <c r="F60" s="3">
-        <v>876400</v>
+        <v>847700</v>
       </c>
       <c r="G60" s="3">
-        <v>817000</v>
+        <v>790300</v>
       </c>
       <c r="H60" s="3">
-        <v>797200</v>
+        <v>771100</v>
       </c>
       <c r="I60" s="3">
-        <v>745400</v>
+        <v>721000</v>
       </c>
       <c r="J60" s="3">
-        <v>693000</v>
+        <v>670300</v>
       </c>
       <c r="K60" s="3">
         <v>817400</v>
@@ -2599,25 +2599,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>479400</v>
+        <v>463700</v>
       </c>
       <c r="E62" s="3">
-        <v>409500</v>
+        <v>396100</v>
       </c>
       <c r="F62" s="3">
-        <v>386500</v>
+        <v>373800</v>
       </c>
       <c r="G62" s="3">
-        <v>349000</v>
+        <v>337600</v>
       </c>
       <c r="H62" s="3">
-        <v>332200</v>
+        <v>321300</v>
       </c>
       <c r="I62" s="3">
-        <v>295900</v>
+        <v>286200</v>
       </c>
       <c r="J62" s="3">
-        <v>266000</v>
+        <v>257300</v>
       </c>
       <c r="K62" s="3">
         <v>300100</v>
@@ -2755,25 +2755,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>1464600</v>
+        <v>1416700</v>
       </c>
       <c r="E66" s="3">
-        <v>1379300</v>
+        <v>1334100</v>
       </c>
       <c r="F66" s="3">
-        <v>1264000</v>
+        <v>1222600</v>
       </c>
       <c r="G66" s="3">
-        <v>1166600</v>
+        <v>1128400</v>
       </c>
       <c r="H66" s="3">
-        <v>1129500</v>
+        <v>1092500</v>
       </c>
       <c r="I66" s="3">
-        <v>1041400</v>
+        <v>1007300</v>
       </c>
       <c r="J66" s="3">
-        <v>959000</v>
+        <v>927600</v>
       </c>
       <c r="K66" s="3">
         <v>1117600</v>
@@ -2967,25 +2967,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>1297900</v>
+        <v>1255400</v>
       </c>
       <c r="E72" s="3">
-        <v>1170200</v>
+        <v>1131900</v>
       </c>
       <c r="F72" s="3">
-        <v>1135300</v>
+        <v>1098200</v>
       </c>
       <c r="G72" s="3">
-        <v>1096700</v>
+        <v>1060800</v>
       </c>
       <c r="H72" s="3">
-        <v>1044200</v>
+        <v>1010000</v>
       </c>
       <c r="I72" s="3">
-        <v>997300</v>
+        <v>964600</v>
       </c>
       <c r="J72" s="3">
-        <v>927500</v>
+        <v>897200</v>
       </c>
       <c r="K72" s="3">
         <v>1070500</v>
@@ -3123,25 +3123,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>1617300</v>
+        <v>1564400</v>
       </c>
       <c r="E76" s="3">
-        <v>1381900</v>
+        <v>1336700</v>
       </c>
       <c r="F76" s="3">
-        <v>1372700</v>
+        <v>1327800</v>
       </c>
       <c r="G76" s="3">
-        <v>1370800</v>
+        <v>1325900</v>
       </c>
       <c r="H76" s="3">
-        <v>1297900</v>
+        <v>1255400</v>
       </c>
       <c r="I76" s="3">
-        <v>1220200</v>
+        <v>1180300</v>
       </c>
       <c r="J76" s="3">
-        <v>1170500</v>
+        <v>1132200</v>
       </c>
       <c r="K76" s="3">
         <v>1348700</v>
@@ -3245,25 +3245,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>281200</v>
+        <v>272000</v>
       </c>
       <c r="E81" s="3">
-        <v>197200</v>
+        <v>190700</v>
       </c>
       <c r="F81" s="3">
-        <v>204800</v>
+        <v>198100</v>
       </c>
       <c r="G81" s="3">
-        <v>207500</v>
+        <v>200700</v>
       </c>
       <c r="H81" s="3">
-        <v>188300</v>
+        <v>182100</v>
       </c>
       <c r="I81" s="3">
-        <v>180700</v>
+        <v>174800</v>
       </c>
       <c r="J81" s="3">
-        <v>157100</v>
+        <v>152000</v>
       </c>
       <c r="K81" s="3">
         <v>196500</v>
@@ -3301,25 +3301,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>153200</v>
+        <v>148100</v>
       </c>
       <c r="E83" s="3">
-        <v>166200</v>
+        <v>160800</v>
       </c>
       <c r="F83" s="3">
-        <v>115900</v>
+        <v>112100</v>
       </c>
       <c r="G83" s="3">
-        <v>116600</v>
+        <v>112800</v>
       </c>
       <c r="H83" s="3">
-        <v>102300</v>
+        <v>98900</v>
       </c>
       <c r="I83" s="3">
-        <v>82000</v>
+        <v>79300</v>
       </c>
       <c r="J83" s="3">
-        <v>60500</v>
+        <v>58500</v>
       </c>
       <c r="K83" s="3">
         <v>67100</v>
@@ -3535,25 +3535,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>405100</v>
+        <v>391800</v>
       </c>
       <c r="E89" s="3">
-        <v>398100</v>
+        <v>385100</v>
       </c>
       <c r="F89" s="3">
-        <v>330600</v>
+        <v>319800</v>
       </c>
       <c r="G89" s="3">
-        <v>366200</v>
+        <v>354200</v>
       </c>
       <c r="H89" s="3">
-        <v>343900</v>
+        <v>332600</v>
       </c>
       <c r="I89" s="3">
-        <v>245600</v>
+        <v>237600</v>
       </c>
       <c r="J89" s="3">
-        <v>223500</v>
+        <v>216200</v>
       </c>
       <c r="K89" s="3">
         <v>281400</v>
@@ -3591,25 +3591,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-15800</v>
+        <v>-15300</v>
       </c>
       <c r="E91" s="3">
-        <v>-11400</v>
+        <v>-11100</v>
       </c>
       <c r="F91" s="3">
-        <v>-29600</v>
+        <v>-28600</v>
       </c>
       <c r="G91" s="3">
-        <v>-26100</v>
+        <v>-25200</v>
       </c>
       <c r="H91" s="3">
-        <v>-33700</v>
+        <v>-32600</v>
       </c>
       <c r="I91" s="3">
-        <v>-21900</v>
+        <v>-21200</v>
       </c>
       <c r="J91" s="3">
-        <v>-25900</v>
+        <v>-25000</v>
       </c>
       <c r="K91" s="3">
         <v>-18000</v>
@@ -3708,25 +3708,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>18900</v>
+        <v>18300</v>
       </c>
       <c r="E94" s="3">
-        <v>-42300</v>
+        <v>-41000</v>
       </c>
       <c r="F94" s="3">
-        <v>-10800</v>
+        <v>-10400</v>
       </c>
       <c r="G94" s="3">
-        <v>6000</v>
+        <v>5800</v>
       </c>
       <c r="H94" s="3">
-        <v>-247900</v>
+        <v>-239800</v>
       </c>
       <c r="I94" s="3">
-        <v>94700</v>
+        <v>91600</v>
       </c>
       <c r="J94" s="3">
-        <v>-36100</v>
+        <v>-34900</v>
       </c>
       <c r="K94" s="3">
         <v>-290000</v>
@@ -3764,25 +3764,25 @@
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-152200</v>
+        <v>-147200</v>
       </c>
       <c r="E96" s="3">
-        <v>-158900</v>
+        <v>-153700</v>
       </c>
       <c r="F96" s="3">
-        <v>-161200</v>
+        <v>-155900</v>
       </c>
       <c r="G96" s="3">
-        <v>-145000</v>
+        <v>-140300</v>
       </c>
       <c r="H96" s="3">
-        <v>-136900</v>
+        <v>-132400</v>
       </c>
       <c r="I96" s="3">
-        <v>-106200</v>
+        <v>-102800</v>
       </c>
       <c r="J96" s="3">
-        <v>-108800</v>
+        <v>-105200</v>
       </c>
       <c r="K96" s="3">
         <v>-138900</v>
@@ -3920,25 +3920,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-120500</v>
+        <v>-116600</v>
       </c>
       <c r="E100" s="3">
-        <v>-155000</v>
+        <v>-149900</v>
       </c>
       <c r="F100" s="3">
-        <v>-190300</v>
+        <v>-184000</v>
       </c>
       <c r="G100" s="3">
-        <v>-96900</v>
+        <v>-93800</v>
       </c>
       <c r="H100" s="3">
-        <v>-123900</v>
+        <v>-119900</v>
       </c>
       <c r="I100" s="3">
-        <v>-110300</v>
+        <v>-106700</v>
       </c>
       <c r="J100" s="3">
-        <v>-68300</v>
+        <v>-66100</v>
       </c>
       <c r="K100" s="3">
         <v>-148800</v>
@@ -3959,25 +3959,25 @@
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>74200</v>
+        <v>71800</v>
       </c>
       <c r="E101" s="3">
-        <v>-9900</v>
+        <v>-9600</v>
       </c>
       <c r="F101" s="3">
-        <v>-8600</v>
+        <v>-8400</v>
       </c>
       <c r="G101" s="3">
-        <v>-32000</v>
+        <v>-31000</v>
       </c>
       <c r="H101" s="3">
         <v>-900</v>
       </c>
       <c r="I101" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="J101" s="3">
-        <v>-31000</v>
+        <v>-30000</v>
       </c>
       <c r="K101" s="3">
         <v>22700</v>
@@ -3998,25 +3998,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>377600</v>
+        <v>365300</v>
       </c>
       <c r="E102" s="3">
-        <v>190800</v>
+        <v>184600</v>
       </c>
       <c r="F102" s="3">
-        <v>120900</v>
+        <v>117000</v>
       </c>
       <c r="G102" s="3">
-        <v>243300</v>
+        <v>235300</v>
       </c>
       <c r="H102" s="3">
-        <v>-28800</v>
+        <v>-27900</v>
       </c>
       <c r="I102" s="3">
-        <v>232300</v>
+        <v>224700</v>
       </c>
       <c r="J102" s="3">
-        <v>88100</v>
+        <v>85200</v>
       </c>
       <c r="K102" s="3">
         <v>-134700</v>

--- a/AAII_Financials/Yearly/TMICY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TMICY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="92">
   <si>
     <t>TMICY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,189 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1349600</v>
+        <v>1644900</v>
       </c>
       <c r="E8" s="3">
-        <v>1234100</v>
+        <v>1399100</v>
       </c>
       <c r="F8" s="3">
-        <v>1171200</v>
+        <v>1279300</v>
       </c>
       <c r="G8" s="3">
-        <v>1137300</v>
+        <v>1214200</v>
       </c>
       <c r="H8" s="3">
-        <v>1055100</v>
+        <v>1179000</v>
       </c>
       <c r="I8" s="3">
-        <v>935400</v>
+        <v>1093800</v>
       </c>
       <c r="J8" s="3">
+        <v>969700</v>
+      </c>
+      <c r="K8" s="3">
         <v>881400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1015000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1040900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>853000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>855000</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>297900</v>
+        <v>399100</v>
       </c>
       <c r="E9" s="3">
-        <v>270600</v>
+        <v>308800</v>
       </c>
       <c r="F9" s="3">
-        <v>229000</v>
+        <v>280500</v>
       </c>
       <c r="G9" s="3">
-        <v>232000</v>
+        <v>237400</v>
       </c>
       <c r="H9" s="3">
-        <v>199500</v>
+        <v>240600</v>
       </c>
       <c r="I9" s="3">
-        <v>163400</v>
+        <v>206800</v>
       </c>
       <c r="J9" s="3">
+        <v>169300</v>
+      </c>
+      <c r="K9" s="3">
         <v>150800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>180000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>186200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>159200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>158700</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1051700</v>
+        <v>1245800</v>
       </c>
       <c r="E10" s="3">
-        <v>963500</v>
+        <v>1090300</v>
       </c>
       <c r="F10" s="3">
-        <v>942200</v>
+        <v>998800</v>
       </c>
       <c r="G10" s="3">
-        <v>905300</v>
+        <v>976800</v>
       </c>
       <c r="H10" s="3">
-        <v>855600</v>
+        <v>938500</v>
       </c>
       <c r="I10" s="3">
-        <v>772100</v>
+        <v>886900</v>
       </c>
       <c r="J10" s="3">
+        <v>800400</v>
+      </c>
+      <c r="K10" s="3">
         <v>730600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>835000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>854700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>693800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>696300</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,47 +863,51 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3">
-        <v>33200</v>
+      <c r="D12" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="E12" s="3">
-        <v>52000</v>
+        <v>34400</v>
       </c>
       <c r="F12" s="3">
-        <v>58400</v>
+        <v>53900</v>
       </c>
       <c r="G12" s="3">
-        <v>52800</v>
+        <v>60500</v>
       </c>
       <c r="H12" s="3">
-        <v>55200</v>
+        <v>54700</v>
       </c>
       <c r="I12" s="3">
-        <v>37400</v>
+        <v>57200</v>
       </c>
       <c r="J12" s="3">
+        <v>38700</v>
+      </c>
+      <c r="K12" s="3">
         <v>26800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>25800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>40200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>34400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>30800</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -928,48 +944,54 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>1600</v>
+        <v>-2800</v>
       </c>
       <c r="E14" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F14" s="3">
         <v>1400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>500</v>
       </c>
-      <c r="G14" s="3">
-        <v>2400</v>
-      </c>
       <c r="H14" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I14" s="3">
         <v>300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>5300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>8200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-31300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-42100</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1006,9 +1028,12 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1041800</v>
+        <v>1411700</v>
       </c>
       <c r="E17" s="3">
-        <v>955700</v>
+        <v>1080000</v>
       </c>
       <c r="F17" s="3">
-        <v>904500</v>
+        <v>990700</v>
       </c>
       <c r="G17" s="3">
-        <v>885600</v>
+        <v>937700</v>
       </c>
       <c r="H17" s="3">
-        <v>797000</v>
+        <v>918100</v>
       </c>
       <c r="I17" s="3">
-        <v>694500</v>
+        <v>826200</v>
       </c>
       <c r="J17" s="3">
+        <v>719900</v>
+      </c>
+      <c r="K17" s="3">
         <v>667100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>720500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>766100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>618000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>579000</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>307800</v>
+        <v>233100</v>
       </c>
       <c r="E18" s="3">
-        <v>278400</v>
+        <v>319100</v>
       </c>
       <c r="F18" s="3">
-        <v>266700</v>
+        <v>288600</v>
       </c>
       <c r="G18" s="3">
-        <v>251700</v>
+        <v>276500</v>
       </c>
       <c r="H18" s="3">
-        <v>258100</v>
+        <v>260900</v>
       </c>
       <c r="I18" s="3">
-        <v>241000</v>
+        <v>267500</v>
       </c>
       <c r="J18" s="3">
+        <v>249800</v>
+      </c>
+      <c r="K18" s="3">
         <v>214300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>294500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>274800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>235000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>276000</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1116,100 +1148,107 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>63600</v>
+        <v>75100</v>
       </c>
       <c r="E20" s="3">
-        <v>4200</v>
+        <v>65900</v>
       </c>
       <c r="F20" s="3">
-        <v>10800</v>
+        <v>4300</v>
       </c>
       <c r="G20" s="3">
-        <v>12000</v>
+        <v>11200</v>
       </c>
       <c r="H20" s="3">
-        <v>5000</v>
+        <v>12400</v>
       </c>
       <c r="I20" s="3">
-        <v>12300</v>
+        <v>5200</v>
       </c>
       <c r="J20" s="3">
+        <v>12800</v>
+      </c>
+      <c r="K20" s="3">
         <v>27000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>23100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>32800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-13100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-22100</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>514100</v>
+        <v>491600</v>
       </c>
       <c r="E21" s="3">
-        <v>437400</v>
+        <v>537100</v>
       </c>
       <c r="F21" s="3">
-        <v>385500</v>
+        <v>458000</v>
       </c>
       <c r="G21" s="3">
-        <v>372400</v>
+        <v>402800</v>
       </c>
       <c r="H21" s="3">
-        <v>358300</v>
+        <v>389200</v>
       </c>
       <c r="I21" s="3">
-        <v>329700</v>
+        <v>374200</v>
       </c>
       <c r="J21" s="3">
+        <v>344000</v>
+      </c>
+      <c r="K21" s="3">
         <v>297700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>384800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>377100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>290200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>319000</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>300</v>
+      </c>
+      <c r="E22" s="3">
         <v>100</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1221,98 +1260,107 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
       </c>
       <c r="M22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>371300</v>
+        <v>307900</v>
       </c>
       <c r="E23" s="3">
-        <v>282600</v>
+        <v>384900</v>
       </c>
       <c r="F23" s="3">
-        <v>277500</v>
+        <v>292900</v>
       </c>
       <c r="G23" s="3">
-        <v>263700</v>
+        <v>287700</v>
       </c>
       <c r="H23" s="3">
-        <v>263000</v>
+        <v>273300</v>
       </c>
       <c r="I23" s="3">
-        <v>253200</v>
+        <v>272700</v>
       </c>
       <c r="J23" s="3">
+        <v>262500</v>
+      </c>
+      <c r="K23" s="3">
         <v>241300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>317400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>307600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>221800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>253900</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>104600</v>
+        <v>95100</v>
       </c>
       <c r="E24" s="3">
-        <v>95600</v>
+        <v>108400</v>
       </c>
       <c r="F24" s="3">
-        <v>80300</v>
+        <v>99100</v>
       </c>
       <c r="G24" s="3">
-        <v>63000</v>
+        <v>83200</v>
       </c>
       <c r="H24" s="3">
-        <v>80800</v>
+        <v>65300</v>
       </c>
       <c r="I24" s="3">
-        <v>78500</v>
+        <v>83800</v>
       </c>
       <c r="J24" s="3">
+        <v>81300</v>
+      </c>
+      <c r="K24" s="3">
         <v>89300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>120900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>119300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>99600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>100000</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>266700</v>
+        <v>212800</v>
       </c>
       <c r="E26" s="3">
-        <v>187000</v>
+        <v>276500</v>
       </c>
       <c r="F26" s="3">
-        <v>197200</v>
+        <v>193900</v>
       </c>
       <c r="G26" s="3">
-        <v>200600</v>
+        <v>204500</v>
       </c>
       <c r="H26" s="3">
-        <v>182200</v>
+        <v>208000</v>
       </c>
       <c r="I26" s="3">
-        <v>174800</v>
+        <v>188800</v>
       </c>
       <c r="J26" s="3">
+        <v>181200</v>
+      </c>
+      <c r="K26" s="3">
         <v>152000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>196500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>188300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>122200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>153900</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>272000</v>
+        <v>219300</v>
       </c>
       <c r="E27" s="3">
-        <v>190700</v>
+        <v>282000</v>
       </c>
       <c r="F27" s="3">
-        <v>198100</v>
+        <v>197700</v>
       </c>
       <c r="G27" s="3">
-        <v>200700</v>
+        <v>205400</v>
       </c>
       <c r="H27" s="3">
-        <v>182100</v>
+        <v>208100</v>
       </c>
       <c r="I27" s="3">
-        <v>174800</v>
+        <v>188800</v>
       </c>
       <c r="J27" s="3">
+        <v>181200</v>
+      </c>
+      <c r="K27" s="3">
         <v>152000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>196500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>188300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>122200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>153800</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1466,9 +1523,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1505,9 +1565,12 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-63600</v>
+        <v>-75100</v>
       </c>
       <c r="E32" s="3">
-        <v>-4200</v>
+        <v>-65900</v>
       </c>
       <c r="F32" s="3">
-        <v>-10800</v>
+        <v>-4300</v>
       </c>
       <c r="G32" s="3">
-        <v>-12000</v>
+        <v>-11200</v>
       </c>
       <c r="H32" s="3">
-        <v>-5000</v>
+        <v>-12400</v>
       </c>
       <c r="I32" s="3">
-        <v>-12300</v>
+        <v>-5200</v>
       </c>
       <c r="J32" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-27000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-23100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-32800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>13100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>22100</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>272000</v>
+        <v>219300</v>
       </c>
       <c r="E33" s="3">
-        <v>190700</v>
+        <v>282000</v>
       </c>
       <c r="F33" s="3">
-        <v>198100</v>
+        <v>197700</v>
       </c>
       <c r="G33" s="3">
-        <v>200700</v>
+        <v>205400</v>
       </c>
       <c r="H33" s="3">
-        <v>182100</v>
+        <v>208100</v>
       </c>
       <c r="I33" s="3">
-        <v>174800</v>
+        <v>188800</v>
       </c>
       <c r="J33" s="3">
+        <v>181200</v>
+      </c>
+      <c r="K33" s="3">
         <v>152000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>196500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>188300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>122200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>153800</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>272000</v>
+        <v>219300</v>
       </c>
       <c r="E35" s="3">
-        <v>190700</v>
+        <v>282000</v>
       </c>
       <c r="F35" s="3">
-        <v>198100</v>
+        <v>197700</v>
       </c>
       <c r="G35" s="3">
-        <v>200700</v>
+        <v>205400</v>
       </c>
       <c r="H35" s="3">
-        <v>182100</v>
+        <v>208100</v>
       </c>
       <c r="I35" s="3">
-        <v>174800</v>
+        <v>188800</v>
       </c>
       <c r="J35" s="3">
+        <v>181200</v>
+      </c>
+      <c r="K35" s="3">
         <v>152000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>196500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>188300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>122200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>153800</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1818,359 +1903,387 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1401900</v>
+        <v>1407800</v>
       </c>
       <c r="E41" s="3">
-        <v>1104200</v>
+        <v>1453300</v>
       </c>
       <c r="F41" s="3">
-        <v>886100</v>
+        <v>1144700</v>
       </c>
       <c r="G41" s="3">
-        <v>826000</v>
+        <v>918600</v>
       </c>
       <c r="H41" s="3">
-        <v>609000</v>
+        <v>856200</v>
       </c>
       <c r="I41" s="3">
-        <v>599200</v>
+        <v>631300</v>
       </c>
       <c r="J41" s="3">
+        <v>621100</v>
+      </c>
+      <c r="K41" s="3">
         <v>523500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>556000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>765300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>497500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>637600</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>418800</v>
+        <v>377100</v>
       </c>
       <c r="E42" s="3">
-        <v>400800</v>
+        <v>434200</v>
       </c>
       <c r="F42" s="3">
-        <v>337600</v>
+        <v>415500</v>
       </c>
       <c r="G42" s="3">
-        <v>434500</v>
+        <v>350000</v>
       </c>
       <c r="H42" s="3">
-        <v>471700</v>
+        <v>450500</v>
       </c>
       <c r="I42" s="3">
-        <v>355600</v>
+        <v>489000</v>
       </c>
       <c r="J42" s="3">
+        <v>368600</v>
+      </c>
+      <c r="K42" s="3">
         <v>509900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>654800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>585800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>582800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>334700</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>377200</v>
+        <v>465200</v>
       </c>
       <c r="E43" s="3">
-        <v>333400</v>
+        <v>391100</v>
       </c>
       <c r="F43" s="3">
-        <v>318600</v>
+        <v>345600</v>
       </c>
       <c r="G43" s="3">
-        <v>276400</v>
+        <v>330300</v>
       </c>
       <c r="H43" s="3">
-        <v>282000</v>
+        <v>286500</v>
       </c>
       <c r="I43" s="3">
-        <v>252100</v>
+        <v>292400</v>
       </c>
       <c r="J43" s="3">
+        <v>261300</v>
+      </c>
+      <c r="K43" s="3">
         <v>212500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>229700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>233800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>189900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>185900</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>26200</v>
+        <v>31300</v>
       </c>
       <c r="E44" s="3">
-        <v>24100</v>
+        <v>27200</v>
       </c>
       <c r="F44" s="3">
-        <v>29100</v>
+        <v>25000</v>
       </c>
       <c r="G44" s="3">
-        <v>52100</v>
+        <v>30200</v>
       </c>
       <c r="H44" s="3">
-        <v>21100</v>
+        <v>54000</v>
       </c>
       <c r="I44" s="3">
-        <v>12100</v>
+        <v>21900</v>
       </c>
       <c r="J44" s="3">
+        <v>12600</v>
+      </c>
+      <c r="K44" s="3">
         <v>5700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3800</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>57000</v>
+        <v>70100</v>
       </c>
       <c r="E45" s="3">
-        <v>42200</v>
+        <v>59100</v>
       </c>
       <c r="F45" s="3">
-        <v>40400</v>
+        <v>43800</v>
       </c>
       <c r="G45" s="3">
-        <v>152200</v>
+        <v>41900</v>
       </c>
       <c r="H45" s="3">
-        <v>153200</v>
+        <v>157800</v>
       </c>
       <c r="I45" s="3">
-        <v>163800</v>
+        <v>158800</v>
       </c>
       <c r="J45" s="3">
+        <v>169800</v>
+      </c>
+      <c r="K45" s="3">
         <v>176900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>174100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>185300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>174100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>179300</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>2281200</v>
+        <v>2351500</v>
       </c>
       <c r="E46" s="3">
-        <v>1904700</v>
+        <v>2364900</v>
       </c>
       <c r="F46" s="3">
-        <v>1611900</v>
+        <v>1974600</v>
       </c>
       <c r="G46" s="3">
-        <v>1600700</v>
+        <v>1671000</v>
       </c>
       <c r="H46" s="3">
-        <v>1537100</v>
+        <v>1659400</v>
       </c>
       <c r="I46" s="3">
-        <v>1382800</v>
+        <v>1593400</v>
       </c>
       <c r="J46" s="3">
+        <v>1433500</v>
+      </c>
+      <c r="K46" s="3">
         <v>1428500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1619300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1774100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1447700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1341300</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>187800</v>
+        <v>547100</v>
       </c>
       <c r="E47" s="3">
-        <v>256800</v>
+        <v>194700</v>
       </c>
       <c r="F47" s="3">
-        <v>354400</v>
+        <v>266200</v>
       </c>
       <c r="G47" s="3">
-        <v>317200</v>
+        <v>367400</v>
       </c>
       <c r="H47" s="3">
-        <v>371500</v>
+        <v>328800</v>
       </c>
       <c r="I47" s="3">
-        <v>359600</v>
+        <v>385100</v>
       </c>
       <c r="J47" s="3">
+        <v>372800</v>
+      </c>
+      <c r="K47" s="3">
         <v>445300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>608300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>491400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>322500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>208300</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>56200</v>
+        <v>52100</v>
       </c>
       <c r="E48" s="3">
-        <v>56500</v>
+        <v>58300</v>
       </c>
       <c r="F48" s="3">
-        <v>69900</v>
+        <v>58600</v>
       </c>
       <c r="G48" s="3">
-        <v>62200</v>
+        <v>72500</v>
       </c>
       <c r="H48" s="3">
-        <v>58300</v>
+        <v>64500</v>
       </c>
       <c r="I48" s="3">
-        <v>46400</v>
+        <v>60400</v>
       </c>
       <c r="J48" s="3">
+        <v>48100</v>
+      </c>
+      <c r="K48" s="3">
         <v>41000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>43600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>44000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>40300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>45700</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>180300</v>
+        <v>178500</v>
       </c>
       <c r="E49" s="3">
-        <v>183700</v>
+        <v>186900</v>
       </c>
       <c r="F49" s="3">
-        <v>256500</v>
+        <v>190400</v>
       </c>
       <c r="G49" s="3">
-        <v>248900</v>
+        <v>265900</v>
       </c>
       <c r="H49" s="3">
-        <v>285700</v>
+        <v>258100</v>
       </c>
       <c r="I49" s="3">
-        <v>301600</v>
+        <v>296200</v>
       </c>
       <c r="J49" s="3">
+        <v>312600</v>
+      </c>
+      <c r="K49" s="3">
         <v>58200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>83100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>88000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>71500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>84400</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>275400</v>
+        <v>331100</v>
       </c>
       <c r="E52" s="3">
-        <v>269100</v>
+        <v>285500</v>
       </c>
       <c r="F52" s="3">
-        <v>257600</v>
+        <v>279000</v>
       </c>
       <c r="G52" s="3">
-        <v>225300</v>
+        <v>267100</v>
       </c>
       <c r="H52" s="3">
-        <v>95400</v>
+        <v>233500</v>
       </c>
       <c r="I52" s="3">
-        <v>97100</v>
+        <v>98900</v>
       </c>
       <c r="J52" s="3">
+        <v>100600</v>
+      </c>
+      <c r="K52" s="3">
         <v>86700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>112000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>115400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>108700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>109900</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>2981000</v>
+        <v>3460400</v>
       </c>
       <c r="E54" s="3">
-        <v>2670800</v>
+        <v>3090400</v>
       </c>
       <c r="F54" s="3">
-        <v>2550300</v>
+        <v>2768800</v>
       </c>
       <c r="G54" s="3">
-        <v>2454300</v>
+        <v>2643900</v>
       </c>
       <c r="H54" s="3">
-        <v>2347900</v>
+        <v>2544300</v>
       </c>
       <c r="I54" s="3">
-        <v>2187500</v>
+        <v>2434000</v>
       </c>
       <c r="J54" s="3">
+        <v>2267700</v>
+      </c>
+      <c r="K54" s="3">
         <v>2059800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2466300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2512900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1990800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1789600</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2398,47 +2527,51 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>8300</v>
+        <v>15900</v>
       </c>
       <c r="E57" s="3">
-        <v>6500</v>
+        <v>8600</v>
       </c>
       <c r="F57" s="3">
-        <v>8500</v>
+        <v>6700</v>
       </c>
       <c r="G57" s="3">
-        <v>11500</v>
+        <v>8800</v>
       </c>
       <c r="H57" s="3">
-        <v>5200</v>
+        <v>11900</v>
       </c>
       <c r="I57" s="3">
-        <v>6300</v>
+        <v>5400</v>
       </c>
       <c r="J57" s="3">
+        <v>6600</v>
+      </c>
+      <c r="K57" s="3">
         <v>4000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>7900</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
@@ -2475,87 +2608,96 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>939100</v>
+        <v>1691500</v>
       </c>
       <c r="E59" s="3">
-        <v>925600</v>
+        <v>973600</v>
       </c>
       <c r="F59" s="3">
-        <v>839200</v>
+        <v>959500</v>
       </c>
       <c r="G59" s="3">
-        <v>778800</v>
+        <v>869900</v>
       </c>
       <c r="H59" s="3">
-        <v>766000</v>
+        <v>807300</v>
       </c>
       <c r="I59" s="3">
-        <v>714700</v>
+        <v>794000</v>
       </c>
       <c r="J59" s="3">
+        <v>740900</v>
+      </c>
+      <c r="K59" s="3">
         <v>666300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>811500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>832000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>702800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>625500</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>947400</v>
+        <v>1707400</v>
       </c>
       <c r="E60" s="3">
-        <v>932100</v>
+        <v>982100</v>
       </c>
       <c r="F60" s="3">
-        <v>847700</v>
+        <v>966300</v>
       </c>
       <c r="G60" s="3">
-        <v>790300</v>
+        <v>878800</v>
       </c>
       <c r="H60" s="3">
-        <v>771100</v>
+        <v>819300</v>
       </c>
       <c r="I60" s="3">
-        <v>721000</v>
+        <v>799400</v>
       </c>
       <c r="J60" s="3">
+        <v>747500</v>
+      </c>
+      <c r="K60" s="3">
         <v>670300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>817400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>836700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>709400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>633300</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
@@ -2592,48 +2734,54 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>463700</v>
+        <v>72200</v>
       </c>
       <c r="E62" s="3">
-        <v>396100</v>
+        <v>480700</v>
       </c>
       <c r="F62" s="3">
-        <v>373800</v>
+        <v>410700</v>
       </c>
       <c r="G62" s="3">
-        <v>337600</v>
+        <v>387500</v>
       </c>
       <c r="H62" s="3">
-        <v>321300</v>
+        <v>350000</v>
       </c>
       <c r="I62" s="3">
-        <v>286200</v>
+        <v>333100</v>
       </c>
       <c r="J62" s="3">
+        <v>296700</v>
+      </c>
+      <c r="K62" s="3">
         <v>257300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>300100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>306400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>249700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>204000</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>1416700</v>
+        <v>1779700</v>
       </c>
       <c r="E66" s="3">
-        <v>1334100</v>
+        <v>1468600</v>
       </c>
       <c r="F66" s="3">
-        <v>1222600</v>
+        <v>1383000</v>
       </c>
       <c r="G66" s="3">
-        <v>1128400</v>
+        <v>1267400</v>
       </c>
       <c r="H66" s="3">
-        <v>1092500</v>
+        <v>1169800</v>
       </c>
       <c r="I66" s="3">
-        <v>1007300</v>
+        <v>1132500</v>
       </c>
       <c r="J66" s="3">
+        <v>1044200</v>
+      </c>
+      <c r="K66" s="3">
         <v>927600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1117600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1143200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>959200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>837800</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>1255400</v>
+        <v>1238600</v>
       </c>
       <c r="E72" s="3">
-        <v>1131900</v>
+        <v>1301400</v>
       </c>
       <c r="F72" s="3">
-        <v>1098200</v>
+        <v>1173400</v>
       </c>
       <c r="G72" s="3">
-        <v>1060800</v>
+        <v>1138400</v>
       </c>
       <c r="H72" s="3">
-        <v>1010000</v>
+        <v>1099700</v>
       </c>
       <c r="I72" s="3">
-        <v>964600</v>
+        <v>1047100</v>
       </c>
       <c r="J72" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="K72" s="3">
         <v>897200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1070500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1113200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>969600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>889800</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>1564400</v>
+        <v>1680700</v>
       </c>
       <c r="E76" s="3">
-        <v>1336700</v>
+        <v>1621700</v>
       </c>
       <c r="F76" s="3">
-        <v>1327800</v>
+        <v>1385700</v>
       </c>
       <c r="G76" s="3">
-        <v>1325900</v>
+        <v>1376500</v>
       </c>
       <c r="H76" s="3">
-        <v>1255400</v>
+        <v>1374500</v>
       </c>
       <c r="I76" s="3">
-        <v>1180300</v>
+        <v>1301500</v>
       </c>
       <c r="J76" s="3">
+        <v>1223500</v>
+      </c>
+      <c r="K76" s="3">
         <v>1132200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1348700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1369700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1031600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>951800</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>272000</v>
+        <v>219300</v>
       </c>
       <c r="E81" s="3">
-        <v>190700</v>
+        <v>282000</v>
       </c>
       <c r="F81" s="3">
-        <v>198100</v>
+        <v>197700</v>
       </c>
       <c r="G81" s="3">
-        <v>200700</v>
+        <v>205400</v>
       </c>
       <c r="H81" s="3">
-        <v>182100</v>
+        <v>208100</v>
       </c>
       <c r="I81" s="3">
-        <v>174800</v>
+        <v>188800</v>
       </c>
       <c r="J81" s="3">
+        <v>181200</v>
+      </c>
+      <c r="K81" s="3">
         <v>152000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>196500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>188300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>122200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>153800</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>148100</v>
+        <v>185100</v>
       </c>
       <c r="E83" s="3">
-        <v>160800</v>
+        <v>153600</v>
       </c>
       <c r="F83" s="3">
-        <v>112100</v>
+        <v>166700</v>
       </c>
       <c r="G83" s="3">
-        <v>112800</v>
+        <v>116300</v>
       </c>
       <c r="H83" s="3">
-        <v>98900</v>
+        <v>117000</v>
       </c>
       <c r="I83" s="3">
-        <v>79300</v>
+        <v>102500</v>
       </c>
       <c r="J83" s="3">
+        <v>82200</v>
+      </c>
+      <c r="K83" s="3">
         <v>58500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>67100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>69600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>68100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>65100</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>391800</v>
+        <v>413100</v>
       </c>
       <c r="E89" s="3">
-        <v>385100</v>
+        <v>406200</v>
       </c>
       <c r="F89" s="3">
-        <v>319800</v>
+        <v>399200</v>
       </c>
       <c r="G89" s="3">
-        <v>354200</v>
+        <v>331500</v>
       </c>
       <c r="H89" s="3">
-        <v>332600</v>
+        <v>367200</v>
       </c>
       <c r="I89" s="3">
-        <v>237600</v>
+        <v>344800</v>
       </c>
       <c r="J89" s="3">
+        <v>246300</v>
+      </c>
+      <c r="K89" s="3">
         <v>216200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>281400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>295400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>286600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>231700</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-15300</v>
+        <v>-10300</v>
       </c>
       <c r="E91" s="3">
-        <v>-11100</v>
+        <v>-15800</v>
       </c>
       <c r="F91" s="3">
-        <v>-28600</v>
+        <v>-11500</v>
       </c>
       <c r="G91" s="3">
-        <v>-25200</v>
+        <v>-29600</v>
       </c>
       <c r="H91" s="3">
-        <v>-32600</v>
+        <v>-26200</v>
       </c>
       <c r="I91" s="3">
-        <v>-21200</v>
+        <v>-33800</v>
       </c>
       <c r="J91" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-25000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-18000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-17600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-10800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-61900</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>18300</v>
+        <v>-497700</v>
       </c>
       <c r="E94" s="3">
-        <v>-41000</v>
+        <v>18900</v>
       </c>
       <c r="F94" s="3">
-        <v>-10400</v>
+        <v>-42500</v>
       </c>
       <c r="G94" s="3">
-        <v>5800</v>
+        <v>-10800</v>
       </c>
       <c r="H94" s="3">
-        <v>-239800</v>
+        <v>6000</v>
       </c>
       <c r="I94" s="3">
-        <v>91600</v>
+        <v>-248600</v>
       </c>
       <c r="J94" s="3">
+        <v>95000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-34900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-290000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-155200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-414900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-23200</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -3758,47 +3990,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-147200</v>
+        <v>-195100</v>
       </c>
       <c r="E96" s="3">
-        <v>-153700</v>
+        <v>-152600</v>
       </c>
       <c r="F96" s="3">
-        <v>-155900</v>
+        <v>-159300</v>
       </c>
       <c r="G96" s="3">
-        <v>-140300</v>
+        <v>-161600</v>
       </c>
       <c r="H96" s="3">
-        <v>-132400</v>
+        <v>-145400</v>
       </c>
       <c r="I96" s="3">
-        <v>-102800</v>
+        <v>-137300</v>
       </c>
       <c r="J96" s="3">
+        <v>-106500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-105200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-138900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-80800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-98200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-79200</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3913,124 +4155,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-116600</v>
+        <v>-223700</v>
       </c>
       <c r="E100" s="3">
-        <v>-149900</v>
+        <v>-120900</v>
       </c>
       <c r="F100" s="3">
-        <v>-184000</v>
+        <v>-155400</v>
       </c>
       <c r="G100" s="3">
-        <v>-93800</v>
+        <v>-190800</v>
       </c>
       <c r="H100" s="3">
-        <v>-119900</v>
+        <v>-97200</v>
       </c>
       <c r="I100" s="3">
-        <v>-106700</v>
+        <v>-124300</v>
       </c>
       <c r="J100" s="3">
+        <v>-110600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-66100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-148800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-101200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-120300</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>71800</v>
+        <v>175700</v>
       </c>
       <c r="E101" s="3">
-        <v>-9600</v>
+        <v>74400</v>
       </c>
       <c r="F101" s="3">
-        <v>-8400</v>
+        <v>-10000</v>
       </c>
       <c r="G101" s="3">
-        <v>-31000</v>
+        <v>-8700</v>
       </c>
       <c r="H101" s="3">
+        <v>-32100</v>
+      </c>
+      <c r="I101" s="3">
         <v>-900</v>
       </c>
-      <c r="I101" s="3">
-        <v>2200</v>
-      </c>
       <c r="J101" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K101" s="3">
         <v>-30000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>22700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>87700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>41100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-25800</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>365300</v>
+        <v>-132600</v>
       </c>
       <c r="E102" s="3">
-        <v>184600</v>
+        <v>378700</v>
       </c>
       <c r="F102" s="3">
-        <v>117000</v>
+        <v>191400</v>
       </c>
       <c r="G102" s="3">
-        <v>235300</v>
+        <v>121300</v>
       </c>
       <c r="H102" s="3">
-        <v>-27900</v>
+        <v>243900</v>
       </c>
       <c r="I102" s="3">
-        <v>224700</v>
+        <v>-28900</v>
       </c>
       <c r="J102" s="3">
+        <v>233000</v>
+      </c>
+      <c r="K102" s="3">
         <v>85200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-134700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>225900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-188400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>62400</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/TMICY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TMICY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
   <si>
     <t>TMICY</t>
   </si>
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1644900</v>
+        <v>1613600</v>
       </c>
       <c r="E8" s="3">
-        <v>1399100</v>
+        <v>1372500</v>
       </c>
       <c r="F8" s="3">
-        <v>1279300</v>
+        <v>1255000</v>
       </c>
       <c r="G8" s="3">
-        <v>1214200</v>
+        <v>1191100</v>
       </c>
       <c r="H8" s="3">
-        <v>1179000</v>
+        <v>1156600</v>
       </c>
       <c r="I8" s="3">
-        <v>1093800</v>
+        <v>1072900</v>
       </c>
       <c r="J8" s="3">
-        <v>969700</v>
+        <v>951300</v>
       </c>
       <c r="K8" s="3">
         <v>881400</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>399100</v>
+        <v>391500</v>
       </c>
       <c r="E9" s="3">
-        <v>308800</v>
+        <v>302900</v>
       </c>
       <c r="F9" s="3">
-        <v>280500</v>
+        <v>275200</v>
       </c>
       <c r="G9" s="3">
-        <v>237400</v>
+        <v>232900</v>
       </c>
       <c r="H9" s="3">
-        <v>240600</v>
+        <v>236000</v>
       </c>
       <c r="I9" s="3">
-        <v>206800</v>
+        <v>202900</v>
       </c>
       <c r="J9" s="3">
-        <v>169300</v>
+        <v>166100</v>
       </c>
       <c r="K9" s="3">
         <v>150800</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1245800</v>
+        <v>1222100</v>
       </c>
       <c r="E10" s="3">
-        <v>1090300</v>
+        <v>1069500</v>
       </c>
       <c r="F10" s="3">
-        <v>998800</v>
+        <v>979800</v>
       </c>
       <c r="G10" s="3">
-        <v>976800</v>
+        <v>958200</v>
       </c>
       <c r="H10" s="3">
-        <v>938500</v>
+        <v>920600</v>
       </c>
       <c r="I10" s="3">
-        <v>886900</v>
+        <v>870100</v>
       </c>
       <c r="J10" s="3">
-        <v>800400</v>
+        <v>785100</v>
       </c>
       <c r="K10" s="3">
         <v>730600</v>
@@ -869,26 +869,26 @@
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>91</v>
+      <c r="D12" s="3">
+        <v>38900</v>
       </c>
       <c r="E12" s="3">
-        <v>34400</v>
+        <v>33700</v>
       </c>
       <c r="F12" s="3">
-        <v>53900</v>
+        <v>52900</v>
       </c>
       <c r="G12" s="3">
-        <v>60500</v>
+        <v>59400</v>
       </c>
       <c r="H12" s="3">
-        <v>54700</v>
+        <v>53700</v>
       </c>
       <c r="I12" s="3">
-        <v>57200</v>
+        <v>56200</v>
       </c>
       <c r="J12" s="3">
-        <v>38700</v>
+        <v>38000</v>
       </c>
       <c r="K12" s="3">
         <v>26800</v>
@@ -954,10 +954,10 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-2800</v>
+        <v>-2700</v>
       </c>
       <c r="E14" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="F14" s="3">
         <v>1400</v>
@@ -966,7 +966,7 @@
         <v>500</v>
       </c>
       <c r="H14" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="I14" s="3">
         <v>300</v>
@@ -1053,25 +1053,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1411700</v>
+        <v>1384900</v>
       </c>
       <c r="E17" s="3">
-        <v>1080000</v>
+        <v>1059500</v>
       </c>
       <c r="F17" s="3">
-        <v>990700</v>
+        <v>971900</v>
       </c>
       <c r="G17" s="3">
-        <v>937700</v>
+        <v>919800</v>
       </c>
       <c r="H17" s="3">
-        <v>918100</v>
+        <v>900600</v>
       </c>
       <c r="I17" s="3">
-        <v>826200</v>
+        <v>810500</v>
       </c>
       <c r="J17" s="3">
-        <v>719900</v>
+        <v>706200</v>
       </c>
       <c r="K17" s="3">
         <v>667100</v>
@@ -1095,25 +1095,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>233100</v>
+        <v>228700</v>
       </c>
       <c r="E18" s="3">
-        <v>319100</v>
+        <v>313000</v>
       </c>
       <c r="F18" s="3">
-        <v>288600</v>
+        <v>283100</v>
       </c>
       <c r="G18" s="3">
-        <v>276500</v>
+        <v>271200</v>
       </c>
       <c r="H18" s="3">
-        <v>260900</v>
+        <v>255900</v>
       </c>
       <c r="I18" s="3">
-        <v>267500</v>
+        <v>262400</v>
       </c>
       <c r="J18" s="3">
-        <v>249800</v>
+        <v>245000</v>
       </c>
       <c r="K18" s="3">
         <v>214300</v>
@@ -1155,25 +1155,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>75100</v>
+        <v>73700</v>
       </c>
       <c r="E20" s="3">
-        <v>65900</v>
+        <v>64700</v>
       </c>
       <c r="F20" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="G20" s="3">
-        <v>11200</v>
+        <v>11000</v>
       </c>
       <c r="H20" s="3">
-        <v>12400</v>
+        <v>12200</v>
       </c>
       <c r="I20" s="3">
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="J20" s="3">
-        <v>12800</v>
+        <v>12500</v>
       </c>
       <c r="K20" s="3">
         <v>27000</v>
@@ -1197,25 +1197,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>491600</v>
+        <v>485200</v>
       </c>
       <c r="E21" s="3">
-        <v>537100</v>
+        <v>529400</v>
       </c>
       <c r="F21" s="3">
-        <v>458000</v>
+        <v>452000</v>
       </c>
       <c r="G21" s="3">
-        <v>402800</v>
+        <v>397000</v>
       </c>
       <c r="H21" s="3">
-        <v>389200</v>
+        <v>383700</v>
       </c>
       <c r="I21" s="3">
-        <v>374200</v>
+        <v>368800</v>
       </c>
       <c r="J21" s="3">
-        <v>344000</v>
+        <v>338800</v>
       </c>
       <c r="K21" s="3">
         <v>297700</v>
@@ -1281,25 +1281,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>307900</v>
+        <v>302100</v>
       </c>
       <c r="E23" s="3">
-        <v>384900</v>
+        <v>377600</v>
       </c>
       <c r="F23" s="3">
-        <v>292900</v>
+        <v>287300</v>
       </c>
       <c r="G23" s="3">
-        <v>287700</v>
+        <v>282200</v>
       </c>
       <c r="H23" s="3">
-        <v>273300</v>
+        <v>268100</v>
       </c>
       <c r="I23" s="3">
-        <v>272700</v>
+        <v>267500</v>
       </c>
       <c r="J23" s="3">
-        <v>262500</v>
+        <v>257500</v>
       </c>
       <c r="K23" s="3">
         <v>241300</v>
@@ -1323,25 +1323,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>95100</v>
+        <v>93300</v>
       </c>
       <c r="E24" s="3">
-        <v>108400</v>
+        <v>106400</v>
       </c>
       <c r="F24" s="3">
-        <v>99100</v>
+        <v>97200</v>
       </c>
       <c r="G24" s="3">
-        <v>83200</v>
+        <v>81600</v>
       </c>
       <c r="H24" s="3">
-        <v>65300</v>
+        <v>64100</v>
       </c>
       <c r="I24" s="3">
-        <v>83800</v>
+        <v>82200</v>
       </c>
       <c r="J24" s="3">
-        <v>81300</v>
+        <v>79800</v>
       </c>
       <c r="K24" s="3">
         <v>89300</v>
@@ -1407,25 +1407,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>212800</v>
+        <v>208800</v>
       </c>
       <c r="E26" s="3">
-        <v>276500</v>
+        <v>271200</v>
       </c>
       <c r="F26" s="3">
-        <v>193900</v>
+        <v>190200</v>
       </c>
       <c r="G26" s="3">
-        <v>204500</v>
+        <v>200600</v>
       </c>
       <c r="H26" s="3">
-        <v>208000</v>
+        <v>204000</v>
       </c>
       <c r="I26" s="3">
-        <v>188800</v>
+        <v>185200</v>
       </c>
       <c r="J26" s="3">
-        <v>181200</v>
+        <v>177700</v>
       </c>
       <c r="K26" s="3">
         <v>152000</v>
@@ -1449,25 +1449,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>219300</v>
+        <v>215200</v>
       </c>
       <c r="E27" s="3">
-        <v>282000</v>
+        <v>276600</v>
       </c>
       <c r="F27" s="3">
-        <v>197700</v>
+        <v>194000</v>
       </c>
       <c r="G27" s="3">
-        <v>205400</v>
+        <v>201500</v>
       </c>
       <c r="H27" s="3">
-        <v>208100</v>
+        <v>204100</v>
       </c>
       <c r="I27" s="3">
-        <v>188800</v>
+        <v>185200</v>
       </c>
       <c r="J27" s="3">
-        <v>181200</v>
+        <v>177700</v>
       </c>
       <c r="K27" s="3">
         <v>152000</v>
@@ -1659,25 +1659,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-75100</v>
+        <v>-73700</v>
       </c>
       <c r="E32" s="3">
-        <v>-65900</v>
+        <v>-64700</v>
       </c>
       <c r="F32" s="3">
-        <v>-4300</v>
+        <v>-4200</v>
       </c>
       <c r="G32" s="3">
-        <v>-11200</v>
+        <v>-11000</v>
       </c>
       <c r="H32" s="3">
-        <v>-12400</v>
+        <v>-12200</v>
       </c>
       <c r="I32" s="3">
-        <v>-5200</v>
+        <v>-5100</v>
       </c>
       <c r="J32" s="3">
-        <v>-12800</v>
+        <v>-12500</v>
       </c>
       <c r="K32" s="3">
         <v>-27000</v>
@@ -1701,25 +1701,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>219300</v>
+        <v>215200</v>
       </c>
       <c r="E33" s="3">
-        <v>282000</v>
+        <v>276600</v>
       </c>
       <c r="F33" s="3">
-        <v>197700</v>
+        <v>194000</v>
       </c>
       <c r="G33" s="3">
-        <v>205400</v>
+        <v>201500</v>
       </c>
       <c r="H33" s="3">
-        <v>208100</v>
+        <v>204100</v>
       </c>
       <c r="I33" s="3">
-        <v>188800</v>
+        <v>185200</v>
       </c>
       <c r="J33" s="3">
-        <v>181200</v>
+        <v>177700</v>
       </c>
       <c r="K33" s="3">
         <v>152000</v>
@@ -1785,25 +1785,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>219300</v>
+        <v>215200</v>
       </c>
       <c r="E35" s="3">
-        <v>282000</v>
+        <v>276600</v>
       </c>
       <c r="F35" s="3">
-        <v>197700</v>
+        <v>194000</v>
       </c>
       <c r="G35" s="3">
-        <v>205400</v>
+        <v>201500</v>
       </c>
       <c r="H35" s="3">
-        <v>208100</v>
+        <v>204100</v>
       </c>
       <c r="I35" s="3">
-        <v>188800</v>
+        <v>185200</v>
       </c>
       <c r="J35" s="3">
-        <v>181200</v>
+        <v>177700</v>
       </c>
       <c r="K35" s="3">
         <v>152000</v>
@@ -1910,25 +1910,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1407800</v>
+        <v>1381000</v>
       </c>
       <c r="E41" s="3">
-        <v>1453300</v>
+        <v>1425600</v>
       </c>
       <c r="F41" s="3">
-        <v>1144700</v>
+        <v>1122900</v>
       </c>
       <c r="G41" s="3">
-        <v>918600</v>
+        <v>901100</v>
       </c>
       <c r="H41" s="3">
-        <v>856200</v>
+        <v>839900</v>
       </c>
       <c r="I41" s="3">
-        <v>631300</v>
+        <v>619300</v>
       </c>
       <c r="J41" s="3">
-        <v>621100</v>
+        <v>609300</v>
       </c>
       <c r="K41" s="3">
         <v>523500</v>
@@ -1952,25 +1952,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>377100</v>
+        <v>369900</v>
       </c>
       <c r="E42" s="3">
-        <v>434200</v>
+        <v>425900</v>
       </c>
       <c r="F42" s="3">
-        <v>415500</v>
+        <v>407600</v>
       </c>
       <c r="G42" s="3">
-        <v>350000</v>
+        <v>343300</v>
       </c>
       <c r="H42" s="3">
-        <v>450500</v>
+        <v>441900</v>
       </c>
       <c r="I42" s="3">
-        <v>489000</v>
+        <v>479700</v>
       </c>
       <c r="J42" s="3">
-        <v>368600</v>
+        <v>361600</v>
       </c>
       <c r="K42" s="3">
         <v>509900</v>
@@ -1994,25 +1994,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>465200</v>
+        <v>456400</v>
       </c>
       <c r="E43" s="3">
-        <v>391100</v>
+        <v>383600</v>
       </c>
       <c r="F43" s="3">
-        <v>345600</v>
+        <v>339000</v>
       </c>
       <c r="G43" s="3">
-        <v>330300</v>
+        <v>324000</v>
       </c>
       <c r="H43" s="3">
-        <v>286500</v>
+        <v>281100</v>
       </c>
       <c r="I43" s="3">
-        <v>292400</v>
+        <v>286800</v>
       </c>
       <c r="J43" s="3">
-        <v>261300</v>
+        <v>256300</v>
       </c>
       <c r="K43" s="3">
         <v>212500</v>
@@ -2036,25 +2036,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>31300</v>
+        <v>30700</v>
       </c>
       <c r="E44" s="3">
-        <v>27200</v>
+        <v>26700</v>
       </c>
       <c r="F44" s="3">
-        <v>25000</v>
+        <v>24500</v>
       </c>
       <c r="G44" s="3">
-        <v>30200</v>
+        <v>29600</v>
       </c>
       <c r="H44" s="3">
-        <v>54000</v>
+        <v>53000</v>
       </c>
       <c r="I44" s="3">
-        <v>21900</v>
+        <v>21500</v>
       </c>
       <c r="J44" s="3">
-        <v>12600</v>
+        <v>12300</v>
       </c>
       <c r="K44" s="3">
         <v>5700</v>
@@ -2078,25 +2078,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>70100</v>
+        <v>68700</v>
       </c>
       <c r="E45" s="3">
-        <v>59100</v>
+        <v>58000</v>
       </c>
       <c r="F45" s="3">
-        <v>43800</v>
+        <v>42900</v>
       </c>
       <c r="G45" s="3">
-        <v>41900</v>
+        <v>41100</v>
       </c>
       <c r="H45" s="3">
-        <v>157800</v>
+        <v>154800</v>
       </c>
       <c r="I45" s="3">
-        <v>158800</v>
+        <v>155700</v>
       </c>
       <c r="J45" s="3">
-        <v>169800</v>
+        <v>166600</v>
       </c>
       <c r="K45" s="3">
         <v>176900</v>
@@ -2120,25 +2120,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>2351500</v>
+        <v>2306700</v>
       </c>
       <c r="E46" s="3">
-        <v>2364900</v>
+        <v>2319800</v>
       </c>
       <c r="F46" s="3">
-        <v>1974600</v>
+        <v>1937000</v>
       </c>
       <c r="G46" s="3">
-        <v>1671000</v>
+        <v>1639200</v>
       </c>
       <c r="H46" s="3">
-        <v>1659400</v>
+        <v>1627800</v>
       </c>
       <c r="I46" s="3">
-        <v>1593400</v>
+        <v>1563100</v>
       </c>
       <c r="J46" s="3">
-        <v>1433500</v>
+        <v>1406200</v>
       </c>
       <c r="K46" s="3">
         <v>1428500</v>
@@ -2162,25 +2162,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>547100</v>
+        <v>536700</v>
       </c>
       <c r="E47" s="3">
-        <v>194700</v>
+        <v>191000</v>
       </c>
       <c r="F47" s="3">
-        <v>266200</v>
+        <v>261100</v>
       </c>
       <c r="G47" s="3">
-        <v>367400</v>
+        <v>360400</v>
       </c>
       <c r="H47" s="3">
-        <v>328800</v>
+        <v>322500</v>
       </c>
       <c r="I47" s="3">
-        <v>385100</v>
+        <v>377800</v>
       </c>
       <c r="J47" s="3">
-        <v>372800</v>
+        <v>365700</v>
       </c>
       <c r="K47" s="3">
         <v>445300</v>
@@ -2204,25 +2204,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>52100</v>
+        <v>51100</v>
       </c>
       <c r="E48" s="3">
-        <v>58300</v>
+        <v>57200</v>
       </c>
       <c r="F48" s="3">
-        <v>58600</v>
+        <v>57500</v>
       </c>
       <c r="G48" s="3">
-        <v>72500</v>
+        <v>71100</v>
       </c>
       <c r="H48" s="3">
-        <v>64500</v>
+        <v>63200</v>
       </c>
       <c r="I48" s="3">
-        <v>60400</v>
+        <v>59300</v>
       </c>
       <c r="J48" s="3">
-        <v>48100</v>
+        <v>47200</v>
       </c>
       <c r="K48" s="3">
         <v>41000</v>
@@ -2246,25 +2246,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>178500</v>
+        <v>175100</v>
       </c>
       <c r="E49" s="3">
-        <v>186900</v>
+        <v>183400</v>
       </c>
       <c r="F49" s="3">
-        <v>190400</v>
+        <v>186800</v>
       </c>
       <c r="G49" s="3">
-        <v>265900</v>
+        <v>260800</v>
       </c>
       <c r="H49" s="3">
-        <v>258100</v>
+        <v>253200</v>
       </c>
       <c r="I49" s="3">
-        <v>296200</v>
+        <v>290500</v>
       </c>
       <c r="J49" s="3">
-        <v>312600</v>
+        <v>306700</v>
       </c>
       <c r="K49" s="3">
         <v>58200</v>
@@ -2372,25 +2372,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>331100</v>
+        <v>324800</v>
       </c>
       <c r="E52" s="3">
-        <v>285500</v>
+        <v>280100</v>
       </c>
       <c r="F52" s="3">
-        <v>279000</v>
+        <v>273700</v>
       </c>
       <c r="G52" s="3">
-        <v>267100</v>
+        <v>262000</v>
       </c>
       <c r="H52" s="3">
-        <v>233500</v>
+        <v>229100</v>
       </c>
       <c r="I52" s="3">
-        <v>98900</v>
+        <v>97000</v>
       </c>
       <c r="J52" s="3">
-        <v>100600</v>
+        <v>98700</v>
       </c>
       <c r="K52" s="3">
         <v>86700</v>
@@ -2456,25 +2456,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>3460400</v>
+        <v>3394500</v>
       </c>
       <c r="E54" s="3">
-        <v>3090400</v>
+        <v>3031500</v>
       </c>
       <c r="F54" s="3">
-        <v>2768800</v>
+        <v>2716000</v>
       </c>
       <c r="G54" s="3">
-        <v>2643900</v>
+        <v>2593500</v>
       </c>
       <c r="H54" s="3">
-        <v>2544300</v>
+        <v>2495800</v>
       </c>
       <c r="I54" s="3">
-        <v>2434000</v>
+        <v>2387600</v>
       </c>
       <c r="J54" s="3">
-        <v>2267700</v>
+        <v>2224600</v>
       </c>
       <c r="K54" s="3">
         <v>2059800</v>
@@ -2534,25 +2534,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>15900</v>
+        <v>15600</v>
       </c>
       <c r="E57" s="3">
-        <v>8600</v>
+        <v>8400</v>
       </c>
       <c r="F57" s="3">
-        <v>6700</v>
+        <v>6600</v>
       </c>
       <c r="G57" s="3">
-        <v>8800</v>
+        <v>8700</v>
       </c>
       <c r="H57" s="3">
-        <v>11900</v>
+        <v>11700</v>
       </c>
       <c r="I57" s="3">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="J57" s="3">
-        <v>6600</v>
+        <v>6400</v>
       </c>
       <c r="K57" s="3">
         <v>4000</v>
@@ -2618,25 +2618,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>1691500</v>
+        <v>1659300</v>
       </c>
       <c r="E59" s="3">
-        <v>973600</v>
+        <v>955000</v>
       </c>
       <c r="F59" s="3">
-        <v>959500</v>
+        <v>941300</v>
       </c>
       <c r="G59" s="3">
-        <v>869900</v>
+        <v>853400</v>
       </c>
       <c r="H59" s="3">
-        <v>807300</v>
+        <v>792000</v>
       </c>
       <c r="I59" s="3">
-        <v>794000</v>
+        <v>778900</v>
       </c>
       <c r="J59" s="3">
-        <v>740900</v>
+        <v>726800</v>
       </c>
       <c r="K59" s="3">
         <v>666300</v>
@@ -2660,25 +2660,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>1707400</v>
+        <v>1674900</v>
       </c>
       <c r="E60" s="3">
-        <v>982100</v>
+        <v>963400</v>
       </c>
       <c r="F60" s="3">
-        <v>966300</v>
+        <v>947900</v>
       </c>
       <c r="G60" s="3">
-        <v>878800</v>
+        <v>862000</v>
       </c>
       <c r="H60" s="3">
-        <v>819300</v>
+        <v>803700</v>
       </c>
       <c r="I60" s="3">
-        <v>799400</v>
+        <v>784200</v>
       </c>
       <c r="J60" s="3">
-        <v>747500</v>
+        <v>733200</v>
       </c>
       <c r="K60" s="3">
         <v>670300</v>
@@ -2744,25 +2744,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>72200</v>
+        <v>70800</v>
       </c>
       <c r="E62" s="3">
-        <v>480700</v>
+        <v>471500</v>
       </c>
       <c r="F62" s="3">
-        <v>410700</v>
+        <v>402800</v>
       </c>
       <c r="G62" s="3">
-        <v>387500</v>
+        <v>380100</v>
       </c>
       <c r="H62" s="3">
-        <v>350000</v>
+        <v>343300</v>
       </c>
       <c r="I62" s="3">
-        <v>333100</v>
+        <v>326700</v>
       </c>
       <c r="J62" s="3">
-        <v>296700</v>
+        <v>291100</v>
       </c>
       <c r="K62" s="3">
         <v>257300</v>
@@ -2912,25 +2912,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>1779700</v>
+        <v>1745800</v>
       </c>
       <c r="E66" s="3">
-        <v>1468600</v>
+        <v>1440600</v>
       </c>
       <c r="F66" s="3">
-        <v>1383000</v>
+        <v>1356700</v>
       </c>
       <c r="G66" s="3">
-        <v>1267400</v>
+        <v>1243300</v>
       </c>
       <c r="H66" s="3">
-        <v>1169800</v>
+        <v>1147500</v>
       </c>
       <c r="I66" s="3">
-        <v>1132500</v>
+        <v>1111000</v>
       </c>
       <c r="J66" s="3">
-        <v>1044200</v>
+        <v>1024300</v>
       </c>
       <c r="K66" s="3">
         <v>927600</v>
@@ -3140,25 +3140,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>1238600</v>
+        <v>1215000</v>
       </c>
       <c r="E72" s="3">
-        <v>1301400</v>
+        <v>1276600</v>
       </c>
       <c r="F72" s="3">
-        <v>1173400</v>
+        <v>1151100</v>
       </c>
       <c r="G72" s="3">
-        <v>1138400</v>
+        <v>1116800</v>
       </c>
       <c r="H72" s="3">
-        <v>1099700</v>
+        <v>1078800</v>
       </c>
       <c r="I72" s="3">
-        <v>1047100</v>
+        <v>1027100</v>
       </c>
       <c r="J72" s="3">
-        <v>1000000</v>
+        <v>980900</v>
       </c>
       <c r="K72" s="3">
         <v>897200</v>
@@ -3308,25 +3308,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>1680700</v>
+        <v>1648600</v>
       </c>
       <c r="E76" s="3">
-        <v>1621700</v>
+        <v>1590900</v>
       </c>
       <c r="F76" s="3">
-        <v>1385700</v>
+        <v>1359300</v>
       </c>
       <c r="G76" s="3">
-        <v>1376500</v>
+        <v>1350200</v>
       </c>
       <c r="H76" s="3">
-        <v>1374500</v>
+        <v>1348300</v>
       </c>
       <c r="I76" s="3">
-        <v>1301500</v>
+        <v>1276700</v>
       </c>
       <c r="J76" s="3">
-        <v>1223500</v>
+        <v>1200200</v>
       </c>
       <c r="K76" s="3">
         <v>1132200</v>
@@ -3439,25 +3439,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>219300</v>
+        <v>215200</v>
       </c>
       <c r="E81" s="3">
-        <v>282000</v>
+        <v>276600</v>
       </c>
       <c r="F81" s="3">
-        <v>197700</v>
+        <v>194000</v>
       </c>
       <c r="G81" s="3">
-        <v>205400</v>
+        <v>201500</v>
       </c>
       <c r="H81" s="3">
-        <v>208100</v>
+        <v>204100</v>
       </c>
       <c r="I81" s="3">
-        <v>188800</v>
+        <v>185200</v>
       </c>
       <c r="J81" s="3">
-        <v>181200</v>
+        <v>177700</v>
       </c>
       <c r="K81" s="3">
         <v>152000</v>
@@ -3499,25 +3499,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>185100</v>
+        <v>181600</v>
       </c>
       <c r="E83" s="3">
-        <v>153600</v>
+        <v>150600</v>
       </c>
       <c r="F83" s="3">
-        <v>166700</v>
+        <v>163500</v>
       </c>
       <c r="G83" s="3">
-        <v>116300</v>
+        <v>114000</v>
       </c>
       <c r="H83" s="3">
-        <v>117000</v>
+        <v>114700</v>
       </c>
       <c r="I83" s="3">
-        <v>102500</v>
+        <v>100600</v>
       </c>
       <c r="J83" s="3">
-        <v>82200</v>
+        <v>80700</v>
       </c>
       <c r="K83" s="3">
         <v>58500</v>
@@ -3751,25 +3751,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>413100</v>
+        <v>405300</v>
       </c>
       <c r="E89" s="3">
-        <v>406200</v>
+        <v>398500</v>
       </c>
       <c r="F89" s="3">
-        <v>399200</v>
+        <v>391600</v>
       </c>
       <c r="G89" s="3">
-        <v>331500</v>
+        <v>325200</v>
       </c>
       <c r="H89" s="3">
-        <v>367200</v>
+        <v>360200</v>
       </c>
       <c r="I89" s="3">
-        <v>344800</v>
+        <v>338300</v>
       </c>
       <c r="J89" s="3">
-        <v>246300</v>
+        <v>241600</v>
       </c>
       <c r="K89" s="3">
         <v>216200</v>
@@ -3811,25 +3811,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-10300</v>
+        <v>-10100</v>
       </c>
       <c r="E91" s="3">
-        <v>-15800</v>
+        <v>-15500</v>
       </c>
       <c r="F91" s="3">
-        <v>-11500</v>
+        <v>-11200</v>
       </c>
       <c r="G91" s="3">
-        <v>-29600</v>
+        <v>-29100</v>
       </c>
       <c r="H91" s="3">
-        <v>-26200</v>
+        <v>-25700</v>
       </c>
       <c r="I91" s="3">
-        <v>-33800</v>
+        <v>-33200</v>
       </c>
       <c r="J91" s="3">
-        <v>-21900</v>
+        <v>-21500</v>
       </c>
       <c r="K91" s="3">
         <v>-25000</v>
@@ -3937,25 +3937,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-497700</v>
+        <v>-488200</v>
       </c>
       <c r="E94" s="3">
-        <v>18900</v>
+        <v>18600</v>
       </c>
       <c r="F94" s="3">
-        <v>-42500</v>
+        <v>-41700</v>
       </c>
       <c r="G94" s="3">
-        <v>-10800</v>
+        <v>-10600</v>
       </c>
       <c r="H94" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="I94" s="3">
-        <v>-248600</v>
+        <v>-243800</v>
       </c>
       <c r="J94" s="3">
-        <v>95000</v>
+        <v>93200</v>
       </c>
       <c r="K94" s="3">
         <v>-34900</v>
@@ -3997,25 +3997,25 @@
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-195100</v>
+        <v>-191400</v>
       </c>
       <c r="E96" s="3">
-        <v>-152600</v>
+        <v>-149700</v>
       </c>
       <c r="F96" s="3">
-        <v>-159300</v>
+        <v>-156300</v>
       </c>
       <c r="G96" s="3">
-        <v>-161600</v>
+        <v>-158600</v>
       </c>
       <c r="H96" s="3">
-        <v>-145400</v>
+        <v>-142700</v>
       </c>
       <c r="I96" s="3">
-        <v>-137300</v>
+        <v>-134700</v>
       </c>
       <c r="J96" s="3">
-        <v>-106500</v>
+        <v>-104500</v>
       </c>
       <c r="K96" s="3">
         <v>-105200</v>
@@ -4165,25 +4165,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-223700</v>
+        <v>-219500</v>
       </c>
       <c r="E100" s="3">
-        <v>-120900</v>
+        <v>-118600</v>
       </c>
       <c r="F100" s="3">
-        <v>-155400</v>
+        <v>-152400</v>
       </c>
       <c r="G100" s="3">
-        <v>-190800</v>
+        <v>-187200</v>
       </c>
       <c r="H100" s="3">
-        <v>-97200</v>
+        <v>-95300</v>
       </c>
       <c r="I100" s="3">
-        <v>-124300</v>
+        <v>-121900</v>
       </c>
       <c r="J100" s="3">
-        <v>-110600</v>
+        <v>-108500</v>
       </c>
       <c r="K100" s="3">
         <v>-66100</v>
@@ -4207,25 +4207,25 @@
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>175700</v>
+        <v>172400</v>
       </c>
       <c r="E101" s="3">
-        <v>74400</v>
+        <v>73000</v>
       </c>
       <c r="F101" s="3">
-        <v>-10000</v>
+        <v>-9800</v>
       </c>
       <c r="G101" s="3">
-        <v>-8700</v>
+        <v>-8500</v>
       </c>
       <c r="H101" s="3">
-        <v>-32100</v>
+        <v>-31500</v>
       </c>
       <c r="I101" s="3">
         <v>-900</v>
       </c>
       <c r="J101" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="K101" s="3">
         <v>-30000</v>
@@ -4249,25 +4249,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-132600</v>
+        <v>-130000</v>
       </c>
       <c r="E102" s="3">
-        <v>378700</v>
+        <v>371400</v>
       </c>
       <c r="F102" s="3">
-        <v>191400</v>
+        <v>187700</v>
       </c>
       <c r="G102" s="3">
-        <v>121300</v>
+        <v>119000</v>
       </c>
       <c r="H102" s="3">
-        <v>243900</v>
+        <v>239300</v>
       </c>
       <c r="I102" s="3">
-        <v>-28900</v>
+        <v>-28400</v>
       </c>
       <c r="J102" s="3">
-        <v>233000</v>
+        <v>228500</v>
       </c>
       <c r="K102" s="3">
         <v>85200</v>

--- a/AAII_Financials/Yearly/TMICY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TMICY_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1613600</v>
+        <v>1537500</v>
       </c>
       <c r="E8" s="3">
-        <v>1372500</v>
+        <v>1307800</v>
       </c>
       <c r="F8" s="3">
-        <v>1255000</v>
+        <v>1195800</v>
       </c>
       <c r="G8" s="3">
-        <v>1191100</v>
+        <v>1134900</v>
       </c>
       <c r="H8" s="3">
-        <v>1156600</v>
+        <v>1102000</v>
       </c>
       <c r="I8" s="3">
-        <v>1072900</v>
+        <v>1022300</v>
       </c>
       <c r="J8" s="3">
-        <v>951300</v>
+        <v>906400</v>
       </c>
       <c r="K8" s="3">
         <v>881400</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>391500</v>
+        <v>373000</v>
       </c>
       <c r="E9" s="3">
-        <v>302900</v>
+        <v>288700</v>
       </c>
       <c r="F9" s="3">
-        <v>275200</v>
+        <v>262200</v>
       </c>
       <c r="G9" s="3">
-        <v>232900</v>
+        <v>221900</v>
       </c>
       <c r="H9" s="3">
-        <v>236000</v>
+        <v>224800</v>
       </c>
       <c r="I9" s="3">
-        <v>202900</v>
+        <v>193300</v>
       </c>
       <c r="J9" s="3">
-        <v>166100</v>
+        <v>158300</v>
       </c>
       <c r="K9" s="3">
         <v>150800</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1222100</v>
+        <v>1164400</v>
       </c>
       <c r="E10" s="3">
-        <v>1069500</v>
+        <v>1019100</v>
       </c>
       <c r="F10" s="3">
-        <v>979800</v>
+        <v>933600</v>
       </c>
       <c r="G10" s="3">
-        <v>958200</v>
+        <v>913000</v>
       </c>
       <c r="H10" s="3">
-        <v>920600</v>
+        <v>877200</v>
       </c>
       <c r="I10" s="3">
-        <v>870100</v>
+        <v>829000</v>
       </c>
       <c r="J10" s="3">
-        <v>785100</v>
+        <v>748100</v>
       </c>
       <c r="K10" s="3">
         <v>730600</v>
@@ -870,25 +870,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>38900</v>
+        <v>37100</v>
       </c>
       <c r="E12" s="3">
-        <v>33700</v>
+        <v>32200</v>
       </c>
       <c r="F12" s="3">
-        <v>52900</v>
+        <v>50400</v>
       </c>
       <c r="G12" s="3">
-        <v>59400</v>
+        <v>56600</v>
       </c>
       <c r="H12" s="3">
-        <v>53700</v>
+        <v>51100</v>
       </c>
       <c r="I12" s="3">
-        <v>56200</v>
+        <v>53500</v>
       </c>
       <c r="J12" s="3">
-        <v>38000</v>
+        <v>36200</v>
       </c>
       <c r="K12" s="3">
         <v>26800</v>
@@ -954,25 +954,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-2700</v>
+        <v>-2600</v>
       </c>
       <c r="E14" s="3">
         <v>1600</v>
       </c>
       <c r="F14" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="G14" s="3">
         <v>500</v>
       </c>
       <c r="H14" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="I14" s="3">
         <v>300</v>
       </c>
       <c r="J14" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="K14" s="3">
         <v>5300</v>
@@ -1053,25 +1053,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1384900</v>
+        <v>1319500</v>
       </c>
       <c r="E17" s="3">
-        <v>1059500</v>
+        <v>1009500</v>
       </c>
       <c r="F17" s="3">
-        <v>971900</v>
+        <v>926000</v>
       </c>
       <c r="G17" s="3">
-        <v>919800</v>
+        <v>876500</v>
       </c>
       <c r="H17" s="3">
-        <v>900600</v>
+        <v>858100</v>
       </c>
       <c r="I17" s="3">
-        <v>810500</v>
+        <v>772300</v>
       </c>
       <c r="J17" s="3">
-        <v>706200</v>
+        <v>672900</v>
       </c>
       <c r="K17" s="3">
         <v>667100</v>
@@ -1095,25 +1095,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>228700</v>
+        <v>217900</v>
       </c>
       <c r="E18" s="3">
-        <v>313000</v>
+        <v>298300</v>
       </c>
       <c r="F18" s="3">
-        <v>283100</v>
+        <v>269800</v>
       </c>
       <c r="G18" s="3">
-        <v>271200</v>
+        <v>258400</v>
       </c>
       <c r="H18" s="3">
-        <v>255900</v>
+        <v>243900</v>
       </c>
       <c r="I18" s="3">
-        <v>262400</v>
+        <v>250100</v>
       </c>
       <c r="J18" s="3">
-        <v>245000</v>
+        <v>233500</v>
       </c>
       <c r="K18" s="3">
         <v>214300</v>
@@ -1155,25 +1155,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>73700</v>
+        <v>70200</v>
       </c>
       <c r="E20" s="3">
-        <v>64700</v>
+        <v>61600</v>
       </c>
       <c r="F20" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="G20" s="3">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="H20" s="3">
-        <v>12200</v>
+        <v>11600</v>
       </c>
       <c r="I20" s="3">
-        <v>5100</v>
+        <v>4800</v>
       </c>
       <c r="J20" s="3">
-        <v>12500</v>
+        <v>11900</v>
       </c>
       <c r="K20" s="3">
         <v>27000</v>
@@ -1197,25 +1197,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>485200</v>
+        <v>461100</v>
       </c>
       <c r="E21" s="3">
-        <v>529400</v>
+        <v>503400</v>
       </c>
       <c r="F21" s="3">
-        <v>452000</v>
+        <v>429600</v>
       </c>
       <c r="G21" s="3">
-        <v>397000</v>
+        <v>377500</v>
       </c>
       <c r="H21" s="3">
-        <v>383700</v>
+        <v>364800</v>
       </c>
       <c r="I21" s="3">
-        <v>368800</v>
+        <v>350700</v>
       </c>
       <c r="J21" s="3">
-        <v>338800</v>
+        <v>322300</v>
       </c>
       <c r="K21" s="3">
         <v>297700</v>
@@ -1281,25 +1281,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>302100</v>
+        <v>287800</v>
       </c>
       <c r="E23" s="3">
-        <v>377600</v>
+        <v>359800</v>
       </c>
       <c r="F23" s="3">
-        <v>287300</v>
+        <v>273800</v>
       </c>
       <c r="G23" s="3">
-        <v>282200</v>
+        <v>268900</v>
       </c>
       <c r="H23" s="3">
-        <v>268100</v>
+        <v>255500</v>
       </c>
       <c r="I23" s="3">
-        <v>267500</v>
+        <v>254800</v>
       </c>
       <c r="J23" s="3">
-        <v>257500</v>
+        <v>245400</v>
       </c>
       <c r="K23" s="3">
         <v>241300</v>
@@ -1323,25 +1323,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>93300</v>
+        <v>88900</v>
       </c>
       <c r="E24" s="3">
-        <v>106400</v>
+        <v>101400</v>
       </c>
       <c r="F24" s="3">
-        <v>97200</v>
+        <v>92600</v>
       </c>
       <c r="G24" s="3">
-        <v>81600</v>
+        <v>77800</v>
       </c>
       <c r="H24" s="3">
-        <v>64100</v>
+        <v>61100</v>
       </c>
       <c r="I24" s="3">
-        <v>82200</v>
+        <v>78300</v>
       </c>
       <c r="J24" s="3">
-        <v>79800</v>
+        <v>76000</v>
       </c>
       <c r="K24" s="3">
         <v>89300</v>
@@ -1407,25 +1407,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>208800</v>
+        <v>198900</v>
       </c>
       <c r="E26" s="3">
-        <v>271200</v>
+        <v>258400</v>
       </c>
       <c r="F26" s="3">
-        <v>190200</v>
+        <v>181200</v>
       </c>
       <c r="G26" s="3">
-        <v>200600</v>
+        <v>191100</v>
       </c>
       <c r="H26" s="3">
-        <v>204000</v>
+        <v>194400</v>
       </c>
       <c r="I26" s="3">
-        <v>185200</v>
+        <v>176500</v>
       </c>
       <c r="J26" s="3">
-        <v>177700</v>
+        <v>169400</v>
       </c>
       <c r="K26" s="3">
         <v>152000</v>
@@ -1449,25 +1449,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>215200</v>
+        <v>205000</v>
       </c>
       <c r="E27" s="3">
-        <v>276600</v>
+        <v>263600</v>
       </c>
       <c r="F27" s="3">
-        <v>194000</v>
+        <v>184800</v>
       </c>
       <c r="G27" s="3">
-        <v>201500</v>
+        <v>192000</v>
       </c>
       <c r="H27" s="3">
-        <v>204100</v>
+        <v>194500</v>
       </c>
       <c r="I27" s="3">
-        <v>185200</v>
+        <v>176500</v>
       </c>
       <c r="J27" s="3">
-        <v>177700</v>
+        <v>169400</v>
       </c>
       <c r="K27" s="3">
         <v>152000</v>
@@ -1659,25 +1659,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-73700</v>
+        <v>-70200</v>
       </c>
       <c r="E32" s="3">
-        <v>-64700</v>
+        <v>-61600</v>
       </c>
       <c r="F32" s="3">
-        <v>-4200</v>
+        <v>-4000</v>
       </c>
       <c r="G32" s="3">
-        <v>-11000</v>
+        <v>-10500</v>
       </c>
       <c r="H32" s="3">
-        <v>-12200</v>
+        <v>-11600</v>
       </c>
       <c r="I32" s="3">
-        <v>-5100</v>
+        <v>-4800</v>
       </c>
       <c r="J32" s="3">
-        <v>-12500</v>
+        <v>-11900</v>
       </c>
       <c r="K32" s="3">
         <v>-27000</v>
@@ -1701,25 +1701,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>215200</v>
+        <v>205000</v>
       </c>
       <c r="E33" s="3">
-        <v>276600</v>
+        <v>263600</v>
       </c>
       <c r="F33" s="3">
-        <v>194000</v>
+        <v>184800</v>
       </c>
       <c r="G33" s="3">
-        <v>201500</v>
+        <v>192000</v>
       </c>
       <c r="H33" s="3">
-        <v>204100</v>
+        <v>194500</v>
       </c>
       <c r="I33" s="3">
-        <v>185200</v>
+        <v>176500</v>
       </c>
       <c r="J33" s="3">
-        <v>177700</v>
+        <v>169400</v>
       </c>
       <c r="K33" s="3">
         <v>152000</v>
@@ -1785,25 +1785,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>215200</v>
+        <v>205000</v>
       </c>
       <c r="E35" s="3">
-        <v>276600</v>
+        <v>263600</v>
       </c>
       <c r="F35" s="3">
-        <v>194000</v>
+        <v>184800</v>
       </c>
       <c r="G35" s="3">
-        <v>201500</v>
+        <v>192000</v>
       </c>
       <c r="H35" s="3">
-        <v>204100</v>
+        <v>194500</v>
       </c>
       <c r="I35" s="3">
-        <v>185200</v>
+        <v>176500</v>
       </c>
       <c r="J35" s="3">
-        <v>177700</v>
+        <v>169400</v>
       </c>
       <c r="K35" s="3">
         <v>152000</v>
@@ -1910,25 +1910,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1381000</v>
+        <v>1315900</v>
       </c>
       <c r="E41" s="3">
-        <v>1425600</v>
+        <v>1358400</v>
       </c>
       <c r="F41" s="3">
-        <v>1122900</v>
+        <v>1069900</v>
       </c>
       <c r="G41" s="3">
-        <v>901100</v>
+        <v>858600</v>
       </c>
       <c r="H41" s="3">
-        <v>839900</v>
+        <v>800300</v>
       </c>
       <c r="I41" s="3">
-        <v>619300</v>
+        <v>590100</v>
       </c>
       <c r="J41" s="3">
-        <v>609300</v>
+        <v>580600</v>
       </c>
       <c r="K41" s="3">
         <v>523500</v>
@@ -1952,25 +1952,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>369900</v>
+        <v>352500</v>
       </c>
       <c r="E42" s="3">
-        <v>425900</v>
+        <v>405800</v>
       </c>
       <c r="F42" s="3">
-        <v>407600</v>
+        <v>388300</v>
       </c>
       <c r="G42" s="3">
-        <v>343300</v>
+        <v>327100</v>
       </c>
       <c r="H42" s="3">
-        <v>441900</v>
+        <v>421100</v>
       </c>
       <c r="I42" s="3">
-        <v>479700</v>
+        <v>457100</v>
       </c>
       <c r="J42" s="3">
-        <v>361600</v>
+        <v>344600</v>
       </c>
       <c r="K42" s="3">
         <v>509900</v>
@@ -1994,25 +1994,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>456400</v>
+        <v>434900</v>
       </c>
       <c r="E43" s="3">
-        <v>383600</v>
+        <v>365500</v>
       </c>
       <c r="F43" s="3">
-        <v>339000</v>
+        <v>323000</v>
       </c>
       <c r="G43" s="3">
-        <v>324000</v>
+        <v>308700</v>
       </c>
       <c r="H43" s="3">
-        <v>281100</v>
+        <v>267800</v>
       </c>
       <c r="I43" s="3">
-        <v>286800</v>
+        <v>273300</v>
       </c>
       <c r="J43" s="3">
-        <v>256300</v>
+        <v>244200</v>
       </c>
       <c r="K43" s="3">
         <v>212500</v>
@@ -2036,25 +2036,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>30700</v>
+        <v>29200</v>
       </c>
       <c r="E44" s="3">
-        <v>26700</v>
+        <v>25400</v>
       </c>
       <c r="F44" s="3">
-        <v>24500</v>
+        <v>23400</v>
       </c>
       <c r="G44" s="3">
-        <v>29600</v>
+        <v>28200</v>
       </c>
       <c r="H44" s="3">
-        <v>53000</v>
+        <v>50500</v>
       </c>
       <c r="I44" s="3">
-        <v>21500</v>
+        <v>20500</v>
       </c>
       <c r="J44" s="3">
-        <v>12300</v>
+        <v>11800</v>
       </c>
       <c r="K44" s="3">
         <v>5700</v>
@@ -2078,25 +2078,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>68700</v>
+        <v>65500</v>
       </c>
       <c r="E45" s="3">
-        <v>58000</v>
+        <v>55200</v>
       </c>
       <c r="F45" s="3">
-        <v>42900</v>
+        <v>40900</v>
       </c>
       <c r="G45" s="3">
-        <v>41100</v>
+        <v>39200</v>
       </c>
       <c r="H45" s="3">
-        <v>154800</v>
+        <v>147500</v>
       </c>
       <c r="I45" s="3">
-        <v>155700</v>
+        <v>148400</v>
       </c>
       <c r="J45" s="3">
-        <v>166600</v>
+        <v>158700</v>
       </c>
       <c r="K45" s="3">
         <v>176900</v>
@@ -2120,25 +2120,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>2306700</v>
+        <v>2197900</v>
       </c>
       <c r="E46" s="3">
-        <v>2319800</v>
+        <v>2210400</v>
       </c>
       <c r="F46" s="3">
-        <v>1937000</v>
+        <v>1845600</v>
       </c>
       <c r="G46" s="3">
-        <v>1639200</v>
+        <v>1561900</v>
       </c>
       <c r="H46" s="3">
-        <v>1627800</v>
+        <v>1551100</v>
       </c>
       <c r="I46" s="3">
-        <v>1563100</v>
+        <v>1489400</v>
       </c>
       <c r="J46" s="3">
-        <v>1406200</v>
+        <v>1339900</v>
       </c>
       <c r="K46" s="3">
         <v>1428500</v>
@@ -2162,25 +2162,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>536700</v>
+        <v>511400</v>
       </c>
       <c r="E47" s="3">
-        <v>191000</v>
+        <v>182000</v>
       </c>
       <c r="F47" s="3">
-        <v>261100</v>
+        <v>248800</v>
       </c>
       <c r="G47" s="3">
-        <v>360400</v>
+        <v>343400</v>
       </c>
       <c r="H47" s="3">
-        <v>322500</v>
+        <v>307300</v>
       </c>
       <c r="I47" s="3">
-        <v>377800</v>
+        <v>359900</v>
       </c>
       <c r="J47" s="3">
-        <v>365700</v>
+        <v>348500</v>
       </c>
       <c r="K47" s="3">
         <v>445300</v>
@@ -2204,25 +2204,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>51100</v>
+        <v>48700</v>
       </c>
       <c r="E48" s="3">
-        <v>57200</v>
+        <v>54500</v>
       </c>
       <c r="F48" s="3">
-        <v>57500</v>
+        <v>54800</v>
       </c>
       <c r="G48" s="3">
-        <v>71100</v>
+        <v>67700</v>
       </c>
       <c r="H48" s="3">
-        <v>63200</v>
+        <v>60200</v>
       </c>
       <c r="I48" s="3">
-        <v>59300</v>
+        <v>56500</v>
       </c>
       <c r="J48" s="3">
-        <v>47200</v>
+        <v>45000</v>
       </c>
       <c r="K48" s="3">
         <v>41000</v>
@@ -2246,25 +2246,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>175100</v>
+        <v>166900</v>
       </c>
       <c r="E49" s="3">
-        <v>183400</v>
+        <v>174700</v>
       </c>
       <c r="F49" s="3">
-        <v>186800</v>
+        <v>178000</v>
       </c>
       <c r="G49" s="3">
-        <v>260800</v>
+        <v>248500</v>
       </c>
       <c r="H49" s="3">
-        <v>253200</v>
+        <v>241200</v>
       </c>
       <c r="I49" s="3">
-        <v>290500</v>
+        <v>276800</v>
       </c>
       <c r="J49" s="3">
-        <v>306700</v>
+        <v>292200</v>
       </c>
       <c r="K49" s="3">
         <v>58200</v>
@@ -2372,25 +2372,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>324800</v>
+        <v>309400</v>
       </c>
       <c r="E52" s="3">
-        <v>280100</v>
+        <v>266900</v>
       </c>
       <c r="F52" s="3">
-        <v>273700</v>
+        <v>260800</v>
       </c>
       <c r="G52" s="3">
-        <v>262000</v>
+        <v>249600</v>
       </c>
       <c r="H52" s="3">
-        <v>229100</v>
+        <v>218300</v>
       </c>
       <c r="I52" s="3">
-        <v>97000</v>
+        <v>92400</v>
       </c>
       <c r="J52" s="3">
-        <v>98700</v>
+        <v>94100</v>
       </c>
       <c r="K52" s="3">
         <v>86700</v>
@@ -2456,25 +2456,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>3394500</v>
+        <v>3234400</v>
       </c>
       <c r="E54" s="3">
-        <v>3031500</v>
+        <v>2888500</v>
       </c>
       <c r="F54" s="3">
-        <v>2716000</v>
+        <v>2587900</v>
       </c>
       <c r="G54" s="3">
-        <v>2593500</v>
+        <v>2471200</v>
       </c>
       <c r="H54" s="3">
-        <v>2495800</v>
+        <v>2378100</v>
       </c>
       <c r="I54" s="3">
-        <v>2387600</v>
+        <v>2275000</v>
       </c>
       <c r="J54" s="3">
-        <v>2224600</v>
+        <v>2119600</v>
       </c>
       <c r="K54" s="3">
         <v>2059800</v>
@@ -2534,25 +2534,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>15600</v>
+        <v>14900</v>
       </c>
       <c r="E57" s="3">
-        <v>8400</v>
+        <v>8000</v>
       </c>
       <c r="F57" s="3">
-        <v>6600</v>
+        <v>6300</v>
       </c>
       <c r="G57" s="3">
-        <v>8700</v>
+        <v>8300</v>
       </c>
       <c r="H57" s="3">
-        <v>11700</v>
+        <v>11100</v>
       </c>
       <c r="I57" s="3">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="J57" s="3">
-        <v>6400</v>
+        <v>6100</v>
       </c>
       <c r="K57" s="3">
         <v>4000</v>
@@ -2618,25 +2618,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>1659300</v>
+        <v>1581000</v>
       </c>
       <c r="E59" s="3">
-        <v>955000</v>
+        <v>910000</v>
       </c>
       <c r="F59" s="3">
-        <v>941300</v>
+        <v>896900</v>
       </c>
       <c r="G59" s="3">
-        <v>853400</v>
+        <v>813100</v>
       </c>
       <c r="H59" s="3">
-        <v>792000</v>
+        <v>754600</v>
       </c>
       <c r="I59" s="3">
-        <v>778900</v>
+        <v>742200</v>
       </c>
       <c r="J59" s="3">
-        <v>726800</v>
+        <v>692500</v>
       </c>
       <c r="K59" s="3">
         <v>666300</v>
@@ -2660,25 +2660,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>1674900</v>
+        <v>1595900</v>
       </c>
       <c r="E60" s="3">
-        <v>963400</v>
+        <v>918000</v>
       </c>
       <c r="F60" s="3">
-        <v>947900</v>
+        <v>903200</v>
       </c>
       <c r="G60" s="3">
-        <v>862000</v>
+        <v>821400</v>
       </c>
       <c r="H60" s="3">
-        <v>803700</v>
+        <v>765800</v>
       </c>
       <c r="I60" s="3">
-        <v>784200</v>
+        <v>747200</v>
       </c>
       <c r="J60" s="3">
-        <v>733200</v>
+        <v>698600</v>
       </c>
       <c r="K60" s="3">
         <v>670300</v>
@@ -2744,25 +2744,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>70800</v>
+        <v>67500</v>
       </c>
       <c r="E62" s="3">
-        <v>471500</v>
+        <v>449300</v>
       </c>
       <c r="F62" s="3">
-        <v>402800</v>
+        <v>383800</v>
       </c>
       <c r="G62" s="3">
-        <v>380100</v>
+        <v>362200</v>
       </c>
       <c r="H62" s="3">
-        <v>343300</v>
+        <v>327100</v>
       </c>
       <c r="I62" s="3">
-        <v>326700</v>
+        <v>311300</v>
       </c>
       <c r="J62" s="3">
-        <v>291100</v>
+        <v>277400</v>
       </c>
       <c r="K62" s="3">
         <v>257300</v>
@@ -2912,25 +2912,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>1745800</v>
+        <v>1663500</v>
       </c>
       <c r="E66" s="3">
-        <v>1440600</v>
+        <v>1372700</v>
       </c>
       <c r="F66" s="3">
-        <v>1356700</v>
+        <v>1292700</v>
       </c>
       <c r="G66" s="3">
-        <v>1243300</v>
+        <v>1184600</v>
       </c>
       <c r="H66" s="3">
-        <v>1147500</v>
+        <v>1093400</v>
       </c>
       <c r="I66" s="3">
-        <v>1111000</v>
+        <v>1058600</v>
       </c>
       <c r="J66" s="3">
-        <v>1024300</v>
+        <v>976000</v>
       </c>
       <c r="K66" s="3">
         <v>927600</v>
@@ -3140,25 +3140,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>1215000</v>
+        <v>1157700</v>
       </c>
       <c r="E72" s="3">
-        <v>1276600</v>
+        <v>1216400</v>
       </c>
       <c r="F72" s="3">
-        <v>1151100</v>
+        <v>1096800</v>
       </c>
       <c r="G72" s="3">
-        <v>1116800</v>
+        <v>1064100</v>
       </c>
       <c r="H72" s="3">
-        <v>1078800</v>
+        <v>1027900</v>
       </c>
       <c r="I72" s="3">
-        <v>1027100</v>
+        <v>978700</v>
       </c>
       <c r="J72" s="3">
-        <v>980900</v>
+        <v>934700</v>
       </c>
       <c r="K72" s="3">
         <v>897200</v>
@@ -3308,25 +3308,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>1648600</v>
+        <v>1570900</v>
       </c>
       <c r="E76" s="3">
-        <v>1590900</v>
+        <v>1515800</v>
       </c>
       <c r="F76" s="3">
-        <v>1359300</v>
+        <v>1295200</v>
       </c>
       <c r="G76" s="3">
-        <v>1350200</v>
+        <v>1286600</v>
       </c>
       <c r="H76" s="3">
-        <v>1348300</v>
+        <v>1284700</v>
       </c>
       <c r="I76" s="3">
-        <v>1276700</v>
+        <v>1216500</v>
       </c>
       <c r="J76" s="3">
-        <v>1200200</v>
+        <v>1143600</v>
       </c>
       <c r="K76" s="3">
         <v>1132200</v>
@@ -3439,25 +3439,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>215200</v>
+        <v>205000</v>
       </c>
       <c r="E81" s="3">
-        <v>276600</v>
+        <v>263600</v>
       </c>
       <c r="F81" s="3">
-        <v>194000</v>
+        <v>184800</v>
       </c>
       <c r="G81" s="3">
-        <v>201500</v>
+        <v>192000</v>
       </c>
       <c r="H81" s="3">
-        <v>204100</v>
+        <v>194500</v>
       </c>
       <c r="I81" s="3">
-        <v>185200</v>
+        <v>176500</v>
       </c>
       <c r="J81" s="3">
-        <v>177700</v>
+        <v>169400</v>
       </c>
       <c r="K81" s="3">
         <v>152000</v>
@@ -3499,25 +3499,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>181600</v>
+        <v>173000</v>
       </c>
       <c r="E83" s="3">
-        <v>150600</v>
+        <v>143500</v>
       </c>
       <c r="F83" s="3">
-        <v>163500</v>
+        <v>155800</v>
       </c>
       <c r="G83" s="3">
-        <v>114000</v>
+        <v>108700</v>
       </c>
       <c r="H83" s="3">
-        <v>114700</v>
+        <v>109300</v>
       </c>
       <c r="I83" s="3">
-        <v>100600</v>
+        <v>95800</v>
       </c>
       <c r="J83" s="3">
-        <v>80700</v>
+        <v>76900</v>
       </c>
       <c r="K83" s="3">
         <v>58500</v>
@@ -3751,25 +3751,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>405300</v>
+        <v>386100</v>
       </c>
       <c r="E89" s="3">
-        <v>398500</v>
+        <v>379700</v>
       </c>
       <c r="F89" s="3">
-        <v>391600</v>
+        <v>373100</v>
       </c>
       <c r="G89" s="3">
-        <v>325200</v>
+        <v>309900</v>
       </c>
       <c r="H89" s="3">
-        <v>360200</v>
+        <v>343200</v>
       </c>
       <c r="I89" s="3">
-        <v>338300</v>
+        <v>322300</v>
       </c>
       <c r="J89" s="3">
-        <v>241600</v>
+        <v>230200</v>
       </c>
       <c r="K89" s="3">
         <v>216200</v>
@@ -3811,25 +3811,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-10100</v>
+        <v>-9600</v>
       </c>
       <c r="E91" s="3">
-        <v>-15500</v>
+        <v>-14800</v>
       </c>
       <c r="F91" s="3">
-        <v>-11200</v>
+        <v>-10700</v>
       </c>
       <c r="G91" s="3">
-        <v>-29100</v>
+        <v>-27700</v>
       </c>
       <c r="H91" s="3">
-        <v>-25700</v>
+        <v>-24500</v>
       </c>
       <c r="I91" s="3">
-        <v>-33200</v>
+        <v>-31600</v>
       </c>
       <c r="J91" s="3">
-        <v>-21500</v>
+        <v>-20500</v>
       </c>
       <c r="K91" s="3">
         <v>-25000</v>
@@ -3937,25 +3937,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-488200</v>
+        <v>-465200</v>
       </c>
       <c r="E94" s="3">
-        <v>18600</v>
+        <v>17700</v>
       </c>
       <c r="F94" s="3">
-        <v>-41700</v>
+        <v>-39700</v>
       </c>
       <c r="G94" s="3">
-        <v>-10600</v>
+        <v>-10100</v>
       </c>
       <c r="H94" s="3">
-        <v>5900</v>
+        <v>5600</v>
       </c>
       <c r="I94" s="3">
-        <v>-243800</v>
+        <v>-232300</v>
       </c>
       <c r="J94" s="3">
-        <v>93200</v>
+        <v>88800</v>
       </c>
       <c r="K94" s="3">
         <v>-34900</v>
@@ -3997,25 +3997,25 @@
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-191400</v>
+        <v>-182300</v>
       </c>
       <c r="E96" s="3">
-        <v>-149700</v>
+        <v>-142700</v>
       </c>
       <c r="F96" s="3">
-        <v>-156300</v>
+        <v>-148900</v>
       </c>
       <c r="G96" s="3">
-        <v>-158600</v>
+        <v>-151100</v>
       </c>
       <c r="H96" s="3">
-        <v>-142700</v>
+        <v>-135900</v>
       </c>
       <c r="I96" s="3">
-        <v>-134700</v>
+        <v>-128300</v>
       </c>
       <c r="J96" s="3">
-        <v>-104500</v>
+        <v>-99600</v>
       </c>
       <c r="K96" s="3">
         <v>-105200</v>
@@ -4165,25 +4165,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-219500</v>
+        <v>-209100</v>
       </c>
       <c r="E100" s="3">
-        <v>-118600</v>
+        <v>-113000</v>
       </c>
       <c r="F100" s="3">
-        <v>-152400</v>
+        <v>-145200</v>
       </c>
       <c r="G100" s="3">
-        <v>-187200</v>
+        <v>-178300</v>
       </c>
       <c r="H100" s="3">
-        <v>-95300</v>
+        <v>-90800</v>
       </c>
       <c r="I100" s="3">
-        <v>-121900</v>
+        <v>-116200</v>
       </c>
       <c r="J100" s="3">
-        <v>-108500</v>
+        <v>-103400</v>
       </c>
       <c r="K100" s="3">
         <v>-66100</v>
@@ -4207,25 +4207,25 @@
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>172400</v>
+        <v>164200</v>
       </c>
       <c r="E101" s="3">
-        <v>73000</v>
+        <v>69500</v>
       </c>
       <c r="F101" s="3">
-        <v>-9800</v>
+        <v>-9300</v>
       </c>
       <c r="G101" s="3">
-        <v>-8500</v>
+        <v>-8100</v>
       </c>
       <c r="H101" s="3">
-        <v>-31500</v>
+        <v>-30000</v>
       </c>
       <c r="I101" s="3">
         <v>-900</v>
       </c>
       <c r="J101" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="K101" s="3">
         <v>-30000</v>
@@ -4249,25 +4249,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-130000</v>
+        <v>-123900</v>
       </c>
       <c r="E102" s="3">
-        <v>371400</v>
+        <v>353900</v>
       </c>
       <c r="F102" s="3">
-        <v>187700</v>
+        <v>178900</v>
       </c>
       <c r="G102" s="3">
-        <v>119000</v>
+        <v>113300</v>
       </c>
       <c r="H102" s="3">
-        <v>239300</v>
+        <v>228000</v>
       </c>
       <c r="I102" s="3">
-        <v>-28400</v>
+        <v>-27000</v>
       </c>
       <c r="J102" s="3">
-        <v>228500</v>
+        <v>217800</v>
       </c>
       <c r="K102" s="3">
         <v>85200</v>

--- a/AAII_Financials/Yearly/TMICY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TMICY_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1537500</v>
+        <v>1486000</v>
       </c>
       <c r="E8" s="3">
-        <v>1307800</v>
+        <v>1264000</v>
       </c>
       <c r="F8" s="3">
-        <v>1195800</v>
+        <v>1155800</v>
       </c>
       <c r="G8" s="3">
-        <v>1134900</v>
+        <v>1096900</v>
       </c>
       <c r="H8" s="3">
-        <v>1102000</v>
+        <v>1065100</v>
       </c>
       <c r="I8" s="3">
-        <v>1022300</v>
+        <v>988100</v>
       </c>
       <c r="J8" s="3">
-        <v>906400</v>
+        <v>876100</v>
       </c>
       <c r="K8" s="3">
         <v>881400</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>373000</v>
+        <v>360600</v>
       </c>
       <c r="E9" s="3">
-        <v>288700</v>
+        <v>279000</v>
       </c>
       <c r="F9" s="3">
-        <v>262200</v>
+        <v>253400</v>
       </c>
       <c r="G9" s="3">
-        <v>221900</v>
+        <v>214500</v>
       </c>
       <c r="H9" s="3">
-        <v>224800</v>
+        <v>217300</v>
       </c>
       <c r="I9" s="3">
-        <v>193300</v>
+        <v>186800</v>
       </c>
       <c r="J9" s="3">
-        <v>158300</v>
+        <v>153000</v>
       </c>
       <c r="K9" s="3">
         <v>150800</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1164400</v>
+        <v>1125400</v>
       </c>
       <c r="E10" s="3">
-        <v>1019100</v>
+        <v>985000</v>
       </c>
       <c r="F10" s="3">
-        <v>933600</v>
+        <v>902300</v>
       </c>
       <c r="G10" s="3">
-        <v>913000</v>
+        <v>882400</v>
       </c>
       <c r="H10" s="3">
-        <v>877200</v>
+        <v>847800</v>
       </c>
       <c r="I10" s="3">
-        <v>829000</v>
+        <v>801300</v>
       </c>
       <c r="J10" s="3">
-        <v>748100</v>
+        <v>723100</v>
       </c>
       <c r="K10" s="3">
         <v>730600</v>
@@ -870,25 +870,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>37100</v>
+        <v>35900</v>
       </c>
       <c r="E12" s="3">
-        <v>32200</v>
+        <v>31100</v>
       </c>
       <c r="F12" s="3">
-        <v>50400</v>
+        <v>48700</v>
       </c>
       <c r="G12" s="3">
-        <v>56600</v>
+        <v>54700</v>
       </c>
       <c r="H12" s="3">
-        <v>51100</v>
+        <v>49400</v>
       </c>
       <c r="I12" s="3">
-        <v>53500</v>
+        <v>51700</v>
       </c>
       <c r="J12" s="3">
-        <v>36200</v>
+        <v>35000</v>
       </c>
       <c r="K12" s="3">
         <v>26800</v>
@@ -954,10 +954,10 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-2600</v>
+        <v>-2500</v>
       </c>
       <c r="E14" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="F14" s="3">
         <v>1300</v>
@@ -966,13 +966,13 @@
         <v>500</v>
       </c>
       <c r="H14" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="I14" s="3">
         <v>300</v>
       </c>
       <c r="J14" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="K14" s="3">
         <v>5300</v>
@@ -1053,25 +1053,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1319500</v>
+        <v>1275400</v>
       </c>
       <c r="E17" s="3">
-        <v>1009500</v>
+        <v>975700</v>
       </c>
       <c r="F17" s="3">
-        <v>926000</v>
+        <v>895000</v>
       </c>
       <c r="G17" s="3">
-        <v>876500</v>
+        <v>847100</v>
       </c>
       <c r="H17" s="3">
-        <v>858100</v>
+        <v>829400</v>
       </c>
       <c r="I17" s="3">
-        <v>772300</v>
+        <v>746400</v>
       </c>
       <c r="J17" s="3">
-        <v>672900</v>
+        <v>650400</v>
       </c>
       <c r="K17" s="3">
         <v>667100</v>
@@ -1095,25 +1095,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>217900</v>
+        <v>210600</v>
       </c>
       <c r="E18" s="3">
-        <v>298300</v>
+        <v>288300</v>
       </c>
       <c r="F18" s="3">
-        <v>269800</v>
+        <v>260700</v>
       </c>
       <c r="G18" s="3">
-        <v>258400</v>
+        <v>249800</v>
       </c>
       <c r="H18" s="3">
-        <v>243900</v>
+        <v>235700</v>
       </c>
       <c r="I18" s="3">
-        <v>250100</v>
+        <v>241700</v>
       </c>
       <c r="J18" s="3">
-        <v>233500</v>
+        <v>225700</v>
       </c>
       <c r="K18" s="3">
         <v>214300</v>
@@ -1155,25 +1155,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>70200</v>
+        <v>67900</v>
       </c>
       <c r="E20" s="3">
-        <v>61600</v>
+        <v>59500</v>
       </c>
       <c r="F20" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="G20" s="3">
-        <v>10500</v>
+        <v>10100</v>
       </c>
       <c r="H20" s="3">
-        <v>11600</v>
+        <v>11200</v>
       </c>
       <c r="I20" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="J20" s="3">
-        <v>11900</v>
+        <v>11500</v>
       </c>
       <c r="K20" s="3">
         <v>27000</v>
@@ -1197,25 +1197,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>461100</v>
+        <v>445000</v>
       </c>
       <c r="E21" s="3">
-        <v>503400</v>
+        <v>485900</v>
       </c>
       <c r="F21" s="3">
-        <v>429600</v>
+        <v>414500</v>
       </c>
       <c r="G21" s="3">
-        <v>377500</v>
+        <v>364400</v>
       </c>
       <c r="H21" s="3">
-        <v>364800</v>
+        <v>352100</v>
       </c>
       <c r="I21" s="3">
-        <v>350700</v>
+        <v>338500</v>
       </c>
       <c r="J21" s="3">
-        <v>322300</v>
+        <v>311200</v>
       </c>
       <c r="K21" s="3">
         <v>297700</v>
@@ -1281,25 +1281,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>287800</v>
+        <v>278200</v>
       </c>
       <c r="E23" s="3">
-        <v>359800</v>
+        <v>347700</v>
       </c>
       <c r="F23" s="3">
-        <v>273800</v>
+        <v>264600</v>
       </c>
       <c r="G23" s="3">
-        <v>268900</v>
+        <v>259900</v>
       </c>
       <c r="H23" s="3">
-        <v>255500</v>
+        <v>246900</v>
       </c>
       <c r="I23" s="3">
-        <v>254800</v>
+        <v>246300</v>
       </c>
       <c r="J23" s="3">
-        <v>245400</v>
+        <v>237200</v>
       </c>
       <c r="K23" s="3">
         <v>241300</v>
@@ -1323,25 +1323,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>88900</v>
+        <v>85900</v>
       </c>
       <c r="E24" s="3">
-        <v>101400</v>
+        <v>98000</v>
       </c>
       <c r="F24" s="3">
-        <v>92600</v>
+        <v>89500</v>
       </c>
       <c r="G24" s="3">
-        <v>77800</v>
+        <v>75200</v>
       </c>
       <c r="H24" s="3">
-        <v>61100</v>
+        <v>59000</v>
       </c>
       <c r="I24" s="3">
-        <v>78300</v>
+        <v>75700</v>
       </c>
       <c r="J24" s="3">
-        <v>76000</v>
+        <v>73500</v>
       </c>
       <c r="K24" s="3">
         <v>89300</v>
@@ -1407,25 +1407,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>198900</v>
+        <v>192200</v>
       </c>
       <c r="E26" s="3">
-        <v>258400</v>
+        <v>249800</v>
       </c>
       <c r="F26" s="3">
-        <v>181200</v>
+        <v>175100</v>
       </c>
       <c r="G26" s="3">
-        <v>191100</v>
+        <v>184700</v>
       </c>
       <c r="H26" s="3">
-        <v>194400</v>
+        <v>187900</v>
       </c>
       <c r="I26" s="3">
-        <v>176500</v>
+        <v>170600</v>
       </c>
       <c r="J26" s="3">
-        <v>169400</v>
+        <v>163700</v>
       </c>
       <c r="K26" s="3">
         <v>152000</v>
@@ -1449,25 +1449,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>205000</v>
+        <v>198200</v>
       </c>
       <c r="E27" s="3">
-        <v>263600</v>
+        <v>254800</v>
       </c>
       <c r="F27" s="3">
-        <v>184800</v>
+        <v>178600</v>
       </c>
       <c r="G27" s="3">
-        <v>192000</v>
+        <v>185600</v>
       </c>
       <c r="H27" s="3">
-        <v>194500</v>
+        <v>188000</v>
       </c>
       <c r="I27" s="3">
-        <v>176500</v>
+        <v>170600</v>
       </c>
       <c r="J27" s="3">
-        <v>169400</v>
+        <v>163700</v>
       </c>
       <c r="K27" s="3">
         <v>152000</v>
@@ -1659,25 +1659,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-70200</v>
+        <v>-67900</v>
       </c>
       <c r="E32" s="3">
-        <v>-61600</v>
+        <v>-59500</v>
       </c>
       <c r="F32" s="3">
-        <v>-4000</v>
+        <v>-3900</v>
       </c>
       <c r="G32" s="3">
-        <v>-10500</v>
+        <v>-10100</v>
       </c>
       <c r="H32" s="3">
-        <v>-11600</v>
+        <v>-11200</v>
       </c>
       <c r="I32" s="3">
-        <v>-4800</v>
+        <v>-4700</v>
       </c>
       <c r="J32" s="3">
-        <v>-11900</v>
+        <v>-11500</v>
       </c>
       <c r="K32" s="3">
         <v>-27000</v>
@@ -1701,25 +1701,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>205000</v>
+        <v>198200</v>
       </c>
       <c r="E33" s="3">
-        <v>263600</v>
+        <v>254800</v>
       </c>
       <c r="F33" s="3">
-        <v>184800</v>
+        <v>178600</v>
       </c>
       <c r="G33" s="3">
-        <v>192000</v>
+        <v>185600</v>
       </c>
       <c r="H33" s="3">
-        <v>194500</v>
+        <v>188000</v>
       </c>
       <c r="I33" s="3">
-        <v>176500</v>
+        <v>170600</v>
       </c>
       <c r="J33" s="3">
-        <v>169400</v>
+        <v>163700</v>
       </c>
       <c r="K33" s="3">
         <v>152000</v>
@@ -1785,25 +1785,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>205000</v>
+        <v>198200</v>
       </c>
       <c r="E35" s="3">
-        <v>263600</v>
+        <v>254800</v>
       </c>
       <c r="F35" s="3">
-        <v>184800</v>
+        <v>178600</v>
       </c>
       <c r="G35" s="3">
-        <v>192000</v>
+        <v>185600</v>
       </c>
       <c r="H35" s="3">
-        <v>194500</v>
+        <v>188000</v>
       </c>
       <c r="I35" s="3">
-        <v>176500</v>
+        <v>170600</v>
       </c>
       <c r="J35" s="3">
-        <v>169400</v>
+        <v>163700</v>
       </c>
       <c r="K35" s="3">
         <v>152000</v>
@@ -1910,25 +1910,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1315900</v>
+        <v>1271800</v>
       </c>
       <c r="E41" s="3">
-        <v>1358400</v>
+        <v>1312900</v>
       </c>
       <c r="F41" s="3">
-        <v>1069900</v>
+        <v>1034100</v>
       </c>
       <c r="G41" s="3">
-        <v>858600</v>
+        <v>829900</v>
       </c>
       <c r="H41" s="3">
-        <v>800300</v>
+        <v>773500</v>
       </c>
       <c r="I41" s="3">
-        <v>590100</v>
+        <v>570400</v>
       </c>
       <c r="J41" s="3">
-        <v>580600</v>
+        <v>561100</v>
       </c>
       <c r="K41" s="3">
         <v>523500</v>
@@ -1952,25 +1952,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>352500</v>
+        <v>340700</v>
       </c>
       <c r="E42" s="3">
-        <v>405800</v>
+        <v>392200</v>
       </c>
       <c r="F42" s="3">
-        <v>388300</v>
+        <v>375300</v>
       </c>
       <c r="G42" s="3">
-        <v>327100</v>
+        <v>316200</v>
       </c>
       <c r="H42" s="3">
-        <v>421100</v>
+        <v>407000</v>
       </c>
       <c r="I42" s="3">
-        <v>457100</v>
+        <v>441800</v>
       </c>
       <c r="J42" s="3">
-        <v>344600</v>
+        <v>333000</v>
       </c>
       <c r="K42" s="3">
         <v>509900</v>
@@ -1994,25 +1994,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>434900</v>
+        <v>420300</v>
       </c>
       <c r="E43" s="3">
-        <v>365500</v>
+        <v>353300</v>
       </c>
       <c r="F43" s="3">
-        <v>323000</v>
+        <v>312200</v>
       </c>
       <c r="G43" s="3">
-        <v>308700</v>
+        <v>298400</v>
       </c>
       <c r="H43" s="3">
-        <v>267800</v>
+        <v>258800</v>
       </c>
       <c r="I43" s="3">
-        <v>273300</v>
+        <v>264100</v>
       </c>
       <c r="J43" s="3">
-        <v>244200</v>
+        <v>236100</v>
       </c>
       <c r="K43" s="3">
         <v>212500</v>
@@ -2036,25 +2036,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>29200</v>
+        <v>28300</v>
       </c>
       <c r="E44" s="3">
-        <v>25400</v>
+        <v>24600</v>
       </c>
       <c r="F44" s="3">
-        <v>23400</v>
+        <v>22600</v>
       </c>
       <c r="G44" s="3">
-        <v>28200</v>
+        <v>27300</v>
       </c>
       <c r="H44" s="3">
-        <v>50500</v>
+        <v>48800</v>
       </c>
       <c r="I44" s="3">
-        <v>20500</v>
+        <v>19800</v>
       </c>
       <c r="J44" s="3">
-        <v>11800</v>
+        <v>11400</v>
       </c>
       <c r="K44" s="3">
         <v>5700</v>
@@ -2078,25 +2078,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>65500</v>
+        <v>63300</v>
       </c>
       <c r="E45" s="3">
-        <v>55200</v>
+        <v>53400</v>
       </c>
       <c r="F45" s="3">
-        <v>40900</v>
+        <v>39600</v>
       </c>
       <c r="G45" s="3">
-        <v>39200</v>
+        <v>37900</v>
       </c>
       <c r="H45" s="3">
-        <v>147500</v>
+        <v>142600</v>
       </c>
       <c r="I45" s="3">
-        <v>148400</v>
+        <v>143400</v>
       </c>
       <c r="J45" s="3">
-        <v>158700</v>
+        <v>153400</v>
       </c>
       <c r="K45" s="3">
         <v>176900</v>
@@ -2120,25 +2120,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>2197900</v>
+        <v>2124400</v>
       </c>
       <c r="E46" s="3">
-        <v>2210400</v>
+        <v>2136400</v>
       </c>
       <c r="F46" s="3">
-        <v>1845600</v>
+        <v>1783800</v>
       </c>
       <c r="G46" s="3">
-        <v>1561900</v>
+        <v>1509600</v>
       </c>
       <c r="H46" s="3">
-        <v>1551100</v>
+        <v>1499100</v>
       </c>
       <c r="I46" s="3">
-        <v>1489400</v>
+        <v>1439500</v>
       </c>
       <c r="J46" s="3">
-        <v>1339900</v>
+        <v>1295000</v>
       </c>
       <c r="K46" s="3">
         <v>1428500</v>
@@ -2162,25 +2162,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>511400</v>
+        <v>494300</v>
       </c>
       <c r="E47" s="3">
-        <v>182000</v>
+        <v>175900</v>
       </c>
       <c r="F47" s="3">
-        <v>248800</v>
+        <v>240500</v>
       </c>
       <c r="G47" s="3">
-        <v>343400</v>
+        <v>331900</v>
       </c>
       <c r="H47" s="3">
-        <v>307300</v>
+        <v>297000</v>
       </c>
       <c r="I47" s="3">
-        <v>359900</v>
+        <v>347900</v>
       </c>
       <c r="J47" s="3">
-        <v>348500</v>
+        <v>336800</v>
       </c>
       <c r="K47" s="3">
         <v>445300</v>
@@ -2204,25 +2204,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>48700</v>
+        <v>47100</v>
       </c>
       <c r="E48" s="3">
-        <v>54500</v>
+        <v>52700</v>
       </c>
       <c r="F48" s="3">
-        <v>54800</v>
+        <v>52900</v>
       </c>
       <c r="G48" s="3">
-        <v>67700</v>
+        <v>65500</v>
       </c>
       <c r="H48" s="3">
-        <v>60200</v>
+        <v>58200</v>
       </c>
       <c r="I48" s="3">
-        <v>56500</v>
+        <v>54600</v>
       </c>
       <c r="J48" s="3">
-        <v>45000</v>
+        <v>43500</v>
       </c>
       <c r="K48" s="3">
         <v>41000</v>
@@ -2246,25 +2246,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>166900</v>
+        <v>161300</v>
       </c>
       <c r="E49" s="3">
-        <v>174700</v>
+        <v>168900</v>
       </c>
       <c r="F49" s="3">
-        <v>178000</v>
+        <v>172000</v>
       </c>
       <c r="G49" s="3">
-        <v>248500</v>
+        <v>240200</v>
       </c>
       <c r="H49" s="3">
-        <v>241200</v>
+        <v>233100</v>
       </c>
       <c r="I49" s="3">
-        <v>276800</v>
+        <v>267600</v>
       </c>
       <c r="J49" s="3">
-        <v>292200</v>
+        <v>282400</v>
       </c>
       <c r="K49" s="3">
         <v>58200</v>
@@ -2372,25 +2372,25 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>309400</v>
+        <v>299100</v>
       </c>
       <c r="E52" s="3">
-        <v>266900</v>
+        <v>258000</v>
       </c>
       <c r="F52" s="3">
-        <v>260800</v>
+        <v>252000</v>
       </c>
       <c r="G52" s="3">
-        <v>249600</v>
+        <v>241300</v>
       </c>
       <c r="H52" s="3">
-        <v>218300</v>
+        <v>211000</v>
       </c>
       <c r="I52" s="3">
-        <v>92400</v>
+        <v>89300</v>
       </c>
       <c r="J52" s="3">
-        <v>94100</v>
+        <v>90900</v>
       </c>
       <c r="K52" s="3">
         <v>86700</v>
@@ -2456,25 +2456,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>3234400</v>
+        <v>3126100</v>
       </c>
       <c r="E54" s="3">
-        <v>2888500</v>
+        <v>2791800</v>
       </c>
       <c r="F54" s="3">
-        <v>2587900</v>
+        <v>2501300</v>
       </c>
       <c r="G54" s="3">
-        <v>2471200</v>
+        <v>2388500</v>
       </c>
       <c r="H54" s="3">
-        <v>2378100</v>
+        <v>2298500</v>
       </c>
       <c r="I54" s="3">
-        <v>2275000</v>
+        <v>2198900</v>
       </c>
       <c r="J54" s="3">
-        <v>2119600</v>
+        <v>2048700</v>
       </c>
       <c r="K54" s="3">
         <v>2059800</v>
@@ -2534,25 +2534,25 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>14900</v>
+        <v>14400</v>
       </c>
       <c r="E57" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F57" s="3">
+        <v>6100</v>
+      </c>
+      <c r="G57" s="3">
         <v>8000</v>
       </c>
-      <c r="F57" s="3">
-        <v>6300</v>
-      </c>
-      <c r="G57" s="3">
-        <v>8300</v>
-      </c>
       <c r="H57" s="3">
-        <v>11100</v>
+        <v>10800</v>
       </c>
       <c r="I57" s="3">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="J57" s="3">
-        <v>6100</v>
+        <v>5900</v>
       </c>
       <c r="K57" s="3">
         <v>4000</v>
@@ -2618,25 +2618,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>1581000</v>
+        <v>1528100</v>
       </c>
       <c r="E59" s="3">
-        <v>910000</v>
+        <v>879500</v>
       </c>
       <c r="F59" s="3">
-        <v>896900</v>
+        <v>866900</v>
       </c>
       <c r="G59" s="3">
-        <v>813100</v>
+        <v>785900</v>
       </c>
       <c r="H59" s="3">
-        <v>754600</v>
+        <v>729400</v>
       </c>
       <c r="I59" s="3">
-        <v>742200</v>
+        <v>717300</v>
       </c>
       <c r="J59" s="3">
-        <v>692500</v>
+        <v>669300</v>
       </c>
       <c r="K59" s="3">
         <v>666300</v>
@@ -2660,25 +2660,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>1595900</v>
+        <v>1542500</v>
       </c>
       <c r="E60" s="3">
-        <v>918000</v>
+        <v>887300</v>
       </c>
       <c r="F60" s="3">
-        <v>903200</v>
+        <v>872900</v>
       </c>
       <c r="G60" s="3">
-        <v>821400</v>
+        <v>793900</v>
       </c>
       <c r="H60" s="3">
-        <v>765800</v>
+        <v>740100</v>
       </c>
       <c r="I60" s="3">
-        <v>747200</v>
+        <v>722200</v>
       </c>
       <c r="J60" s="3">
-        <v>698600</v>
+        <v>675200</v>
       </c>
       <c r="K60" s="3">
         <v>670300</v>
@@ -2744,25 +2744,25 @@
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>67500</v>
+        <v>65200</v>
       </c>
       <c r="E62" s="3">
-        <v>449300</v>
+        <v>434200</v>
       </c>
       <c r="F62" s="3">
-        <v>383800</v>
+        <v>371000</v>
       </c>
       <c r="G62" s="3">
-        <v>362200</v>
+        <v>350100</v>
       </c>
       <c r="H62" s="3">
-        <v>327100</v>
+        <v>316200</v>
       </c>
       <c r="I62" s="3">
-        <v>311300</v>
+        <v>300900</v>
       </c>
       <c r="J62" s="3">
-        <v>277400</v>
+        <v>268100</v>
       </c>
       <c r="K62" s="3">
         <v>257300</v>
@@ -2912,25 +2912,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>1663500</v>
+        <v>1607800</v>
       </c>
       <c r="E66" s="3">
-        <v>1372700</v>
+        <v>1326800</v>
       </c>
       <c r="F66" s="3">
-        <v>1292700</v>
+        <v>1249400</v>
       </c>
       <c r="G66" s="3">
-        <v>1184600</v>
+        <v>1145000</v>
       </c>
       <c r="H66" s="3">
-        <v>1093400</v>
+        <v>1056800</v>
       </c>
       <c r="I66" s="3">
-        <v>1058600</v>
+        <v>1023100</v>
       </c>
       <c r="J66" s="3">
-        <v>976000</v>
+        <v>943300</v>
       </c>
       <c r="K66" s="3">
         <v>927600</v>
@@ -3140,25 +3140,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>1157700</v>
+        <v>1119000</v>
       </c>
       <c r="E72" s="3">
-        <v>1216400</v>
+        <v>1175700</v>
       </c>
       <c r="F72" s="3">
-        <v>1096800</v>
+        <v>1060100</v>
       </c>
       <c r="G72" s="3">
-        <v>1064100</v>
+        <v>1028500</v>
       </c>
       <c r="H72" s="3">
-        <v>1027900</v>
+        <v>993500</v>
       </c>
       <c r="I72" s="3">
-        <v>978700</v>
+        <v>945900</v>
       </c>
       <c r="J72" s="3">
-        <v>934700</v>
+        <v>903400</v>
       </c>
       <c r="K72" s="3">
         <v>897200</v>
@@ -3308,25 +3308,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>1570900</v>
+        <v>1518300</v>
       </c>
       <c r="E76" s="3">
-        <v>1515800</v>
+        <v>1465100</v>
       </c>
       <c r="F76" s="3">
-        <v>1295200</v>
+        <v>1251800</v>
       </c>
       <c r="G76" s="3">
-        <v>1286600</v>
+        <v>1243500</v>
       </c>
       <c r="H76" s="3">
-        <v>1284700</v>
+        <v>1241700</v>
       </c>
       <c r="I76" s="3">
-        <v>1216500</v>
+        <v>1175800</v>
       </c>
       <c r="J76" s="3">
-        <v>1143600</v>
+        <v>1105300</v>
       </c>
       <c r="K76" s="3">
         <v>1132200</v>
@@ -3439,25 +3439,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>205000</v>
+        <v>198200</v>
       </c>
       <c r="E81" s="3">
-        <v>263600</v>
+        <v>254800</v>
       </c>
       <c r="F81" s="3">
-        <v>184800</v>
+        <v>178600</v>
       </c>
       <c r="G81" s="3">
-        <v>192000</v>
+        <v>185600</v>
       </c>
       <c r="H81" s="3">
-        <v>194500</v>
+        <v>188000</v>
       </c>
       <c r="I81" s="3">
-        <v>176500</v>
+        <v>170600</v>
       </c>
       <c r="J81" s="3">
-        <v>169400</v>
+        <v>163700</v>
       </c>
       <c r="K81" s="3">
         <v>152000</v>
@@ -3499,25 +3499,25 @@
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>173000</v>
+        <v>167200</v>
       </c>
       <c r="E83" s="3">
-        <v>143500</v>
+        <v>138700</v>
       </c>
       <c r="F83" s="3">
-        <v>155800</v>
+        <v>150600</v>
       </c>
       <c r="G83" s="3">
-        <v>108700</v>
+        <v>105000</v>
       </c>
       <c r="H83" s="3">
-        <v>109300</v>
+        <v>105700</v>
       </c>
       <c r="I83" s="3">
-        <v>95800</v>
+        <v>92600</v>
       </c>
       <c r="J83" s="3">
-        <v>76900</v>
+        <v>74300</v>
       </c>
       <c r="K83" s="3">
         <v>58500</v>
@@ -3751,25 +3751,25 @@
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>386100</v>
+        <v>373200</v>
       </c>
       <c r="E89" s="3">
-        <v>379700</v>
+        <v>367000</v>
       </c>
       <c r="F89" s="3">
-        <v>373100</v>
+        <v>360600</v>
       </c>
       <c r="G89" s="3">
-        <v>309900</v>
+        <v>299500</v>
       </c>
       <c r="H89" s="3">
-        <v>343200</v>
+        <v>331700</v>
       </c>
       <c r="I89" s="3">
-        <v>322300</v>
+        <v>311500</v>
       </c>
       <c r="J89" s="3">
-        <v>230200</v>
+        <v>222500</v>
       </c>
       <c r="K89" s="3">
         <v>216200</v>
@@ -3811,25 +3811,25 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-9600</v>
+        <v>-9300</v>
       </c>
       <c r="E91" s="3">
-        <v>-14800</v>
+        <v>-14300</v>
       </c>
       <c r="F91" s="3">
-        <v>-10700</v>
+        <v>-10400</v>
       </c>
       <c r="G91" s="3">
-        <v>-27700</v>
+        <v>-26800</v>
       </c>
       <c r="H91" s="3">
-        <v>-24500</v>
+        <v>-23600</v>
       </c>
       <c r="I91" s="3">
-        <v>-31600</v>
+        <v>-30500</v>
       </c>
       <c r="J91" s="3">
-        <v>-20500</v>
+        <v>-19800</v>
       </c>
       <c r="K91" s="3">
         <v>-25000</v>
@@ -3937,25 +3937,25 @@
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-465200</v>
+        <v>-449600</v>
       </c>
       <c r="E94" s="3">
-        <v>17700</v>
+        <v>17100</v>
       </c>
       <c r="F94" s="3">
-        <v>-39700</v>
+        <v>-38400</v>
       </c>
       <c r="G94" s="3">
-        <v>-10100</v>
+        <v>-9800</v>
       </c>
       <c r="H94" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="I94" s="3">
-        <v>-232300</v>
+        <v>-224500</v>
       </c>
       <c r="J94" s="3">
-        <v>88800</v>
+        <v>85800</v>
       </c>
       <c r="K94" s="3">
         <v>-34900</v>
@@ -3997,25 +3997,25 @@
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-182300</v>
+        <v>-176200</v>
       </c>
       <c r="E96" s="3">
-        <v>-142700</v>
+        <v>-137900</v>
       </c>
       <c r="F96" s="3">
-        <v>-148900</v>
+        <v>-143900</v>
       </c>
       <c r="G96" s="3">
-        <v>-151100</v>
+        <v>-146000</v>
       </c>
       <c r="H96" s="3">
-        <v>-135900</v>
+        <v>-131400</v>
       </c>
       <c r="I96" s="3">
-        <v>-128300</v>
+        <v>-124000</v>
       </c>
       <c r="J96" s="3">
-        <v>-99600</v>
+        <v>-96200</v>
       </c>
       <c r="K96" s="3">
         <v>-105200</v>
@@ -4165,25 +4165,25 @@
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-209100</v>
+        <v>-202100</v>
       </c>
       <c r="E100" s="3">
-        <v>-113000</v>
+        <v>-109200</v>
       </c>
       <c r="F100" s="3">
-        <v>-145200</v>
+        <v>-140400</v>
       </c>
       <c r="G100" s="3">
-        <v>-178300</v>
+        <v>-172400</v>
       </c>
       <c r="H100" s="3">
-        <v>-90800</v>
+        <v>-87800</v>
       </c>
       <c r="I100" s="3">
-        <v>-116200</v>
+        <v>-112300</v>
       </c>
       <c r="J100" s="3">
-        <v>-103400</v>
+        <v>-99900</v>
       </c>
       <c r="K100" s="3">
         <v>-66100</v>
@@ -4207,22 +4207,22 @@
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>164200</v>
+        <v>158700</v>
       </c>
       <c r="E101" s="3">
-        <v>69500</v>
+        <v>67200</v>
       </c>
       <c r="F101" s="3">
-        <v>-9300</v>
+        <v>-9000</v>
       </c>
       <c r="G101" s="3">
-        <v>-8100</v>
+        <v>-7800</v>
       </c>
       <c r="H101" s="3">
-        <v>-30000</v>
+        <v>-29000</v>
       </c>
       <c r="I101" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="J101" s="3">
         <v>2100</v>
@@ -4249,25 +4249,25 @@
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-123900</v>
+        <v>-119800</v>
       </c>
       <c r="E102" s="3">
-        <v>353900</v>
+        <v>342100</v>
       </c>
       <c r="F102" s="3">
-        <v>178900</v>
+        <v>172900</v>
       </c>
       <c r="G102" s="3">
-        <v>113300</v>
+        <v>109600</v>
       </c>
       <c r="H102" s="3">
-        <v>228000</v>
+        <v>220400</v>
       </c>
       <c r="I102" s="3">
-        <v>-27000</v>
+        <v>-26100</v>
       </c>
       <c r="J102" s="3">
-        <v>217800</v>
+        <v>210500</v>
       </c>
       <c r="K102" s="3">
         <v>85200</v>
